--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="890">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.27 fix 3</t>
+    <t xml:space="preserve">EA 23.28</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>
@@ -1954,6 +1954,9 @@
   </si>
   <si>
     <t xml:space="preserve">EA 23.26 fix 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.27 fix 3</t>
   </si>
   <si>
     <t xml:space="preserve">도발</t>
@@ -2897,7 +2900,7 @@
         <v>617</v>
       </c>
       <c r="C3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -2906,7 +2909,7 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
@@ -2915,7 +2918,7 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
@@ -2924,7 +2927,7 @@
         <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
@@ -2935,7 +2938,7 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="S3" t="s">
         <v>30</v>
@@ -2952,7 +2955,7 @@
         <v>618</v>
       </c>
       <c r="C4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -2961,7 +2964,7 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -2970,7 +2973,7 @@
         <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
@@ -2979,7 +2982,7 @@
         <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -2990,7 +2993,7 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="S4" t="s">
         <v>39</v>
@@ -3007,7 +3010,7 @@
         <v>619</v>
       </c>
       <c r="C5" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3016,7 +3019,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -3025,7 +3028,7 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
@@ -3034,7 +3037,7 @@
         <v>47</v>
       </c>
       <c r="L5" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M5" t="s">
         <v>48</v>
@@ -3043,7 +3046,7 @@
         <v>49</v>
       </c>
       <c r="O5" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="P5" t="s">
         <v>50</v>
@@ -3052,7 +3055,7 @@
         <v>51</v>
       </c>
       <c r="R5" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="S5" t="s">
         <v>52</v>
@@ -3069,7 +3072,7 @@
         <v>620</v>
       </c>
       <c r="C6" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D6" t="s">
         <v>55</v>
@@ -3078,7 +3081,7 @@
         <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G6" t="s">
         <v>57</v>
@@ -3087,7 +3090,7 @@
         <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="J6" t="s">
         <v>59</v>
@@ -3096,7 +3099,7 @@
         <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M6" t="s">
         <v>61</v>
@@ -3105,7 +3108,7 @@
         <v>62</v>
       </c>
       <c r="O6" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="P6" t="s">
         <v>63</v>
@@ -3124,7 +3127,7 @@
         <v>619</v>
       </c>
       <c r="C7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D7" t="s">
         <v>66</v>
@@ -3133,7 +3136,7 @@
         <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G7" t="s">
         <v>68</v>
@@ -3142,7 +3145,7 @@
         <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J7" t="s">
         <v>66</v>
@@ -3151,7 +3154,7 @@
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="M7" t="s">
         <v>70</v>
@@ -3162,7 +3165,7 @@
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="S7" t="s">
         <v>72</v>
@@ -3179,7 +3182,7 @@
         <v>619</v>
       </c>
       <c r="C8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D8" t="s">
         <v>75</v>
@@ -3188,7 +3191,7 @@
         <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G8" t="s">
         <v>77</v>
@@ -3197,7 +3200,7 @@
         <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="J8" t="s">
         <v>75</v>
@@ -3206,7 +3209,7 @@
         <v>76</v>
       </c>
       <c r="L8" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="M8" t="s">
         <v>79</v>
@@ -3217,7 +3220,7 @@
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="S8" t="s">
         <v>81</v>
@@ -3234,7 +3237,7 @@
         <v>619</v>
       </c>
       <c r="C9" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D9" t="s">
         <v>84</v>
@@ -3243,7 +3246,7 @@
         <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G9" t="s">
         <v>86</v>
@@ -3252,7 +3255,7 @@
         <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J9" t="s">
         <v>88</v>
@@ -3261,7 +3264,7 @@
         <v>85</v>
       </c>
       <c r="L9" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="M9" t="s">
         <v>89</v>
@@ -3272,7 +3275,7 @@
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="S9" t="s">
         <v>91</v>
@@ -3289,7 +3292,7 @@
         <v>619</v>
       </c>
       <c r="C10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D10" t="s">
         <v>94</v>
@@ -3298,7 +3301,7 @@
         <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G10" t="s">
         <v>96</v>
@@ -3307,7 +3310,7 @@
         <v>97</v>
       </c>
       <c r="I10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="J10" t="s">
         <v>98</v>
@@ -3316,7 +3319,7 @@
         <v>95</v>
       </c>
       <c r="L10" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="M10" t="s">
         <v>99</v>
@@ -3327,7 +3330,7 @@
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="S10" t="s">
         <v>101</v>
@@ -3344,7 +3347,7 @@
         <v>621</v>
       </c>
       <c r="C11" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D11" t="s">
         <v>104</v>
@@ -3353,7 +3356,7 @@
         <v>105</v>
       </c>
       <c r="F11" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G11" t="s">
         <v>106</v>
@@ -3362,7 +3365,7 @@
         <v>107</v>
       </c>
       <c r="I11" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="J11" t="s">
         <v>108</v>
@@ -3371,7 +3374,7 @@
         <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="M11" t="s">
         <v>109</v>
@@ -3382,7 +3385,7 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="S11" t="s">
         <v>111</v>
@@ -3399,7 +3402,7 @@
         <v>619</v>
       </c>
       <c r="C12" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D12" t="s">
         <v>114</v>
@@ -3408,7 +3411,7 @@
         <v>115</v>
       </c>
       <c r="F12" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G12" t="s">
         <v>96</v>
@@ -3417,7 +3420,7 @@
         <v>97</v>
       </c>
       <c r="I12" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="J12" t="s">
         <v>116</v>
@@ -3426,7 +3429,7 @@
         <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="M12" t="s">
         <v>117</v>
@@ -3437,7 +3440,7 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="S12" t="s">
         <v>119</v>
@@ -3454,7 +3457,7 @@
         <v>619</v>
       </c>
       <c r="C13" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D13" t="s">
         <v>122</v>
@@ -3463,7 +3466,7 @@
         <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G13" t="s">
         <v>124</v>
@@ -3472,7 +3475,7 @@
         <v>125</v>
       </c>
       <c r="I13" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="J13" t="s">
         <v>126</v>
@@ -3481,7 +3484,7 @@
         <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="M13" t="s">
         <v>127</v>
@@ -3492,7 +3495,7 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="S13" t="s">
         <v>129</v>
@@ -3509,7 +3512,7 @@
         <v>619</v>
       </c>
       <c r="C14" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D14" t="s">
         <v>132</v>
@@ -3518,7 +3521,7 @@
         <v>133</v>
       </c>
       <c r="F14" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G14" t="s">
         <v>134</v>
@@ -3527,7 +3530,7 @@
         <v>135</v>
       </c>
       <c r="I14" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J14" t="s">
         <v>132</v>
@@ -3536,7 +3539,7 @@
         <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="M14" t="s">
         <v>136</v>
@@ -3547,7 +3550,7 @@
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="S14" t="s">
         <v>138</v>
@@ -3564,7 +3567,7 @@
         <v>619</v>
       </c>
       <c r="C15" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D15" t="s">
         <v>141</v>
@@ -3573,7 +3576,7 @@
         <v>142</v>
       </c>
       <c r="F15" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G15" t="s">
         <v>143</v>
@@ -3582,7 +3585,7 @@
         <v>144</v>
       </c>
       <c r="I15" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="J15" t="s">
         <v>145</v>
@@ -3591,7 +3594,7 @@
         <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="M15" t="s">
         <v>147</v>
@@ -3602,7 +3605,7 @@
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="S15" t="s">
         <v>149</v>
@@ -3619,7 +3622,7 @@
         <v>619</v>
       </c>
       <c r="C16" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D16" t="s">
         <v>152</v>
@@ -3628,7 +3631,7 @@
         <v>153</v>
       </c>
       <c r="F16" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G16" t="s">
         <v>154</v>
@@ -3637,7 +3640,7 @@
         <v>155</v>
       </c>
       <c r="I16" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="J16" t="s">
         <v>156</v>
@@ -3646,7 +3649,7 @@
         <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="M16" t="s">
         <v>158</v>
@@ -3657,7 +3660,7 @@
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="S16" t="s">
         <v>160</v>
@@ -3674,7 +3677,7 @@
         <v>619</v>
       </c>
       <c r="C17" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D17" t="s">
         <v>163</v>
@@ -3683,7 +3686,7 @@
         <v>164</v>
       </c>
       <c r="F17" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G17" t="s">
         <v>165</v>
@@ -3692,7 +3695,7 @@
         <v>166</v>
       </c>
       <c r="I17" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="J17" t="s">
         <v>167</v>
@@ -3701,7 +3704,7 @@
         <v>168</v>
       </c>
       <c r="L17" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="M17" t="s">
         <v>169</v>
@@ -3712,7 +3715,7 @@
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="S17" t="s">
         <v>171</v>
@@ -3729,7 +3732,7 @@
         <v>622</v>
       </c>
       <c r="C18" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D18" t="s">
         <v>174</v>
@@ -3738,7 +3741,7 @@
         <v>175</v>
       </c>
       <c r="F18" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G18" t="s">
         <v>176</v>
@@ -3747,7 +3750,7 @@
         <v>177</v>
       </c>
       <c r="I18" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="J18" t="s">
         <v>178</v>
@@ -3756,7 +3759,7 @@
         <v>179</v>
       </c>
       <c r="L18" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M18" t="s">
         <v>180</v>
@@ -3767,7 +3770,7 @@
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="S18" t="s">
         <v>182</v>
@@ -3784,7 +3787,7 @@
         <v>617</v>
       </c>
       <c r="C19" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D19" t="s">
         <v>185</v>
@@ -3793,7 +3796,7 @@
         <v>186</v>
       </c>
       <c r="F19" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G19" t="s">
         <v>187</v>
@@ -3802,7 +3805,7 @@
         <v>188</v>
       </c>
       <c r="I19" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="J19" t="s">
         <v>189</v>
@@ -3811,7 +3814,7 @@
         <v>190</v>
       </c>
       <c r="L19" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="M19" t="s">
         <v>191</v>
@@ -3822,7 +3825,7 @@
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="S19" t="s">
         <v>193</v>
@@ -3839,7 +3842,7 @@
         <v>619</v>
       </c>
       <c r="C20" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D20" t="s">
         <v>196</v>
@@ -3848,7 +3851,7 @@
         <v>197</v>
       </c>
       <c r="F20" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G20" t="s">
         <v>198</v>
@@ -3857,7 +3860,7 @@
         <v>199</v>
       </c>
       <c r="I20" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="J20" t="s">
         <v>196</v>
@@ -3866,7 +3869,7 @@
         <v>197</v>
       </c>
       <c r="L20" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="M20" t="s">
         <v>200</v>
@@ -3877,7 +3880,7 @@
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="S20" t="s">
         <v>202</v>
@@ -3894,7 +3897,7 @@
         <v>623</v>
       </c>
       <c r="C21" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D21" t="s">
         <v>205</v>
@@ -3903,7 +3906,7 @@
         <v>206</v>
       </c>
       <c r="F21" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G21" t="s">
         <v>207</v>
@@ -3912,7 +3915,7 @@
         <v>208</v>
       </c>
       <c r="I21" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="J21" t="s">
         <v>205</v>
@@ -3921,7 +3924,7 @@
         <v>206</v>
       </c>
       <c r="L21" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="M21" t="s">
         <v>209</v>
@@ -3942,7 +3945,7 @@
         <v>617</v>
       </c>
       <c r="C22" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D22" t="s">
         <v>212</v>
@@ -3951,7 +3954,7 @@
         <v>213</v>
       </c>
       <c r="F22" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G22" t="s">
         <v>214</v>
@@ -3960,7 +3963,7 @@
         <v>215</v>
       </c>
       <c r="I22" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J22" t="s">
         <v>212</v>
@@ -3969,7 +3972,7 @@
         <v>213</v>
       </c>
       <c r="L22" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="M22" t="s">
         <v>216</v>
@@ -3980,7 +3983,7 @@
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="S22" t="s">
         <v>218</v>
@@ -3997,7 +4000,7 @@
         <v>624</v>
       </c>
       <c r="C23" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D23" t="s">
         <v>221</v>
@@ -4006,7 +4009,7 @@
         <v>222</v>
       </c>
       <c r="F23" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G23" t="s">
         <v>223</v>
@@ -4015,7 +4018,7 @@
         <v>224</v>
       </c>
       <c r="I23" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J23" t="s">
         <v>221</v>
@@ -4024,7 +4027,7 @@
         <v>222</v>
       </c>
       <c r="L23" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="M23" t="s">
         <v>225</v>
@@ -4035,7 +4038,7 @@
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="S23" t="s">
         <v>227</v>
@@ -4052,7 +4055,7 @@
         <v>624</v>
       </c>
       <c r="C24" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D24" t="s">
         <v>230</v>
@@ -4061,7 +4064,7 @@
         <v>231</v>
       </c>
       <c r="F24" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G24" t="s">
         <v>232</v>
@@ -4070,7 +4073,7 @@
         <v>233</v>
       </c>
       <c r="I24" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J24" t="s">
         <v>230</v>
@@ -4079,7 +4082,7 @@
         <v>231</v>
       </c>
       <c r="L24" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="M24" t="s">
         <v>234</v>
@@ -4090,7 +4093,7 @@
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="S24" t="s">
         <v>236</v>
@@ -4107,7 +4110,7 @@
         <v>624</v>
       </c>
       <c r="C25" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D25" t="s">
         <v>239</v>
@@ -4116,7 +4119,7 @@
         <v>240</v>
       </c>
       <c r="F25" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G25" t="s">
         <v>241</v>
@@ -4125,7 +4128,7 @@
         <v>242</v>
       </c>
       <c r="I25" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J25" t="s">
         <v>239</v>
@@ -4134,7 +4137,7 @@
         <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="M25" t="s">
         <v>243</v>
@@ -4145,7 +4148,7 @@
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="S25" t="s">
         <v>245</v>
@@ -4162,7 +4165,7 @@
         <v>624</v>
       </c>
       <c r="C26" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D26" t="s">
         <v>248</v>
@@ -4171,7 +4174,7 @@
         <v>249</v>
       </c>
       <c r="F26" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G26" t="s">
         <v>250</v>
@@ -4180,7 +4183,7 @@
         <v>251</v>
       </c>
       <c r="I26" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J26" t="s">
         <v>248</v>
@@ -4189,7 +4192,7 @@
         <v>249</v>
       </c>
       <c r="L26" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="M26" t="s">
         <v>252</v>
@@ -4200,7 +4203,7 @@
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="S26" t="s">
         <v>254</v>
@@ -4217,7 +4220,7 @@
         <v>619</v>
       </c>
       <c r="C27" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D27" t="s">
         <v>257</v>
@@ -4226,7 +4229,7 @@
         <v>258</v>
       </c>
       <c r="F27" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G27" t="s">
         <v>259</v>
@@ -4235,7 +4238,7 @@
         <v>260</v>
       </c>
       <c r="I27" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="J27" t="s">
         <v>261</v>
@@ -4244,7 +4247,7 @@
         <v>262</v>
       </c>
       <c r="L27" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="M27" t="s">
         <v>263</v>
@@ -4255,7 +4258,7 @@
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="S27" t="s">
         <v>265</v>
@@ -4272,7 +4275,7 @@
         <v>619</v>
       </c>
       <c r="C28" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D28" t="s">
         <v>268</v>
@@ -4281,7 +4284,7 @@
         <v>269</v>
       </c>
       <c r="F28" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G28" t="s">
         <v>270</v>
@@ -4290,7 +4293,7 @@
         <v>271</v>
       </c>
       <c r="I28" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="J28" t="s">
         <v>268</v>
@@ -4299,7 +4302,7 @@
         <v>269</v>
       </c>
       <c r="L28" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="M28" t="s">
         <v>272</v>
@@ -4310,7 +4313,7 @@
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="S28" t="s">
         <v>274</v>
@@ -4327,7 +4330,7 @@
         <v>624</v>
       </c>
       <c r="C29" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D29" t="s">
         <v>277</v>
@@ -4336,7 +4339,7 @@
         <v>278</v>
       </c>
       <c r="F29" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G29" t="s">
         <v>270</v>
@@ -4345,7 +4348,7 @@
         <v>271</v>
       </c>
       <c r="I29" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="J29" t="s">
         <v>277</v>
@@ -4354,7 +4357,7 @@
         <v>278</v>
       </c>
       <c r="L29" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="M29" t="s">
         <v>279</v>
@@ -4365,7 +4368,7 @@
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="S29" t="s">
         <v>281</v>
@@ -4382,7 +4385,7 @@
         <v>625</v>
       </c>
       <c r="C30" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D30" t="s">
         <v>284</v>
@@ -4391,7 +4394,7 @@
         <v>285</v>
       </c>
       <c r="F30" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G30" t="s">
         <v>286</v>
@@ -4400,7 +4403,7 @@
         <v>287</v>
       </c>
       <c r="I30" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="J30" t="s">
         <v>288</v>
@@ -4409,7 +4412,7 @@
         <v>285</v>
       </c>
       <c r="L30" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="M30" t="s">
         <v>289</v>
@@ -4420,7 +4423,7 @@
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="S30" t="s">
         <v>291</v>
@@ -4437,7 +4440,7 @@
         <v>625</v>
       </c>
       <c r="C31" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D31" t="s">
         <v>294</v>
@@ -4446,7 +4449,7 @@
         <v>295</v>
       </c>
       <c r="F31" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G31" t="s">
         <v>286</v>
@@ -4455,7 +4458,7 @@
         <v>287</v>
       </c>
       <c r="I31" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J31" t="s">
         <v>296</v>
@@ -4464,7 +4467,7 @@
         <v>295</v>
       </c>
       <c r="L31" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="M31" t="s">
         <v>297</v>
@@ -4475,7 +4478,7 @@
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="S31" t="s">
         <v>299</v>
@@ -4492,7 +4495,7 @@
         <v>626</v>
       </c>
       <c r="C32" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D32" t="s">
         <v>302</v>
@@ -4501,7 +4504,7 @@
         <v>303</v>
       </c>
       <c r="F32" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G32" t="s">
         <v>304</v>
@@ -4510,7 +4513,7 @@
         <v>305</v>
       </c>
       <c r="I32" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="J32" t="s">
         <v>302</v>
@@ -4533,7 +4536,7 @@
         <v>627</v>
       </c>
       <c r="C33" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D33" t="s">
         <v>307</v>
@@ -4542,7 +4545,7 @@
         <v>308</v>
       </c>
       <c r="F33" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G33" t="s">
         <v>309</v>
@@ -4551,7 +4554,7 @@
         <v>310</v>
       </c>
       <c r="I33" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="J33" t="s">
         <v>307</v>
@@ -4574,7 +4577,7 @@
         <v>628</v>
       </c>
       <c r="C34" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D34" t="s">
         <v>312</v>
@@ -4583,7 +4586,7 @@
         <v>313</v>
       </c>
       <c r="F34" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G34" t="s">
         <v>314</v>
@@ -4592,7 +4595,7 @@
         <v>315</v>
       </c>
       <c r="I34" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="J34" t="s">
         <v>312</v>
@@ -4601,7 +4604,7 @@
         <v>313</v>
       </c>
       <c r="L34" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="M34" t="s">
         <v>316</v>
@@ -4612,7 +4615,7 @@
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="S34" t="s">
         <v>318</v>
@@ -4629,7 +4632,7 @@
         <v>619</v>
       </c>
       <c r="C35" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D35" t="s">
         <v>321</v>
@@ -4638,7 +4641,7 @@
         <v>322</v>
       </c>
       <c r="F35" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G35" t="s">
         <v>323</v>
@@ -4647,7 +4650,7 @@
         <v>324</v>
       </c>
       <c r="I35" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="J35" t="s">
         <v>325</v>
@@ -4656,7 +4659,7 @@
         <v>322</v>
       </c>
       <c r="L35" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="M35" t="s">
         <v>326</v>
@@ -4667,7 +4670,7 @@
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="S35" t="s">
         <v>328</v>
@@ -4684,7 +4687,7 @@
         <v>619</v>
       </c>
       <c r="C36" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D36" t="s">
         <v>331</v>
@@ -4693,7 +4696,7 @@
         <v>332</v>
       </c>
       <c r="F36" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G36" t="s">
         <v>333</v>
@@ -4702,7 +4705,7 @@
         <v>334</v>
       </c>
       <c r="I36" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="J36" t="s">
         <v>331</v>
@@ -4711,7 +4714,7 @@
         <v>332</v>
       </c>
       <c r="L36" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="M36" t="s">
         <v>335</v>
@@ -4722,7 +4725,7 @@
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="S36" t="s">
         <v>274</v>
@@ -4739,7 +4742,7 @@
         <v>619</v>
       </c>
       <c r="C37" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D37" t="s">
         <v>338</v>
@@ -4748,7 +4751,7 @@
         <v>339</v>
       </c>
       <c r="F37" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G37" t="s">
         <v>340</v>
@@ -4757,7 +4760,7 @@
         <v>341</v>
       </c>
       <c r="I37" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="J37" t="s">
         <v>338</v>
@@ -4766,7 +4769,7 @@
         <v>339</v>
       </c>
       <c r="L37" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="M37" t="s">
         <v>342</v>
@@ -4777,7 +4780,7 @@
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="S37" t="s">
         <v>344</v>
@@ -4794,7 +4797,7 @@
         <v>617</v>
       </c>
       <c r="C38" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D38" t="s">
         <v>347</v>
@@ -4803,7 +4806,7 @@
         <v>348</v>
       </c>
       <c r="F38" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G38" t="s">
         <v>349</v>
@@ -4812,7 +4815,7 @@
         <v>350</v>
       </c>
       <c r="I38" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="J38" t="s">
         <v>347</v>
@@ -4821,7 +4824,7 @@
         <v>348</v>
       </c>
       <c r="L38" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="M38" t="s">
         <v>351</v>
@@ -4842,7 +4845,7 @@
         <v>629</v>
       </c>
       <c r="C39" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D39" t="s">
         <v>354</v>
@@ -4851,7 +4854,7 @@
         <v>355</v>
       </c>
       <c r="F39" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G39" t="s">
         <v>356</v>
@@ -4860,7 +4863,7 @@
         <v>357</v>
       </c>
       <c r="I39" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J39" t="s">
         <v>354</v>
@@ -4869,7 +4872,7 @@
         <v>355</v>
       </c>
       <c r="L39" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M39" t="s">
         <v>358</v>
@@ -4880,7 +4883,7 @@
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="S39" t="s">
         <v>360</v>
@@ -4897,7 +4900,7 @@
         <v>629</v>
       </c>
       <c r="C40" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D40" t="s">
         <v>363</v>
@@ -4906,7 +4909,7 @@
         <v>364</v>
       </c>
       <c r="F40" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G40" t="s">
         <v>365</v>
@@ -4915,7 +4918,7 @@
         <v>366</v>
       </c>
       <c r="I40" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="J40" t="s">
         <v>363</v>
@@ -4924,7 +4927,7 @@
         <v>364</v>
       </c>
       <c r="L40" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="M40" t="s">
         <v>367</v>
@@ -4935,7 +4938,7 @@
       <c r="P40"/>
       <c r="Q40"/>
       <c r="R40" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="S40" t="s">
         <v>360</v>
@@ -4952,7 +4955,7 @@
         <v>629</v>
       </c>
       <c r="C41" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D41" t="s">
         <v>370</v>
@@ -4961,7 +4964,7 @@
         <v>371</v>
       </c>
       <c r="F41" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G41" t="s">
         <v>365</v>
@@ -4970,7 +4973,7 @@
         <v>366</v>
       </c>
       <c r="I41" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J41" t="s">
         <v>370</v>
@@ -4979,7 +4982,7 @@
         <v>371</v>
       </c>
       <c r="L41" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="M41" t="s">
         <v>367</v>
@@ -4990,7 +4993,7 @@
       <c r="P41"/>
       <c r="Q41"/>
       <c r="R41" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="S41" t="s">
         <v>360</v>
@@ -5007,7 +5010,7 @@
         <v>624</v>
       </c>
       <c r="C42" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D42" t="s">
         <v>373</v>
@@ -5016,7 +5019,7 @@
         <v>374</v>
       </c>
       <c r="F42" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G42" t="s">
         <v>375</v>
@@ -5025,7 +5028,7 @@
         <v>376</v>
       </c>
       <c r="I42" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J42" t="s">
         <v>373</v>
@@ -5034,7 +5037,7 @@
         <v>374</v>
       </c>
       <c r="L42" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M42" t="s">
         <v>377</v>
@@ -5055,7 +5058,7 @@
         <v>619</v>
       </c>
       <c r="C43" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D43" t="s">
         <v>380</v>
@@ -5064,7 +5067,7 @@
         <v>381</v>
       </c>
       <c r="F43" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G43" t="s">
         <v>382</v>
@@ -5073,7 +5076,7 @@
         <v>383</v>
       </c>
       <c r="I43" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J43" t="s">
         <v>380</v>
@@ -5082,7 +5085,7 @@
         <v>381</v>
       </c>
       <c r="L43" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="M43" t="s">
         <v>384</v>
@@ -5093,7 +5096,7 @@
       <c r="P43"/>
       <c r="Q43"/>
       <c r="R43" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="S43" t="s">
         <v>386</v>
@@ -5110,7 +5113,7 @@
         <v>624</v>
       </c>
       <c r="C44" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D44" t="s">
         <v>389</v>
@@ -5119,7 +5122,7 @@
         <v>390</v>
       </c>
       <c r="F44" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G44" t="s">
         <v>391</v>
@@ -5128,7 +5131,7 @@
         <v>392</v>
       </c>
       <c r="I44" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="J44" t="s">
         <v>389</v>
@@ -5137,7 +5140,7 @@
         <v>390</v>
       </c>
       <c r="L44" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="M44" t="s">
         <v>393</v>
@@ -5158,7 +5161,7 @@
         <v>624</v>
       </c>
       <c r="C45" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D45" t="s">
         <v>396</v>
@@ -5167,7 +5170,7 @@
         <v>397</v>
       </c>
       <c r="F45" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G45" t="s">
         <v>398</v>
@@ -5176,7 +5179,7 @@
         <v>399</v>
       </c>
       <c r="I45" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="J45" t="s">
         <v>396</v>
@@ -5185,7 +5188,7 @@
         <v>397</v>
       </c>
       <c r="L45" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="M45" t="s">
         <v>400</v>
@@ -5206,7 +5209,7 @@
         <v>630</v>
       </c>
       <c r="C46" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D46" t="s">
         <v>403</v>
@@ -5215,7 +5218,7 @@
         <v>404</v>
       </c>
       <c r="F46" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G46" t="s">
         <v>405</v>
@@ -5224,7 +5227,7 @@
         <v>406</v>
       </c>
       <c r="I46" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="J46" t="s">
         <v>403</v>
@@ -5233,7 +5236,7 @@
         <v>404</v>
       </c>
       <c r="L46" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="M46" t="s">
         <v>407</v>
@@ -5254,7 +5257,7 @@
         <v>629</v>
       </c>
       <c r="C47" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D47" t="s">
         <v>410</v>
@@ -5263,7 +5266,7 @@
         <v>411</v>
       </c>
       <c r="F47" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G47" t="s">
         <v>412</v>
@@ -5272,7 +5275,7 @@
         <v>413</v>
       </c>
       <c r="I47" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J47" t="s">
         <v>410</v>
@@ -5281,7 +5284,7 @@
         <v>411</v>
       </c>
       <c r="L47" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="M47" t="s">
         <v>414</v>
@@ -5292,7 +5295,7 @@
       <c r="P47"/>
       <c r="Q47"/>
       <c r="R47" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="S47" t="s">
         <v>416</v>
@@ -5309,7 +5312,7 @@
         <v>624</v>
       </c>
       <c r="C48" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D48" t="s">
         <v>419</v>
@@ -5318,7 +5321,7 @@
         <v>420</v>
       </c>
       <c r="F48" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G48" t="s">
         <v>421</v>
@@ -5327,7 +5330,7 @@
         <v>422</v>
       </c>
       <c r="I48" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="J48" t="s">
         <v>419</v>
@@ -5336,7 +5339,7 @@
         <v>420</v>
       </c>
       <c r="L48" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="M48" t="s">
         <v>423</v>
@@ -5357,7 +5360,7 @@
         <v>619</v>
       </c>
       <c r="C49" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D49" t="s">
         <v>426</v>
@@ -5366,7 +5369,7 @@
         <v>427</v>
       </c>
       <c r="F49" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G49" t="s">
         <v>428</v>
@@ -5375,7 +5378,7 @@
         <v>429</v>
       </c>
       <c r="I49" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="J49" t="s">
         <v>430</v>
@@ -5384,7 +5387,7 @@
         <v>431</v>
       </c>
       <c r="L49" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="M49" t="s">
         <v>432</v>
@@ -5395,7 +5398,7 @@
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="S49" t="s">
         <v>434</v>
@@ -5412,7 +5415,7 @@
         <v>619</v>
       </c>
       <c r="C50" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D50" t="s">
         <v>437</v>
@@ -5421,7 +5424,7 @@
         <v>438</v>
       </c>
       <c r="F50" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G50" t="s">
         <v>439</v>
@@ -5430,7 +5433,7 @@
         <v>440</v>
       </c>
       <c r="I50" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="J50" t="s">
         <v>441</v>
@@ -5439,7 +5442,7 @@
         <v>442</v>
       </c>
       <c r="L50" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="M50" t="s">
         <v>443</v>
@@ -5450,7 +5453,7 @@
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="S50" t="s">
         <v>445</v>
@@ -5467,7 +5470,7 @@
         <v>619</v>
       </c>
       <c r="C51" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D51" t="s">
         <v>448</v>
@@ -5476,7 +5479,7 @@
         <v>449</v>
       </c>
       <c r="F51" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G51" t="s">
         <v>450</v>
@@ -5485,7 +5488,7 @@
         <v>451</v>
       </c>
       <c r="I51" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="J51" t="s">
         <v>448</v>
@@ -5494,7 +5497,7 @@
         <v>449</v>
       </c>
       <c r="L51" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="M51" t="s">
         <v>452</v>
@@ -5505,7 +5508,7 @@
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="S51" t="s">
         <v>454</v>
@@ -5522,7 +5525,7 @@
         <v>619</v>
       </c>
       <c r="C52" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D52" t="s">
         <v>457</v>
@@ -5533,7 +5536,7 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="J52" t="s">
         <v>457</v>
@@ -5556,7 +5559,7 @@
         <v>619</v>
       </c>
       <c r="C53" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D53" t="s">
         <v>460</v>
@@ -5565,7 +5568,7 @@
         <v>461</v>
       </c>
       <c r="F53" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G53" t="s">
         <v>462</v>
@@ -5574,7 +5577,7 @@
         <v>463</v>
       </c>
       <c r="I53" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="J53" t="s">
         <v>460</v>
@@ -5583,7 +5586,7 @@
         <v>461</v>
       </c>
       <c r="L53" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="M53" t="s">
         <v>464</v>
@@ -5594,7 +5597,7 @@
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="S53" t="s">
         <v>466</v>
@@ -5611,7 +5614,7 @@
         <v>631</v>
       </c>
       <c r="C54" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D54" t="s">
         <v>469</v>
@@ -5620,7 +5623,7 @@
         <v>470</v>
       </c>
       <c r="F54" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G54" t="s">
         <v>471</v>
@@ -5629,7 +5632,7 @@
         <v>472</v>
       </c>
       <c r="I54" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="J54" t="s">
         <v>473</v>
@@ -5638,7 +5641,7 @@
         <v>474</v>
       </c>
       <c r="L54" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="M54" t="s">
         <v>475</v>
@@ -5649,7 +5652,7 @@
       <c r="P54"/>
       <c r="Q54"/>
       <c r="R54" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="S54" t="s">
         <v>477</v>
@@ -5666,7 +5669,7 @@
         <v>619</v>
       </c>
       <c r="C55" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D55" t="s">
         <v>480</v>
@@ -5675,7 +5678,7 @@
         <v>481</v>
       </c>
       <c r="F55" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G55" t="s">
         <v>482</v>
@@ -5684,7 +5687,7 @@
         <v>483</v>
       </c>
       <c r="I55" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="J55" t="s">
         <v>484</v>
@@ -5707,7 +5710,7 @@
         <v>619</v>
       </c>
       <c r="C56" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D56" t="s">
         <v>486</v>
@@ -5716,7 +5719,7 @@
         <v>487</v>
       </c>
       <c r="F56" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G56" t="s">
         <v>488</v>
@@ -5725,7 +5728,7 @@
         <v>489</v>
       </c>
       <c r="I56" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="J56" t="s">
         <v>486</v>
@@ -5734,7 +5737,7 @@
         <v>487</v>
       </c>
       <c r="L56" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="M56" t="s">
         <v>490</v>
@@ -5745,7 +5748,7 @@
       <c r="P56"/>
       <c r="Q56"/>
       <c r="R56" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="S56" t="s">
         <v>492</v>
@@ -5762,7 +5765,7 @@
         <v>632</v>
       </c>
       <c r="C57" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D57" t="s">
         <v>495</v>
@@ -5771,7 +5774,7 @@
         <v>496</v>
       </c>
       <c r="F57" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G57" t="s">
         <v>497</v>
@@ -5780,7 +5783,7 @@
         <v>498</v>
       </c>
       <c r="I57" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="J57" t="s">
         <v>499</v>
@@ -5789,7 +5792,7 @@
         <v>500</v>
       </c>
       <c r="L57" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M57" t="s">
         <v>501</v>
@@ -5800,7 +5803,7 @@
       <c r="P57"/>
       <c r="Q57"/>
       <c r="R57" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="S57" t="s">
         <v>503</v>
@@ -5817,7 +5820,7 @@
         <v>619</v>
       </c>
       <c r="C58" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D58" t="s">
         <v>506</v>
@@ -5826,7 +5829,7 @@
         <v>507</v>
       </c>
       <c r="F58" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G58" t="s">
         <v>508</v>
@@ -5835,7 +5838,7 @@
         <v>509</v>
       </c>
       <c r="I58" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="J58" t="s">
         <v>510</v>
@@ -5844,7 +5847,7 @@
         <v>511</v>
       </c>
       <c r="L58" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M58" t="s">
         <v>512</v>
@@ -5853,7 +5856,7 @@
         <v>513</v>
       </c>
       <c r="O58" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="P58" t="s">
         <v>514</v>
@@ -5872,7 +5875,7 @@
         <v>619</v>
       </c>
       <c r="C59" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D59" t="s">
         <v>517</v>
@@ -5881,7 +5884,7 @@
         <v>518</v>
       </c>
       <c r="F59" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G59" t="s">
         <v>519</v>
@@ -5890,7 +5893,7 @@
         <v>520</v>
       </c>
       <c r="I59" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="J59" t="s">
         <v>521</v>
@@ -5913,7 +5916,7 @@
         <v>619</v>
       </c>
       <c r="C60" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D60" t="s">
         <v>141</v>
@@ -5922,7 +5925,7 @@
         <v>524</v>
       </c>
       <c r="F60" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G60" t="s">
         <v>525</v>
@@ -5954,7 +5957,7 @@
         <v>623</v>
       </c>
       <c r="C61" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D61" t="s">
         <v>529</v>
@@ -5963,7 +5966,7 @@
         <v>530</v>
       </c>
       <c r="F61" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G61" t="s">
         <v>531</v>
@@ -5972,7 +5975,7 @@
         <v>532</v>
       </c>
       <c r="I61" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="J61" t="s">
         <v>533</v>
@@ -5995,7 +5998,7 @@
         <v>619</v>
       </c>
       <c r="C62" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D62" t="s">
         <v>84</v>
@@ -6004,7 +6007,7 @@
         <v>85</v>
       </c>
       <c r="F62" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G62" t="s">
         <v>536</v>
@@ -6013,7 +6016,7 @@
         <v>537</v>
       </c>
       <c r="I62" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="J62" t="s">
         <v>538</v>
@@ -6022,7 +6025,7 @@
         <v>539</v>
       </c>
       <c r="L62" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="M62" t="s">
         <v>540</v>
@@ -6031,7 +6034,7 @@
         <v>541</v>
       </c>
       <c r="O62" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="P62" t="s">
         <v>542</v>
@@ -6050,7 +6053,7 @@
         <v>619</v>
       </c>
       <c r="C63" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D63" t="s">
         <v>545</v>
@@ -6061,7 +6064,7 @@
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="J63" t="s">
         <v>547</v>
@@ -6084,7 +6087,7 @@
         <v>619</v>
       </c>
       <c r="C64" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D64" t="s">
         <v>550</v>
@@ -6095,7 +6098,7 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="J64" t="s">
         <v>552</v>
@@ -6118,7 +6121,7 @@
         <v>619</v>
       </c>
       <c r="C65" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D65" t="s">
         <v>555</v>
@@ -6129,7 +6132,7 @@
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="J65" t="s">
         <v>557</v>
@@ -6152,7 +6155,7 @@
         <v>619</v>
       </c>
       <c r="C66" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D66" t="s">
         <v>560</v>
@@ -6179,7 +6182,7 @@
         <v>619</v>
       </c>
       <c r="C67" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D67" t="s">
         <v>563</v>
@@ -6190,7 +6193,7 @@
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="J67" t="s">
         <v>565</v>
@@ -6213,7 +6216,7 @@
         <v>623</v>
       </c>
       <c r="C68" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D68" t="s">
         <v>545</v>
@@ -6224,7 +6227,7 @@
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="J68" t="s">
         <v>568</v>
@@ -6247,7 +6250,7 @@
         <v>633</v>
       </c>
       <c r="C69" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D69" t="s">
         <v>571</v>
@@ -6256,7 +6259,7 @@
         <v>572</v>
       </c>
       <c r="F69" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G69" t="s">
         <v>573</v>
@@ -6265,7 +6268,7 @@
         <v>574</v>
       </c>
       <c r="I69" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="J69" t="s">
         <v>571</v>
@@ -6274,7 +6277,7 @@
         <v>572</v>
       </c>
       <c r="L69" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="M69" t="s">
         <v>575</v>
@@ -6285,7 +6288,7 @@
       <c r="P69"/>
       <c r="Q69"/>
       <c r="R69" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="S69" t="s">
         <v>416</v>
@@ -6302,7 +6305,7 @@
         <v>634</v>
       </c>
       <c r="C70" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D70" t="s">
         <v>578</v>
@@ -6311,7 +6314,7 @@
         <v>579</v>
       </c>
       <c r="F70" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G70" t="s">
         <v>580</v>
@@ -6320,7 +6323,7 @@
         <v>581</v>
       </c>
       <c r="I70" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="J70" t="s">
         <v>578</v>
@@ -6343,7 +6346,7 @@
         <v>635</v>
       </c>
       <c r="C71" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D71" t="s">
         <v>583</v>
@@ -6352,7 +6355,7 @@
         <v>584</v>
       </c>
       <c r="F71" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G71" t="s">
         <v>585</v>
@@ -6363,7 +6366,7 @@
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="M71" t="s">
         <v>587</v>
@@ -6374,7 +6377,7 @@
       <c r="P71"/>
       <c r="Q71"/>
       <c r="R71" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="S71" t="s">
         <v>589</v>
@@ -6391,7 +6394,7 @@
         <v>635</v>
       </c>
       <c r="C72" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D72" t="s">
         <v>592</v>
@@ -6400,7 +6403,7 @@
         <v>593</v>
       </c>
       <c r="F72" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G72" t="s">
         <v>594</v>
@@ -6411,7 +6414,7 @@
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="M72" t="s">
         <v>596</v>
@@ -6422,7 +6425,7 @@
       <c r="P72"/>
       <c r="Q72"/>
       <c r="R72" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="S72" t="s">
         <v>589</v>
@@ -6439,7 +6442,7 @@
         <v>635</v>
       </c>
       <c r="C73" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D73" t="s">
         <v>599</v>
@@ -6448,7 +6451,7 @@
         <v>600</v>
       </c>
       <c r="F73" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G73" t="s">
         <v>601</v>
@@ -6459,7 +6462,7 @@
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="M73" t="s">
         <v>596</v>
@@ -6470,7 +6473,7 @@
       <c r="P73"/>
       <c r="Q73"/>
       <c r="R73" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="S73" t="s">
         <v>589</v>
@@ -6520,7 +6523,7 @@
         <v>610</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>637</v>
       </c>
       <c r="D75" t="s">
         <v>611</v>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.28</t>
+    <t xml:space="preserve">EA 23.29</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -201,8 +201,8 @@
     <t>毒,猛毒</t>
   </si>
   <si>
-    <t>#1은(는)은 독에 걸렸다.
-#1은(는)은 맹독에 걸렸다.</t>
+    <t>#1은(는) 독에 걸렸다.
+#1은(는) 맹독에 걸렸다.</t>
   </si>
   <si>
     <t>#1 are/is poisoned.
@@ -344,7 +344,7 @@
     <t>相手に恐怖し攻撃できない状態。</t>
   </si>
   <si>
-    <t>#1은 공포에 떨고 있다.</t>
+    <t>#1은(는) 공포에 떨고 있다.</t>
   </si>
   <si>
     <t>#1 are/is struck with terror.</t>
@@ -2758,7 +2758,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -3029,7 +3028,6 @@
     <col customWidth="1" min="13" max="17" width="16.0"/>
     <col customWidth="1" min="18" max="18" width="36.86"/>
     <col customWidth="1" min="19" max="20" width="16.0"/>
-    <col customWidth="1" min="21" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3110,7 +3108,7 @@
       <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -3216,7 +3214,7 @@
       <c r="E5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -3234,7 +3232,7 @@
       <c r="K5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="3" t="s">
         <v>62</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -3296,7 +3294,7 @@
       <c r="K6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="1" t="s">
         <v>82</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -4117,7 +4115,7 @@
       <c r="E22" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="1" t="s">
         <v>304</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -4170,7 +4168,7 @@
       <c r="E23" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="1" t="s">
         <v>318</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -4329,7 +4327,7 @@
       <c r="E26" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="1" t="s">
         <v>357</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -4770,7 +4768,7 @@
       <c r="E35" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="1" t="s">
         <v>466</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -4903,7 +4901,7 @@
       <c r="N37" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="R37" s="1" t="s">
         <v>496</v>
       </c>
       <c r="S37" s="1" t="s">
@@ -4947,7 +4945,7 @@
       <c r="K38" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="1" t="s">
         <v>506</v>
       </c>
       <c r="M38" s="1" t="s">
@@ -5026,7 +5024,7 @@
       <c r="E40" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="1" t="s">
         <v>527</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -5070,7 +5068,7 @@
       <c r="B41" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>534</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -5079,7 +5077,7 @@
       <c r="E41" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="1" t="s">
         <v>527</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -5582,7 +5580,7 @@
       <c r="K51" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="L51" s="1" t="s">
         <v>654</v>
       </c>
       <c r="M51" s="1" t="s">
@@ -5775,7 +5773,7 @@
       <c r="B56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="1" t="s">
         <v>703</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -5793,7 +5791,7 @@
       <c r="H56" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="I56" s="1" t="s">
         <v>703</v>
       </c>
       <c r="J56" s="1" t="s">
@@ -5846,7 +5844,7 @@
       <c r="H57" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="I57" s="1" t="s">
         <v>723</v>
       </c>
       <c r="J57" s="1" t="s">
@@ -5855,7 +5853,7 @@
       <c r="K57" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="L57" s="3" t="s">
+      <c r="L57" s="1" t="s">
         <v>726</v>
       </c>
       <c r="M57" s="1" t="s">
@@ -5890,7 +5888,7 @@
       <c r="E58" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="1" t="s">
         <v>736</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -5908,7 +5906,7 @@
       <c r="K58" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="L58" s="1" t="s">
         <v>742</v>
       </c>
       <c r="M58" s="1" t="s">
@@ -5917,7 +5915,7 @@
       <c r="N58" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="O58" s="1" t="s">
         <v>745</v>
       </c>
       <c r="P58" s="1" t="s">
@@ -5978,7 +5976,7 @@
       <c r="E60" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="1" t="s">
         <v>761</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -6066,7 +6064,7 @@
       <c r="K62" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="L62" s="3" t="s">
+      <c r="L62" s="1" t="s">
         <v>782</v>
       </c>
       <c r="M62" s="1" t="s">
@@ -6459,7 +6457,7 @@
       <c r="B74" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="1" t="s">
         <v>876</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -6468,7 +6466,7 @@
       <c r="E74" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="1" t="s">
         <v>879</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -6477,7 +6475,7 @@
       <c r="H74" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="L74" s="3" t="s">
+      <c r="L74" s="1" t="s">
         <v>882</v>
       </c>
       <c r="M74" s="1" t="s">
@@ -6503,7 +6501,7 @@
       <c r="B75" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="1" t="s">
         <v>887</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -6512,7 +6510,7 @@
       <c r="E75" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="1" t="s">
         <v>890</v>
       </c>
       <c r="G75" s="1" t="s">
@@ -6521,7 +6519,7 @@
       <c r="H75" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="L75" s="3" t="s">
+      <c r="L75" s="1" t="s">
         <v>893</v>
       </c>
       <c r="M75" s="1" t="s">

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.29</t>
+    <t xml:space="preserve">EA 23.30</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.30</t>
+    <t xml:space="preserve">EA 23.32</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.32</t>
+    <t xml:space="preserve">EA 23.33</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.33</t>
+    <t xml:space="preserve">EA 23.34 fix 3</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.34 fix 3</t>
+    <t xml:space="preserve">EA 23.35 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.35 fix 1</t>
+    <t xml:space="preserve">EA 23.36</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.36</t>
+    <t xml:space="preserve">EA 23.37</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.37</t>
+    <t xml:space="preserve">EA 23.38</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38 fix 1</t>
+    <t xml:space="preserve">EA 23.39</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.39</t>
+    <t xml:space="preserve">EA 23.40 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.42</t>
+    <t xml:space="preserve">EA 23.44 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.44 fix 1</t>
+    <t xml:space="preserve">EA 23.45</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.46</t>
+    <t xml:space="preserve">EA 23.54</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.65</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.65</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="913">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>
@@ -1744,6 +1744,12 @@
   </si>
   <si>
     <t xml:space="preserve">衛生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A condition of cleanliness. It affects affinity gain and can be improved by brushing or soaking in a hot spring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">清潔度。友好度の上昇に影響し、ブラッシングや温泉に浸かることで改善する。</t>
   </si>
   <si>
     <t xml:space="preserve">Garbage,Filthy,Dirty,#,Clean,Washed</t>
@@ -2960,10 +2966,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C3" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -2972,7 +2978,7 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
@@ -2981,7 +2987,7 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
@@ -2990,7 +2996,7 @@
         <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
@@ -3001,7 +3007,7 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="S3" t="s">
         <v>30</v>
@@ -3015,10 +3021,10 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C4" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -3027,7 +3033,7 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -3036,7 +3042,7 @@
         <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
@@ -3045,7 +3051,7 @@
         <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -3056,7 +3062,7 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="S4" t="s">
         <v>39</v>
@@ -3070,10 +3076,10 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C5" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3082,7 +3088,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -3091,7 +3097,7 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
@@ -3100,7 +3106,7 @@
         <v>47</v>
       </c>
       <c r="L5" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="M5" t="s">
         <v>48</v>
@@ -3109,7 +3115,7 @@
         <v>49</v>
       </c>
       <c r="O5" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="P5" t="s">
         <v>50</v>
@@ -3118,7 +3124,7 @@
         <v>51</v>
       </c>
       <c r="R5" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="S5" t="s">
         <v>52</v>
@@ -3132,10 +3138,10 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C6" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D6" t="s">
         <v>55</v>
@@ -3144,7 +3150,7 @@
         <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="G6" t="s">
         <v>57</v>
@@ -3153,7 +3159,7 @@
         <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="J6" t="s">
         <v>59</v>
@@ -3162,7 +3168,7 @@
         <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="M6" t="s">
         <v>61</v>
@@ -3171,7 +3177,7 @@
         <v>62</v>
       </c>
       <c r="O6" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="P6" t="s">
         <v>63</v>
@@ -3187,10 +3193,10 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D7" t="s">
         <v>66</v>
@@ -3199,7 +3205,7 @@
         <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G7" t="s">
         <v>68</v>
@@ -3208,7 +3214,7 @@
         <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="J7" t="s">
         <v>66</v>
@@ -3217,7 +3223,7 @@
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="M7" t="s">
         <v>70</v>
@@ -3228,7 +3234,7 @@
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="S7" t="s">
         <v>72</v>
@@ -3242,10 +3248,10 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C8" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D8" t="s">
         <v>75</v>
@@ -3254,7 +3260,7 @@
         <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G8" t="s">
         <v>77</v>
@@ -3263,7 +3269,7 @@
         <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J8" t="s">
         <v>75</v>
@@ -3272,7 +3278,7 @@
         <v>76</v>
       </c>
       <c r="L8" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="M8" t="s">
         <v>79</v>
@@ -3283,7 +3289,7 @@
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="S8" t="s">
         <v>81</v>
@@ -3297,10 +3303,10 @@
         <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C9" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D9" t="s">
         <v>84</v>
@@ -3309,7 +3315,7 @@
         <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="G9" t="s">
         <v>86</v>
@@ -3318,7 +3324,7 @@
         <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="J9" t="s">
         <v>88</v>
@@ -3327,7 +3333,7 @@
         <v>85</v>
       </c>
       <c r="L9" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="M9" t="s">
         <v>89</v>
@@ -3338,7 +3344,7 @@
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="S9" t="s">
         <v>91</v>
@@ -3352,10 +3358,10 @@
         <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C10" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D10" t="s">
         <v>94</v>
@@ -3364,7 +3370,7 @@
         <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="G10" t="s">
         <v>96</v>
@@ -3373,7 +3379,7 @@
         <v>97</v>
       </c>
       <c r="I10" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="J10" t="s">
         <v>98</v>
@@ -3382,7 +3388,7 @@
         <v>95</v>
       </c>
       <c r="L10" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="M10" t="s">
         <v>99</v>
@@ -3393,7 +3399,7 @@
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="S10" t="s">
         <v>101</v>
@@ -3407,10 +3413,10 @@
         <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C11" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D11" t="s">
         <v>104</v>
@@ -3419,7 +3425,7 @@
         <v>105</v>
       </c>
       <c r="F11" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G11" t="s">
         <v>106</v>
@@ -3428,7 +3434,7 @@
         <v>107</v>
       </c>
       <c r="I11" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="J11" t="s">
         <v>108</v>
@@ -3437,7 +3443,7 @@
         <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="M11" t="s">
         <v>109</v>
@@ -3448,7 +3454,7 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="S11" t="s">
         <v>111</v>
@@ -3462,10 +3468,10 @@
         <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C12" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D12" t="s">
         <v>114</v>
@@ -3474,7 +3480,7 @@
         <v>115</v>
       </c>
       <c r="F12" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="G12" t="s">
         <v>96</v>
@@ -3483,7 +3489,7 @@
         <v>97</v>
       </c>
       <c r="I12" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="J12" t="s">
         <v>116</v>
@@ -3492,7 +3498,7 @@
         <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="M12" t="s">
         <v>117</v>
@@ -3503,7 +3509,7 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="S12" t="s">
         <v>119</v>
@@ -3517,10 +3523,10 @@
         <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C13" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D13" t="s">
         <v>122</v>
@@ -3529,7 +3535,7 @@
         <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="G13" t="s">
         <v>124</v>
@@ -3538,7 +3544,7 @@
         <v>125</v>
       </c>
       <c r="I13" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="J13" t="s">
         <v>126</v>
@@ -3547,7 +3553,7 @@
         <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="M13" t="s">
         <v>127</v>
@@ -3558,7 +3564,7 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="S13" t="s">
         <v>129</v>
@@ -3572,10 +3578,10 @@
         <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C14" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D14" t="s">
         <v>132</v>
@@ -3584,7 +3590,7 @@
         <v>133</v>
       </c>
       <c r="F14" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="G14" t="s">
         <v>134</v>
@@ -3593,7 +3599,7 @@
         <v>135</v>
       </c>
       <c r="I14" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="J14" t="s">
         <v>132</v>
@@ -3602,7 +3608,7 @@
         <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="M14" t="s">
         <v>136</v>
@@ -3613,7 +3619,7 @@
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="S14" t="s">
         <v>138</v>
@@ -3627,10 +3633,10 @@
         <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C15" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D15" t="s">
         <v>141</v>
@@ -3639,7 +3645,7 @@
         <v>142</v>
       </c>
       <c r="F15" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="G15" t="s">
         <v>143</v>
@@ -3648,7 +3654,7 @@
         <v>144</v>
       </c>
       <c r="I15" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="J15" t="s">
         <v>145</v>
@@ -3657,7 +3663,7 @@
         <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="M15" t="s">
         <v>147</v>
@@ -3668,7 +3674,7 @@
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="S15" t="s">
         <v>149</v>
@@ -3682,10 +3688,10 @@
         <v>151</v>
       </c>
       <c r="B16" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C16" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D16" t="s">
         <v>152</v>
@@ -3694,7 +3700,7 @@
         <v>153</v>
       </c>
       <c r="F16" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="G16" t="s">
         <v>154</v>
@@ -3703,7 +3709,7 @@
         <v>155</v>
       </c>
       <c r="I16" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="J16" t="s">
         <v>156</v>
@@ -3712,7 +3718,7 @@
         <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="M16" t="s">
         <v>158</v>
@@ -3723,7 +3729,7 @@
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="S16" t="s">
         <v>160</v>
@@ -3737,10 +3743,10 @@
         <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C17" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D17" t="s">
         <v>163</v>
@@ -3749,7 +3755,7 @@
         <v>164</v>
       </c>
       <c r="F17" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="G17" t="s">
         <v>165</v>
@@ -3758,7 +3764,7 @@
         <v>166</v>
       </c>
       <c r="I17" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="J17" t="s">
         <v>167</v>
@@ -3767,7 +3773,7 @@
         <v>168</v>
       </c>
       <c r="L17" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="M17" t="s">
         <v>169</v>
@@ -3778,7 +3784,7 @@
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="S17" t="s">
         <v>171</v>
@@ -3792,10 +3798,10 @@
         <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C18" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D18" t="s">
         <v>174</v>
@@ -3804,7 +3810,7 @@
         <v>175</v>
       </c>
       <c r="F18" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="G18" t="s">
         <v>176</v>
@@ -3813,7 +3819,7 @@
         <v>177</v>
       </c>
       <c r="I18" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="J18" t="s">
         <v>178</v>
@@ -3822,7 +3828,7 @@
         <v>179</v>
       </c>
       <c r="L18" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="M18" t="s">
         <v>180</v>
@@ -3833,7 +3839,7 @@
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="S18" t="s">
         <v>182</v>
@@ -3847,10 +3853,10 @@
         <v>184</v>
       </c>
       <c r="B19" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C19" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D19" t="s">
         <v>185</v>
@@ -3859,7 +3865,7 @@
         <v>186</v>
       </c>
       <c r="F19" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="G19" t="s">
         <v>187</v>
@@ -3868,7 +3874,7 @@
         <v>188</v>
       </c>
       <c r="I19" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="J19" t="s">
         <v>189</v>
@@ -3877,7 +3883,7 @@
         <v>190</v>
       </c>
       <c r="L19" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="M19" t="s">
         <v>191</v>
@@ -3888,7 +3894,7 @@
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="S19" t="s">
         <v>193</v>
@@ -3902,10 +3908,10 @@
         <v>195</v>
       </c>
       <c r="B20" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C20" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D20" t="s">
         <v>196</v>
@@ -3914,7 +3920,7 @@
         <v>197</v>
       </c>
       <c r="F20" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="G20" t="s">
         <v>198</v>
@@ -3923,7 +3929,7 @@
         <v>199</v>
       </c>
       <c r="I20" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="J20" t="s">
         <v>196</v>
@@ -3932,7 +3938,7 @@
         <v>197</v>
       </c>
       <c r="L20" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="M20" t="s">
         <v>200</v>
@@ -3943,7 +3949,7 @@
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="S20" t="s">
         <v>202</v>
@@ -3957,10 +3963,10 @@
         <v>204</v>
       </c>
       <c r="B21" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C21" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D21" t="s">
         <v>205</v>
@@ -3969,7 +3975,7 @@
         <v>206</v>
       </c>
       <c r="F21" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G21" t="s">
         <v>207</v>
@@ -3978,7 +3984,7 @@
         <v>208</v>
       </c>
       <c r="I21" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="J21" t="s">
         <v>205</v>
@@ -3987,7 +3993,7 @@
         <v>206</v>
       </c>
       <c r="L21" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="M21" t="s">
         <v>209</v>
@@ -4005,10 +4011,10 @@
         <v>211</v>
       </c>
       <c r="B22" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C22" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D22" t="s">
         <v>212</v>
@@ -4017,7 +4023,7 @@
         <v>213</v>
       </c>
       <c r="F22" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="G22" t="s">
         <v>214</v>
@@ -4026,7 +4032,7 @@
         <v>215</v>
       </c>
       <c r="I22" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="J22" t="s">
         <v>212</v>
@@ -4035,7 +4041,7 @@
         <v>213</v>
       </c>
       <c r="L22" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="M22" t="s">
         <v>216</v>
@@ -4046,7 +4052,7 @@
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="S22" t="s">
         <v>218</v>
@@ -4060,10 +4066,10 @@
         <v>220</v>
       </c>
       <c r="B23" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C23" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D23" t="s">
         <v>221</v>
@@ -4072,7 +4078,7 @@
         <v>222</v>
       </c>
       <c r="F23" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G23" t="s">
         <v>223</v>
@@ -4081,7 +4087,7 @@
         <v>224</v>
       </c>
       <c r="I23" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="J23" t="s">
         <v>221</v>
@@ -4090,7 +4096,7 @@
         <v>222</v>
       </c>
       <c r="L23" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="M23" t="s">
         <v>225</v>
@@ -4101,7 +4107,7 @@
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="S23" t="s">
         <v>227</v>
@@ -4115,10 +4121,10 @@
         <v>229</v>
       </c>
       <c r="B24" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C24" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D24" t="s">
         <v>230</v>
@@ -4127,7 +4133,7 @@
         <v>231</v>
       </c>
       <c r="F24" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="G24" t="s">
         <v>232</v>
@@ -4136,7 +4142,7 @@
         <v>233</v>
       </c>
       <c r="I24" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="J24" t="s">
         <v>230</v>
@@ -4145,7 +4151,7 @@
         <v>231</v>
       </c>
       <c r="L24" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="M24" t="s">
         <v>234</v>
@@ -4156,7 +4162,7 @@
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="S24" t="s">
         <v>236</v>
@@ -4170,10 +4176,10 @@
         <v>238</v>
       </c>
       <c r="B25" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C25" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D25" t="s">
         <v>239</v>
@@ -4182,7 +4188,7 @@
         <v>240</v>
       </c>
       <c r="F25" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="G25" t="s">
         <v>241</v>
@@ -4191,7 +4197,7 @@
         <v>242</v>
       </c>
       <c r="I25" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="J25" t="s">
         <v>239</v>
@@ -4200,7 +4206,7 @@
         <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="M25" t="s">
         <v>243</v>
@@ -4211,7 +4217,7 @@
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="S25" t="s">
         <v>245</v>
@@ -4225,10 +4231,10 @@
         <v>247</v>
       </c>
       <c r="B26" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C26" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D26" t="s">
         <v>248</v>
@@ -4237,7 +4243,7 @@
         <v>249</v>
       </c>
       <c r="F26" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G26" t="s">
         <v>250</v>
@@ -4246,7 +4252,7 @@
         <v>251</v>
       </c>
       <c r="I26" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="J26" t="s">
         <v>248</v>
@@ -4255,7 +4261,7 @@
         <v>249</v>
       </c>
       <c r="L26" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="M26" t="s">
         <v>252</v>
@@ -4266,7 +4272,7 @@
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="S26" t="s">
         <v>254</v>
@@ -4280,10 +4286,10 @@
         <v>256</v>
       </c>
       <c r="B27" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C27" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D27" t="s">
         <v>257</v>
@@ -4292,7 +4298,7 @@
         <v>258</v>
       </c>
       <c r="F27" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="G27" t="s">
         <v>259</v>
@@ -4301,7 +4307,7 @@
         <v>260</v>
       </c>
       <c r="I27" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="J27" t="s">
         <v>261</v>
@@ -4310,7 +4316,7 @@
         <v>262</v>
       </c>
       <c r="L27" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="M27" t="s">
         <v>263</v>
@@ -4321,7 +4327,7 @@
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="S27" t="s">
         <v>265</v>
@@ -4335,10 +4341,10 @@
         <v>267</v>
       </c>
       <c r="B28" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C28" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D28" t="s">
         <v>268</v>
@@ -4347,7 +4353,7 @@
         <v>269</v>
       </c>
       <c r="F28" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="G28" t="s">
         <v>270</v>
@@ -4356,7 +4362,7 @@
         <v>271</v>
       </c>
       <c r="I28" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="J28" t="s">
         <v>268</v>
@@ -4365,7 +4371,7 @@
         <v>269</v>
       </c>
       <c r="L28" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="M28" t="s">
         <v>272</v>
@@ -4376,7 +4382,7 @@
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="S28" t="s">
         <v>274</v>
@@ -4390,10 +4396,10 @@
         <v>276</v>
       </c>
       <c r="B29" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C29" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D29" t="s">
         <v>277</v>
@@ -4402,7 +4408,7 @@
         <v>278</v>
       </c>
       <c r="F29" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="G29" t="s">
         <v>270</v>
@@ -4411,7 +4417,7 @@
         <v>271</v>
       </c>
       <c r="I29" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="J29" t="s">
         <v>277</v>
@@ -4420,7 +4426,7 @@
         <v>278</v>
       </c>
       <c r="L29" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="M29" t="s">
         <v>279</v>
@@ -4431,7 +4437,7 @@
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="S29" t="s">
         <v>281</v>
@@ -4445,10 +4451,10 @@
         <v>283</v>
       </c>
       <c r="B30" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C30" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D30" t="s">
         <v>284</v>
@@ -4457,7 +4463,7 @@
         <v>285</v>
       </c>
       <c r="F30" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="G30" t="s">
         <v>286</v>
@@ -4466,7 +4472,7 @@
         <v>287</v>
       </c>
       <c r="I30" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="J30" t="s">
         <v>288</v>
@@ -4475,7 +4481,7 @@
         <v>285</v>
       </c>
       <c r="L30" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="M30" t="s">
         <v>289</v>
@@ -4486,7 +4492,7 @@
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="S30" t="s">
         <v>291</v>
@@ -4500,10 +4506,10 @@
         <v>293</v>
       </c>
       <c r="B31" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C31" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D31" t="s">
         <v>294</v>
@@ -4512,7 +4518,7 @@
         <v>295</v>
       </c>
       <c r="F31" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="G31" t="s">
         <v>286</v>
@@ -4521,7 +4527,7 @@
         <v>287</v>
       </c>
       <c r="I31" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="J31" t="s">
         <v>296</v>
@@ -4530,7 +4536,7 @@
         <v>295</v>
       </c>
       <c r="L31" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="M31" t="s">
         <v>297</v>
@@ -4541,7 +4547,7 @@
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="S31" t="s">
         <v>299</v>
@@ -4555,10 +4561,10 @@
         <v>301</v>
       </c>
       <c r="B32" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C32" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D32" t="s">
         <v>302</v>
@@ -4567,7 +4573,7 @@
         <v>303</v>
       </c>
       <c r="F32" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="G32" t="s">
         <v>304</v>
@@ -4576,7 +4582,7 @@
         <v>305</v>
       </c>
       <c r="I32" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="J32" t="s">
         <v>302</v>
@@ -4596,10 +4602,10 @@
         <v>306</v>
       </c>
       <c r="B33" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C33" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D33" t="s">
         <v>307</v>
@@ -4608,7 +4614,7 @@
         <v>308</v>
       </c>
       <c r="F33" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="G33" t="s">
         <v>309</v>
@@ -4617,7 +4623,7 @@
         <v>310</v>
       </c>
       <c r="I33" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="J33" t="s">
         <v>307</v>
@@ -4637,10 +4643,10 @@
         <v>311</v>
       </c>
       <c r="B34" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C34" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D34" t="s">
         <v>312</v>
@@ -4649,7 +4655,7 @@
         <v>313</v>
       </c>
       <c r="F34" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="G34" t="s">
         <v>314</v>
@@ -4658,7 +4664,7 @@
         <v>315</v>
       </c>
       <c r="I34" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="J34" t="s">
         <v>312</v>
@@ -4667,7 +4673,7 @@
         <v>313</v>
       </c>
       <c r="L34" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="M34" t="s">
         <v>316</v>
@@ -4678,7 +4684,7 @@
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="S34" t="s">
         <v>318</v>
@@ -4692,10 +4698,10 @@
         <v>320</v>
       </c>
       <c r="B35" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C35" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D35" t="s">
         <v>321</v>
@@ -4704,7 +4710,7 @@
         <v>322</v>
       </c>
       <c r="F35" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="G35" t="s">
         <v>323</v>
@@ -4713,7 +4719,7 @@
         <v>324</v>
       </c>
       <c r="I35" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="J35" t="s">
         <v>325</v>
@@ -4722,7 +4728,7 @@
         <v>322</v>
       </c>
       <c r="L35" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="M35" t="s">
         <v>326</v>
@@ -4733,7 +4739,7 @@
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="S35" t="s">
         <v>328</v>
@@ -4747,10 +4753,10 @@
         <v>330</v>
       </c>
       <c r="B36" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C36" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D36" t="s">
         <v>331</v>
@@ -4759,7 +4765,7 @@
         <v>332</v>
       </c>
       <c r="F36" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="G36" t="s">
         <v>333</v>
@@ -4768,7 +4774,7 @@
         <v>334</v>
       </c>
       <c r="I36" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="J36" t="s">
         <v>331</v>
@@ -4777,7 +4783,7 @@
         <v>332</v>
       </c>
       <c r="L36" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="M36" t="s">
         <v>335</v>
@@ -4788,7 +4794,7 @@
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="S36" t="s">
         <v>274</v>
@@ -4802,10 +4808,10 @@
         <v>337</v>
       </c>
       <c r="B37" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C37" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D37" t="s">
         <v>338</v>
@@ -4814,7 +4820,7 @@
         <v>339</v>
       </c>
       <c r="F37" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="G37" t="s">
         <v>340</v>
@@ -4823,7 +4829,7 @@
         <v>341</v>
       </c>
       <c r="I37" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="J37" t="s">
         <v>338</v>
@@ -4832,7 +4838,7 @@
         <v>339</v>
       </c>
       <c r="L37" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="M37" t="s">
         <v>342</v>
@@ -4843,7 +4849,7 @@
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="S37" t="s">
         <v>344</v>
@@ -4857,10 +4863,10 @@
         <v>346</v>
       </c>
       <c r="B38" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C38" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D38" t="s">
         <v>347</v>
@@ -4869,7 +4875,7 @@
         <v>348</v>
       </c>
       <c r="F38" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="G38" t="s">
         <v>349</v>
@@ -4878,7 +4884,7 @@
         <v>350</v>
       </c>
       <c r="I38" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="J38" t="s">
         <v>347</v>
@@ -4887,7 +4893,7 @@
         <v>348</v>
       </c>
       <c r="L38" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="M38" t="s">
         <v>351</v>
@@ -4905,10 +4911,10 @@
         <v>353</v>
       </c>
       <c r="B39" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C39" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D39" t="s">
         <v>354</v>
@@ -4917,7 +4923,7 @@
         <v>355</v>
       </c>
       <c r="F39" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="G39" t="s">
         <v>356</v>
@@ -4926,7 +4932,7 @@
         <v>357</v>
       </c>
       <c r="I39" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="J39" t="s">
         <v>358</v>
@@ -4935,7 +4941,7 @@
         <v>355</v>
       </c>
       <c r="L39" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="M39" t="s">
         <v>359</v>
@@ -4946,7 +4952,7 @@
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="S39" t="s">
         <v>361</v>
@@ -4960,10 +4966,10 @@
         <v>363</v>
       </c>
       <c r="B40" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C40" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D40" t="s">
         <v>364</v>
@@ -4972,7 +4978,7 @@
         <v>365</v>
       </c>
       <c r="F40" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="G40" t="s">
         <v>366</v>
@@ -4981,7 +4987,7 @@
         <v>367</v>
       </c>
       <c r="I40" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="J40" t="s">
         <v>364</v>
@@ -4990,7 +4996,7 @@
         <v>365</v>
       </c>
       <c r="L40" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="M40" t="s">
         <v>368</v>
@@ -5001,7 +5007,7 @@
       <c r="P40"/>
       <c r="Q40"/>
       <c r="R40" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="S40" t="s">
         <v>370</v>
@@ -5015,10 +5021,10 @@
         <v>372</v>
       </c>
       <c r="B41" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C41" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D41" t="s">
         <v>373</v>
@@ -5027,7 +5033,7 @@
         <v>374</v>
       </c>
       <c r="F41" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="G41" t="s">
         <v>375</v>
@@ -5036,7 +5042,7 @@
         <v>376</v>
       </c>
       <c r="I41" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="J41" t="s">
         <v>373</v>
@@ -5045,7 +5051,7 @@
         <v>374</v>
       </c>
       <c r="L41" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="M41" t="s">
         <v>377</v>
@@ -5056,7 +5062,7 @@
       <c r="P41"/>
       <c r="Q41"/>
       <c r="R41" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="S41" t="s">
         <v>370</v>
@@ -5070,10 +5076,10 @@
         <v>379</v>
       </c>
       <c r="B42" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C42" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D42" t="s">
         <v>380</v>
@@ -5082,7 +5088,7 @@
         <v>381</v>
       </c>
       <c r="F42" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="G42" t="s">
         <v>375</v>
@@ -5091,7 +5097,7 @@
         <v>376</v>
       </c>
       <c r="I42" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J42" t="s">
         <v>380</v>
@@ -5100,7 +5106,7 @@
         <v>381</v>
       </c>
       <c r="L42" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="M42" t="s">
         <v>377</v>
@@ -5111,7 +5117,7 @@
       <c r="P42"/>
       <c r="Q42"/>
       <c r="R42" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="S42" t="s">
         <v>370</v>
@@ -5125,10 +5131,10 @@
         <v>382</v>
       </c>
       <c r="B43" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C43" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D43" t="s">
         <v>383</v>
@@ -5137,7 +5143,7 @@
         <v>384</v>
       </c>
       <c r="F43" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="G43" t="s">
         <v>385</v>
@@ -5146,7 +5152,7 @@
         <v>386</v>
       </c>
       <c r="I43" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J43" t="s">
         <v>383</v>
@@ -5155,7 +5161,7 @@
         <v>384</v>
       </c>
       <c r="L43" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="M43" t="s">
         <v>387</v>
@@ -5173,10 +5179,10 @@
         <v>389</v>
       </c>
       <c r="B44" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C44" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D44" t="s">
         <v>390</v>
@@ -5185,7 +5191,7 @@
         <v>391</v>
       </c>
       <c r="F44" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="G44" t="s">
         <v>392</v>
@@ -5194,7 +5200,7 @@
         <v>393</v>
       </c>
       <c r="I44" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="J44" t="s">
         <v>390</v>
@@ -5203,7 +5209,7 @@
         <v>391</v>
       </c>
       <c r="L44" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="M44" t="s">
         <v>394</v>
@@ -5214,7 +5220,7 @@
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="S44" t="s">
         <v>396</v>
@@ -5228,10 +5234,10 @@
         <v>398</v>
       </c>
       <c r="B45" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C45" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D45" t="s">
         <v>399</v>
@@ -5240,7 +5246,7 @@
         <v>400</v>
       </c>
       <c r="F45" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="G45" t="s">
         <v>401</v>
@@ -5249,7 +5255,7 @@
         <v>402</v>
       </c>
       <c r="I45" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J45" t="s">
         <v>399</v>
@@ -5258,7 +5264,7 @@
         <v>400</v>
       </c>
       <c r="L45" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="M45" t="s">
         <v>403</v>
@@ -5276,10 +5282,10 @@
         <v>405</v>
       </c>
       <c r="B46" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C46" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D46" t="s">
         <v>406</v>
@@ -5288,7 +5294,7 @@
         <v>407</v>
       </c>
       <c r="F46" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="G46" t="s">
         <v>408</v>
@@ -5297,7 +5303,7 @@
         <v>409</v>
       </c>
       <c r="I46" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="J46" t="s">
         <v>406</v>
@@ -5306,7 +5312,7 @@
         <v>407</v>
       </c>
       <c r="L46" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="M46" t="s">
         <v>410</v>
@@ -5324,10 +5330,10 @@
         <v>412</v>
       </c>
       <c r="B47" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C47" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D47" t="s">
         <v>413</v>
@@ -5336,7 +5342,7 @@
         <v>414</v>
       </c>
       <c r="F47" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="G47" t="s">
         <v>415</v>
@@ -5345,7 +5351,7 @@
         <v>416</v>
       </c>
       <c r="I47" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="J47" t="s">
         <v>413</v>
@@ -5354,7 +5360,7 @@
         <v>414</v>
       </c>
       <c r="L47" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="M47" t="s">
         <v>417</v>
@@ -5372,10 +5378,10 @@
         <v>419</v>
       </c>
       <c r="B48" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C48" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D48" t="s">
         <v>420</v>
@@ -5384,7 +5390,7 @@
         <v>421</v>
       </c>
       <c r="F48" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="G48" t="s">
         <v>422</v>
@@ -5393,7 +5399,7 @@
         <v>423</v>
       </c>
       <c r="I48" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="J48" t="s">
         <v>420</v>
@@ -5402,7 +5408,7 @@
         <v>421</v>
       </c>
       <c r="L48" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="M48" t="s">
         <v>424</v>
@@ -5413,7 +5419,7 @@
       <c r="P48"/>
       <c r="Q48"/>
       <c r="R48" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="S48" t="s">
         <v>426</v>
@@ -5427,10 +5433,10 @@
         <v>428</v>
       </c>
       <c r="B49" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C49" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D49" t="s">
         <v>429</v>
@@ -5439,7 +5445,7 @@
         <v>430</v>
       </c>
       <c r="F49" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="G49" t="s">
         <v>431</v>
@@ -5448,7 +5454,7 @@
         <v>432</v>
       </c>
       <c r="I49" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="J49" t="s">
         <v>429</v>
@@ -5457,7 +5463,7 @@
         <v>430</v>
       </c>
       <c r="L49" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="M49" t="s">
         <v>433</v>
@@ -5475,10 +5481,10 @@
         <v>435</v>
       </c>
       <c r="B50" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C50" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D50" t="s">
         <v>436</v>
@@ -5487,7 +5493,7 @@
         <v>437</v>
       </c>
       <c r="F50" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G50" t="s">
         <v>438</v>
@@ -5496,7 +5502,7 @@
         <v>439</v>
       </c>
       <c r="I50" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="J50" t="s">
         <v>440</v>
@@ -5505,7 +5511,7 @@
         <v>441</v>
       </c>
       <c r="L50" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="M50" t="s">
         <v>442</v>
@@ -5516,7 +5522,7 @@
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="S50" t="s">
         <v>444</v>
@@ -5530,10 +5536,10 @@
         <v>446</v>
       </c>
       <c r="B51" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C51" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D51" t="s">
         <v>447</v>
@@ -5542,7 +5548,7 @@
         <v>448</v>
       </c>
       <c r="F51" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="G51" t="s">
         <v>449</v>
@@ -5551,7 +5557,7 @@
         <v>450</v>
       </c>
       <c r="I51" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="J51" t="s">
         <v>451</v>
@@ -5560,7 +5566,7 @@
         <v>452</v>
       </c>
       <c r="L51" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="M51" t="s">
         <v>453</v>
@@ -5571,7 +5577,7 @@
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="S51" t="s">
         <v>455</v>
@@ -5585,10 +5591,10 @@
         <v>457</v>
       </c>
       <c r="B52" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C52" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D52" t="s">
         <v>458</v>
@@ -5597,7 +5603,7 @@
         <v>459</v>
       </c>
       <c r="F52" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G52" t="s">
         <v>460</v>
@@ -5606,7 +5612,7 @@
         <v>461</v>
       </c>
       <c r="I52" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="J52" t="s">
         <v>458</v>
@@ -5615,7 +5621,7 @@
         <v>459</v>
       </c>
       <c r="L52" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="M52" t="s">
         <v>462</v>
@@ -5626,7 +5632,7 @@
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="S52" t="s">
         <v>464</v>
@@ -5640,10 +5646,10 @@
         <v>466</v>
       </c>
       <c r="B53" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C53" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D53" t="s">
         <v>467</v>
@@ -5654,7 +5660,7 @@
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="J53" t="s">
         <v>467</v>
@@ -5674,10 +5680,10 @@
         <v>469</v>
       </c>
       <c r="B54" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C54" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D54" t="s">
         <v>470</v>
@@ -5686,7 +5692,7 @@
         <v>471</v>
       </c>
       <c r="F54" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="G54" t="s">
         <v>472</v>
@@ -5695,7 +5701,7 @@
         <v>473</v>
       </c>
       <c r="I54" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="J54" t="s">
         <v>470</v>
@@ -5704,7 +5710,7 @@
         <v>471</v>
       </c>
       <c r="L54" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="M54" t="s">
         <v>474</v>
@@ -5715,7 +5721,7 @@
       <c r="P54"/>
       <c r="Q54"/>
       <c r="R54" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="S54" t="s">
         <v>476</v>
@@ -5729,10 +5735,10 @@
         <v>478</v>
       </c>
       <c r="B55" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C55" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D55" t="s">
         <v>479</v>
@@ -5741,7 +5747,7 @@
         <v>480</v>
       </c>
       <c r="F55" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="G55" t="s">
         <v>481</v>
@@ -5750,7 +5756,7 @@
         <v>482</v>
       </c>
       <c r="I55" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="J55" t="s">
         <v>483</v>
@@ -5759,7 +5765,7 @@
         <v>484</v>
       </c>
       <c r="L55" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="M55" t="s">
         <v>485</v>
@@ -5770,7 +5776,7 @@
       <c r="P55"/>
       <c r="Q55"/>
       <c r="R55" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="S55" t="s">
         <v>487</v>
@@ -5784,10 +5790,10 @@
         <v>489</v>
       </c>
       <c r="B56" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C56" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D56" t="s">
         <v>490</v>
@@ -5796,7 +5802,7 @@
         <v>491</v>
       </c>
       <c r="F56" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="G56" t="s">
         <v>492</v>
@@ -5805,7 +5811,7 @@
         <v>493</v>
       </c>
       <c r="I56" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="J56" t="s">
         <v>494</v>
@@ -5825,10 +5831,10 @@
         <v>495</v>
       </c>
       <c r="B57" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C57" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D57" t="s">
         <v>496</v>
@@ -5837,7 +5843,7 @@
         <v>497</v>
       </c>
       <c r="F57" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="G57" t="s">
         <v>498</v>
@@ -5846,7 +5852,7 @@
         <v>499</v>
       </c>
       <c r="I57" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="J57" t="s">
         <v>496</v>
@@ -5855,7 +5861,7 @@
         <v>497</v>
       </c>
       <c r="L57" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="M57" t="s">
         <v>500</v>
@@ -5866,7 +5872,7 @@
       <c r="P57"/>
       <c r="Q57"/>
       <c r="R57" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="S57" t="s">
         <v>502</v>
@@ -5880,10 +5886,10 @@
         <v>504</v>
       </c>
       <c r="B58" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C58" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D58" t="s">
         <v>505</v>
@@ -5892,7 +5898,7 @@
         <v>506</v>
       </c>
       <c r="F58" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="G58" t="s">
         <v>507</v>
@@ -5901,7 +5907,7 @@
         <v>508</v>
       </c>
       <c r="I58" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="J58" t="s">
         <v>509</v>
@@ -5910,7 +5916,7 @@
         <v>510</v>
       </c>
       <c r="L58" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="M58" t="s">
         <v>511</v>
@@ -5921,7 +5927,7 @@
       <c r="P58"/>
       <c r="Q58"/>
       <c r="R58" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="S58" t="s">
         <v>513</v>
@@ -5935,10 +5941,10 @@
         <v>515</v>
       </c>
       <c r="B59" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C59" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D59" t="s">
         <v>516</v>
@@ -5947,7 +5953,7 @@
         <v>517</v>
       </c>
       <c r="F59" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="G59" t="s">
         <v>518</v>
@@ -5956,7 +5962,7 @@
         <v>519</v>
       </c>
       <c r="I59" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="J59" t="s">
         <v>520</v>
@@ -5965,7 +5971,7 @@
         <v>521</v>
       </c>
       <c r="L59" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="M59" t="s">
         <v>522</v>
@@ -5974,7 +5980,7 @@
         <v>523</v>
       </c>
       <c r="O59" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="P59" t="s">
         <v>524</v>
@@ -5990,10 +5996,10 @@
         <v>526</v>
       </c>
       <c r="B60" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C60" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D60" t="s">
         <v>527</v>
@@ -6002,7 +6008,7 @@
         <v>528</v>
       </c>
       <c r="F60" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="G60" t="s">
         <v>529</v>
@@ -6011,7 +6017,7 @@
         <v>530</v>
       </c>
       <c r="I60" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="J60" t="s">
         <v>531</v>
@@ -6031,10 +6037,10 @@
         <v>533</v>
       </c>
       <c r="B61" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C61" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D61" t="s">
         <v>141</v>
@@ -6043,7 +6049,7 @@
         <v>534</v>
       </c>
       <c r="F61" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G61" t="s">
         <v>535</v>
@@ -6072,10 +6078,10 @@
         <v>538</v>
       </c>
       <c r="B62" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C62" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D62" t="s">
         <v>539</v>
@@ -6084,7 +6090,7 @@
         <v>540</v>
       </c>
       <c r="F62" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="G62" t="s">
         <v>541</v>
@@ -6093,7 +6099,7 @@
         <v>542</v>
       </c>
       <c r="I62" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="J62" t="s">
         <v>543</v>
@@ -6113,10 +6119,10 @@
         <v>545</v>
       </c>
       <c r="B63" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C63" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D63" t="s">
         <v>84</v>
@@ -6125,7 +6131,7 @@
         <v>85</v>
       </c>
       <c r="F63" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G63" t="s">
         <v>546</v>
@@ -6134,7 +6140,7 @@
         <v>547</v>
       </c>
       <c r="I63" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="J63" t="s">
         <v>548</v>
@@ -6143,7 +6149,7 @@
         <v>549</v>
       </c>
       <c r="L63" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="M63" t="s">
         <v>550</v>
@@ -6152,7 +6158,7 @@
         <v>551</v>
       </c>
       <c r="O63" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="P63" t="s">
         <v>552</v>
@@ -6168,10 +6174,10 @@
         <v>554</v>
       </c>
       <c r="B64" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C64" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D64" t="s">
         <v>555</v>
@@ -6182,7 +6188,7 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="J64" t="s">
         <v>557</v>
@@ -6202,10 +6208,10 @@
         <v>559</v>
       </c>
       <c r="B65" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C65" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D65" t="s">
         <v>560</v>
@@ -6216,7 +6222,7 @@
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="J65" t="s">
         <v>562</v>
@@ -6236,10 +6242,10 @@
         <v>564</v>
       </c>
       <c r="B66" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C66" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D66" t="s">
         <v>565</v>
@@ -6247,16 +6253,20 @@
       <c r="E66" t="s">
         <v>566</v>
       </c>
-      <c r="G66"/>
-      <c r="H66"/>
+      <c r="G66" t="s">
+        <v>567</v>
+      </c>
+      <c r="H66" t="s">
+        <v>568</v>
+      </c>
       <c r="I66" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="J66" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="K66" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M66"/>
       <c r="N66"/>
@@ -6267,19 +6277,19 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B67" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C67" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D67" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E67" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
@@ -6294,30 +6304,30 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B68" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C68" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D68" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E68" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="J68" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="K68" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M68"/>
       <c r="N68"/>
@@ -6328,13 +6338,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B69" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C69" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D69" t="s">
         <v>555</v>
@@ -6345,13 +6355,13 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="J69" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K69" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M69"/>
       <c r="N69"/>
@@ -6362,51 +6372,51 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B70" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C70" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D70" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E70" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F70" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="G70" t="s">
+        <v>585</v>
+      </c>
+      <c r="H70" t="s">
+        <v>586</v>
+      </c>
+      <c r="I70" t="s">
+        <v>716</v>
+      </c>
+      <c r="J70" t="s">
         <v>583</v>
       </c>
-      <c r="H70" t="s">
+      <c r="K70" t="s">
         <v>584</v>
       </c>
-      <c r="I70" t="s">
-        <v>714</v>
-      </c>
-      <c r="J70" t="s">
-        <v>581</v>
-      </c>
-      <c r="K70" t="s">
-        <v>582</v>
-      </c>
       <c r="L70" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="M70" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="N70" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="P70"/>
       <c r="Q70"/>
       <c r="R70" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="S70" t="s">
         <v>426</v>
@@ -6417,37 +6427,37 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B71" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C71" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D71" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E71" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F71" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G71" t="s">
+        <v>592</v>
+      </c>
+      <c r="H71" t="s">
+        <v>593</v>
+      </c>
+      <c r="I71" t="s">
+        <v>717</v>
+      </c>
+      <c r="J71" t="s">
         <v>590</v>
       </c>
-      <c r="H71" t="s">
+      <c r="K71" t="s">
         <v>591</v>
-      </c>
-      <c r="I71" t="s">
-        <v>715</v>
-      </c>
-      <c r="J71" t="s">
-        <v>588</v>
-      </c>
-      <c r="K71" t="s">
-        <v>589</v>
       </c>
       <c r="M71"/>
       <c r="N71"/>
@@ -6458,242 +6468,242 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B72" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C72" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D72" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E72" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F72" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="G72" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="H72" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="M72" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="N72" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="P72"/>
       <c r="Q72"/>
       <c r="R72" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="S72" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="T72" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B73" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C73" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D73" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E73" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F73" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="G73" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H73" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="M73" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="N73" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="P73"/>
       <c r="Q73"/>
       <c r="R73" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="S73" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="T73" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B74" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C74" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D74" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E74" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F74" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="G74" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H74" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="J74"/>
       <c r="K74"/>
       <c r="L74" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="M74" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="N74" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="P74"/>
       <c r="Q74"/>
       <c r="R74" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="S74" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="T74" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B75" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C75" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D75" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E75" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F75" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G75" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H75" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="M75" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="N75" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="P75"/>
       <c r="Q75"/>
       <c r="R75" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="S75" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="T75" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B76" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C76" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D76" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E76" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F76" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="G76" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="H76" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="M76" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="N76" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="P76"/>
       <c r="Q76"/>
       <c r="R76" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="S76" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="T76" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="938">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>
@@ -138,6 +138,60 @@
   </si>
   <si>
     <t xml:space="preserve">#1はマナの節約をやめた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">居合い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A condition where the hit rate and damage multiplier increase up to a certain limit based on the number of turns without attacking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">攻撃をしなかったターン数に応じて、命中率とダメージ倍率が一定値まで上昇する状態。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 start(s) to take a low stance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1は低く構え始めた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 release(s) #his iai stance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1は居合いの構えを解いた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">渾身</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A condition where the attack power increases each time an attack is evaded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">攻撃を回避される度に攻撃の威力が上昇する状態。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 start(s) to look around with furious eyes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1は怒りに満ちた目で辺りを睨み始めた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 stop(s) being furious.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1は優しい目つきになった。</t>
   </si>
   <si>
     <t xml:space="preserve">23</t>
@@ -1506,6 +1560,24 @@
   </si>
   <si>
     <t xml:space="preserve">Distracted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suppressed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妨害</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A condition where damage dealt is reduced, and opportunities to use abilities are limited.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">与えるダメージが減少し、アビリティの使用機会が減る状態。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">制圧</t>
   </si>
   <si>
     <t xml:space="preserve">46</t>
@@ -2969,10 +3041,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>629</v>
+        <v>653</v>
       </c>
       <c r="C3" t="s">
-        <v>651</v>
+        <v>675</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -2981,7 +3053,7 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>723</v>
+        <v>747</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
@@ -2990,7 +3062,7 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>787</v>
+        <v>811</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
@@ -2999,7 +3071,7 @@
         <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>810</v>
+        <v>834</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
@@ -3010,7 +3082,7 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3" t="s">
-        <v>872</v>
+        <v>896</v>
       </c>
       <c r="S3" t="s">
         <v>30</v>
@@ -3024,10 +3096,10 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>630</v>
+        <v>654</v>
       </c>
       <c r="C4" t="s">
-        <v>652</v>
+        <v>676</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -3036,7 +3108,7 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>724</v>
+        <v>748</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -3045,7 +3117,7 @@
         <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>652</v>
+        <v>676</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
@@ -3054,7 +3126,7 @@
         <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>811</v>
+        <v>835</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -3065,7 +3137,7 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4" t="s">
-        <v>873</v>
+        <v>897</v>
       </c>
       <c r="S4" t="s">
         <v>39</v>
@@ -3079,10 +3151,7 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>631</v>
-      </c>
-      <c r="C5" t="s">
-        <v>653</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3090,198 +3159,171 @@
       <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
-        <v>725</v>
-      </c>
       <c r="G5" t="s">
         <v>44</v>
       </c>
       <c r="H5" t="s">
         <v>45</v>
       </c>
-      <c r="I5" t="s">
-        <v>788</v>
-      </c>
       <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
         <v>46</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" t="s">
         <v>47</v>
       </c>
-      <c r="L5" t="s">
-        <v>812</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="S5" t="s">
         <v>48</v>
       </c>
-      <c r="N5" t="s">
+      <c r="T5" t="s">
         <v>49</v>
-      </c>
-      <c r="O5" t="s">
-        <v>868</v>
-      </c>
-      <c r="P5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R5" t="s">
-        <v>874</v>
-      </c>
-      <c r="S5" t="s">
-        <v>52</v>
-      </c>
-      <c r="T5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
         <v>54</v>
       </c>
-      <c r="B6" t="s">
-        <v>632</v>
-      </c>
-      <c r="C6" t="s">
-        <v>654</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" t="s">
         <v>55</v>
       </c>
-      <c r="E6" t="s">
+      <c r="N6" t="s">
         <v>56</v>
       </c>
-      <c r="F6" t="s">
-        <v>726</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="S6" t="s">
         <v>57</v>
       </c>
-      <c r="H6" t="s">
+      <c r="T6" t="s">
         <v>58</v>
       </c>
-      <c r="I6" t="s">
-        <v>789</v>
-      </c>
-      <c r="J6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" t="s">
-        <v>813</v>
-      </c>
-      <c r="M6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" t="s">
-        <v>869</v>
-      </c>
-      <c r="P6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>64</v>
-      </c>
-      <c r="S6"/>
-      <c r="T6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>655</v>
+      </c>
+      <c r="C7" t="s">
+        <v>677</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>749</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>812</v>
+      </c>
+      <c r="J7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" t="s">
         <v>65</v>
       </c>
-      <c r="B7" t="s">
-        <v>631</v>
-      </c>
-      <c r="C7" t="s">
-        <v>655</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="L7" t="s">
+        <v>836</v>
+      </c>
+      <c r="M7" t="s">
         <v>66</v>
       </c>
-      <c r="E7" t="s">
+      <c r="N7" t="s">
         <v>67</v>
       </c>
-      <c r="F7" t="s">
-        <v>727</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="O7" t="s">
+        <v>892</v>
+      </c>
+      <c r="P7" t="s">
         <v>68</v>
       </c>
-      <c r="H7" t="s">
+      <c r="Q7" t="s">
         <v>69</v>
       </c>
-      <c r="I7" t="s">
-        <v>655</v>
-      </c>
-      <c r="J7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" t="s">
-        <v>814</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="R7" t="s">
+        <v>898</v>
+      </c>
+      <c r="S7" t="s">
         <v>70</v>
       </c>
-      <c r="N7" t="s">
+      <c r="T7" t="s">
         <v>71</v>
-      </c>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7" t="s">
-        <v>875</v>
-      </c>
-      <c r="S7" t="s">
-        <v>72</v>
-      </c>
-      <c r="T7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>656</v>
+      </c>
+      <c r="C8" t="s">
+        <v>678</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
         <v>74</v>
       </c>
-      <c r="B8" t="s">
-        <v>631</v>
-      </c>
-      <c r="C8" t="s">
-        <v>656</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>750</v>
+      </c>
+      <c r="G8" t="s">
         <v>75</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>76</v>
       </c>
-      <c r="F8" t="s">
-        <v>728</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
+        <v>813</v>
+      </c>
+      <c r="J8" t="s">
         <v>77</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
         <v>78</v>
       </c>
-      <c r="I8" t="s">
-        <v>656</v>
-      </c>
-      <c r="J8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" t="s">
-        <v>76</v>
-      </c>
       <c r="L8" t="s">
-        <v>815</v>
+        <v>837</v>
       </c>
       <c r="M8" t="s">
         <v>79</v>
@@ -3289,27 +3331,27 @@
       <c r="N8" t="s">
         <v>80</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8" t="s">
-        <v>876</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="O8" t="s">
+        <v>893</v>
+      </c>
+      <c r="P8" t="s">
         <v>81</v>
       </c>
-      <c r="T8" t="s">
+      <c r="Q8" t="s">
         <v>82</v>
       </c>
+      <c r="S8"/>
+      <c r="T8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="C9" t="s">
-        <v>657</v>
+        <v>679</v>
       </c>
       <c r="D9" t="s">
         <v>84</v>
@@ -3318,7 +3360,7 @@
         <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>729</v>
+        <v>751</v>
       </c>
       <c r="G9" t="s">
         <v>86</v>
@@ -3327,181 +3369,181 @@
         <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>657</v>
+        <v>679</v>
       </c>
       <c r="J9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K9" t="s">
         <v>85</v>
       </c>
       <c r="L9" t="s">
-        <v>816</v>
+        <v>838</v>
       </c>
       <c r="M9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" t="s">
         <v>89</v>
-      </c>
-      <c r="N9" t="s">
-        <v>90</v>
       </c>
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9" t="s">
-        <v>877</v>
+        <v>899</v>
       </c>
       <c r="S9" t="s">
+        <v>90</v>
+      </c>
+      <c r="T9" t="s">
         <v>91</v>
-      </c>
-      <c r="T9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>655</v>
+      </c>
+      <c r="C10" t="s">
+        <v>680</v>
+      </c>
+      <c r="D10" t="s">
         <v>93</v>
       </c>
-      <c r="B10" t="s">
-        <v>631</v>
-      </c>
-      <c r="C10" t="s">
-        <v>658</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>94</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>752</v>
+      </c>
+      <c r="G10" t="s">
         <v>95</v>
       </c>
-      <c r="F10" t="s">
-        <v>730</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>96</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>680</v>
+      </c>
+      <c r="J10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" t="s">
+        <v>839</v>
+      </c>
+      <c r="M10" t="s">
         <v>97</v>
       </c>
-      <c r="I10" t="s">
-        <v>658</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="N10" t="s">
         <v>98</v>
-      </c>
-      <c r="K10" t="s">
-        <v>95</v>
-      </c>
-      <c r="L10" t="s">
-        <v>817</v>
-      </c>
-      <c r="M10" t="s">
-        <v>99</v>
-      </c>
-      <c r="N10" t="s">
-        <v>100</v>
       </c>
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10" t="s">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="S10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>655</v>
+      </c>
+      <c r="C11" t="s">
+        <v>681</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
         <v>103</v>
       </c>
-      <c r="B11" t="s">
-        <v>633</v>
-      </c>
-      <c r="C11" t="s">
-        <v>659</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>753</v>
+      </c>
+      <c r="G11" t="s">
         <v>104</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>105</v>
       </c>
-      <c r="F11" t="s">
-        <v>731</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
+        <v>681</v>
+      </c>
+      <c r="J11" t="s">
         <v>106</v>
       </c>
-      <c r="H11" t="s">
+      <c r="K11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" t="s">
+        <v>840</v>
+      </c>
+      <c r="M11" t="s">
         <v>107</v>
       </c>
-      <c r="I11" t="s">
-        <v>659</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="N11" t="s">
         <v>108</v>
-      </c>
-      <c r="K11" t="s">
-        <v>105</v>
-      </c>
-      <c r="L11" t="s">
-        <v>818</v>
-      </c>
-      <c r="M11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N11" t="s">
-        <v>110</v>
       </c>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11" t="s">
-        <v>879</v>
+        <v>901</v>
       </c>
       <c r="S11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>655</v>
+      </c>
+      <c r="C12" t="s">
+        <v>682</v>
+      </c>
+      <c r="D12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" t="s">
         <v>113</v>
       </c>
-      <c r="B12" t="s">
-        <v>631</v>
-      </c>
-      <c r="C12" t="s">
-        <v>660</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>754</v>
+      </c>
+      <c r="G12" t="s">
         <v>114</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>115</v>
       </c>
-      <c r="F12" t="s">
-        <v>730</v>
-      </c>
-      <c r="G12" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" t="s">
-        <v>97</v>
-      </c>
       <c r="I12" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
       <c r="J12" t="s">
         <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s">
-        <v>819</v>
+        <v>841</v>
       </c>
       <c r="M12" t="s">
         <v>117</v>
@@ -3512,7 +3554,7 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12" t="s">
-        <v>880</v>
+        <v>902</v>
       </c>
       <c r="S12" t="s">
         <v>119</v>
@@ -3526,10 +3568,10 @@
         <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="C13" t="s">
-        <v>661</v>
+        <v>683</v>
       </c>
       <c r="D13" t="s">
         <v>122</v>
@@ -3538,7 +3580,7 @@
         <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>732</v>
+        <v>755</v>
       </c>
       <c r="G13" t="s">
         <v>124</v>
@@ -3547,7 +3589,7 @@
         <v>125</v>
       </c>
       <c r="I13" t="s">
-        <v>661</v>
+        <v>683</v>
       </c>
       <c r="J13" t="s">
         <v>126</v>
@@ -3556,7 +3598,7 @@
         <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>820</v>
+        <v>842</v>
       </c>
       <c r="M13" t="s">
         <v>127</v>
@@ -3567,7 +3609,7 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13" t="s">
-        <v>881</v>
+        <v>903</v>
       </c>
       <c r="S13" t="s">
         <v>129</v>
@@ -3581,10 +3623,10 @@
         <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="C14" t="s">
-        <v>662</v>
+        <v>684</v>
       </c>
       <c r="D14" t="s">
         <v>132</v>
@@ -3593,346 +3635,346 @@
         <v>133</v>
       </c>
       <c r="F14" t="s">
-        <v>733</v>
+        <v>754</v>
       </c>
       <c r="G14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" t="s">
+        <v>684</v>
+      </c>
+      <c r="J14" t="s">
         <v>134</v>
-      </c>
-      <c r="H14" t="s">
-        <v>135</v>
-      </c>
-      <c r="I14" t="s">
-        <v>662</v>
-      </c>
-      <c r="J14" t="s">
-        <v>132</v>
       </c>
       <c r="K14" t="s">
         <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>821</v>
+        <v>843</v>
       </c>
       <c r="M14" t="s">
+        <v>135</v>
+      </c>
+      <c r="N14" t="s">
         <v>136</v>
-      </c>
-      <c r="N14" t="s">
-        <v>137</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14" t="s">
-        <v>882</v>
+        <v>904</v>
       </c>
       <c r="S14" t="s">
+        <v>137</v>
+      </c>
+      <c r="T14" t="s">
         <v>138</v>
-      </c>
-      <c r="T14" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" t="s">
+        <v>655</v>
+      </c>
+      <c r="C15" t="s">
+        <v>685</v>
+      </c>
+      <c r="D15" t="s">
         <v>140</v>
       </c>
-      <c r="B15" t="s">
-        <v>631</v>
-      </c>
-      <c r="C15" t="s">
-        <v>663</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>141</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>756</v>
+      </c>
+      <c r="G15" t="s">
         <v>142</v>
       </c>
-      <c r="F15" t="s">
-        <v>734</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>143</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
+        <v>685</v>
+      </c>
+      <c r="J15" t="s">
         <v>144</v>
       </c>
-      <c r="I15" t="s">
-        <v>790</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s">
+        <v>844</v>
+      </c>
+      <c r="M15" t="s">
         <v>145</v>
       </c>
-      <c r="K15" t="s">
+      <c r="N15" t="s">
         <v>146</v>
-      </c>
-      <c r="L15" t="s">
-        <v>822</v>
-      </c>
-      <c r="M15" t="s">
-        <v>147</v>
-      </c>
-      <c r="N15" t="s">
-        <v>148</v>
       </c>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15" t="s">
-        <v>883</v>
+        <v>905</v>
       </c>
       <c r="S15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="T15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" t="s">
+        <v>655</v>
+      </c>
+      <c r="C16" t="s">
+        <v>686</v>
+      </c>
+      <c r="D16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" t="s">
         <v>151</v>
       </c>
-      <c r="B16" t="s">
-        <v>631</v>
-      </c>
-      <c r="C16" t="s">
-        <v>664</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
+        <v>757</v>
+      </c>
+      <c r="G16" t="s">
         <v>152</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>153</v>
       </c>
-      <c r="F16" t="s">
-        <v>735</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
+        <v>686</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>845</v>
+      </c>
+      <c r="M16" t="s">
         <v>154</v>
       </c>
-      <c r="H16" t="s">
+      <c r="N16" t="s">
         <v>155</v>
-      </c>
-      <c r="I16" t="s">
-        <v>791</v>
-      </c>
-      <c r="J16" t="s">
-        <v>156</v>
-      </c>
-      <c r="K16" t="s">
-        <v>157</v>
-      </c>
-      <c r="L16" t="s">
-        <v>823</v>
-      </c>
-      <c r="M16" t="s">
-        <v>158</v>
-      </c>
-      <c r="N16" t="s">
-        <v>159</v>
       </c>
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16" t="s">
-        <v>884</v>
+        <v>906</v>
       </c>
       <c r="S16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="T16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" t="s">
+        <v>655</v>
+      </c>
+      <c r="C17" t="s">
+        <v>687</v>
+      </c>
+      <c r="D17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" t="s">
+        <v>758</v>
+      </c>
+      <c r="G17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" t="s">
         <v>162</v>
       </c>
-      <c r="B17" t="s">
-        <v>631</v>
-      </c>
-      <c r="C17" t="s">
-        <v>665</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="I17" t="s">
+        <v>814</v>
+      </c>
+      <c r="J17" t="s">
         <v>163</v>
       </c>
-      <c r="E17" t="s">
+      <c r="K17" t="s">
         <v>164</v>
       </c>
-      <c r="F17" t="s">
-        <v>736</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="L17" t="s">
+        <v>846</v>
+      </c>
+      <c r="M17" t="s">
         <v>165</v>
       </c>
-      <c r="H17" t="s">
+      <c r="N17" t="s">
         <v>166</v>
-      </c>
-      <c r="I17" t="s">
-        <v>792</v>
-      </c>
-      <c r="J17" t="s">
-        <v>167</v>
-      </c>
-      <c r="K17" t="s">
-        <v>168</v>
-      </c>
-      <c r="L17" t="s">
-        <v>824</v>
-      </c>
-      <c r="M17" t="s">
-        <v>169</v>
-      </c>
-      <c r="N17" t="s">
-        <v>170</v>
       </c>
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17" t="s">
-        <v>885</v>
+        <v>907</v>
       </c>
       <c r="S17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="T17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" t="s">
+        <v>655</v>
+      </c>
+      <c r="C18" t="s">
+        <v>688</v>
+      </c>
+      <c r="D18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" t="s">
+        <v>759</v>
+      </c>
+      <c r="G18" t="s">
+        <v>172</v>
+      </c>
+      <c r="H18" t="s">
         <v>173</v>
       </c>
-      <c r="B18" t="s">
-        <v>634</v>
-      </c>
-      <c r="C18" t="s">
-        <v>666</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="I18" t="s">
+        <v>815</v>
+      </c>
+      <c r="J18" t="s">
         <v>174</v>
       </c>
-      <c r="E18" t="s">
+      <c r="K18" t="s">
         <v>175</v>
       </c>
-      <c r="F18" t="s">
-        <v>737</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="L18" t="s">
+        <v>847</v>
+      </c>
+      <c r="M18" t="s">
         <v>176</v>
       </c>
-      <c r="H18" t="s">
+      <c r="N18" t="s">
         <v>177</v>
-      </c>
-      <c r="I18" t="s">
-        <v>793</v>
-      </c>
-      <c r="J18" t="s">
-        <v>178</v>
-      </c>
-      <c r="K18" t="s">
-        <v>179</v>
-      </c>
-      <c r="L18" t="s">
-        <v>825</v>
-      </c>
-      <c r="M18" t="s">
-        <v>180</v>
-      </c>
-      <c r="N18" t="s">
-        <v>181</v>
       </c>
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18" t="s">
-        <v>886</v>
+        <v>908</v>
       </c>
       <c r="S18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" t="s">
+        <v>655</v>
+      </c>
+      <c r="C19" t="s">
+        <v>689</v>
+      </c>
+      <c r="D19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" t="s">
+        <v>760</v>
+      </c>
+      <c r="G19" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" t="s">
         <v>184</v>
       </c>
-      <c r="B19" t="s">
-        <v>629</v>
-      </c>
-      <c r="C19" t="s">
-        <v>667</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="I19" t="s">
+        <v>816</v>
+      </c>
+      <c r="J19" t="s">
         <v>185</v>
       </c>
-      <c r="E19" t="s">
+      <c r="K19" t="s">
         <v>186</v>
       </c>
-      <c r="F19" t="s">
-        <v>738</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="L19" t="s">
+        <v>848</v>
+      </c>
+      <c r="M19" t="s">
         <v>187</v>
       </c>
-      <c r="H19" t="s">
+      <c r="N19" t="s">
         <v>188</v>
-      </c>
-      <c r="I19" t="s">
-        <v>794</v>
-      </c>
-      <c r="J19" t="s">
-        <v>189</v>
-      </c>
-      <c r="K19" t="s">
-        <v>190</v>
-      </c>
-      <c r="L19" t="s">
-        <v>826</v>
-      </c>
-      <c r="M19" t="s">
-        <v>191</v>
-      </c>
-      <c r="N19" t="s">
-        <v>192</v>
       </c>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19" t="s">
-        <v>887</v>
+        <v>909</v>
       </c>
       <c r="S19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="T19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" t="s">
+        <v>658</v>
+      </c>
+      <c r="C20" t="s">
+        <v>690</v>
+      </c>
+      <c r="D20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" t="s">
+        <v>761</v>
+      </c>
+      <c r="G20" t="s">
+        <v>194</v>
+      </c>
+      <c r="H20" t="s">
         <v>195</v>
       </c>
-      <c r="B20" t="s">
-        <v>631</v>
-      </c>
-      <c r="C20" t="s">
-        <v>668</v>
-      </c>
-      <c r="D20" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" t="s">
-        <v>739</v>
-      </c>
-      <c r="G20" t="s">
-        <v>198</v>
-      </c>
-      <c r="H20" t="s">
-        <v>199</v>
-      </c>
       <c r="I20" t="s">
-        <v>668</v>
+        <v>817</v>
       </c>
       <c r="J20" t="s">
         <v>196</v>
@@ -3941,62 +3983,62 @@
         <v>197</v>
       </c>
       <c r="L20" t="s">
-        <v>827</v>
+        <v>849</v>
       </c>
       <c r="M20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20" t="s">
-        <v>888</v>
+        <v>910</v>
       </c>
       <c r="S20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" t="s">
+        <v>653</v>
+      </c>
+      <c r="C21" t="s">
+        <v>691</v>
+      </c>
+      <c r="D21" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" t="s">
         <v>204</v>
       </c>
-      <c r="B21" t="s">
-        <v>635</v>
-      </c>
-      <c r="C21" t="s">
-        <v>669</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
+        <v>762</v>
+      </c>
+      <c r="G21" t="s">
         <v>205</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>206</v>
       </c>
-      <c r="F21" t="s">
-        <v>740</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
+        <v>818</v>
+      </c>
+      <c r="J21" t="s">
         <v>207</v>
       </c>
-      <c r="H21" t="s">
+      <c r="K21" t="s">
         <v>208</v>
       </c>
-      <c r="I21" t="s">
-        <v>669</v>
-      </c>
-      <c r="J21" t="s">
-        <v>205</v>
-      </c>
-      <c r="K21" t="s">
-        <v>206</v>
-      </c>
       <c r="L21" t="s">
-        <v>828</v>
+        <v>850</v>
       </c>
       <c r="M21" t="s">
         <v>209</v>
@@ -4006,128 +4048,128 @@
       </c>
       <c r="P21"/>
       <c r="Q21"/>
-      <c r="S21"/>
-      <c r="T21"/>
+      <c r="R21" t="s">
+        <v>911</v>
+      </c>
+      <c r="S21" t="s">
+        <v>211</v>
+      </c>
+      <c r="T21" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s">
-        <v>629</v>
+        <v>655</v>
       </c>
       <c r="C22" t="s">
-        <v>670</v>
+        <v>692</v>
       </c>
       <c r="D22" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E22" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F22" t="s">
-        <v>741</v>
+        <v>763</v>
       </c>
       <c r="G22" t="s">
+        <v>216</v>
+      </c>
+      <c r="H22" t="s">
+        <v>217</v>
+      </c>
+      <c r="I22" t="s">
+        <v>692</v>
+      </c>
+      <c r="J22" t="s">
         <v>214</v>
       </c>
-      <c r="H22" t="s">
+      <c r="K22" t="s">
         <v>215</v>
       </c>
-      <c r="I22" t="s">
-        <v>670</v>
-      </c>
-      <c r="J22" t="s">
-        <v>212</v>
-      </c>
-      <c r="K22" t="s">
-        <v>213</v>
-      </c>
       <c r="L22" t="s">
-        <v>829</v>
+        <v>851</v>
       </c>
       <c r="M22" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22" t="s">
-        <v>889</v>
+        <v>912</v>
       </c>
       <c r="S22" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="T22" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s">
-        <v>636</v>
+        <v>659</v>
       </c>
       <c r="C23" t="s">
-        <v>671</v>
+        <v>693</v>
       </c>
       <c r="D23" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E23" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F23" t="s">
-        <v>742</v>
+        <v>764</v>
       </c>
       <c r="G23" t="s">
+        <v>225</v>
+      </c>
+      <c r="H23" t="s">
+        <v>226</v>
+      </c>
+      <c r="I23" t="s">
+        <v>693</v>
+      </c>
+      <c r="J23" t="s">
         <v>223</v>
       </c>
-      <c r="H23" t="s">
+      <c r="K23" t="s">
         <v>224</v>
       </c>
-      <c r="I23" t="s">
-        <v>671</v>
-      </c>
-      <c r="J23" t="s">
-        <v>221</v>
-      </c>
-      <c r="K23" t="s">
-        <v>222</v>
-      </c>
       <c r="L23" t="s">
-        <v>830</v>
+        <v>852</v>
       </c>
       <c r="M23" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N23" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P23"/>
       <c r="Q23"/>
-      <c r="R23" t="s">
-        <v>890</v>
-      </c>
-      <c r="S23" t="s">
-        <v>227</v>
-      </c>
-      <c r="T23" t="s">
-        <v>228</v>
-      </c>
+      <c r="S23"/>
+      <c r="T23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>229</v>
       </c>
       <c r="B24" t="s">
-        <v>636</v>
+        <v>653</v>
       </c>
       <c r="C24" t="s">
-        <v>672</v>
+        <v>694</v>
       </c>
       <c r="D24" t="s">
         <v>230</v>
@@ -4136,7 +4178,7 @@
         <v>231</v>
       </c>
       <c r="F24" t="s">
-        <v>743</v>
+        <v>765</v>
       </c>
       <c r="G24" t="s">
         <v>232</v>
@@ -4145,7 +4187,7 @@
         <v>233</v>
       </c>
       <c r="I24" t="s">
-        <v>672</v>
+        <v>694</v>
       </c>
       <c r="J24" t="s">
         <v>230</v>
@@ -4154,7 +4196,7 @@
         <v>231</v>
       </c>
       <c r="L24" t="s">
-        <v>831</v>
+        <v>853</v>
       </c>
       <c r="M24" t="s">
         <v>234</v>
@@ -4165,7 +4207,7 @@
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24" t="s">
-        <v>891</v>
+        <v>913</v>
       </c>
       <c r="S24" t="s">
         <v>236</v>
@@ -4179,10 +4221,10 @@
         <v>238</v>
       </c>
       <c r="B25" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="C25" t="s">
-        <v>673</v>
+        <v>695</v>
       </c>
       <c r="D25" t="s">
         <v>239</v>
@@ -4191,7 +4233,7 @@
         <v>240</v>
       </c>
       <c r="F25" t="s">
-        <v>744</v>
+        <v>766</v>
       </c>
       <c r="G25" t="s">
         <v>241</v>
@@ -4200,7 +4242,7 @@
         <v>242</v>
       </c>
       <c r="I25" t="s">
-        <v>673</v>
+        <v>695</v>
       </c>
       <c r="J25" t="s">
         <v>239</v>
@@ -4209,7 +4251,7 @@
         <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>832</v>
+        <v>854</v>
       </c>
       <c r="M25" t="s">
         <v>243</v>
@@ -4220,7 +4262,7 @@
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25" t="s">
-        <v>892</v>
+        <v>914</v>
       </c>
       <c r="S25" t="s">
         <v>245</v>
@@ -4234,10 +4276,10 @@
         <v>247</v>
       </c>
       <c r="B26" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="C26" t="s">
-        <v>674</v>
+        <v>696</v>
       </c>
       <c r="D26" t="s">
         <v>248</v>
@@ -4246,7 +4288,7 @@
         <v>249</v>
       </c>
       <c r="F26" t="s">
-        <v>745</v>
+        <v>767</v>
       </c>
       <c r="G26" t="s">
         <v>250</v>
@@ -4255,7 +4297,7 @@
         <v>251</v>
       </c>
       <c r="I26" t="s">
-        <v>674</v>
+        <v>696</v>
       </c>
       <c r="J26" t="s">
         <v>248</v>
@@ -4264,7 +4306,7 @@
         <v>249</v>
       </c>
       <c r="L26" t="s">
-        <v>833</v>
+        <v>855</v>
       </c>
       <c r="M26" t="s">
         <v>252</v>
@@ -4275,7 +4317,7 @@
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26" t="s">
-        <v>893</v>
+        <v>915</v>
       </c>
       <c r="S26" t="s">
         <v>254</v>
@@ -4289,10 +4331,10 @@
         <v>256</v>
       </c>
       <c r="B27" t="s">
-        <v>631</v>
+        <v>660</v>
       </c>
       <c r="C27" t="s">
-        <v>675</v>
+        <v>697</v>
       </c>
       <c r="D27" t="s">
         <v>257</v>
@@ -4301,7 +4343,7 @@
         <v>258</v>
       </c>
       <c r="F27" t="s">
-        <v>746</v>
+        <v>768</v>
       </c>
       <c r="G27" t="s">
         <v>259</v>
@@ -4310,236 +4352,236 @@
         <v>260</v>
       </c>
       <c r="I27" t="s">
-        <v>795</v>
+        <v>697</v>
       </c>
       <c r="J27" t="s">
+        <v>257</v>
+      </c>
+      <c r="K27" t="s">
+        <v>258</v>
+      </c>
+      <c r="L27" t="s">
+        <v>856</v>
+      </c>
+      <c r="M27" t="s">
         <v>261</v>
       </c>
-      <c r="K27" t="s">
+      <c r="N27" t="s">
         <v>262</v>
-      </c>
-      <c r="L27" t="s">
-        <v>834</v>
-      </c>
-      <c r="M27" t="s">
-        <v>263</v>
-      </c>
-      <c r="N27" t="s">
-        <v>264</v>
       </c>
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27" t="s">
-        <v>894</v>
+        <v>916</v>
       </c>
       <c r="S27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="T27" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>265</v>
+      </c>
+      <c r="B28" t="s">
+        <v>660</v>
+      </c>
+      <c r="C28" t="s">
+        <v>698</v>
+      </c>
+      <c r="D28" t="s">
+        <v>266</v>
+      </c>
+      <c r="E28" t="s">
         <v>267</v>
       </c>
-      <c r="B28" t="s">
-        <v>631</v>
-      </c>
-      <c r="C28" t="s">
-        <v>676</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
+        <v>769</v>
+      </c>
+      <c r="G28" t="s">
         <v>268</v>
       </c>
-      <c r="E28" t="s">
+      <c r="H28" t="s">
         <v>269</v>
       </c>
-      <c r="F28" t="s">
-        <v>747</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
+        <v>698</v>
+      </c>
+      <c r="J28" t="s">
+        <v>266</v>
+      </c>
+      <c r="K28" t="s">
+        <v>267</v>
+      </c>
+      <c r="L28" t="s">
+        <v>857</v>
+      </c>
+      <c r="M28" t="s">
         <v>270</v>
       </c>
-      <c r="H28" t="s">
+      <c r="N28" t="s">
         <v>271</v>
-      </c>
-      <c r="I28" t="s">
-        <v>676</v>
-      </c>
-      <c r="J28" t="s">
-        <v>268</v>
-      </c>
-      <c r="K28" t="s">
-        <v>269</v>
-      </c>
-      <c r="L28" t="s">
-        <v>835</v>
-      </c>
-      <c r="M28" t="s">
-        <v>272</v>
-      </c>
-      <c r="N28" t="s">
-        <v>273</v>
       </c>
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28" t="s">
-        <v>895</v>
+        <v>917</v>
       </c>
       <c r="S28" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="T28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>274</v>
+      </c>
+      <c r="B29" t="s">
+        <v>655</v>
+      </c>
+      <c r="C29" t="s">
+        <v>699</v>
+      </c>
+      <c r="D29" t="s">
+        <v>275</v>
+      </c>
+      <c r="E29" t="s">
         <v>276</v>
       </c>
-      <c r="B29" t="s">
-        <v>636</v>
-      </c>
-      <c r="C29" t="s">
-        <v>677</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
+        <v>770</v>
+      </c>
+      <c r="G29" t="s">
         <v>277</v>
       </c>
-      <c r="E29" t="s">
+      <c r="H29" t="s">
         <v>278</v>
       </c>
-      <c r="F29" t="s">
-        <v>747</v>
-      </c>
-      <c r="G29" t="s">
-        <v>270</v>
-      </c>
-      <c r="H29" t="s">
-        <v>271</v>
-      </c>
       <c r="I29" t="s">
-        <v>677</v>
+        <v>819</v>
       </c>
       <c r="J29" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K29" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>836</v>
+        <v>858</v>
       </c>
       <c r="M29" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N29" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29" t="s">
-        <v>896</v>
+        <v>918</v>
       </c>
       <c r="S29" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="T29" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="C30" t="s">
-        <v>678</v>
+        <v>700</v>
       </c>
       <c r="D30" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E30" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F30" t="s">
-        <v>748</v>
+        <v>771</v>
       </c>
       <c r="G30" t="s">
+        <v>288</v>
+      </c>
+      <c r="H30" t="s">
+        <v>289</v>
+      </c>
+      <c r="I30" t="s">
+        <v>700</v>
+      </c>
+      <c r="J30" t="s">
         <v>286</v>
       </c>
-      <c r="H30" t="s">
+      <c r="K30" t="s">
         <v>287</v>
       </c>
-      <c r="I30" t="s">
-        <v>678</v>
-      </c>
-      <c r="J30" t="s">
-        <v>288</v>
-      </c>
-      <c r="K30" t="s">
-        <v>285</v>
-      </c>
       <c r="L30" t="s">
-        <v>837</v>
+        <v>859</v>
       </c>
       <c r="M30" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N30" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30" t="s">
-        <v>897</v>
+        <v>919</v>
       </c>
       <c r="S30" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T30" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s">
-        <v>637</v>
+        <v>660</v>
       </c>
       <c r="C31" t="s">
-        <v>679</v>
+        <v>701</v>
       </c>
       <c r="D31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E31" t="s">
+        <v>296</v>
+      </c>
+      <c r="F31" t="s">
+        <v>771</v>
+      </c>
+      <c r="G31" t="s">
+        <v>288</v>
+      </c>
+      <c r="H31" t="s">
+        <v>289</v>
+      </c>
+      <c r="I31" t="s">
+        <v>701</v>
+      </c>
+      <c r="J31" t="s">
         <v>295</v>
       </c>
-      <c r="F31" t="s">
-        <v>748</v>
-      </c>
-      <c r="G31" t="s">
-        <v>286</v>
-      </c>
-      <c r="H31" t="s">
-        <v>287</v>
-      </c>
-      <c r="I31" t="s">
-        <v>679</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>296</v>
       </c>
-      <c r="K31" t="s">
-        <v>295</v>
-      </c>
       <c r="L31" t="s">
-        <v>838</v>
+        <v>860</v>
       </c>
       <c r="M31" t="s">
         <v>297</v>
@@ -4550,7 +4592,7 @@
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31" t="s">
-        <v>898</v>
+        <v>920</v>
       </c>
       <c r="S31" t="s">
         <v>299</v>
@@ -4564,10 +4606,10 @@
         <v>301</v>
       </c>
       <c r="B32" t="s">
-        <v>638</v>
+        <v>661</v>
       </c>
       <c r="C32" t="s">
-        <v>680</v>
+        <v>702</v>
       </c>
       <c r="D32" t="s">
         <v>302</v>
@@ -4576,7 +4618,7 @@
         <v>303</v>
       </c>
       <c r="F32" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G32" t="s">
         <v>304</v>
@@ -4585,476 +4627,476 @@
         <v>305</v>
       </c>
       <c r="I32" t="s">
-        <v>680</v>
+        <v>702</v>
       </c>
       <c r="J32" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K32" t="s">
         <v>303</v>
       </c>
-      <c r="M32"/>
-      <c r="N32"/>
+      <c r="L32" t="s">
+        <v>861</v>
+      </c>
+      <c r="M32" t="s">
+        <v>307</v>
+      </c>
+      <c r="N32" t="s">
+        <v>308</v>
+      </c>
       <c r="P32"/>
       <c r="Q32"/>
-      <c r="S32"/>
-      <c r="T32"/>
+      <c r="R32" t="s">
+        <v>921</v>
+      </c>
+      <c r="S32" t="s">
+        <v>309</v>
+      </c>
+      <c r="T32" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s">
-        <v>639</v>
+        <v>661</v>
       </c>
       <c r="C33" t="s">
-        <v>681</v>
+        <v>703</v>
       </c>
       <c r="D33" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E33" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F33" t="s">
-        <v>750</v>
+        <v>772</v>
       </c>
       <c r="G33" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H33" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I33" t="s">
-        <v>681</v>
+        <v>703</v>
       </c>
       <c r="J33" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="K33" t="s">
-        <v>308</v>
-      </c>
-      <c r="M33"/>
-      <c r="N33"/>
+        <v>313</v>
+      </c>
+      <c r="L33" t="s">
+        <v>862</v>
+      </c>
+      <c r="M33" t="s">
+        <v>315</v>
+      </c>
+      <c r="N33" t="s">
+        <v>316</v>
+      </c>
       <c r="P33"/>
       <c r="Q33"/>
-      <c r="S33"/>
-      <c r="T33"/>
+      <c r="R33" t="s">
+        <v>922</v>
+      </c>
+      <c r="S33" t="s">
+        <v>317</v>
+      </c>
+      <c r="T33" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s">
-        <v>640</v>
+        <v>662</v>
       </c>
       <c r="C34" t="s">
-        <v>682</v>
+        <v>704</v>
       </c>
       <c r="D34" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E34" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F34" t="s">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="G34" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="H34" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="I34" t="s">
-        <v>796</v>
+        <v>704</v>
       </c>
       <c r="J34" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="K34" t="s">
-        <v>313</v>
-      </c>
-      <c r="L34" t="s">
-        <v>839</v>
-      </c>
-      <c r="M34" t="s">
-        <v>316</v>
-      </c>
-      <c r="N34" t="s">
-        <v>317</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M34"/>
+      <c r="N34"/>
       <c r="P34"/>
       <c r="Q34"/>
-      <c r="R34" t="s">
-        <v>899</v>
-      </c>
-      <c r="S34" t="s">
-        <v>318</v>
-      </c>
-      <c r="T34" t="s">
-        <v>319</v>
-      </c>
+      <c r="S34"/>
+      <c r="T34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s">
-        <v>631</v>
+        <v>663</v>
       </c>
       <c r="C35" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
       <c r="D35" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E35" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F35" t="s">
-        <v>752</v>
+        <v>774</v>
       </c>
       <c r="G35" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H35" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I35" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
       <c r="J35" t="s">
         <v>325</v>
       </c>
       <c r="K35" t="s">
-        <v>322</v>
-      </c>
-      <c r="L35" t="s">
-        <v>840</v>
-      </c>
-      <c r="M35" t="s">
         <v>326</v>
       </c>
-      <c r="N35" t="s">
-        <v>327</v>
-      </c>
+      <c r="M35"/>
+      <c r="N35"/>
       <c r="P35"/>
       <c r="Q35"/>
-      <c r="R35" t="s">
-        <v>900</v>
-      </c>
-      <c r="S35" t="s">
-        <v>328</v>
-      </c>
-      <c r="T35" t="s">
-        <v>329</v>
-      </c>
+      <c r="S35"/>
+      <c r="T35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>329</v>
+      </c>
+      <c r="B36" t="s">
+        <v>664</v>
+      </c>
+      <c r="C36" t="s">
+        <v>706</v>
+      </c>
+      <c r="D36" t="s">
         <v>330</v>
       </c>
-      <c r="B36" t="s">
-        <v>631</v>
-      </c>
-      <c r="C36" t="s">
-        <v>684</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>331</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
+        <v>775</v>
+      </c>
+      <c r="G36" t="s">
         <v>332</v>
       </c>
-      <c r="F36" t="s">
-        <v>753</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>333</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
+        <v>820</v>
+      </c>
+      <c r="J36" t="s">
+        <v>330</v>
+      </c>
+      <c r="K36" t="s">
+        <v>331</v>
+      </c>
+      <c r="L36" t="s">
+        <v>863</v>
+      </c>
+      <c r="M36" t="s">
         <v>334</v>
       </c>
-      <c r="I36" t="s">
-        <v>684</v>
-      </c>
-      <c r="J36" t="s">
-        <v>331</v>
-      </c>
-      <c r="K36" t="s">
-        <v>332</v>
-      </c>
-      <c r="L36" t="s">
-        <v>841</v>
-      </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>335</v>
-      </c>
-      <c r="N36" t="s">
-        <v>336</v>
       </c>
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36" t="s">
-        <v>895</v>
+        <v>923</v>
       </c>
       <c r="S36" t="s">
-        <v>274</v>
+        <v>336</v>
       </c>
       <c r="T36" t="s">
-        <v>275</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B37" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="C37" t="s">
-        <v>685</v>
+        <v>707</v>
       </c>
       <c r="D37" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E37" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F37" t="s">
-        <v>754</v>
+        <v>776</v>
       </c>
       <c r="G37" t="s">
+        <v>341</v>
+      </c>
+      <c r="H37" t="s">
+        <v>342</v>
+      </c>
+      <c r="I37" t="s">
+        <v>707</v>
+      </c>
+      <c r="J37" t="s">
+        <v>343</v>
+      </c>
+      <c r="K37" t="s">
         <v>340</v>
       </c>
-      <c r="H37" t="s">
-        <v>341</v>
-      </c>
-      <c r="I37" t="s">
-        <v>685</v>
-      </c>
-      <c r="J37" t="s">
-        <v>338</v>
-      </c>
-      <c r="K37" t="s">
-        <v>339</v>
-      </c>
       <c r="L37" t="s">
-        <v>842</v>
+        <v>864</v>
       </c>
       <c r="M37" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N37" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37" t="s">
-        <v>901</v>
+        <v>924</v>
       </c>
       <c r="S37" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="T37" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B38" t="s">
-        <v>629</v>
+        <v>655</v>
       </c>
       <c r="C38" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
       <c r="D38" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E38" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F38" t="s">
-        <v>755</v>
+        <v>777</v>
       </c>
       <c r="G38" t="s">
+        <v>351</v>
+      </c>
+      <c r="H38" t="s">
+        <v>352</v>
+      </c>
+      <c r="I38" t="s">
+        <v>708</v>
+      </c>
+      <c r="J38" t="s">
         <v>349</v>
       </c>
-      <c r="H38" t="s">
+      <c r="K38" t="s">
         <v>350</v>
       </c>
-      <c r="I38" t="s">
-        <v>686</v>
-      </c>
-      <c r="J38" t="s">
-        <v>347</v>
-      </c>
-      <c r="K38" t="s">
-        <v>348</v>
-      </c>
       <c r="L38" t="s">
-        <v>843</v>
+        <v>865</v>
       </c>
       <c r="M38" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="N38" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P38"/>
       <c r="Q38"/>
-      <c r="S38"/>
-      <c r="T38"/>
+      <c r="R38" t="s">
+        <v>919</v>
+      </c>
+      <c r="S38" t="s">
+        <v>292</v>
+      </c>
+      <c r="T38" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B39" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="C39" t="s">
-        <v>687</v>
+        <v>709</v>
       </c>
       <c r="D39" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E39" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F39" t="s">
-        <v>756</v>
+        <v>778</v>
       </c>
       <c r="G39" t="s">
+        <v>358</v>
+      </c>
+      <c r="H39" t="s">
+        <v>359</v>
+      </c>
+      <c r="I39" t="s">
+        <v>709</v>
+      </c>
+      <c r="J39" t="s">
         <v>356</v>
       </c>
-      <c r="H39" t="s">
+      <c r="K39" t="s">
         <v>357</v>
       </c>
-      <c r="I39" t="s">
-        <v>687</v>
-      </c>
-      <c r="J39" t="s">
-        <v>358</v>
-      </c>
-      <c r="K39" t="s">
-        <v>355</v>
-      </c>
       <c r="L39" t="s">
-        <v>844</v>
+        <v>866</v>
       </c>
       <c r="M39" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N39" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39" t="s">
-        <v>902</v>
+        <v>925</v>
       </c>
       <c r="S39" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="T39" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B40" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="C40" t="s">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="D40" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E40" t="s">
+        <v>366</v>
+      </c>
+      <c r="F40" t="s">
+        <v>779</v>
+      </c>
+      <c r="G40" t="s">
+        <v>367</v>
+      </c>
+      <c r="H40" t="s">
+        <v>368</v>
+      </c>
+      <c r="I40" t="s">
+        <v>710</v>
+      </c>
+      <c r="J40" t="s">
         <v>365</v>
       </c>
-      <c r="F40" t="s">
-        <v>757</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="K40" t="s">
         <v>366</v>
       </c>
-      <c r="H40" t="s">
-        <v>367</v>
-      </c>
-      <c r="I40" t="s">
-        <v>688</v>
-      </c>
-      <c r="J40" t="s">
-        <v>364</v>
-      </c>
-      <c r="K40" t="s">
-        <v>365</v>
-      </c>
       <c r="L40" t="s">
-        <v>845</v>
+        <v>867</v>
       </c>
       <c r="M40" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N40" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P40"/>
       <c r="Q40"/>
-      <c r="R40" t="s">
-        <v>903</v>
-      </c>
-      <c r="S40" t="s">
-        <v>370</v>
-      </c>
-      <c r="T40" t="s">
-        <v>371</v>
-      </c>
+      <c r="S40"/>
+      <c r="T40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>371</v>
+      </c>
+      <c r="B41" t="s">
+        <v>665</v>
+      </c>
+      <c r="C41" t="s">
+        <v>711</v>
+      </c>
+      <c r="D41" t="s">
         <v>372</v>
       </c>
-      <c r="B41" t="s">
-        <v>642</v>
-      </c>
-      <c r="C41" t="s">
-        <v>689</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>373</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
+        <v>780</v>
+      </c>
+      <c r="G41" t="s">
         <v>374</v>
       </c>
-      <c r="F41" t="s">
-        <v>758</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>375</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
+        <v>711</v>
+      </c>
+      <c r="J41" t="s">
         <v>376</v>
       </c>
-      <c r="I41" t="s">
-        <v>689</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>373</v>
       </c>
-      <c r="K41" t="s">
-        <v>374</v>
-      </c>
       <c r="L41" t="s">
-        <v>846</v>
+        <v>868</v>
       </c>
       <c r="M41" t="s">
         <v>377</v>
@@ -5065,215 +5107,222 @@
       <c r="P41"/>
       <c r="Q41"/>
       <c r="R41" t="s">
-        <v>903</v>
+        <v>926</v>
       </c>
       <c r="S41" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="T41" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B42" t="s">
-        <v>642</v>
+        <v>666</v>
       </c>
       <c r="C42" t="s">
-        <v>690</v>
+        <v>712</v>
       </c>
       <c r="D42" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E42" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F42" t="s">
-        <v>758</v>
+        <v>781</v>
       </c>
       <c r="G42" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="H42" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="I42" t="s">
-        <v>690</v>
+        <v>712</v>
       </c>
       <c r="J42" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K42" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L42" t="s">
-        <v>846</v>
+        <v>869</v>
       </c>
       <c r="M42" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="N42" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="P42"/>
       <c r="Q42"/>
       <c r="R42" t="s">
-        <v>903</v>
+        <v>927</v>
       </c>
       <c r="S42" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="T42" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B43" t="s">
-        <v>636</v>
+        <v>666</v>
       </c>
       <c r="C43" t="s">
-        <v>691</v>
+        <v>713</v>
       </c>
       <c r="D43" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="E43" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="F43" t="s">
-        <v>759</v>
+        <v>782</v>
       </c>
       <c r="G43" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="H43" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="I43" t="s">
-        <v>691</v>
+        <v>713</v>
       </c>
       <c r="J43" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="K43" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="L43" t="s">
-        <v>847</v>
+        <v>870</v>
       </c>
       <c r="M43" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="N43" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="P43"/>
       <c r="Q43"/>
-      <c r="S43"/>
-      <c r="T43"/>
+      <c r="R43" t="s">
+        <v>927</v>
+      </c>
+      <c r="S43" t="s">
+        <v>388</v>
+      </c>
+      <c r="T43" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B44" t="s">
-        <v>631</v>
+        <v>666</v>
       </c>
       <c r="C44" t="s">
-        <v>692</v>
+        <v>714</v>
       </c>
       <c r="D44" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="E44" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="F44" t="s">
-        <v>760</v>
+        <v>782</v>
       </c>
       <c r="G44" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H44" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I44" t="s">
-        <v>692</v>
+        <v>714</v>
       </c>
       <c r="J44" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="K44" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="L44" t="s">
-        <v>848</v>
+        <v>870</v>
       </c>
       <c r="M44" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N44" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44" t="s">
-        <v>904</v>
+        <v>927</v>
       </c>
       <c r="S44" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="T44" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B45" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="C45" t="s">
-        <v>693</v>
+        <v>715</v>
       </c>
       <c r="D45" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E45" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F45" t="s">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="G45" t="s">
+        <v>403</v>
+      </c>
+      <c r="H45" t="s">
+        <v>404</v>
+      </c>
+      <c r="I45" t="s">
+        <v>715</v>
+      </c>
+      <c r="J45" t="s">
         <v>401</v>
       </c>
-      <c r="H45" t="s">
+      <c r="K45" t="s">
         <v>402</v>
       </c>
-      <c r="I45" t="s">
-        <v>693</v>
-      </c>
-      <c r="J45" t="s">
-        <v>399</v>
-      </c>
-      <c r="K45" t="s">
-        <v>400</v>
-      </c>
       <c r="L45" t="s">
-        <v>849</v>
+        <v>871</v>
       </c>
       <c r="M45" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N45" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P45"/>
       <c r="Q45"/>
@@ -5282,94 +5331,101 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B46" t="s">
-        <v>636</v>
+        <v>655</v>
       </c>
       <c r="C46" t="s">
-        <v>694</v>
+        <v>716</v>
       </c>
       <c r="D46" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E46" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F46" t="s">
-        <v>762</v>
+        <v>784</v>
       </c>
       <c r="G46" t="s">
+        <v>410</v>
+      </c>
+      <c r="H46" t="s">
+        <v>411</v>
+      </c>
+      <c r="I46" t="s">
+        <v>716</v>
+      </c>
+      <c r="J46" t="s">
         <v>408</v>
       </c>
-      <c r="H46" t="s">
+      <c r="K46" t="s">
         <v>409</v>
       </c>
-      <c r="I46" t="s">
-        <v>694</v>
-      </c>
-      <c r="J46" t="s">
-        <v>406</v>
-      </c>
-      <c r="K46" t="s">
-        <v>407</v>
-      </c>
       <c r="L46" t="s">
-        <v>850</v>
+        <v>872</v>
       </c>
       <c r="M46" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N46" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="P46"/>
       <c r="Q46"/>
-      <c r="S46"/>
-      <c r="T46"/>
+      <c r="R46" t="s">
+        <v>928</v>
+      </c>
+      <c r="S46" t="s">
+        <v>414</v>
+      </c>
+      <c r="T46" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B47" t="s">
-        <v>643</v>
+        <v>660</v>
       </c>
       <c r="C47" t="s">
-        <v>695</v>
+        <v>717</v>
       </c>
       <c r="D47" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E47" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F47" t="s">
-        <v>763</v>
+        <v>785</v>
       </c>
       <c r="G47" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H47" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I47" t="s">
-        <v>695</v>
+        <v>717</v>
       </c>
       <c r="J47" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K47" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L47" t="s">
-        <v>851</v>
+        <v>873</v>
       </c>
       <c r="M47" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="N47" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="P47"/>
       <c r="Q47"/>
@@ -5378,101 +5434,94 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B48" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="C48" t="s">
-        <v>696</v>
+        <v>718</v>
       </c>
       <c r="D48" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E48" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="F48" t="s">
-        <v>764</v>
+        <v>786</v>
       </c>
       <c r="G48" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H48" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="I48" t="s">
-        <v>696</v>
+        <v>718</v>
       </c>
       <c r="J48" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K48" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L48" t="s">
-        <v>852</v>
+        <v>874</v>
       </c>
       <c r="M48" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="N48" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="P48"/>
       <c r="Q48"/>
-      <c r="R48" t="s">
-        <v>905</v>
-      </c>
-      <c r="S48" t="s">
-        <v>426</v>
-      </c>
-      <c r="T48" t="s">
-        <v>427</v>
-      </c>
+      <c r="S48"/>
+      <c r="T48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B49" t="s">
-        <v>636</v>
+        <v>667</v>
       </c>
       <c r="C49" t="s">
-        <v>697</v>
+        <v>719</v>
       </c>
       <c r="D49" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E49" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F49" t="s">
-        <v>765</v>
+        <v>787</v>
       </c>
       <c r="G49" t="s">
+        <v>433</v>
+      </c>
+      <c r="H49" t="s">
+        <v>434</v>
+      </c>
+      <c r="I49" t="s">
+        <v>719</v>
+      </c>
+      <c r="J49" t="s">
         <v>431</v>
       </c>
-      <c r="H49" t="s">
+      <c r="K49" t="s">
         <v>432</v>
       </c>
-      <c r="I49" t="s">
-        <v>697</v>
-      </c>
-      <c r="J49" t="s">
-        <v>429</v>
-      </c>
-      <c r="K49" t="s">
-        <v>430</v>
-      </c>
       <c r="L49" t="s">
-        <v>853</v>
+        <v>875</v>
       </c>
       <c r="M49" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="N49" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="P49"/>
       <c r="Q49"/>
@@ -5481,40 +5530,40 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B50" t="s">
-        <v>631</v>
+        <v>666</v>
       </c>
       <c r="C50" t="s">
-        <v>698</v>
+        <v>720</v>
       </c>
       <c r="D50" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E50" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F50" t="s">
-        <v>766</v>
+        <v>788</v>
       </c>
       <c r="G50" t="s">
+        <v>440</v>
+      </c>
+      <c r="H50" t="s">
+        <v>441</v>
+      </c>
+      <c r="I50" t="s">
+        <v>720</v>
+      </c>
+      <c r="J50" t="s">
         <v>438</v>
       </c>
-      <c r="H50" t="s">
+      <c r="K50" t="s">
         <v>439</v>
       </c>
-      <c r="I50" t="s">
-        <v>797</v>
-      </c>
-      <c r="J50" t="s">
-        <v>440</v>
-      </c>
-      <c r="K50" t="s">
-        <v>441</v>
-      </c>
       <c r="L50" t="s">
-        <v>854</v>
+        <v>876</v>
       </c>
       <c r="M50" t="s">
         <v>442</v>
@@ -5525,7 +5574,7 @@
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50" t="s">
-        <v>906</v>
+        <v>929</v>
       </c>
       <c r="S50" t="s">
         <v>444</v>
@@ -5539,10 +5588,10 @@
         <v>446</v>
       </c>
       <c r="B51" t="s">
-        <v>631</v>
+        <v>660</v>
       </c>
       <c r="C51" t="s">
-        <v>699</v>
+        <v>721</v>
       </c>
       <c r="D51" t="s">
         <v>447</v>
@@ -5551,7 +5600,7 @@
         <v>448</v>
       </c>
       <c r="F51" t="s">
-        <v>767</v>
+        <v>789</v>
       </c>
       <c r="G51" t="s">
         <v>449</v>
@@ -5560,62 +5609,55 @@
         <v>450</v>
       </c>
       <c r="I51" t="s">
-        <v>798</v>
+        <v>721</v>
       </c>
       <c r="J51" t="s">
+        <v>447</v>
+      </c>
+      <c r="K51" t="s">
+        <v>448</v>
+      </c>
+      <c r="L51" t="s">
+        <v>877</v>
+      </c>
+      <c r="M51" t="s">
         <v>451</v>
       </c>
-      <c r="K51" t="s">
+      <c r="N51" t="s">
         <v>452</v>
-      </c>
-      <c r="L51" t="s">
-        <v>855</v>
-      </c>
-      <c r="M51" t="s">
-        <v>453</v>
-      </c>
-      <c r="N51" t="s">
-        <v>454</v>
       </c>
       <c r="P51"/>
       <c r="Q51"/>
-      <c r="R51" t="s">
-        <v>907</v>
-      </c>
-      <c r="S51" t="s">
-        <v>455</v>
-      </c>
-      <c r="T51" t="s">
-        <v>456</v>
-      </c>
+      <c r="S51"/>
+      <c r="T51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>453</v>
+      </c>
+      <c r="B52" t="s">
+        <v>655</v>
+      </c>
+      <c r="C52" t="s">
+        <v>722</v>
+      </c>
+      <c r="D52" t="s">
+        <v>454</v>
+      </c>
+      <c r="E52" t="s">
+        <v>455</v>
+      </c>
+      <c r="F52" t="s">
+        <v>790</v>
+      </c>
+      <c r="G52" t="s">
+        <v>456</v>
+      </c>
+      <c r="H52" t="s">
         <v>457</v>
       </c>
-      <c r="B52" t="s">
-        <v>631</v>
-      </c>
-      <c r="C52" t="s">
-        <v>700</v>
-      </c>
-      <c r="D52" t="s">
-        <v>458</v>
-      </c>
-      <c r="E52" t="s">
-        <v>459</v>
-      </c>
-      <c r="F52" t="s">
-        <v>768</v>
-      </c>
-      <c r="G52" t="s">
-        <v>460</v>
-      </c>
-      <c r="H52" t="s">
-        <v>461</v>
-      </c>
       <c r="I52" t="s">
-        <v>700</v>
+        <v>821</v>
       </c>
       <c r="J52" t="s">
         <v>458</v>
@@ -5624,580 +5666,592 @@
         <v>459</v>
       </c>
       <c r="L52" t="s">
-        <v>856</v>
+        <v>878</v>
       </c>
       <c r="M52" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="N52" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52" t="s">
-        <v>908</v>
+        <v>930</v>
       </c>
       <c r="S52" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="T52" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>464</v>
+      </c>
+      <c r="B53" t="s">
+        <v>655</v>
+      </c>
+      <c r="C53" t="s">
+        <v>723</v>
+      </c>
+      <c r="D53" t="s">
+        <v>465</v>
+      </c>
+      <c r="E53" t="s">
         <v>466</v>
       </c>
-      <c r="B53" t="s">
-        <v>631</v>
-      </c>
-      <c r="C53" t="s">
-        <v>701</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
+        <v>791</v>
+      </c>
+      <c r="G53" t="s">
         <v>467</v>
       </c>
-      <c r="E53" t="s">
+      <c r="H53" t="s">
         <v>468</v>
       </c>
-      <c r="G53"/>
-      <c r="H53"/>
       <c r="I53" t="s">
-        <v>701</v>
+        <v>822</v>
       </c>
       <c r="J53" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K53" t="s">
-        <v>468</v>
-      </c>
-      <c r="M53"/>
-      <c r="N53"/>
+        <v>470</v>
+      </c>
+      <c r="L53" t="s">
+        <v>879</v>
+      </c>
+      <c r="M53" t="s">
+        <v>471</v>
+      </c>
+      <c r="N53" t="s">
+        <v>472</v>
+      </c>
       <c r="P53"/>
       <c r="Q53"/>
-      <c r="S53"/>
-      <c r="T53"/>
+      <c r="R53" t="s">
+        <v>931</v>
+      </c>
+      <c r="S53" t="s">
+        <v>473</v>
+      </c>
+      <c r="T53" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B54" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="C54" t="s">
-        <v>702</v>
+        <v>724</v>
       </c>
       <c r="D54" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="E54" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="F54" t="s">
-        <v>769</v>
+        <v>792</v>
       </c>
       <c r="G54" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="H54" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="I54" t="s">
-        <v>702</v>
+        <v>724</v>
       </c>
       <c r="J54" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="K54" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="L54" t="s">
-        <v>857</v>
+        <v>880</v>
       </c>
       <c r="M54" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="N54" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="P54"/>
       <c r="Q54"/>
       <c r="R54" t="s">
-        <v>909</v>
+        <v>932</v>
       </c>
       <c r="S54" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="T54" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B55" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="C55" t="s">
-        <v>703</v>
+        <v>725</v>
       </c>
       <c r="D55" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="E55" t="s">
-        <v>480</v>
-      </c>
-      <c r="F55" t="s">
-        <v>770</v>
-      </c>
-      <c r="G55" t="s">
-        <v>481</v>
-      </c>
-      <c r="H55" t="s">
-        <v>482</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55"/>
       <c r="I55" t="s">
-        <v>799</v>
+        <v>725</v>
       </c>
       <c r="J55" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K55" t="s">
-        <v>484</v>
-      </c>
-      <c r="L55" t="s">
-        <v>858</v>
-      </c>
-      <c r="M55" t="s">
-        <v>485</v>
-      </c>
-      <c r="N55" t="s">
         <v>486</v>
       </c>
+      <c r="M55"/>
+      <c r="N55"/>
       <c r="P55"/>
       <c r="Q55"/>
-      <c r="R55" t="s">
-        <v>910</v>
-      </c>
-      <c r="S55" t="s">
-        <v>487</v>
-      </c>
-      <c r="T55" t="s">
-        <v>488</v>
-      </c>
+      <c r="S55"/>
+      <c r="T55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>487</v>
+      </c>
+      <c r="B56" t="s">
+        <v>655</v>
+      </c>
+      <c r="C56" t="s">
+        <v>726</v>
+      </c>
+      <c r="D56" t="s">
+        <v>488</v>
+      </c>
+      <c r="E56" t="s">
         <v>489</v>
       </c>
-      <c r="B56" t="s">
-        <v>631</v>
-      </c>
-      <c r="C56" t="s">
-        <v>704</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
+        <v>793</v>
+      </c>
+      <c r="G56" t="s">
         <v>490</v>
       </c>
-      <c r="E56" t="s">
+      <c r="H56" t="s">
         <v>491</v>
       </c>
-      <c r="F56" t="s">
-        <v>771</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="I56" t="s">
+        <v>726</v>
+      </c>
+      <c r="J56" t="s">
+        <v>488</v>
+      </c>
+      <c r="K56" t="s">
+        <v>489</v>
+      </c>
+      <c r="L56" t="s">
+        <v>881</v>
+      </c>
+      <c r="M56" t="s">
         <v>492</v>
       </c>
-      <c r="H56" t="s">
+      <c r="N56" t="s">
         <v>493</v>
       </c>
-      <c r="I56" t="s">
-        <v>704</v>
-      </c>
-      <c r="J56" t="s">
-        <v>494</v>
-      </c>
-      <c r="K56" t="s">
-        <v>491</v>
-      </c>
-      <c r="M56"/>
-      <c r="N56"/>
       <c r="P56"/>
       <c r="Q56"/>
-      <c r="S56"/>
-      <c r="T56"/>
+      <c r="R56" t="s">
+        <v>933</v>
+      </c>
+      <c r="S56" t="s">
+        <v>494</v>
+      </c>
+      <c r="T56" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B57" t="s">
-        <v>631</v>
+        <v>668</v>
       </c>
       <c r="C57" t="s">
-        <v>705</v>
+        <v>727</v>
       </c>
       <c r="D57" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E57" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F57" t="s">
-        <v>772</v>
+        <v>794</v>
       </c>
       <c r="G57" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H57" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I57" t="s">
-        <v>705</v>
+        <v>823</v>
       </c>
       <c r="J57" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K57" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="L57" t="s">
-        <v>859</v>
+        <v>882</v>
       </c>
       <c r="M57" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="N57" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="P57"/>
       <c r="Q57"/>
       <c r="R57" t="s">
-        <v>911</v>
+        <v>934</v>
       </c>
       <c r="S57" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="T57" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B58" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="C58" t="s">
-        <v>706</v>
+        <v>728</v>
       </c>
       <c r="D58" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E58" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F58" t="s">
-        <v>773</v>
+        <v>795</v>
       </c>
       <c r="G58" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H58" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="I58" t="s">
-        <v>800</v>
+        <v>728</v>
       </c>
       <c r="J58" t="s">
+        <v>512</v>
+      </c>
+      <c r="K58" t="s">
         <v>509</v>
       </c>
-      <c r="K58" t="s">
-        <v>510</v>
-      </c>
-      <c r="L58" t="s">
-        <v>860</v>
-      </c>
-      <c r="M58" t="s">
-        <v>511</v>
-      </c>
-      <c r="N58" t="s">
-        <v>512</v>
-      </c>
+      <c r="M58"/>
+      <c r="N58"/>
       <c r="P58"/>
       <c r="Q58"/>
-      <c r="R58" t="s">
-        <v>912</v>
-      </c>
-      <c r="S58" t="s">
-        <v>513</v>
-      </c>
-      <c r="T58" t="s">
-        <v>514</v>
-      </c>
+      <c r="S58"/>
+      <c r="T58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>513</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s">
+        <v>514</v>
+      </c>
+      <c r="E59" t="s">
         <v>515</v>
       </c>
-      <c r="B59" t="s">
-        <v>631</v>
-      </c>
-      <c r="C59" t="s">
-        <v>707</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="G59" t="s">
         <v>516</v>
       </c>
-      <c r="E59" t="s">
+      <c r="H59" t="s">
         <v>517</v>
       </c>
-      <c r="F59" t="s">
-        <v>774</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="J59" t="s">
+        <v>514</v>
+      </c>
+      <c r="K59" t="s">
         <v>518</v>
       </c>
-      <c r="H59" t="s">
-        <v>519</v>
-      </c>
-      <c r="I59" t="s">
-        <v>801</v>
-      </c>
-      <c r="J59" t="s">
-        <v>520</v>
-      </c>
-      <c r="K59" t="s">
-        <v>521</v>
-      </c>
-      <c r="L59" t="s">
-        <v>861</v>
-      </c>
-      <c r="M59" t="s">
-        <v>522</v>
-      </c>
-      <c r="N59" t="s">
-        <v>523</v>
-      </c>
-      <c r="O59" t="s">
-        <v>870</v>
-      </c>
-      <c r="P59" t="s">
-        <v>524</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>525</v>
-      </c>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
       <c r="S59"/>
       <c r="T59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B60" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="C60" t="s">
-        <v>708</v>
+        <v>729</v>
       </c>
       <c r="D60" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E60" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F60" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="G60" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="H60" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="I60" t="s">
-        <v>802</v>
+        <v>729</v>
       </c>
       <c r="J60" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="K60" t="s">
-        <v>532</v>
-      </c>
-      <c r="M60"/>
-      <c r="N60"/>
+        <v>521</v>
+      </c>
+      <c r="L60" t="s">
+        <v>883</v>
+      </c>
+      <c r="M60" t="s">
+        <v>524</v>
+      </c>
+      <c r="N60" t="s">
+        <v>525</v>
+      </c>
       <c r="P60"/>
       <c r="Q60"/>
-      <c r="S60"/>
-      <c r="T60"/>
+      <c r="R60" t="s">
+        <v>935</v>
+      </c>
+      <c r="S60" t="s">
+        <v>526</v>
+      </c>
+      <c r="T60" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>528</v>
+      </c>
+      <c r="B61" t="s">
+        <v>669</v>
+      </c>
+      <c r="C61" t="s">
+        <v>730</v>
+      </c>
+      <c r="D61" t="s">
+        <v>529</v>
+      </c>
+      <c r="E61" t="s">
+        <v>530</v>
+      </c>
+      <c r="F61" t="s">
+        <v>797</v>
+      </c>
+      <c r="G61" t="s">
+        <v>531</v>
+      </c>
+      <c r="H61" t="s">
+        <v>532</v>
+      </c>
+      <c r="I61" t="s">
+        <v>824</v>
+      </c>
+      <c r="J61" t="s">
         <v>533</v>
       </c>
-      <c r="B61" t="s">
-        <v>631</v>
-      </c>
-      <c r="C61" t="s">
-        <v>709</v>
-      </c>
-      <c r="D61" t="s">
-        <v>141</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="K61" t="s">
         <v>534</v>
       </c>
-      <c r="F61" t="s">
-        <v>776</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="L61" t="s">
+        <v>884</v>
+      </c>
+      <c r="M61" t="s">
         <v>535</v>
       </c>
-      <c r="H61" t="s">
+      <c r="N61" t="s">
         <v>536</v>
       </c>
-      <c r="I61" t="s">
-        <v>537</v>
-      </c>
-      <c r="J61" t="s">
-        <v>537</v>
-      </c>
-      <c r="K61" t="s">
-        <v>537</v>
-      </c>
-      <c r="M61"/>
-      <c r="N61"/>
       <c r="P61"/>
       <c r="Q61"/>
-      <c r="S61"/>
-      <c r="T61"/>
+      <c r="R61" t="s">
+        <v>936</v>
+      </c>
+      <c r="S61" t="s">
+        <v>537</v>
+      </c>
+      <c r="T61" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B62" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="C62" t="s">
-        <v>710</v>
+        <v>731</v>
       </c>
       <c r="D62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E62" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F62" t="s">
-        <v>777</v>
+        <v>798</v>
       </c>
       <c r="G62" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H62" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="I62" t="s">
-        <v>803</v>
+        <v>825</v>
       </c>
       <c r="J62" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K62" t="s">
-        <v>544</v>
-      </c>
-      <c r="M62"/>
-      <c r="N62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
+        <v>545</v>
+      </c>
+      <c r="L62" t="s">
+        <v>885</v>
+      </c>
+      <c r="M62" t="s">
+        <v>546</v>
+      </c>
+      <c r="N62" t="s">
+        <v>547</v>
+      </c>
+      <c r="O62" t="s">
+        <v>894</v>
+      </c>
+      <c r="P62" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>549</v>
+      </c>
       <c r="S62"/>
       <c r="T62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="B63" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="C63" t="s">
-        <v>657</v>
+        <v>732</v>
       </c>
       <c r="D63" t="s">
-        <v>84</v>
+        <v>551</v>
       </c>
       <c r="E63" t="s">
-        <v>85</v>
+        <v>552</v>
       </c>
       <c r="F63" t="s">
-        <v>778</v>
+        <v>799</v>
       </c>
       <c r="G63" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="H63" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="I63" t="s">
-        <v>804</v>
+        <v>826</v>
       </c>
       <c r="J63" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="K63" t="s">
-        <v>549</v>
-      </c>
-      <c r="L63" t="s">
-        <v>862</v>
-      </c>
-      <c r="M63" t="s">
-        <v>550</v>
-      </c>
-      <c r="N63" t="s">
-        <v>551</v>
-      </c>
-      <c r="O63" t="s">
-        <v>871</v>
-      </c>
-      <c r="P63" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>553</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
       <c r="S63"/>
       <c r="T63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B64" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="C64" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="D64" t="s">
-        <v>555</v>
+        <v>159</v>
       </c>
       <c r="E64" t="s">
-        <v>556</v>
-      </c>
-      <c r="G64"/>
-      <c r="H64"/>
+        <v>558</v>
+      </c>
+      <c r="F64" t="s">
+        <v>800</v>
+      </c>
+      <c r="G64" t="s">
+        <v>559</v>
+      </c>
+      <c r="H64" t="s">
+        <v>560</v>
+      </c>
       <c r="I64" t="s">
-        <v>805</v>
+        <v>561</v>
       </c>
       <c r="J64" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="K64" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="M64"/>
       <c r="N64"/>
@@ -6208,30 +6262,37 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B65" t="s">
-        <v>631</v>
+        <v>659</v>
       </c>
       <c r="C65" t="s">
-        <v>712</v>
+        <v>734</v>
       </c>
       <c r="D65" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E65" t="s">
-        <v>561</v>
-      </c>
-      <c r="G65"/>
-      <c r="H65"/>
+        <v>564</v>
+      </c>
+      <c r="F65" t="s">
+        <v>801</v>
+      </c>
+      <c r="G65" t="s">
+        <v>565</v>
+      </c>
+      <c r="H65" t="s">
+        <v>566</v>
+      </c>
       <c r="I65" t="s">
-        <v>806</v>
+        <v>827</v>
       </c>
       <c r="J65" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="K65" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="M65"/>
       <c r="N65"/>
@@ -6242,65 +6303,86 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B66" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="C66" t="s">
-        <v>713</v>
+        <v>681</v>
       </c>
       <c r="D66" t="s">
-        <v>565</v>
+        <v>102</v>
       </c>
       <c r="E66" t="s">
-        <v>566</v>
+        <v>103</v>
       </c>
       <c r="F66" t="s">
-        <v>779</v>
+        <v>802</v>
       </c>
       <c r="G66" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="H66" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="I66" t="s">
-        <v>807</v>
+        <v>828</v>
       </c>
       <c r="J66" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="K66" t="s">
-        <v>570</v>
-      </c>
-      <c r="M66"/>
-      <c r="N66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
+        <v>573</v>
+      </c>
+      <c r="L66" t="s">
+        <v>886</v>
+      </c>
+      <c r="M66" t="s">
+        <v>574</v>
+      </c>
+      <c r="N66" t="s">
+        <v>575</v>
+      </c>
+      <c r="O66" t="s">
+        <v>895</v>
+      </c>
+      <c r="P66" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>577</v>
+      </c>
       <c r="S66"/>
       <c r="T66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="B67" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="C67" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
       <c r="D67" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="E67" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
-      <c r="J67"/>
-      <c r="K67"/>
+      <c r="I67" t="s">
+        <v>829</v>
+      </c>
+      <c r="J67" t="s">
+        <v>581</v>
+      </c>
+      <c r="K67" t="s">
+        <v>582</v>
+      </c>
       <c r="M67"/>
       <c r="N67"/>
       <c r="P67"/>
@@ -6310,30 +6392,30 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="B68" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="C68" t="s">
-        <v>715</v>
+        <v>736</v>
       </c>
       <c r="D68" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="E68" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68" t="s">
-        <v>808</v>
+        <v>830</v>
       </c>
       <c r="J68" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="K68" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="M68"/>
       <c r="N68"/>
@@ -6344,30 +6426,37 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="B69" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="C69" t="s">
-        <v>711</v>
+        <v>737</v>
       </c>
       <c r="D69" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="E69" t="s">
-        <v>556</v>
-      </c>
-      <c r="G69"/>
-      <c r="H69"/>
+        <v>590</v>
+      </c>
+      <c r="F69" t="s">
+        <v>803</v>
+      </c>
+      <c r="G69" t="s">
+        <v>591</v>
+      </c>
+      <c r="H69" t="s">
+        <v>592</v>
+      </c>
       <c r="I69" t="s">
-        <v>809</v>
+        <v>831</v>
       </c>
       <c r="J69" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="K69" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="M69"/>
       <c r="N69"/>
@@ -6378,92 +6467,57 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="B70" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="C70" t="s">
-        <v>716</v>
+        <v>738</v>
       </c>
       <c r="D70" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="E70" t="s">
-        <v>584</v>
-      </c>
-      <c r="F70" t="s">
-        <v>780</v>
-      </c>
-      <c r="G70" t="s">
-        <v>585</v>
-      </c>
-      <c r="H70" t="s">
-        <v>586</v>
-      </c>
-      <c r="I70" t="s">
-        <v>716</v>
-      </c>
-      <c r="J70" t="s">
-        <v>583</v>
-      </c>
-      <c r="K70" t="s">
-        <v>584</v>
-      </c>
-      <c r="L70" t="s">
-        <v>863</v>
-      </c>
-      <c r="M70" t="s">
-        <v>587</v>
-      </c>
-      <c r="N70" t="s">
-        <v>588</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="M70"/>
+      <c r="N70"/>
       <c r="P70"/>
       <c r="Q70"/>
-      <c r="R70" t="s">
-        <v>905</v>
-      </c>
-      <c r="S70" t="s">
-        <v>426</v>
-      </c>
-      <c r="T70" t="s">
-        <v>427</v>
-      </c>
+      <c r="S70"/>
+      <c r="T70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="B71" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="C71" t="s">
-        <v>717</v>
+        <v>739</v>
       </c>
       <c r="D71" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="E71" t="s">
-        <v>591</v>
-      </c>
-      <c r="F71" t="s">
-        <v>781</v>
-      </c>
-      <c r="G71" t="s">
-        <v>592</v>
-      </c>
-      <c r="H71" t="s">
-        <v>593</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="G71"/>
+      <c r="H71"/>
       <c r="I71" t="s">
-        <v>717</v>
+        <v>832</v>
       </c>
       <c r="J71" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="K71" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="M71"/>
       <c r="N71"/>
@@ -6474,242 +6528,372 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="B72" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="C72" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
       <c r="D72" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="E72" t="s">
-        <v>596</v>
-      </c>
-      <c r="F72" t="s">
-        <v>782</v>
-      </c>
-      <c r="G72" t="s">
-        <v>597</v>
-      </c>
-      <c r="H72" t="s">
-        <v>598</v>
-      </c>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72" t="s">
-        <v>864</v>
-      </c>
-      <c r="M72" t="s">
-        <v>599</v>
-      </c>
-      <c r="N72" t="s">
-        <v>600</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72" t="s">
+        <v>833</v>
+      </c>
+      <c r="J72" t="s">
+        <v>604</v>
+      </c>
+      <c r="K72" t="s">
+        <v>605</v>
+      </c>
+      <c r="M72"/>
+      <c r="N72"/>
       <c r="P72"/>
       <c r="Q72"/>
-      <c r="R72" t="s">
-        <v>913</v>
-      </c>
-      <c r="S72" t="s">
-        <v>601</v>
-      </c>
-      <c r="T72" t="s">
-        <v>602</v>
-      </c>
+      <c r="S72"/>
+      <c r="T72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B73" t="s">
-        <v>648</v>
+        <v>670</v>
       </c>
       <c r="C73" t="s">
-        <v>719</v>
+        <v>740</v>
       </c>
       <c r="D73" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E73" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="F73" t="s">
-        <v>783</v>
+        <v>804</v>
       </c>
       <c r="G73" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="H73" t="s">
+        <v>610</v>
+      </c>
+      <c r="I73" t="s">
+        <v>740</v>
+      </c>
+      <c r="J73" t="s">
         <v>607</v>
       </c>
-      <c r="J73"/>
-      <c r="K73"/>
+      <c r="K73" t="s">
+        <v>608</v>
+      </c>
       <c r="L73" t="s">
-        <v>865</v>
+        <v>887</v>
       </c>
       <c r="M73" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="N73" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="P73"/>
       <c r="Q73"/>
       <c r="R73" t="s">
-        <v>913</v>
+        <v>929</v>
       </c>
       <c r="S73" t="s">
-        <v>601</v>
+        <v>444</v>
       </c>
       <c r="T73" t="s">
-        <v>602</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B74" t="s">
-        <v>648</v>
+        <v>671</v>
       </c>
       <c r="C74" t="s">
-        <v>720</v>
+        <v>741</v>
       </c>
       <c r="D74" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="E74" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="F74" t="s">
-        <v>784</v>
+        <v>805</v>
       </c>
       <c r="G74" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="H74" t="s">
+        <v>617</v>
+      </c>
+      <c r="I74" t="s">
+        <v>741</v>
+      </c>
+      <c r="J74" t="s">
         <v>614</v>
       </c>
-      <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74" t="s">
-        <v>865</v>
-      </c>
-      <c r="M74" t="s">
-        <v>608</v>
-      </c>
-      <c r="N74" t="s">
-        <v>609</v>
-      </c>
+      <c r="K74" t="s">
+        <v>615</v>
+      </c>
+      <c r="M74"/>
+      <c r="N74"/>
       <c r="P74"/>
       <c r="Q74"/>
-      <c r="R74" t="s">
-        <v>913</v>
-      </c>
-      <c r="S74" t="s">
-        <v>601</v>
-      </c>
-      <c r="T74" t="s">
-        <v>602</v>
-      </c>
+      <c r="S74"/>
+      <c r="T74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B75" t="s">
-        <v>649</v>
+        <v>672</v>
       </c>
       <c r="C75" t="s">
-        <v>721</v>
+        <v>742</v>
       </c>
       <c r="D75" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="E75" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="F75" t="s">
-        <v>785</v>
+        <v>806</v>
       </c>
       <c r="G75" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="H75" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75" t="s">
-        <v>866</v>
+        <v>888</v>
       </c>
       <c r="M75" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="N75" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="P75"/>
       <c r="Q75"/>
       <c r="R75" t="s">
-        <v>913</v>
+        <v>937</v>
       </c>
       <c r="S75" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="T75" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="B76" t="s">
-        <v>650</v>
+        <v>672</v>
       </c>
       <c r="C76" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="D76" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="E76" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="F76" t="s">
-        <v>786</v>
+        <v>807</v>
       </c>
       <c r="G76" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="H76" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76" t="s">
-        <v>867</v>
+        <v>889</v>
       </c>
       <c r="M76" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="N76" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="P76"/>
       <c r="Q76"/>
       <c r="R76" t="s">
-        <v>913</v>
+        <v>937</v>
       </c>
       <c r="S76" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="T76" t="s">
-        <v>602</v>
+        <v>626</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>634</v>
+      </c>
+      <c r="B77" t="s">
+        <v>672</v>
+      </c>
+      <c r="C77" t="s">
+        <v>744</v>
+      </c>
+      <c r="D77" t="s">
+        <v>635</v>
+      </c>
+      <c r="E77" t="s">
+        <v>636</v>
+      </c>
+      <c r="F77" t="s">
+        <v>808</v>
+      </c>
+      <c r="G77" t="s">
+        <v>637</v>
+      </c>
+      <c r="H77" t="s">
+        <v>638</v>
+      </c>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77" t="s">
+        <v>889</v>
+      </c>
+      <c r="M77" t="s">
+        <v>632</v>
+      </c>
+      <c r="N77" t="s">
+        <v>633</v>
+      </c>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77" t="s">
+        <v>937</v>
+      </c>
+      <c r="S77" t="s">
+        <v>625</v>
+      </c>
+      <c r="T77" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>639</v>
+      </c>
+      <c r="B78" t="s">
+        <v>673</v>
+      </c>
+      <c r="C78" t="s">
+        <v>745</v>
+      </c>
+      <c r="D78" t="s">
+        <v>640</v>
+      </c>
+      <c r="E78" t="s">
+        <v>641</v>
+      </c>
+      <c r="F78" t="s">
+        <v>809</v>
+      </c>
+      <c r="G78" t="s">
+        <v>642</v>
+      </c>
+      <c r="H78" t="s">
+        <v>643</v>
+      </c>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78" t="s">
+        <v>890</v>
+      </c>
+      <c r="M78" t="s">
+        <v>644</v>
+      </c>
+      <c r="N78" t="s">
+        <v>645</v>
+      </c>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78" t="s">
+        <v>937</v>
+      </c>
+      <c r="S78" t="s">
+        <v>625</v>
+      </c>
+      <c r="T78" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>646</v>
+      </c>
+      <c r="B79" t="s">
+        <v>674</v>
+      </c>
+      <c r="C79" t="s">
+        <v>746</v>
+      </c>
+      <c r="D79" t="s">
+        <v>647</v>
+      </c>
+      <c r="E79" t="s">
+        <v>648</v>
+      </c>
+      <c r="F79" t="s">
+        <v>810</v>
+      </c>
+      <c r="G79" t="s">
+        <v>649</v>
+      </c>
+      <c r="H79" t="s">
+        <v>650</v>
+      </c>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79" t="s">
+        <v>891</v>
+      </c>
+      <c r="M79" t="s">
+        <v>651</v>
+      </c>
+      <c r="N79" t="s">
+        <v>652</v>
+      </c>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79" t="s">
+        <v>937</v>
+      </c>
+      <c r="S79" t="s">
+        <v>625</v>
+      </c>
+      <c r="T79" t="s">
+        <v>626</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -1791,7 +1791,7 @@
     <t xml:space="preserve">継続的に体力を奪う呪い。</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2의 독기에 둘러 싸였다.</t>
+    <t xml:space="preserve">#1은(는) #2의 독기에 둘러싸였다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 are/is enveloped in the miasma of #2.</t>
@@ -2994,16 +2994,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3146,3724 +3150,3724 @@
   <dimension ref="A1:T79"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G41" activeCellId="0" sqref="G41"/>
+      <selection pane="bottomLeft" activeCell="L45" activeCellId="0" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="1" style="0" width="14.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="1" style="1" width="14.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="N3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="R3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="S3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="T3" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="M4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="R4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="S4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="T4" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="L5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="M5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="N5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="0" t="s">
+      <c r="R5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="S5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="T5" s="0" t="s">
+      <c r="T5" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="M6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="N6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="R6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="S6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T6" s="0" t="s">
+      <c r="T6" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="O7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="P7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="Q7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="R7" s="0" t="s">
+      <c r="R7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="S7" s="0" t="s">
+      <c r="S7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="T7" s="0" t="s">
+      <c r="T7" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="O8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="P8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="Q8" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="M9" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="N9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="R9" s="0" t="s">
+      <c r="R9" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="S9" s="0" t="s">
+      <c r="S9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="T9" s="0" t="s">
+      <c r="T9" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="M10" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="N10" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="R10" s="0" t="s">
+      <c r="R10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="S10" s="0" t="s">
+      <c r="S10" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="T10" s="0" t="s">
+      <c r="T10" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="M11" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="N11" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="R11" s="0" t="s">
+      <c r="R11" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="S11" s="0" t="s">
+      <c r="S11" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="T11" s="0" t="s">
+      <c r="T11" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="L12" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="M12" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="N12" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="R12" s="0" t="s">
+      <c r="R12" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="S12" s="0" t="s">
+      <c r="S12" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="T12" s="0" t="s">
+      <c r="T12" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="L13" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="M13" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="N13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="R13" s="0" t="s">
+      <c r="R13" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="S13" s="0" t="s">
+      <c r="S13" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="T13" s="0" t="s">
+      <c r="T13" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="L14" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M14" s="0" t="s">
+      <c r="M14" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="N14" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R14" s="0" t="s">
+      <c r="R14" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="S14" s="0" t="s">
+      <c r="S14" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="T14" s="0" t="s">
+      <c r="T14" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="L15" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="M15" s="0" t="s">
+      <c r="M15" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="N15" s="0" t="s">
+      <c r="N15" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="R15" s="0" t="s">
+      <c r="R15" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="S15" s="0" t="s">
+      <c r="S15" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="T15" s="0" t="s">
+      <c r="T15" s="1" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L16" s="0" t="s">
+      <c r="L16" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="M16" s="0" t="s">
+      <c r="M16" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="N16" s="0" t="s">
+      <c r="N16" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="R16" s="0" t="s">
+      <c r="R16" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="S16" s="0" t="s">
+      <c r="S16" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="T16" s="0" t="s">
+      <c r="T16" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="L17" s="0" t="s">
+      <c r="L17" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="M17" s="0" t="s">
+      <c r="M17" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="N17" s="0" t="s">
+      <c r="N17" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="R17" s="0" t="s">
+      <c r="R17" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="S17" s="0" t="s">
+      <c r="S17" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="T17" s="0" t="s">
+      <c r="T17" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L18" s="0" t="s">
+      <c r="L18" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="M18" s="0" t="s">
+      <c r="M18" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="N18" s="0" t="s">
+      <c r="N18" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="R18" s="0" t="s">
+      <c r="R18" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="S18" s="0" t="s">
+      <c r="S18" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="T18" s="0" t="s">
+      <c r="T18" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="L19" s="0" t="s">
+      <c r="L19" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="M19" s="0" t="s">
+      <c r="M19" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="N19" s="0" t="s">
+      <c r="N19" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="R19" s="0" t="s">
+      <c r="R19" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="S19" s="0" t="s">
+      <c r="S19" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="T19" s="0" t="s">
+      <c r="T19" s="1" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="K20" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="L20" s="0" t="s">
+      <c r="L20" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="M20" s="0" t="s">
+      <c r="M20" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="N20" s="0" t="s">
+      <c r="N20" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="R20" s="0" t="s">
+      <c r="R20" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="S20" s="0" t="s">
+      <c r="S20" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="T20" s="0" t="s">
+      <c r="T20" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="K21" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="R21" s="0" t="s">
+      <c r="R21" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="S21" s="0" t="s">
+      <c r="S21" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="T21" s="0" t="s">
+      <c r="T21" s="1" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="I22" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="J22" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="K22" s="0" t="s">
+      <c r="K22" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="L22" s="0" t="s">
+      <c r="L22" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="M22" s="0" t="s">
+      <c r="M22" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="N22" s="0" t="s">
+      <c r="N22" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="R22" s="0" t="s">
+      <c r="R22" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="S22" s="0" t="s">
+      <c r="S22" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="T22" s="0" t="s">
+      <c r="T22" s="1" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="I23" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="J23" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="K23" s="0" t="s">
+      <c r="K23" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="L23" s="0" t="s">
+      <c r="L23" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="M23" s="0" t="s">
+      <c r="M23" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="N23" s="0" t="s">
+      <c r="N23" s="1" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="H24" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="I24" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="J24" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K24" s="0" t="s">
+      <c r="K24" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L24" s="0" t="s">
+      <c r="L24" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="M24" s="0" t="s">
+      <c r="M24" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="N24" s="0" t="s">
+      <c r="N24" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="R24" s="0" t="s">
+      <c r="R24" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="S24" s="0" t="s">
+      <c r="S24" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="T24" s="0" t="s">
+      <c r="T24" s="1" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H25" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="J25" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K25" s="0" t="s">
+      <c r="K25" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="L25" s="0" t="s">
+      <c r="L25" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="M25" s="0" t="s">
+      <c r="M25" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="N25" s="0" t="s">
+      <c r="N25" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="R25" s="0" t="s">
+      <c r="R25" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="S25" s="0" t="s">
+      <c r="S25" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="T25" s="0" t="s">
+      <c r="T25" s="1" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="H26" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="I26" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="J26" s="0" t="s">
+      <c r="J26" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="K26" s="0" t="s">
+      <c r="K26" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="L26" s="0" t="s">
+      <c r="L26" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="M26" s="0" t="s">
+      <c r="M26" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="N26" s="0" t="s">
+      <c r="N26" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="R26" s="0" t="s">
+      <c r="R26" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="S26" s="0" t="s">
+      <c r="S26" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="T26" s="0" t="s">
+      <c r="T26" s="1" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="H27" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="I27" s="0" t="s">
+      <c r="I27" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="J27" s="0" t="s">
+      <c r="J27" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="K27" s="0" t="s">
+      <c r="K27" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="L27" s="0" t="s">
+      <c r="L27" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="M27" s="0" t="s">
+      <c r="M27" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="N27" s="0" t="s">
+      <c r="N27" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="R27" s="0" t="s">
+      <c r="R27" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="S27" s="0" t="s">
+      <c r="S27" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="T27" s="0" t="s">
+      <c r="T27" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H28" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="I28" s="0" t="s">
+      <c r="I28" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="J28" s="0" t="s">
+      <c r="J28" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="K28" s="0" t="s">
+      <c r="K28" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="L28" s="0" t="s">
+      <c r="L28" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="M28" s="0" t="s">
+      <c r="M28" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="N28" s="0" t="s">
+      <c r="N28" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="R28" s="0" t="s">
+      <c r="R28" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="S28" s="0" t="s">
+      <c r="S28" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="T28" s="0" t="s">
+      <c r="T28" s="1" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="I29" s="0" t="s">
+      <c r="I29" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="J29" s="0" t="s">
+      <c r="J29" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="K29" s="0" t="s">
+      <c r="K29" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="L29" s="0" t="s">
+      <c r="L29" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="M29" s="0" t="s">
+      <c r="M29" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="N29" s="0" t="s">
+      <c r="N29" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="R29" s="0" t="s">
+      <c r="R29" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="S29" s="0" t="s">
+      <c r="S29" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="T29" s="0" t="s">
+      <c r="T29" s="1" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="I30" s="0" t="s">
+      <c r="I30" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="J30" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="K30" s="0" t="s">
+      <c r="K30" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L30" s="0" t="s">
+      <c r="L30" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="M30" s="0" t="s">
+      <c r="M30" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="N30" s="0" t="s">
+      <c r="N30" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="R30" s="0" t="s">
+      <c r="R30" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="S30" s="0" t="s">
+      <c r="S30" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="T30" s="0" t="s">
+      <c r="T30" s="1" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="H31" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="I31" s="0" t="s">
+      <c r="I31" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="J31" s="0" t="s">
+      <c r="J31" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="K31" s="0" t="s">
+      <c r="K31" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="L31" s="0" t="s">
+      <c r="L31" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="M31" s="0" t="s">
+      <c r="M31" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="N31" s="0" t="s">
+      <c r="N31" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="R31" s="0" t="s">
+      <c r="R31" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="S31" s="0" t="s">
+      <c r="S31" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="T31" s="0" t="s">
+      <c r="T31" s="1" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="I32" s="0" t="s">
+      <c r="I32" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="J32" s="0" t="s">
+      <c r="J32" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="K32" s="0" t="s">
+      <c r="K32" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="L32" s="0" t="s">
+      <c r="L32" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="M32" s="0" t="s">
+      <c r="M32" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="N32" s="0" t="s">
+      <c r="N32" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="R32" s="0" t="s">
+      <c r="R32" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="S32" s="0" t="s">
+      <c r="S32" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="T32" s="0" t="s">
+      <c r="T32" s="1" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="H33" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="I33" s="0" t="s">
+      <c r="I33" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="J33" s="0" t="s">
+      <c r="J33" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="K33" s="0" t="s">
+      <c r="K33" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="L33" s="0" t="s">
+      <c r="L33" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="M33" s="0" t="s">
+      <c r="M33" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="N33" s="0" t="s">
+      <c r="N33" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="R33" s="0" t="s">
+      <c r="R33" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="S33" s="0" t="s">
+      <c r="S33" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="T33" s="0" t="s">
+      <c r="T33" s="1" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H34" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="I34" s="0" t="s">
+      <c r="I34" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="J34" s="0" t="s">
+      <c r="J34" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="K34" s="0" t="s">
+      <c r="K34" s="1" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="H35" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="I35" s="0" t="s">
+      <c r="I35" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="J35" s="0" t="s">
+      <c r="J35" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="K35" s="0" t="s">
+      <c r="K35" s="1" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="H36" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="I36" s="0" t="s">
+      <c r="I36" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="J36" s="0" t="s">
+      <c r="J36" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="K36" s="0" t="s">
+      <c r="K36" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="L36" s="0" t="s">
+      <c r="L36" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="M36" s="0" t="s">
+      <c r="M36" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="N36" s="0" t="s">
+      <c r="N36" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="R36" s="0" t="s">
+      <c r="R36" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="S36" s="0" t="s">
+      <c r="S36" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="T36" s="0" t="s">
+      <c r="T36" s="1" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="I37" s="0" t="s">
+      <c r="I37" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="J37" s="0" t="s">
+      <c r="J37" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="K37" s="0" t="s">
+      <c r="K37" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="L37" s="0" t="s">
+      <c r="L37" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="M37" s="0" t="s">
+      <c r="M37" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="N37" s="0" t="s">
+      <c r="N37" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="R37" s="0" t="s">
+      <c r="R37" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="S37" s="0" t="s">
+      <c r="S37" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="T37" s="0" t="s">
+      <c r="T37" s="1" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="H38" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="I38" s="0" t="s">
+      <c r="I38" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="J38" s="0" t="s">
+      <c r="J38" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="K38" s="0" t="s">
+      <c r="K38" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="L38" s="0" t="s">
+      <c r="L38" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="M38" s="0" t="s">
+      <c r="M38" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="N38" s="0" t="s">
+      <c r="N38" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="R38" s="0" t="s">
+      <c r="R38" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="S38" s="0" t="s">
+      <c r="S38" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="T38" s="0" t="s">
+      <c r="T38" s="1" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="H39" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="I39" s="0" t="s">
+      <c r="I39" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="J39" s="0" t="s">
+      <c r="J39" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K39" s="0" t="s">
+      <c r="K39" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="L39" s="0" t="s">
+      <c r="L39" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="M39" s="0" t="s">
+      <c r="M39" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="N39" s="0" t="s">
+      <c r="N39" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="R39" s="0" t="s">
+      <c r="R39" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="S39" s="0" t="s">
+      <c r="S39" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="T39" s="0" t="s">
+      <c r="T39" s="1" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="H40" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="I40" s="0" t="s">
+      <c r="I40" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="J40" s="0" t="s">
+      <c r="J40" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="K40" s="0" t="s">
+      <c r="K40" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="L40" s="0" t="s">
+      <c r="L40" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="M40" s="0" t="s">
+      <c r="M40" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="N40" s="0" t="s">
+      <c r="N40" s="1" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="H41" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="I41" s="0" t="s">
+      <c r="I41" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="J41" s="0" t="s">
+      <c r="J41" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="K41" s="0" t="s">
+      <c r="K41" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="L41" s="0" t="s">
+      <c r="L41" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="M41" s="0" t="s">
+      <c r="M41" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="N41" s="0" t="s">
+      <c r="N41" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="R41" s="0" t="s">
+      <c r="R41" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="S41" s="0" t="s">
+      <c r="S41" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="T41" s="0" t="s">
+      <c r="T41" s="1" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="H42" s="0" t="s">
+      <c r="H42" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I42" s="0" t="s">
+      <c r="I42" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="J42" s="0" t="s">
+      <c r="J42" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="K42" s="0" t="s">
+      <c r="K42" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="L42" s="0" t="s">
+      <c r="L42" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="M42" s="0" t="s">
+      <c r="M42" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="N42" s="0" t="s">
+      <c r="N42" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="R42" s="0" t="s">
+      <c r="R42" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="S42" s="0" t="s">
+      <c r="S42" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="T42" s="0" t="s">
+      <c r="T42" s="1" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="H43" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="I43" s="0" t="s">
+      <c r="I43" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="J43" s="0" t="s">
+      <c r="J43" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="K43" s="0" t="s">
+      <c r="K43" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="L43" s="0" t="s">
+      <c r="L43" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="M43" s="0" t="s">
+      <c r="M43" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="N43" s="0" t="s">
+      <c r="N43" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="R43" s="0" t="s">
+      <c r="R43" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="S43" s="0" t="s">
+      <c r="S43" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="T43" s="0" t="s">
+      <c r="T43" s="1" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H44" s="0" t="s">
+      <c r="H44" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="I44" s="0" t="s">
+      <c r="I44" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="J44" s="0" t="s">
+      <c r="J44" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="K44" s="0" t="s">
+      <c r="K44" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="L44" s="0" t="s">
+      <c r="L44" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="M44" s="0" t="s">
+      <c r="M44" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="N44" s="0" t="s">
+      <c r="N44" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="R44" s="0" t="s">
+      <c r="R44" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="S44" s="0" t="s">
+      <c r="S44" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="T44" s="0" t="s">
+      <c r="T44" s="1" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="H45" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="I45" s="0" t="s">
+      <c r="I45" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="J45" s="0" t="s">
+      <c r="J45" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="K45" s="0" t="s">
+      <c r="K45" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="L45" s="0" t="s">
+      <c r="L45" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="M45" s="0" t="s">
+      <c r="M45" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="N45" s="0" t="s">
+      <c r="N45" s="1" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="H46" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="I46" s="0" t="s">
+      <c r="I46" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="J46" s="0" t="s">
+      <c r="J46" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="K46" s="0" t="s">
+      <c r="K46" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="L46" s="0" t="s">
+      <c r="L46" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="M46" s="0" t="s">
+      <c r="M46" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="N46" s="0" t="s">
+      <c r="N46" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="R46" s="0" t="s">
+      <c r="R46" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="S46" s="0" t="s">
+      <c r="S46" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="T46" s="0" t="s">
+      <c r="T46" s="1" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="G47" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="H47" s="0" t="s">
+      <c r="H47" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="I47" s="0" t="s">
+      <c r="I47" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="J47" s="0" t="s">
+      <c r="J47" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="K47" s="0" t="s">
+      <c r="K47" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="L47" s="0" t="s">
+      <c r="L47" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="M47" s="0" t="s">
+      <c r="M47" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="N47" s="0" t="s">
+      <c r="N47" s="1" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="H48" s="0" t="s">
+      <c r="H48" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="I48" s="0" t="s">
+      <c r="I48" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="J48" s="0" t="s">
+      <c r="J48" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="K48" s="0" t="s">
+      <c r="K48" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="L48" s="0" t="s">
+      <c r="L48" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="M48" s="0" t="s">
+      <c r="M48" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="N48" s="0" t="s">
+      <c r="N48" s="1" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="H49" s="0" t="s">
+      <c r="H49" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="I49" s="0" t="s">
+      <c r="I49" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="J49" s="0" t="s">
+      <c r="J49" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="K49" s="0" t="s">
+      <c r="K49" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="L49" s="0" t="s">
+      <c r="L49" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="M49" s="0" t="s">
+      <c r="M49" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="N49" s="0" t="s">
+      <c r="N49" s="1" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="H50" s="0" t="s">
+      <c r="H50" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="I50" s="0" t="s">
+      <c r="I50" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="J50" s="0" t="s">
+      <c r="J50" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="K50" s="0" t="s">
+      <c r="K50" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="L50" s="0" t="s">
+      <c r="L50" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="M50" s="0" t="s">
+      <c r="M50" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="N50" s="0" t="s">
+      <c r="N50" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="R50" s="0" t="s">
+      <c r="R50" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="S50" s="0" t="s">
+      <c r="S50" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="T50" s="0" t="s">
+      <c r="T50" s="1" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="G51" s="0" t="s">
+      <c r="G51" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="H51" s="0" t="s">
+      <c r="H51" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="I51" s="0" t="s">
+      <c r="I51" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="J51" s="0" t="s">
+      <c r="J51" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="K51" s="0" t="s">
+      <c r="K51" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="L51" s="0" t="s">
+      <c r="L51" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="M51" s="0" t="s">
+      <c r="M51" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="N51" s="0" t="s">
+      <c r="N51" s="1" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="G52" s="0" t="s">
+      <c r="G52" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="H52" s="0" t="s">
+      <c r="H52" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="I52" s="0" t="s">
+      <c r="I52" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="J52" s="0" t="s">
+      <c r="J52" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="K52" s="0" t="s">
+      <c r="K52" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="L52" s="0" t="s">
+      <c r="L52" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="M52" s="0" t="s">
+      <c r="M52" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="N52" s="0" t="s">
+      <c r="N52" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="R52" s="0" t="s">
+      <c r="R52" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="S52" s="0" t="s">
+      <c r="S52" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="T52" s="0" t="s">
+      <c r="T52" s="1" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="G53" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="H53" s="0" t="s">
+      <c r="H53" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="I53" s="0" t="s">
+      <c r="I53" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="J53" s="0" t="s">
+      <c r="J53" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="K53" s="0" t="s">
+      <c r="K53" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="L53" s="0" t="s">
+      <c r="L53" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="M53" s="0" t="s">
+      <c r="M53" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="N53" s="0" t="s">
+      <c r="N53" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="R53" s="0" t="s">
+      <c r="R53" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="S53" s="0" t="s">
+      <c r="S53" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="T53" s="0" t="s">
+      <c r="T53" s="1" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="G54" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="H54" s="0" t="s">
+      <c r="H54" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="I54" s="0" t="s">
+      <c r="I54" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="J54" s="0" t="s">
+      <c r="J54" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="K54" s="0" t="s">
+      <c r="K54" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="L54" s="0" t="s">
+      <c r="L54" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="M54" s="0" t="s">
+      <c r="M54" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="N54" s="0" t="s">
+      <c r="N54" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="R54" s="0" t="s">
+      <c r="R54" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="S54" s="0" t="s">
+      <c r="S54" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="T54" s="0" t="s">
+      <c r="T54" s="1" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="I55" s="0" t="s">
+      <c r="I55" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="J55" s="0" t="s">
+      <c r="J55" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="K55" s="0" t="s">
+      <c r="K55" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="G56" s="0" t="s">
+      <c r="G56" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="H56" s="0" t="s">
+      <c r="H56" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="I56" s="0" t="s">
+      <c r="I56" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="J56" s="0" t="s">
+      <c r="J56" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="K56" s="0" t="s">
+      <c r="K56" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="L56" s="0" t="s">
+      <c r="L56" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="M56" s="0" t="s">
+      <c r="M56" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="N56" s="0" t="s">
+      <c r="N56" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="R56" s="0" t="s">
+      <c r="R56" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="S56" s="0" t="s">
+      <c r="S56" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="T56" s="0" t="s">
+      <c r="T56" s="1" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F57" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="G57" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="H57" s="0" t="s">
+      <c r="H57" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="I57" s="0" t="s">
+      <c r="I57" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="J57" s="0" t="s">
+      <c r="J57" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="K57" s="0" t="s">
+      <c r="K57" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="L57" s="0" t="s">
+      <c r="L57" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="M57" s="0" t="s">
+      <c r="M57" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="N57" s="0" t="s">
+      <c r="N57" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="R57" s="0" t="s">
+      <c r="R57" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="S57" s="0" t="s">
+      <c r="S57" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="T57" s="0" t="s">
+      <c r="T57" s="1" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="G58" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="H58" s="0" t="s">
+      <c r="H58" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="I58" s="0" t="s">
+      <c r="I58" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="J58" s="0" t="s">
+      <c r="J58" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="K58" s="0" t="s">
+      <c r="K58" s="1" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="G59" s="0" t="s">
+      <c r="G59" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="H59" s="0" t="s">
+      <c r="H59" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="I59" s="0" t="s">
+      <c r="I59" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="J59" s="0" t="s">
+      <c r="J59" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="K59" s="0" t="s">
+      <c r="K59" s="1" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="G60" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="H60" s="0" t="s">
+      <c r="H60" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="I60" s="0" t="s">
+      <c r="I60" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="J60" s="0" t="s">
+      <c r="J60" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="K60" s="0" t="s">
+      <c r="K60" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="L60" s="0" t="s">
+      <c r="L60" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="M60" s="0" t="s">
+      <c r="M60" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="N60" s="0" t="s">
+      <c r="N60" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="R60" s="0" t="s">
+      <c r="R60" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="S60" s="0" t="s">
+      <c r="S60" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="T60" s="0" t="s">
+      <c r="T60" s="1" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="G61" s="0" t="s">
+      <c r="G61" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="H61" s="0" t="s">
+      <c r="H61" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="I61" s="0" t="s">
+      <c r="I61" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="J61" s="0" t="s">
+      <c r="J61" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="K61" s="0" t="s">
+      <c r="K61" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="L61" s="0" t="s">
+      <c r="L61" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="M61" s="0" t="s">
+      <c r="M61" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="N61" s="0" t="s">
+      <c r="N61" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="R61" s="0" t="s">
+      <c r="R61" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="S61" s="0" t="s">
+      <c r="S61" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="T61" s="0" t="s">
+      <c r="T61" s="1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="G62" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="H62" s="0" t="s">
+      <c r="H62" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="I62" s="0" t="s">
+      <c r="I62" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="J62" s="0" t="s">
+      <c r="J62" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="K62" s="0" t="s">
+      <c r="K62" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="L62" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="N62" s="2" t="s">
+      <c r="N62" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="O62" s="2" t="s">
+      <c r="O62" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="P62" s="2" t="s">
+      <c r="P62" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="Q62" s="2" t="s">
+      <c r="Q62" s="3" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="F63" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="G63" s="0" t="s">
+      <c r="G63" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="H63" s="0" t="s">
+      <c r="H63" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="I63" s="0" t="s">
+      <c r="I63" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="J63" s="0" t="s">
+      <c r="J63" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="K63" s="0" t="s">
+      <c r="K63" s="1" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F64" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="G64" s="0" t="s">
+      <c r="G64" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="H64" s="0" t="s">
+      <c r="H64" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="I64" s="0" t="s">
+      <c r="I64" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="J64" s="0" t="s">
+      <c r="J64" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="K64" s="0" t="s">
+      <c r="K64" s="1" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E65" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="F65" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="G65" s="0" t="s">
+      <c r="G65" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="H65" s="0" t="s">
+      <c r="H65" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="I65" s="0" t="s">
+      <c r="I65" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="J65" s="0" t="s">
+      <c r="J65" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="K65" s="0" t="s">
+      <c r="K65" s="1" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="E66" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="F66" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="G66" s="0" t="s">
+      <c r="G66" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="H66" s="0" t="s">
+      <c r="H66" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="I66" s="0" t="s">
+      <c r="I66" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="J66" s="0" t="s">
+      <c r="J66" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="K66" s="0" t="s">
+      <c r="K66" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="L66" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="N66" s="2" t="s">
+      <c r="N66" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="O66" s="0" t="s">
+      <c r="O66" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="P66" s="0" t="s">
+      <c r="P66" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="Q66" s="0" t="s">
+      <c r="Q66" s="1" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="E67" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="I67" s="0" t="s">
+      <c r="I67" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="J67" s="0" t="s">
+      <c r="J67" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="K67" s="0" t="s">
+      <c r="K67" s="1" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E68" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="I68" s="0" t="s">
+      <c r="I68" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="J68" s="0" t="s">
+      <c r="J68" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="K68" s="0" t="s">
+      <c r="K68" s="1" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="E69" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="F69" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="G69" s="0" t="s">
+      <c r="G69" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="H69" s="0" t="s">
+      <c r="H69" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="I69" s="0" t="s">
+      <c r="I69" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="J69" s="0" t="s">
+      <c r="J69" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="K69" s="0" t="s">
+      <c r="K69" s="1" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" s="1" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E71" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="I71" s="0" t="s">
+      <c r="I71" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="J71" s="0" t="s">
+      <c r="J71" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="K71" s="0" t="s">
+      <c r="K71" s="1" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="I72" s="0" t="s">
+      <c r="I72" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="J72" s="0" t="s">
+      <c r="J72" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="K72" s="0" t="s">
+      <c r="K72" s="1" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="F73" s="0" t="s">
+      <c r="F73" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="G73" s="0" t="s">
+      <c r="G73" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="H73" s="0" t="s">
+      <c r="H73" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="I73" s="0" t="s">
+      <c r="I73" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="J73" s="0" t="s">
+      <c r="J73" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="K73" s="0" t="s">
+      <c r="K73" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="L73" s="0" t="s">
+      <c r="L73" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="M73" s="0" t="s">
+      <c r="M73" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="N73" s="0" t="s">
+      <c r="N73" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="R73" s="0" t="s">
+      <c r="R73" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="S73" s="0" t="s">
+      <c r="S73" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="T73" s="0" t="s">
+      <c r="T73" s="1" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="E74" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="F74" s="0" t="s">
+      <c r="F74" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="G74" s="0" t="s">
+      <c r="G74" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="H74" s="0" t="s">
+      <c r="H74" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="I74" s="0" t="s">
+      <c r="I74" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="J74" s="0" t="s">
+      <c r="J74" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="K74" s="0" t="s">
+      <c r="K74" s="1" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="E75" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="F75" s="0" t="s">
+      <c r="F75" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="G75" s="0" t="s">
+      <c r="G75" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="H75" s="0" t="s">
+      <c r="H75" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="L75" s="0" t="s">
+      <c r="L75" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="M75" s="0" t="s">
+      <c r="M75" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="N75" s="0" t="s">
+      <c r="N75" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="R75" s="0" t="s">
+      <c r="R75" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="S75" s="0" t="s">
+      <c r="S75" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="T75" s="0" t="s">
+      <c r="T75" s="1" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="E76" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="F76" s="0" t="s">
+      <c r="F76" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="G76" s="0" t="s">
+      <c r="G76" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="H76" s="0" t="s">
+      <c r="H76" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="L76" s="0" t="s">
+      <c r="L76" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="M76" s="0" t="s">
+      <c r="M76" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="N76" s="0" t="s">
+      <c r="N76" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="R76" s="0" t="s">
+      <c r="R76" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="S76" s="0" t="s">
+      <c r="S76" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="T76" s="0" t="s">
+      <c r="T76" s="1" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="E77" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="F77" s="0" t="s">
+      <c r="F77" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="G77" s="0" t="s">
+      <c r="G77" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="H77" s="0" t="s">
+      <c r="H77" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="L77" s="0" t="s">
+      <c r="L77" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="M77" s="0" t="s">
+      <c r="M77" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="N77" s="0" t="s">
+      <c r="N77" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="R77" s="0" t="s">
+      <c r="R77" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="S77" s="0" t="s">
+      <c r="S77" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="T77" s="0" t="s">
+      <c r="T77" s="1" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="E78" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="F78" s="0" t="s">
+      <c r="F78" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="G78" s="0" t="s">
+      <c r="G78" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="H78" s="0" t="s">
+      <c r="H78" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="L78" s="0" t="s">
+      <c r="L78" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="M78" s="0" t="s">
+      <c r="M78" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="N78" s="0" t="s">
+      <c r="N78" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="R78" s="0" t="s">
+      <c r="R78" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="S78" s="0" t="s">
+      <c r="S78" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="T78" s="0" t="s">
+      <c r="T78" s="1" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="E79" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="F79" s="0" t="s">
+      <c r="F79" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="G79" s="0" t="s">
+      <c r="G79" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="H79" s="0" t="s">
+      <c r="H79" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="L79" s="0" t="s">
+      <c r="L79" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="M79" s="0" t="s">
+      <c r="M79" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="N79" s="0" t="s">
+      <c r="N79" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="R79" s="0" t="s">
+      <c r="R79" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="S79" s="0" t="s">
+      <c r="S79" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="T79" s="0" t="s">
+      <c r="T79" s="1" t="s">
         <v>909</v>
       </c>
     </row>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.82 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="949">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.92 Patch 2</t>
+    <t xml:space="preserve">EA 23.99 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>
@@ -1575,9 +1575,6 @@
   </si>
   <si>
     <t xml:space="preserve">与えるダメージが減少し、アビリティの使用機会が減る状態。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">制圧</t>
   </si>
   <si>
     <t xml:space="preserve">46</t>
@@ -3077,10 +3074,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -3089,7 +3086,7 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
@@ -3098,7 +3095,7 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
@@ -3107,7 +3104,7 @@
         <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
@@ -3118,7 +3115,7 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="S3" t="s">
         <v>30</v>
@@ -3132,10 +3129,10 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -3144,7 +3141,7 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -3153,7 +3150,7 @@
         <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
@@ -3162,7 +3159,7 @@
         <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -3173,7 +3170,7 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="S4" t="s">
         <v>39</v>
@@ -3187,10 +3184,10 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3199,7 +3196,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -3208,7 +3205,7 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
@@ -3217,7 +3214,7 @@
         <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="M5" t="s">
         <v>46</v>
@@ -3228,7 +3225,7 @@
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S5" t="s">
         <v>48</v>
@@ -3242,10 +3239,10 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -3254,7 +3251,7 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -3263,7 +3260,7 @@
         <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J6" t="s">
         <v>51</v>
@@ -3272,7 +3269,7 @@
         <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="M6" t="s">
         <v>55</v>
@@ -3283,7 +3280,7 @@
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="S6" t="s">
         <v>57</v>
@@ -3297,10 +3294,10 @@
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D7" t="s">
         <v>60</v>
@@ -3309,7 +3306,7 @@
         <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G7" t="s">
         <v>62</v>
@@ -3318,7 +3315,7 @@
         <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J7" t="s">
         <v>64</v>
@@ -3327,7 +3324,7 @@
         <v>65</v>
       </c>
       <c r="L7" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="M7" t="s">
         <v>66</v>
@@ -3336,7 +3333,7 @@
         <v>67</v>
       </c>
       <c r="O7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="P7" t="s">
         <v>68</v>
@@ -3345,7 +3342,7 @@
         <v>69</v>
       </c>
       <c r="R7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="S7" t="s">
         <v>70</v>
@@ -3359,10 +3356,10 @@
         <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D8" t="s">
         <v>73</v>
@@ -3371,7 +3368,7 @@
         <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G8" t="s">
         <v>75</v>
@@ -3380,7 +3377,7 @@
         <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J8" t="s">
         <v>77</v>
@@ -3389,7 +3386,7 @@
         <v>78</v>
       </c>
       <c r="L8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="M8" t="s">
         <v>79</v>
@@ -3398,7 +3395,7 @@
         <v>80</v>
       </c>
       <c r="O8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="P8" t="s">
         <v>81</v>
@@ -3414,10 +3411,10 @@
         <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D9" t="s">
         <v>84</v>
@@ -3426,7 +3423,7 @@
         <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G9" t="s">
         <v>86</v>
@@ -3435,7 +3432,7 @@
         <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J9" t="s">
         <v>84</v>
@@ -3444,7 +3441,7 @@
         <v>85</v>
       </c>
       <c r="L9" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="M9" t="s">
         <v>88</v>
@@ -3455,7 +3452,7 @@
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="S9" t="s">
         <v>90</v>
@@ -3469,10 +3466,10 @@
         <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D10" t="s">
         <v>93</v>
@@ -3481,7 +3478,7 @@
         <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G10" t="s">
         <v>95</v>
@@ -3490,7 +3487,7 @@
         <v>96</v>
       </c>
       <c r="I10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J10" t="s">
         <v>93</v>
@@ -3499,7 +3496,7 @@
         <v>94</v>
       </c>
       <c r="L10" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="M10" t="s">
         <v>97</v>
@@ -3510,7 +3507,7 @@
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="S10" t="s">
         <v>99</v>
@@ -3524,10 +3521,10 @@
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D11" t="s">
         <v>102</v>
@@ -3536,7 +3533,7 @@
         <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G11" t="s">
         <v>104</v>
@@ -3545,7 +3542,7 @@
         <v>105</v>
       </c>
       <c r="I11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J11" t="s">
         <v>106</v>
@@ -3554,7 +3551,7 @@
         <v>103</v>
       </c>
       <c r="L11" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="M11" t="s">
         <v>107</v>
@@ -3565,7 +3562,7 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="S11" t="s">
         <v>109</v>
@@ -3579,10 +3576,10 @@
         <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C12" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D12" t="s">
         <v>112</v>
@@ -3591,7 +3588,7 @@
         <v>113</v>
       </c>
       <c r="F12" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G12" t="s">
         <v>114</v>
@@ -3600,7 +3597,7 @@
         <v>115</v>
       </c>
       <c r="I12" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J12" t="s">
         <v>116</v>
@@ -3609,7 +3606,7 @@
         <v>113</v>
       </c>
       <c r="L12" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="M12" t="s">
         <v>117</v>
@@ -3620,7 +3617,7 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="S12" t="s">
         <v>119</v>
@@ -3634,10 +3631,10 @@
         <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C13" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D13" t="s">
         <v>122</v>
@@ -3646,7 +3643,7 @@
         <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G13" t="s">
         <v>124</v>
@@ -3655,7 +3652,7 @@
         <v>125</v>
       </c>
       <c r="I13" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J13" t="s">
         <v>126</v>
@@ -3664,7 +3661,7 @@
         <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M13" t="s">
         <v>127</v>
@@ -3675,7 +3672,7 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="S13" t="s">
         <v>129</v>
@@ -3689,10 +3686,10 @@
         <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C14" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D14" t="s">
         <v>132</v>
@@ -3701,7 +3698,7 @@
         <v>133</v>
       </c>
       <c r="F14" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G14" t="s">
         <v>114</v>
@@ -3710,7 +3707,7 @@
         <v>115</v>
       </c>
       <c r="I14" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J14" t="s">
         <v>134</v>
@@ -3719,7 +3716,7 @@
         <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="M14" t="s">
         <v>135</v>
@@ -3730,7 +3727,7 @@
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="S14" t="s">
         <v>137</v>
@@ -3744,10 +3741,10 @@
         <v>139</v>
       </c>
       <c r="B15" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C15" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D15" t="s">
         <v>140</v>
@@ -3756,7 +3753,7 @@
         <v>141</v>
       </c>
       <c r="F15" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G15" t="s">
         <v>142</v>
@@ -3765,7 +3762,7 @@
         <v>143</v>
       </c>
       <c r="I15" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J15" t="s">
         <v>144</v>
@@ -3774,7 +3771,7 @@
         <v>141</v>
       </c>
       <c r="L15" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="M15" t="s">
         <v>145</v>
@@ -3785,7 +3782,7 @@
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="S15" t="s">
         <v>147</v>
@@ -3799,10 +3796,10 @@
         <v>149</v>
       </c>
       <c r="B16" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D16" t="s">
         <v>150</v>
@@ -3811,7 +3808,7 @@
         <v>151</v>
       </c>
       <c r="F16" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G16" t="s">
         <v>152</v>
@@ -3820,7 +3817,7 @@
         <v>153</v>
       </c>
       <c r="I16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J16" t="s">
         <v>150</v>
@@ -3829,7 +3826,7 @@
         <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="M16" t="s">
         <v>154</v>
@@ -3840,7 +3837,7 @@
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="S16" t="s">
         <v>156</v>
@@ -3854,10 +3851,10 @@
         <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D17" t="s">
         <v>159</v>
@@ -3866,7 +3863,7 @@
         <v>160</v>
       </c>
       <c r="F17" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G17" t="s">
         <v>161</v>
@@ -3875,7 +3872,7 @@
         <v>162</v>
       </c>
       <c r="I17" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J17" t="s">
         <v>163</v>
@@ -3884,7 +3881,7 @@
         <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="M17" t="s">
         <v>165</v>
@@ -3895,7 +3892,7 @@
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="S17" t="s">
         <v>167</v>
@@ -3909,10 +3906,10 @@
         <v>169</v>
       </c>
       <c r="B18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D18" t="s">
         <v>170</v>
@@ -3921,7 +3918,7 @@
         <v>171</v>
       </c>
       <c r="F18" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G18" t="s">
         <v>172</v>
@@ -3930,7 +3927,7 @@
         <v>173</v>
       </c>
       <c r="I18" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J18" t="s">
         <v>174</v>
@@ -3939,7 +3936,7 @@
         <v>175</v>
       </c>
       <c r="L18" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="M18" t="s">
         <v>176</v>
@@ -3950,7 +3947,7 @@
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="S18" t="s">
         <v>178</v>
@@ -3964,10 +3961,10 @@
         <v>180</v>
       </c>
       <c r="B19" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C19" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D19" t="s">
         <v>181</v>
@@ -3976,7 +3973,7 @@
         <v>182</v>
       </c>
       <c r="F19" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G19" t="s">
         <v>183</v>
@@ -3985,7 +3982,7 @@
         <v>184</v>
       </c>
       <c r="I19" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J19" t="s">
         <v>185</v>
@@ -3994,7 +3991,7 @@
         <v>186</v>
       </c>
       <c r="L19" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="M19" t="s">
         <v>187</v>
@@ -4005,7 +4002,7 @@
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="S19" t="s">
         <v>189</v>
@@ -4019,10 +4016,10 @@
         <v>191</v>
       </c>
       <c r="B20" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C20" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D20" t="s">
         <v>192</v>
@@ -4031,7 +4028,7 @@
         <v>193</v>
       </c>
       <c r="F20" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G20" t="s">
         <v>194</v>
@@ -4040,7 +4037,7 @@
         <v>195</v>
       </c>
       <c r="I20" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J20" t="s">
         <v>196</v>
@@ -4049,7 +4046,7 @@
         <v>197</v>
       </c>
       <c r="L20" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="M20" t="s">
         <v>198</v>
@@ -4060,7 +4057,7 @@
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="S20" t="s">
         <v>200</v>
@@ -4074,10 +4071,10 @@
         <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C21" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D21" t="s">
         <v>203</v>
@@ -4086,7 +4083,7 @@
         <v>204</v>
       </c>
       <c r="F21" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G21" t="s">
         <v>205</v>
@@ -4095,7 +4092,7 @@
         <v>206</v>
       </c>
       <c r="I21" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J21" t="s">
         <v>207</v>
@@ -4104,7 +4101,7 @@
         <v>208</v>
       </c>
       <c r="L21" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="M21" t="s">
         <v>209</v>
@@ -4115,7 +4112,7 @@
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="S21" t="s">
         <v>211</v>
@@ -4129,10 +4126,10 @@
         <v>213</v>
       </c>
       <c r="B22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C22" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D22" t="s">
         <v>214</v>
@@ -4141,7 +4138,7 @@
         <v>215</v>
       </c>
       <c r="F22" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G22" t="s">
         <v>216</v>
@@ -4150,7 +4147,7 @@
         <v>217</v>
       </c>
       <c r="I22" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J22" t="s">
         <v>214</v>
@@ -4159,7 +4156,7 @@
         <v>215</v>
       </c>
       <c r="L22" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="M22" t="s">
         <v>218</v>
@@ -4170,7 +4167,7 @@
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="S22" t="s">
         <v>220</v>
@@ -4184,10 +4181,10 @@
         <v>222</v>
       </c>
       <c r="B23" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D23" t="s">
         <v>223</v>
@@ -4196,7 +4193,7 @@
         <v>224</v>
       </c>
       <c r="F23" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G23" t="s">
         <v>225</v>
@@ -4205,7 +4202,7 @@
         <v>226</v>
       </c>
       <c r="I23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J23" t="s">
         <v>223</v>
@@ -4214,7 +4211,7 @@
         <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="M23" t="s">
         <v>227</v>
@@ -4232,10 +4229,10 @@
         <v>229</v>
       </c>
       <c r="B24" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C24" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D24" t="s">
         <v>230</v>
@@ -4244,7 +4241,7 @@
         <v>231</v>
       </c>
       <c r="F24" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G24" t="s">
         <v>232</v>
@@ -4253,7 +4250,7 @@
         <v>233</v>
       </c>
       <c r="I24" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J24" t="s">
         <v>230</v>
@@ -4262,7 +4259,7 @@
         <v>231</v>
       </c>
       <c r="L24" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="M24" t="s">
         <v>234</v>
@@ -4273,7 +4270,7 @@
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="S24" t="s">
         <v>236</v>
@@ -4287,10 +4284,10 @@
         <v>238</v>
       </c>
       <c r="B25" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C25" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D25" t="s">
         <v>239</v>
@@ -4299,7 +4296,7 @@
         <v>240</v>
       </c>
       <c r="F25" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G25" t="s">
         <v>241</v>
@@ -4308,7 +4305,7 @@
         <v>242</v>
       </c>
       <c r="I25" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J25" t="s">
         <v>239</v>
@@ -4317,7 +4314,7 @@
         <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="M25" t="s">
         <v>243</v>
@@ -4328,7 +4325,7 @@
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="S25" t="s">
         <v>245</v>
@@ -4342,10 +4339,10 @@
         <v>247</v>
       </c>
       <c r="B26" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C26" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D26" t="s">
         <v>248</v>
@@ -4354,7 +4351,7 @@
         <v>249</v>
       </c>
       <c r="F26" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G26" t="s">
         <v>250</v>
@@ -4363,7 +4360,7 @@
         <v>251</v>
       </c>
       <c r="I26" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J26" t="s">
         <v>248</v>
@@ -4372,7 +4369,7 @@
         <v>249</v>
       </c>
       <c r="L26" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M26" t="s">
         <v>252</v>
@@ -4383,7 +4380,7 @@
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="S26" t="s">
         <v>254</v>
@@ -4397,10 +4394,10 @@
         <v>256</v>
       </c>
       <c r="B27" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C27" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D27" t="s">
         <v>257</v>
@@ -4409,7 +4406,7 @@
         <v>258</v>
       </c>
       <c r="F27" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G27" t="s">
         <v>259</v>
@@ -4418,7 +4415,7 @@
         <v>260</v>
       </c>
       <c r="I27" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J27" t="s">
         <v>257</v>
@@ -4427,7 +4424,7 @@
         <v>258</v>
       </c>
       <c r="L27" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="M27" t="s">
         <v>261</v>
@@ -4438,7 +4435,7 @@
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="S27" t="s">
         <v>263</v>
@@ -4452,10 +4449,10 @@
         <v>265</v>
       </c>
       <c r="B28" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C28" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D28" t="s">
         <v>266</v>
@@ -4464,7 +4461,7 @@
         <v>267</v>
       </c>
       <c r="F28" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G28" t="s">
         <v>268</v>
@@ -4473,7 +4470,7 @@
         <v>269</v>
       </c>
       <c r="I28" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J28" t="s">
         <v>266</v>
@@ -4482,7 +4479,7 @@
         <v>267</v>
       </c>
       <c r="L28" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="M28" t="s">
         <v>270</v>
@@ -4493,7 +4490,7 @@
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="S28" t="s">
         <v>272</v>
@@ -4507,10 +4504,10 @@
         <v>274</v>
       </c>
       <c r="B29" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C29" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D29" t="s">
         <v>275</v>
@@ -4519,7 +4516,7 @@
         <v>276</v>
       </c>
       <c r="F29" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G29" t="s">
         <v>277</v>
@@ -4528,7 +4525,7 @@
         <v>278</v>
       </c>
       <c r="I29" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J29" t="s">
         <v>279</v>
@@ -4537,7 +4534,7 @@
         <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="M29" t="s">
         <v>281</v>
@@ -4548,7 +4545,7 @@
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="S29" t="s">
         <v>283</v>
@@ -4562,10 +4559,10 @@
         <v>285</v>
       </c>
       <c r="B30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C30" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D30" t="s">
         <v>286</v>
@@ -4574,7 +4571,7 @@
         <v>287</v>
       </c>
       <c r="F30" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G30" t="s">
         <v>288</v>
@@ -4583,7 +4580,7 @@
         <v>289</v>
       </c>
       <c r="I30" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J30" t="s">
         <v>286</v>
@@ -4592,7 +4589,7 @@
         <v>287</v>
       </c>
       <c r="L30" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="M30" t="s">
         <v>290</v>
@@ -4603,7 +4600,7 @@
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="S30" t="s">
         <v>292</v>
@@ -4617,10 +4614,10 @@
         <v>294</v>
       </c>
       <c r="B31" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C31" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D31" t="s">
         <v>295</v>
@@ -4629,7 +4626,7 @@
         <v>296</v>
       </c>
       <c r="F31" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G31" t="s">
         <v>288</v>
@@ -4638,7 +4635,7 @@
         <v>289</v>
       </c>
       <c r="I31" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J31" t="s">
         <v>295</v>
@@ -4647,7 +4644,7 @@
         <v>296</v>
       </c>
       <c r="L31" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="M31" t="s">
         <v>297</v>
@@ -4658,7 +4655,7 @@
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="S31" t="s">
         <v>299</v>
@@ -4672,10 +4669,10 @@
         <v>301</v>
       </c>
       <c r="B32" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C32" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D32" t="s">
         <v>302</v>
@@ -4684,7 +4681,7 @@
         <v>303</v>
       </c>
       <c r="F32" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G32" t="s">
         <v>304</v>
@@ -4693,7 +4690,7 @@
         <v>305</v>
       </c>
       <c r="I32" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J32" t="s">
         <v>306</v>
@@ -4702,7 +4699,7 @@
         <v>303</v>
       </c>
       <c r="L32" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="M32" t="s">
         <v>307</v>
@@ -4713,7 +4710,7 @@
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="S32" t="s">
         <v>309</v>
@@ -4727,10 +4724,10 @@
         <v>311</v>
       </c>
       <c r="B33" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C33" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D33" t="s">
         <v>312</v>
@@ -4739,7 +4736,7 @@
         <v>313</v>
       </c>
       <c r="F33" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G33" t="s">
         <v>304</v>
@@ -4748,7 +4745,7 @@
         <v>305</v>
       </c>
       <c r="I33" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J33" t="s">
         <v>314</v>
@@ -4757,7 +4754,7 @@
         <v>313</v>
       </c>
       <c r="L33" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="M33" t="s">
         <v>315</v>
@@ -4768,7 +4765,7 @@
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="S33" t="s">
         <v>317</v>
@@ -4782,10 +4779,10 @@
         <v>319</v>
       </c>
       <c r="B34" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C34" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D34" t="s">
         <v>320</v>
@@ -4794,7 +4791,7 @@
         <v>321</v>
       </c>
       <c r="F34" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G34" t="s">
         <v>322</v>
@@ -4803,7 +4800,7 @@
         <v>323</v>
       </c>
       <c r="I34" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J34" t="s">
         <v>320</v>
@@ -4823,10 +4820,10 @@
         <v>324</v>
       </c>
       <c r="B35" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C35" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D35" t="s">
         <v>325</v>
@@ -4835,7 +4832,7 @@
         <v>326</v>
       </c>
       <c r="F35" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G35" t="s">
         <v>327</v>
@@ -4844,7 +4841,7 @@
         <v>328</v>
       </c>
       <c r="I35" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J35" t="s">
         <v>325</v>
@@ -4864,10 +4861,10 @@
         <v>329</v>
       </c>
       <c r="B36" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C36" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D36" t="s">
         <v>330</v>
@@ -4876,7 +4873,7 @@
         <v>331</v>
       </c>
       <c r="F36" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G36" t="s">
         <v>332</v>
@@ -4885,7 +4882,7 @@
         <v>333</v>
       </c>
       <c r="I36" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J36" t="s">
         <v>330</v>
@@ -4894,7 +4891,7 @@
         <v>331</v>
       </c>
       <c r="L36" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="M36" t="s">
         <v>334</v>
@@ -4905,7 +4902,7 @@
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="S36" t="s">
         <v>336</v>
@@ -4919,10 +4916,10 @@
         <v>338</v>
       </c>
       <c r="B37" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C37" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D37" t="s">
         <v>339</v>
@@ -4931,7 +4928,7 @@
         <v>340</v>
       </c>
       <c r="F37" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G37" t="s">
         <v>341</v>
@@ -4940,7 +4937,7 @@
         <v>342</v>
       </c>
       <c r="I37" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J37" t="s">
         <v>343</v>
@@ -4949,7 +4946,7 @@
         <v>340</v>
       </c>
       <c r="L37" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="M37" t="s">
         <v>344</v>
@@ -4960,7 +4957,7 @@
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="S37" t="s">
         <v>346</v>
@@ -4974,10 +4971,10 @@
         <v>348</v>
       </c>
       <c r="B38" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C38" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D38" t="s">
         <v>349</v>
@@ -4986,7 +4983,7 @@
         <v>350</v>
       </c>
       <c r="F38" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G38" t="s">
         <v>351</v>
@@ -4995,7 +4992,7 @@
         <v>352</v>
       </c>
       <c r="I38" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J38" t="s">
         <v>349</v>
@@ -5004,7 +5001,7 @@
         <v>350</v>
       </c>
       <c r="L38" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="M38" t="s">
         <v>353</v>
@@ -5015,7 +5012,7 @@
       <c r="P38"/>
       <c r="Q38"/>
       <c r="R38" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="S38" t="s">
         <v>292</v>
@@ -5029,10 +5026,10 @@
         <v>355</v>
       </c>
       <c r="B39" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C39" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D39" t="s">
         <v>356</v>
@@ -5041,7 +5038,7 @@
         <v>357</v>
       </c>
       <c r="F39" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G39" t="s">
         <v>358</v>
@@ -5050,7 +5047,7 @@
         <v>359</v>
       </c>
       <c r="I39" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J39" t="s">
         <v>356</v>
@@ -5059,7 +5056,7 @@
         <v>357</v>
       </c>
       <c r="L39" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="M39" t="s">
         <v>360</v>
@@ -5070,7 +5067,7 @@
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="S39" t="s">
         <v>362</v>
@@ -5084,10 +5081,10 @@
         <v>364</v>
       </c>
       <c r="B40" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C40" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D40" t="s">
         <v>365</v>
@@ -5096,7 +5093,7 @@
         <v>366</v>
       </c>
       <c r="F40" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G40" t="s">
         <v>367</v>
@@ -5105,7 +5102,7 @@
         <v>368</v>
       </c>
       <c r="I40" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J40" t="s">
         <v>365</v>
@@ -5114,7 +5111,7 @@
         <v>366</v>
       </c>
       <c r="L40" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="M40" t="s">
         <v>369</v>
@@ -5132,10 +5129,10 @@
         <v>371</v>
       </c>
       <c r="B41" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C41" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D41" t="s">
         <v>372</v>
@@ -5144,7 +5141,7 @@
         <v>373</v>
       </c>
       <c r="F41" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G41" t="s">
         <v>374</v>
@@ -5153,7 +5150,7 @@
         <v>375</v>
       </c>
       <c r="I41" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J41" t="s">
         <v>376</v>
@@ -5162,7 +5159,7 @@
         <v>373</v>
       </c>
       <c r="L41" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="M41" t="s">
         <v>377</v>
@@ -5173,7 +5170,7 @@
       <c r="P41"/>
       <c r="Q41"/>
       <c r="R41" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="S41" t="s">
         <v>379</v>
@@ -5187,10 +5184,10 @@
         <v>381</v>
       </c>
       <c r="B42" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C42" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D42" t="s">
         <v>382</v>
@@ -5199,7 +5196,7 @@
         <v>383</v>
       </c>
       <c r="F42" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G42" t="s">
         <v>384</v>
@@ -5208,7 +5205,7 @@
         <v>385</v>
       </c>
       <c r="I42" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J42" t="s">
         <v>382</v>
@@ -5217,7 +5214,7 @@
         <v>383</v>
       </c>
       <c r="L42" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="M42" t="s">
         <v>386</v>
@@ -5228,7 +5225,7 @@
       <c r="P42"/>
       <c r="Q42"/>
       <c r="R42" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="S42" t="s">
         <v>388</v>
@@ -5242,10 +5239,10 @@
         <v>390</v>
       </c>
       <c r="B43" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D43" t="s">
         <v>391</v>
@@ -5254,7 +5251,7 @@
         <v>392</v>
       </c>
       <c r="F43" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G43" t="s">
         <v>393</v>
@@ -5263,7 +5260,7 @@
         <v>394</v>
       </c>
       <c r="I43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J43" t="s">
         <v>391</v>
@@ -5272,7 +5269,7 @@
         <v>392</v>
       </c>
       <c r="L43" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="M43" t="s">
         <v>395</v>
@@ -5283,7 +5280,7 @@
       <c r="P43"/>
       <c r="Q43"/>
       <c r="R43" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="S43" t="s">
         <v>388</v>
@@ -5297,10 +5294,10 @@
         <v>397</v>
       </c>
       <c r="B44" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C44" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D44" t="s">
         <v>398</v>
@@ -5309,7 +5306,7 @@
         <v>399</v>
       </c>
       <c r="F44" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G44" t="s">
         <v>393</v>
@@ -5318,7 +5315,7 @@
         <v>394</v>
       </c>
       <c r="I44" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J44" t="s">
         <v>398</v>
@@ -5327,7 +5324,7 @@
         <v>399</v>
       </c>
       <c r="L44" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="M44" t="s">
         <v>395</v>
@@ -5338,7 +5335,7 @@
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="S44" t="s">
         <v>388</v>
@@ -5352,10 +5349,10 @@
         <v>400</v>
       </c>
       <c r="B45" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C45" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D45" t="s">
         <v>401</v>
@@ -5364,7 +5361,7 @@
         <v>402</v>
       </c>
       <c r="F45" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G45" t="s">
         <v>403</v>
@@ -5373,7 +5370,7 @@
         <v>404</v>
       </c>
       <c r="I45" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J45" t="s">
         <v>401</v>
@@ -5382,7 +5379,7 @@
         <v>402</v>
       </c>
       <c r="L45" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="M45" t="s">
         <v>405</v>
@@ -5400,10 +5397,10 @@
         <v>407</v>
       </c>
       <c r="B46" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C46" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D46" t="s">
         <v>408</v>
@@ -5412,7 +5409,7 @@
         <v>409</v>
       </c>
       <c r="F46" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G46" t="s">
         <v>410</v>
@@ -5421,7 +5418,7 @@
         <v>411</v>
       </c>
       <c r="I46" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J46" t="s">
         <v>408</v>
@@ -5430,7 +5427,7 @@
         <v>409</v>
       </c>
       <c r="L46" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="M46" t="s">
         <v>412</v>
@@ -5441,7 +5438,7 @@
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="S46" t="s">
         <v>414</v>
@@ -5455,10 +5452,10 @@
         <v>416</v>
       </c>
       <c r="B47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C47" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D47" t="s">
         <v>417</v>
@@ -5467,7 +5464,7 @@
         <v>418</v>
       </c>
       <c r="F47" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G47" t="s">
         <v>419</v>
@@ -5476,7 +5473,7 @@
         <v>420</v>
       </c>
       <c r="I47" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J47" t="s">
         <v>417</v>
@@ -5485,7 +5482,7 @@
         <v>418</v>
       </c>
       <c r="L47" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="M47" t="s">
         <v>421</v>
@@ -5503,10 +5500,10 @@
         <v>423</v>
       </c>
       <c r="B48" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C48" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D48" t="s">
         <v>424</v>
@@ -5515,7 +5512,7 @@
         <v>425</v>
       </c>
       <c r="F48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G48" t="s">
         <v>426</v>
@@ -5524,7 +5521,7 @@
         <v>427</v>
       </c>
       <c r="I48" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J48" t="s">
         <v>424</v>
@@ -5533,7 +5530,7 @@
         <v>425</v>
       </c>
       <c r="L48" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="M48" t="s">
         <v>428</v>
@@ -5551,10 +5548,10 @@
         <v>430</v>
       </c>
       <c r="B49" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C49" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D49" t="s">
         <v>431</v>
@@ -5563,7 +5560,7 @@
         <v>432</v>
       </c>
       <c r="F49" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G49" t="s">
         <v>433</v>
@@ -5572,7 +5569,7 @@
         <v>434</v>
       </c>
       <c r="I49" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J49" t="s">
         <v>431</v>
@@ -5581,7 +5578,7 @@
         <v>432</v>
       </c>
       <c r="L49" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="M49" t="s">
         <v>435</v>
@@ -5599,10 +5596,10 @@
         <v>437</v>
       </c>
       <c r="B50" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C50" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D50" t="s">
         <v>438</v>
@@ -5611,7 +5608,7 @@
         <v>439</v>
       </c>
       <c r="F50" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G50" t="s">
         <v>440</v>
@@ -5620,7 +5617,7 @@
         <v>441</v>
       </c>
       <c r="I50" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J50" t="s">
         <v>438</v>
@@ -5629,7 +5626,7 @@
         <v>439</v>
       </c>
       <c r="L50" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="M50" t="s">
         <v>442</v>
@@ -5640,7 +5637,7 @@
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="S50" t="s">
         <v>444</v>
@@ -5654,10 +5651,10 @@
         <v>446</v>
       </c>
       <c r="B51" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C51" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D51" t="s">
         <v>447</v>
@@ -5666,7 +5663,7 @@
         <v>448</v>
       </c>
       <c r="F51" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G51" t="s">
         <v>449</v>
@@ -5675,7 +5672,7 @@
         <v>450</v>
       </c>
       <c r="I51" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J51" t="s">
         <v>447</v>
@@ -5684,7 +5681,7 @@
         <v>448</v>
       </c>
       <c r="L51" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="M51" t="s">
         <v>451</v>
@@ -5702,10 +5699,10 @@
         <v>453</v>
       </c>
       <c r="B52" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C52" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D52" t="s">
         <v>454</v>
@@ -5714,7 +5711,7 @@
         <v>455</v>
       </c>
       <c r="F52" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G52" t="s">
         <v>456</v>
@@ -5723,7 +5720,7 @@
         <v>457</v>
       </c>
       <c r="I52" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J52" t="s">
         <v>458</v>
@@ -5732,7 +5729,7 @@
         <v>459</v>
       </c>
       <c r="L52" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="M52" t="s">
         <v>460</v>
@@ -5743,7 +5740,7 @@
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="S52" t="s">
         <v>462</v>
@@ -5757,10 +5754,10 @@
         <v>464</v>
       </c>
       <c r="B53" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C53" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D53" t="s">
         <v>465</v>
@@ -5769,7 +5766,7 @@
         <v>466</v>
       </c>
       <c r="F53" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G53" t="s">
         <v>467</v>
@@ -5778,7 +5775,7 @@
         <v>468</v>
       </c>
       <c r="I53" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J53" t="s">
         <v>469</v>
@@ -5787,7 +5784,7 @@
         <v>470</v>
       </c>
       <c r="L53" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="M53" t="s">
         <v>471</v>
@@ -5798,7 +5795,7 @@
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="S53" t="s">
         <v>473</v>
@@ -5812,10 +5809,10 @@
         <v>475</v>
       </c>
       <c r="B54" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C54" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D54" t="s">
         <v>476</v>
@@ -5824,7 +5821,7 @@
         <v>477</v>
       </c>
       <c r="F54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G54" t="s">
         <v>478</v>
@@ -5833,7 +5830,7 @@
         <v>479</v>
       </c>
       <c r="I54" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J54" t="s">
         <v>476</v>
@@ -5842,7 +5839,7 @@
         <v>477</v>
       </c>
       <c r="L54" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="M54" t="s">
         <v>480</v>
@@ -5853,7 +5850,7 @@
       <c r="P54"/>
       <c r="Q54"/>
       <c r="R54" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="S54" t="s">
         <v>482</v>
@@ -5867,10 +5864,10 @@
         <v>484</v>
       </c>
       <c r="B55" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C55" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D55" t="s">
         <v>485</v>
@@ -5881,7 +5878,7 @@
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J55" t="s">
         <v>485</v>
@@ -5901,10 +5898,10 @@
         <v>487</v>
       </c>
       <c r="B56" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C56" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D56" t="s">
         <v>488</v>
@@ -5913,7 +5910,7 @@
         <v>489</v>
       </c>
       <c r="F56" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G56" t="s">
         <v>490</v>
@@ -5922,7 +5919,7 @@
         <v>491</v>
       </c>
       <c r="I56" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J56" t="s">
         <v>488</v>
@@ -5931,7 +5928,7 @@
         <v>489</v>
       </c>
       <c r="L56" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M56" t="s">
         <v>492</v>
@@ -5942,7 +5939,7 @@
       <c r="P56"/>
       <c r="Q56"/>
       <c r="R56" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="S56" t="s">
         <v>494</v>
@@ -5956,10 +5953,10 @@
         <v>496</v>
       </c>
       <c r="B57" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C57" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D57" t="s">
         <v>497</v>
@@ -5968,7 +5965,7 @@
         <v>498</v>
       </c>
       <c r="F57" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G57" t="s">
         <v>499</v>
@@ -5977,7 +5974,7 @@
         <v>500</v>
       </c>
       <c r="I57" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="J57" t="s">
         <v>501</v>
@@ -5986,7 +5983,7 @@
         <v>502</v>
       </c>
       <c r="L57" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="M57" t="s">
         <v>503</v>
@@ -5997,7 +5994,7 @@
       <c r="P57"/>
       <c r="Q57"/>
       <c r="R57" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="S57" t="s">
         <v>505</v>
@@ -6011,10 +6008,10 @@
         <v>507</v>
       </c>
       <c r="B58" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C58" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D58" t="s">
         <v>508</v>
@@ -6023,7 +6020,7 @@
         <v>509</v>
       </c>
       <c r="F58" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G58" t="s">
         <v>510</v>
@@ -6032,7 +6029,7 @@
         <v>511</v>
       </c>
       <c r="I58" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J58" t="s">
         <v>512</v>
@@ -6052,10 +6049,10 @@
         <v>513</v>
       </c>
       <c r="B59" t="s">
-        <v>655</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D59" t="s">
         <v>514</v>
@@ -6064,7 +6061,7 @@
         <v>515</v>
       </c>
       <c r="F59" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G59" t="s">
         <v>516</v>
@@ -6073,13 +6070,13 @@
         <v>517</v>
       </c>
       <c r="I59" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J59" t="s">
         <v>514</v>
       </c>
       <c r="K59" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="M59"/>
       <c r="N59"/>
@@ -6090,202 +6087,202 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>518</v>
+      </c>
+      <c r="B60" t="s">
+        <v>655</v>
+      </c>
+      <c r="C60" t="s">
+        <v>732</v>
+      </c>
+      <c r="D60" t="s">
         <v>519</v>
       </c>
-      <c r="B60" t="s">
-        <v>656</v>
-      </c>
-      <c r="C60" t="s">
-        <v>733</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>520</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
+        <v>802</v>
+      </c>
+      <c r="G60" t="s">
         <v>521</v>
       </c>
-      <c r="F60" t="s">
-        <v>803</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>522</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
+        <v>732</v>
+      </c>
+      <c r="J60" t="s">
+        <v>519</v>
+      </c>
+      <c r="K60" t="s">
+        <v>520</v>
+      </c>
+      <c r="L60" t="s">
+        <v>892</v>
+      </c>
+      <c r="M60" t="s">
         <v>523</v>
       </c>
-      <c r="I60" t="s">
-        <v>733</v>
-      </c>
-      <c r="J60" t="s">
-        <v>520</v>
-      </c>
-      <c r="K60" t="s">
-        <v>521</v>
-      </c>
-      <c r="L60" t="s">
-        <v>893</v>
-      </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>524</v>
-      </c>
-      <c r="N60" t="s">
-        <v>525</v>
       </c>
       <c r="P60"/>
       <c r="Q60"/>
       <c r="R60" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="S60" t="s">
+        <v>525</v>
+      </c>
+      <c r="T60" t="s">
         <v>526</v>
-      </c>
-      <c r="T60" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>527</v>
+      </c>
+      <c r="B61" t="s">
+        <v>669</v>
+      </c>
+      <c r="C61" t="s">
+        <v>733</v>
+      </c>
+      <c r="D61" t="s">
         <v>528</v>
       </c>
-      <c r="B61" t="s">
-        <v>670</v>
-      </c>
-      <c r="C61" t="s">
-        <v>734</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>529</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
+        <v>803</v>
+      </c>
+      <c r="G61" t="s">
         <v>530</v>
       </c>
-      <c r="F61" t="s">
-        <v>804</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>531</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
+        <v>831</v>
+      </c>
+      <c r="J61" t="s">
         <v>532</v>
       </c>
-      <c r="I61" t="s">
-        <v>832</v>
-      </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>533</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
+        <v>893</v>
+      </c>
+      <c r="M61" t="s">
         <v>534</v>
       </c>
-      <c r="L61" t="s">
-        <v>894</v>
-      </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>535</v>
-      </c>
-      <c r="N61" t="s">
-        <v>536</v>
       </c>
       <c r="P61"/>
       <c r="Q61"/>
       <c r="R61" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="S61" t="s">
+        <v>536</v>
+      </c>
+      <c r="T61" t="s">
         <v>537</v>
-      </c>
-      <c r="T61" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>538</v>
+      </c>
+      <c r="B62" t="s">
+        <v>655</v>
+      </c>
+      <c r="C62" t="s">
+        <v>734</v>
+      </c>
+      <c r="D62" t="s">
         <v>539</v>
       </c>
-      <c r="B62" t="s">
-        <v>656</v>
-      </c>
-      <c r="C62" t="s">
-        <v>735</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>540</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
+        <v>804</v>
+      </c>
+      <c r="G62" t="s">
         <v>541</v>
       </c>
-      <c r="F62" t="s">
-        <v>805</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>542</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
+        <v>832</v>
+      </c>
+      <c r="J62" t="s">
         <v>543</v>
       </c>
-      <c r="I62" t="s">
-        <v>833</v>
-      </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>544</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
+        <v>894</v>
+      </c>
+      <c r="M62" t="s">
         <v>545</v>
       </c>
-      <c r="L62" t="s">
-        <v>895</v>
-      </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>546</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
+        <v>903</v>
+      </c>
+      <c r="P62" t="s">
         <v>547</v>
       </c>
-      <c r="O62" t="s">
-        <v>904</v>
-      </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
         <v>548</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>549</v>
       </c>
       <c r="S62"/>
       <c r="T62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>549</v>
+      </c>
+      <c r="B63" t="s">
+        <v>655</v>
+      </c>
+      <c r="C63" t="s">
+        <v>735</v>
+      </c>
+      <c r="D63" t="s">
         <v>550</v>
       </c>
-      <c r="B63" t="s">
-        <v>656</v>
-      </c>
-      <c r="C63" t="s">
-        <v>736</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>551</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
+        <v>805</v>
+      </c>
+      <c r="G63" t="s">
         <v>552</v>
       </c>
-      <c r="F63" t="s">
-        <v>806</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>553</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
+        <v>833</v>
+      </c>
+      <c r="J63" t="s">
         <v>554</v>
       </c>
-      <c r="I63" t="s">
-        <v>834</v>
-      </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>555</v>
-      </c>
-      <c r="K63" t="s">
-        <v>556</v>
       </c>
       <c r="M63"/>
       <c r="N63"/>
@@ -6296,37 +6293,37 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B64" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C64" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D64" t="s">
         <v>159</v>
       </c>
       <c r="E64" t="s">
+        <v>557</v>
+      </c>
+      <c r="F64" t="s">
+        <v>806</v>
+      </c>
+      <c r="G64" t="s">
         <v>558</v>
       </c>
-      <c r="F64" t="s">
-        <v>807</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>559</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>560</v>
       </c>
-      <c r="I64" t="s">
-        <v>561</v>
-      </c>
       <c r="J64" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K64" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M64"/>
       <c r="N64"/>
@@ -6337,37 +6334,37 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>561</v>
+      </c>
+      <c r="B65" t="s">
+        <v>659</v>
+      </c>
+      <c r="C65" t="s">
+        <v>737</v>
+      </c>
+      <c r="D65" t="s">
         <v>562</v>
       </c>
-      <c r="B65" t="s">
-        <v>660</v>
-      </c>
-      <c r="C65" t="s">
-        <v>738</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>563</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
+        <v>807</v>
+      </c>
+      <c r="G65" t="s">
         <v>564</v>
       </c>
-      <c r="F65" t="s">
-        <v>808</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>565</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
+        <v>834</v>
+      </c>
+      <c r="J65" t="s">
         <v>566</v>
       </c>
-      <c r="I65" t="s">
-        <v>835</v>
-      </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>567</v>
-      </c>
-      <c r="K65" t="s">
-        <v>568</v>
       </c>
       <c r="M65"/>
       <c r="N65"/>
@@ -6378,13 +6375,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B66" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C66" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D66" t="s">
         <v>102</v>
@@ -6393,70 +6390,70 @@
         <v>103</v>
       </c>
       <c r="F66" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G66" t="s">
+        <v>569</v>
+      </c>
+      <c r="H66" t="s">
         <v>570</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
+        <v>835</v>
+      </c>
+      <c r="J66" t="s">
         <v>571</v>
       </c>
-      <c r="I66" t="s">
-        <v>836</v>
-      </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>572</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
+        <v>895</v>
+      </c>
+      <c r="M66" t="s">
         <v>573</v>
       </c>
-      <c r="L66" t="s">
-        <v>896</v>
-      </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>574</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
+        <v>904</v>
+      </c>
+      <c r="P66" t="s">
         <v>575</v>
       </c>
-      <c r="O66" t="s">
-        <v>905</v>
-      </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>576</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>577</v>
       </c>
       <c r="S66"/>
       <c r="T66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>577</v>
+      </c>
+      <c r="B67" t="s">
+        <v>655</v>
+      </c>
+      <c r="C67" t="s">
+        <v>738</v>
+      </c>
+      <c r="D67" t="s">
         <v>578</v>
       </c>
-      <c r="B67" t="s">
-        <v>656</v>
-      </c>
-      <c r="C67" t="s">
-        <v>739</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>579</v>
-      </c>
-      <c r="E67" t="s">
-        <v>580</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J67" t="s">
+        <v>580</v>
+      </c>
+      <c r="K67" t="s">
         <v>581</v>
-      </c>
-      <c r="K67" t="s">
-        <v>582</v>
       </c>
       <c r="M67"/>
       <c r="N67"/>
@@ -6467,30 +6464,30 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>582</v>
+      </c>
+      <c r="B68" t="s">
+        <v>655</v>
+      </c>
+      <c r="C68" t="s">
+        <v>739</v>
+      </c>
+      <c r="D68" t="s">
         <v>583</v>
       </c>
-      <c r="B68" t="s">
-        <v>656</v>
-      </c>
-      <c r="C68" t="s">
-        <v>740</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>584</v>
-      </c>
-      <c r="E68" t="s">
-        <v>585</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J68" t="s">
+        <v>585</v>
+      </c>
+      <c r="K68" t="s">
         <v>586</v>
-      </c>
-      <c r="K68" t="s">
-        <v>587</v>
       </c>
       <c r="M68"/>
       <c r="N68"/>
@@ -6501,37 +6498,37 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>587</v>
+      </c>
+      <c r="B69" t="s">
+        <v>655</v>
+      </c>
+      <c r="C69" t="s">
+        <v>740</v>
+      </c>
+      <c r="D69" t="s">
         <v>588</v>
       </c>
-      <c r="B69" t="s">
-        <v>656</v>
-      </c>
-      <c r="C69" t="s">
-        <v>741</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>589</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
+        <v>809</v>
+      </c>
+      <c r="G69" t="s">
         <v>590</v>
       </c>
-      <c r="F69" t="s">
-        <v>810</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>591</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
+        <v>838</v>
+      </c>
+      <c r="J69" t="s">
         <v>592</v>
       </c>
-      <c r="I69" t="s">
-        <v>839</v>
-      </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>593</v>
-      </c>
-      <c r="K69" t="s">
-        <v>594</v>
       </c>
       <c r="M69"/>
       <c r="N69"/>
@@ -6542,19 +6539,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>594</v>
+      </c>
+      <c r="B70" t="s">
+        <v>655</v>
+      </c>
+      <c r="C70" t="s">
+        <v>741</v>
+      </c>
+      <c r="D70" t="s">
         <v>595</v>
       </c>
-      <c r="B70" t="s">
-        <v>656</v>
-      </c>
-      <c r="C70" t="s">
-        <v>742</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>596</v>
-      </c>
-      <c r="E70" t="s">
-        <v>597</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
@@ -6569,30 +6566,30 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>597</v>
+      </c>
+      <c r="B71" t="s">
+        <v>655</v>
+      </c>
+      <c r="C71" t="s">
+        <v>742</v>
+      </c>
+      <c r="D71" t="s">
         <v>598</v>
       </c>
-      <c r="B71" t="s">
-        <v>656</v>
-      </c>
-      <c r="C71" t="s">
-        <v>743</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>599</v>
-      </c>
-      <c r="E71" t="s">
-        <v>600</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J71" t="s">
+        <v>600</v>
+      </c>
+      <c r="K71" t="s">
         <v>601</v>
-      </c>
-      <c r="K71" t="s">
-        <v>602</v>
       </c>
       <c r="M71"/>
       <c r="N71"/>
@@ -6603,30 +6600,30 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B72" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C72" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D72" t="s">
+        <v>578</v>
+      </c>
+      <c r="E72" t="s">
         <v>579</v>
-      </c>
-      <c r="E72" t="s">
-        <v>580</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="J72" t="s">
+        <v>603</v>
+      </c>
+      <c r="K72" t="s">
         <v>604</v>
-      </c>
-      <c r="K72" t="s">
-        <v>605</v>
       </c>
       <c r="M72"/>
       <c r="N72"/>
@@ -6637,51 +6634,51 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>605</v>
+      </c>
+      <c r="B73" t="s">
+        <v>670</v>
+      </c>
+      <c r="C73" t="s">
+        <v>743</v>
+      </c>
+      <c r="D73" t="s">
         <v>606</v>
       </c>
-      <c r="B73" t="s">
-        <v>671</v>
-      </c>
-      <c r="C73" t="s">
-        <v>744</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>607</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
+        <v>810</v>
+      </c>
+      <c r="G73" t="s">
         <v>608</v>
       </c>
-      <c r="F73" t="s">
-        <v>811</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>609</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
+        <v>743</v>
+      </c>
+      <c r="J73" t="s">
+        <v>606</v>
+      </c>
+      <c r="K73" t="s">
+        <v>607</v>
+      </c>
+      <c r="L73" t="s">
+        <v>896</v>
+      </c>
+      <c r="M73" t="s">
         <v>610</v>
       </c>
-      <c r="I73" t="s">
-        <v>744</v>
-      </c>
-      <c r="J73" t="s">
-        <v>607</v>
-      </c>
-      <c r="K73" t="s">
-        <v>608</v>
-      </c>
-      <c r="L73" t="s">
-        <v>897</v>
-      </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>611</v>
-      </c>
-      <c r="N73" t="s">
-        <v>612</v>
       </c>
       <c r="P73"/>
       <c r="Q73"/>
       <c r="R73" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="S73" t="s">
         <v>444</v>
@@ -6692,37 +6689,37 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>612</v>
+      </c>
+      <c r="B74" t="s">
+        <v>671</v>
+      </c>
+      <c r="C74" t="s">
+        <v>744</v>
+      </c>
+      <c r="D74" t="s">
         <v>613</v>
       </c>
-      <c r="B74" t="s">
-        <v>672</v>
-      </c>
-      <c r="C74" t="s">
-        <v>745</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>614</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
+        <v>811</v>
+      </c>
+      <c r="G74" t="s">
         <v>615</v>
       </c>
-      <c r="F74" t="s">
-        <v>812</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>616</v>
       </c>
-      <c r="H74" t="s">
-        <v>617</v>
-      </c>
       <c r="I74" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J74" t="s">
+        <v>613</v>
+      </c>
+      <c r="K74" t="s">
         <v>614</v>
-      </c>
-      <c r="K74" t="s">
-        <v>615</v>
       </c>
       <c r="M74"/>
       <c r="N74"/>
@@ -6733,242 +6730,242 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>617</v>
+      </c>
+      <c r="B75" t="s">
+        <v>672</v>
+      </c>
+      <c r="C75" t="s">
+        <v>745</v>
+      </c>
+      <c r="D75" t="s">
         <v>618</v>
       </c>
-      <c r="B75" t="s">
-        <v>673</v>
-      </c>
-      <c r="C75" t="s">
-        <v>746</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>619</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
+        <v>812</v>
+      </c>
+      <c r="G75" t="s">
         <v>620</v>
       </c>
-      <c r="F75" t="s">
-        <v>813</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>621</v>
-      </c>
-      <c r="H75" t="s">
-        <v>622</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M75" t="s">
+        <v>622</v>
+      </c>
+      <c r="N75" t="s">
         <v>623</v>
-      </c>
-      <c r="N75" t="s">
-        <v>624</v>
       </c>
       <c r="P75"/>
       <c r="Q75"/>
       <c r="R75" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="S75" t="s">
+        <v>624</v>
+      </c>
+      <c r="T75" t="s">
         <v>625</v>
-      </c>
-      <c r="T75" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>626</v>
+      </c>
+      <c r="B76" t="s">
+        <v>672</v>
+      </c>
+      <c r="C76" t="s">
+        <v>746</v>
+      </c>
+      <c r="D76" t="s">
         <v>627</v>
       </c>
-      <c r="B76" t="s">
-        <v>673</v>
-      </c>
-      <c r="C76" t="s">
-        <v>747</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>628</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
+        <v>813</v>
+      </c>
+      <c r="G76" t="s">
         <v>629</v>
       </c>
-      <c r="F76" t="s">
-        <v>814</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>630</v>
-      </c>
-      <c r="H76" t="s">
-        <v>631</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="M76" t="s">
+        <v>631</v>
+      </c>
+      <c r="N76" t="s">
         <v>632</v>
-      </c>
-      <c r="N76" t="s">
-        <v>633</v>
       </c>
       <c r="P76"/>
       <c r="Q76"/>
       <c r="R76" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="S76" t="s">
+        <v>624</v>
+      </c>
+      <c r="T76" t="s">
         <v>625</v>
-      </c>
-      <c r="T76" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>633</v>
+      </c>
+      <c r="B77" t="s">
+        <v>672</v>
+      </c>
+      <c r="C77" t="s">
+        <v>747</v>
+      </c>
+      <c r="D77" t="s">
         <v>634</v>
       </c>
-      <c r="B77" t="s">
-        <v>673</v>
-      </c>
-      <c r="C77" t="s">
-        <v>748</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>635</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
+        <v>814</v>
+      </c>
+      <c r="G77" t="s">
         <v>636</v>
       </c>
-      <c r="F77" t="s">
-        <v>815</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>637</v>
-      </c>
-      <c r="H77" t="s">
-        <v>638</v>
       </c>
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="M77" t="s">
+        <v>631</v>
+      </c>
+      <c r="N77" t="s">
         <v>632</v>
-      </c>
-      <c r="N77" t="s">
-        <v>633</v>
       </c>
       <c r="P77"/>
       <c r="Q77"/>
       <c r="R77" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="S77" t="s">
+        <v>624</v>
+      </c>
+      <c r="T77" t="s">
         <v>625</v>
-      </c>
-      <c r="T77" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>638</v>
+      </c>
+      <c r="B78" t="s">
+        <v>673</v>
+      </c>
+      <c r="C78" t="s">
+        <v>748</v>
+      </c>
+      <c r="D78" t="s">
         <v>639</v>
       </c>
-      <c r="B78" t="s">
-        <v>674</v>
-      </c>
-      <c r="C78" t="s">
-        <v>749</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>640</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
+        <v>815</v>
+      </c>
+      <c r="G78" t="s">
         <v>641</v>
       </c>
-      <c r="F78" t="s">
-        <v>816</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>642</v>
-      </c>
-      <c r="H78" t="s">
-        <v>643</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="M78" t="s">
+        <v>643</v>
+      </c>
+      <c r="N78" t="s">
         <v>644</v>
-      </c>
-      <c r="N78" t="s">
-        <v>645</v>
       </c>
       <c r="P78"/>
       <c r="Q78"/>
       <c r="R78" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="S78" t="s">
+        <v>624</v>
+      </c>
+      <c r="T78" t="s">
         <v>625</v>
-      </c>
-      <c r="T78" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>645</v>
+      </c>
+      <c r="B79" t="s">
+        <v>674</v>
+      </c>
+      <c r="C79" t="s">
+        <v>749</v>
+      </c>
+      <c r="D79" t="s">
         <v>646</v>
       </c>
-      <c r="B79" t="s">
-        <v>675</v>
-      </c>
-      <c r="C79" t="s">
-        <v>750</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>647</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
+        <v>816</v>
+      </c>
+      <c r="G79" t="s">
         <v>648</v>
       </c>
-      <c r="F79" t="s">
-        <v>817</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>649</v>
-      </c>
-      <c r="H79" t="s">
-        <v>650</v>
       </c>
       <c r="J79"/>
       <c r="K79"/>
       <c r="L79" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="M79" t="s">
+        <v>650</v>
+      </c>
+      <c r="N79" t="s">
         <v>651</v>
-      </c>
-      <c r="N79" t="s">
-        <v>652</v>
       </c>
       <c r="P79"/>
       <c r="Q79"/>
       <c r="R79" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="S79" t="s">
+        <v>624</v>
+      </c>
+      <c r="T79" t="s">
         <v>625</v>
-      </c>
-      <c r="T79" t="s">
-        <v>626</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="975">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -3072,16 +3072,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3224,3824 +3228,3830 @@
   <dimension ref="A1:T81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="I72" activeCellId="0" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="1" style="0" width="14.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="1" style="1" width="14.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="N3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="R3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="S3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="T3" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="M4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="R4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="S4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="T4" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="L5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="M5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="N5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="0" t="s">
+      <c r="R5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="S5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="T5" s="0" t="s">
+      <c r="T5" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="M6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="N6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="R6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="S6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T6" s="0" t="s">
+      <c r="T6" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="O7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="P7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="Q7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="R7" s="0" t="s">
+      <c r="R7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="S7" s="0" t="s">
+      <c r="S7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="T7" s="0" t="s">
+      <c r="T7" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="O8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="P8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="Q8" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="M9" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="N9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="R9" s="0" t="s">
+      <c r="R9" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="S9" s="0" t="s">
+      <c r="S9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="T9" s="0" t="s">
+      <c r="T9" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="M10" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="N10" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="R10" s="0" t="s">
+      <c r="R10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="S10" s="0" t="s">
+      <c r="S10" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="T10" s="0" t="s">
+      <c r="T10" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="M11" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="N11" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="R11" s="0" t="s">
+      <c r="R11" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="S11" s="0" t="s">
+      <c r="S11" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="T11" s="0" t="s">
+      <c r="T11" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="L12" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="M12" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="N12" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="R12" s="0" t="s">
+      <c r="R12" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="S12" s="0" t="s">
+      <c r="S12" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="T12" s="0" t="s">
+      <c r="T12" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="L13" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="M13" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="N13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="R13" s="0" t="s">
+      <c r="R13" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="S13" s="0" t="s">
+      <c r="S13" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="T13" s="0" t="s">
+      <c r="T13" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="L14" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M14" s="0" t="s">
+      <c r="M14" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="N14" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R14" s="0" t="s">
+      <c r="R14" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="S14" s="0" t="s">
+      <c r="S14" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="T14" s="0" t="s">
+      <c r="T14" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="L15" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="M15" s="0" t="s">
+      <c r="M15" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="N15" s="0" t="s">
+      <c r="N15" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="R15" s="0" t="s">
+      <c r="R15" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="S15" s="0" t="s">
+      <c r="S15" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="T15" s="0" t="s">
+      <c r="T15" s="1" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L16" s="0" t="s">
+      <c r="L16" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="M16" s="0" t="s">
+      <c r="M16" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="N16" s="0" t="s">
+      <c r="N16" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="R16" s="0" t="s">
+      <c r="R16" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="S16" s="0" t="s">
+      <c r="S16" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="T16" s="0" t="s">
+      <c r="T16" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="L17" s="0" t="s">
+      <c r="L17" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="M17" s="0" t="s">
+      <c r="M17" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="N17" s="0" t="s">
+      <c r="N17" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="R17" s="0" t="s">
+      <c r="R17" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="S17" s="0" t="s">
+      <c r="S17" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="T17" s="0" t="s">
+      <c r="T17" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L18" s="0" t="s">
+      <c r="L18" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="M18" s="0" t="s">
+      <c r="M18" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="N18" s="0" t="s">
+      <c r="N18" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="R18" s="0" t="s">
+      <c r="R18" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="S18" s="0" t="s">
+      <c r="S18" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="T18" s="0" t="s">
+      <c r="T18" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="L19" s="0" t="s">
+      <c r="L19" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="M19" s="0" t="s">
+      <c r="M19" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="N19" s="0" t="s">
+      <c r="N19" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="R19" s="0" t="s">
+      <c r="R19" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="S19" s="0" t="s">
+      <c r="S19" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="T19" s="0" t="s">
+      <c r="T19" s="1" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="K20" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="L20" s="0" t="s">
+      <c r="L20" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="M20" s="0" t="s">
+      <c r="M20" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="N20" s="0" t="s">
+      <c r="N20" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="R20" s="0" t="s">
+      <c r="R20" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="S20" s="0" t="s">
+      <c r="S20" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="T20" s="0" t="s">
+      <c r="T20" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="K21" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="R21" s="0" t="s">
+      <c r="R21" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="S21" s="0" t="s">
+      <c r="S21" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="T21" s="0" t="s">
+      <c r="T21" s="1" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="I22" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="J22" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="K22" s="0" t="s">
+      <c r="K22" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="L22" s="0" t="s">
+      <c r="L22" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="M22" s="0" t="s">
+      <c r="M22" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="N22" s="0" t="s">
+      <c r="N22" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="R22" s="0" t="s">
+      <c r="R22" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="S22" s="0" t="s">
+      <c r="S22" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="T22" s="0" t="s">
+      <c r="T22" s="1" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="I23" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="J23" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="K23" s="0" t="s">
+      <c r="K23" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="L23" s="0" t="s">
+      <c r="L23" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="M23" s="0" t="s">
+      <c r="M23" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="N23" s="0" t="s">
+      <c r="N23" s="1" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="H24" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="I24" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="K24" s="0" t="s">
+      <c r="K24" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L24" s="0" t="s">
+      <c r="L24" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="M24" s="0" t="s">
+      <c r="M24" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="N24" s="0" t="s">
+      <c r="N24" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="R24" s="0" t="s">
+      <c r="R24" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="S24" s="0" t="s">
+      <c r="S24" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="T24" s="0" t="s">
+      <c r="T24" s="1" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H25" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="I25" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K25" s="0" t="s">
+      <c r="K25" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="L25" s="0" t="s">
+      <c r="L25" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="M25" s="0" t="s">
+      <c r="M25" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="N25" s="0" t="s">
+      <c r="N25" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="R25" s="0" t="s">
+      <c r="R25" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="S25" s="0" t="s">
+      <c r="S25" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="T25" s="0" t="s">
+      <c r="T25" s="1" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="H26" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="I26" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="J26" s="0" t="s">
+      <c r="J26" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="K26" s="0" t="s">
+      <c r="K26" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="L26" s="0" t="s">
+      <c r="L26" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="M26" s="0" t="s">
+      <c r="M26" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="N26" s="0" t="s">
+      <c r="N26" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="R26" s="0" t="s">
+      <c r="R26" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="S26" s="0" t="s">
+      <c r="S26" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="T26" s="0" t="s">
+      <c r="T26" s="1" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="H27" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="I27" s="0" t="s">
+      <c r="I27" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="J27" s="0" t="s">
+      <c r="J27" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="K27" s="0" t="s">
+      <c r="K27" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="L27" s="0" t="s">
+      <c r="L27" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="M27" s="0" t="s">
+      <c r="M27" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="N27" s="0" t="s">
+      <c r="N27" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="R27" s="0" t="s">
+      <c r="R27" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="S27" s="0" t="s">
+      <c r="S27" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="T27" s="0" t="s">
+      <c r="T27" s="1" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H28" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="I28" s="0" t="s">
+      <c r="I28" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="J28" s="0" t="s">
+      <c r="J28" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="K28" s="0" t="s">
+      <c r="K28" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="L28" s="0" t="s">
+      <c r="L28" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="M28" s="0" t="s">
+      <c r="M28" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="N28" s="0" t="s">
+      <c r="N28" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="R28" s="0" t="s">
+      <c r="R28" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="S28" s="0" t="s">
+      <c r="S28" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="T28" s="0" t="s">
+      <c r="T28" s="1" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="I29" s="0" t="s">
+      <c r="I29" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="J29" s="0" t="s">
+      <c r="J29" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="K29" s="0" t="s">
+      <c r="K29" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="L29" s="0" t="s">
+      <c r="L29" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="M29" s="0" t="s">
+      <c r="M29" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="N29" s="0" t="s">
+      <c r="N29" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="R29" s="0" t="s">
+      <c r="R29" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="S29" s="0" t="s">
+      <c r="S29" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="T29" s="0" t="s">
+      <c r="T29" s="1" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="I30" s="0" t="s">
+      <c r="I30" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="J30" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="K30" s="0" t="s">
+      <c r="K30" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="L30" s="0" t="s">
+      <c r="L30" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="M30" s="0" t="s">
+      <c r="M30" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="N30" s="0" t="s">
+      <c r="N30" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="R30" s="0" t="s">
+      <c r="R30" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="S30" s="0" t="s">
+      <c r="S30" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="T30" s="0" t="s">
+      <c r="T30" s="1" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="H31" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="I31" s="0" t="s">
+      <c r="I31" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="J31" s="0" t="s">
+      <c r="J31" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="K31" s="0" t="s">
+      <c r="K31" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="L31" s="0" t="s">
+      <c r="L31" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="M31" s="0" t="s">
+      <c r="M31" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="N31" s="0" t="s">
+      <c r="N31" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="R31" s="0" t="s">
+      <c r="R31" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="S31" s="0" t="s">
+      <c r="S31" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="T31" s="0" t="s">
+      <c r="T31" s="1" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="I32" s="0" t="s">
+      <c r="I32" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="J32" s="0" t="s">
+      <c r="J32" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="K32" s="0" t="s">
+      <c r="K32" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="L32" s="0" t="s">
+      <c r="L32" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="M32" s="0" t="s">
+      <c r="M32" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="N32" s="0" t="s">
+      <c r="N32" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="R32" s="0" t="s">
+      <c r="R32" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="S32" s="0" t="s">
+      <c r="S32" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="T32" s="0" t="s">
+      <c r="T32" s="1" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="H33" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="I33" s="0" t="s">
+      <c r="I33" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="J33" s="0" t="s">
+      <c r="J33" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="K33" s="0" t="s">
+      <c r="K33" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="L33" s="0" t="s">
+      <c r="L33" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="M33" s="0" t="s">
+      <c r="M33" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="N33" s="0" t="s">
+      <c r="N33" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="R33" s="0" t="s">
+      <c r="R33" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="S33" s="0" t="s">
+      <c r="S33" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="T33" s="0" t="s">
+      <c r="T33" s="1" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H34" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="I34" s="0" t="s">
+      <c r="I34" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="J34" s="0" t="s">
+      <c r="J34" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="K34" s="0" t="s">
+      <c r="K34" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="L34" s="0" t="s">
+      <c r="L34" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="M34" s="0" t="s">
+      <c r="M34" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="N34" s="0" t="s">
+      <c r="N34" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="R34" s="0" t="s">
+      <c r="R34" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="S34" s="0" t="s">
+      <c r="S34" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="T34" s="0" t="s">
+      <c r="T34" s="1" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="H35" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="I35" s="0" t="s">
+      <c r="I35" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="J35" s="0" t="s">
+      <c r="J35" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="K35" s="0" t="s">
+      <c r="K35" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="L35" s="0" t="s">
+      <c r="L35" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="M35" s="0" t="s">
+      <c r="M35" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="N35" s="0" t="s">
+      <c r="N35" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="R35" s="0" t="s">
+      <c r="R35" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="S35" s="0" t="s">
+      <c r="S35" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="T35" s="0" t="s">
+      <c r="T35" s="1" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="H36" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="I36" s="0" t="s">
+      <c r="I36" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="J36" s="0" t="s">
+      <c r="J36" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="K36" s="0" t="s">
+      <c r="K36" s="1" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="I37" s="0" t="s">
+      <c r="I37" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="J37" s="0" t="s">
+      <c r="J37" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="K37" s="0" t="s">
+      <c r="K37" s="1" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="H38" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="I38" s="0" t="s">
+      <c r="I38" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="J38" s="0" t="s">
+      <c r="J38" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="K38" s="0" t="s">
+      <c r="K38" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="L38" s="0" t="s">
+      <c r="L38" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="M38" s="0" t="s">
+      <c r="M38" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="N38" s="0" t="s">
+      <c r="N38" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="R38" s="0" t="s">
+      <c r="R38" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="S38" s="0" t="s">
+      <c r="S38" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="T38" s="0" t="s">
+      <c r="T38" s="1" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="H39" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="I39" s="0" t="s">
+      <c r="I39" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="J39" s="0" t="s">
+      <c r="J39" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="K39" s="0" t="s">
+      <c r="K39" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="L39" s="0" t="s">
+      <c r="L39" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="M39" s="0" t="s">
+      <c r="M39" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="N39" s="0" t="s">
+      <c r="N39" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="R39" s="0" t="s">
+      <c r="R39" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="S39" s="0" t="s">
+      <c r="S39" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="T39" s="0" t="s">
+      <c r="T39" s="1" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="H40" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="I40" s="0" t="s">
+      <c r="I40" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="J40" s="0" t="s">
+      <c r="J40" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="K40" s="0" t="s">
+      <c r="K40" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="L40" s="0" t="s">
+      <c r="L40" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="M40" s="0" t="s">
+      <c r="M40" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="N40" s="0" t="s">
+      <c r="N40" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="R40" s="0" t="s">
+      <c r="R40" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="S40" s="0" t="s">
+      <c r="S40" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="T40" s="0" t="s">
+      <c r="T40" s="1" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="H41" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="I41" s="0" t="s">
+      <c r="I41" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="J41" s="0" t="s">
+      <c r="J41" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="K41" s="0" t="s">
+      <c r="K41" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="L41" s="0" t="s">
+      <c r="L41" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="M41" s="0" t="s">
+      <c r="M41" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="N41" s="0" t="s">
+      <c r="N41" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="R41" s="0" t="s">
+      <c r="R41" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="S41" s="0" t="s">
+      <c r="S41" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="T41" s="0" t="s">
+      <c r="T41" s="1" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="H42" s="0" t="s">
+      <c r="H42" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="I42" s="0" t="s">
+      <c r="I42" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="J42" s="0" t="s">
+      <c r="J42" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="K42" s="0" t="s">
+      <c r="K42" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="L42" s="0" t="s">
+      <c r="L42" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="M42" s="0" t="s">
+      <c r="M42" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="N42" s="0" t="s">
+      <c r="N42" s="1" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="H43" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="I43" s="0" t="s">
+      <c r="I43" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="J43" s="0" t="s">
+      <c r="J43" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="K43" s="0" t="s">
+      <c r="K43" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="L43" s="0" t="s">
+      <c r="L43" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="M43" s="0" t="s">
+      <c r="M43" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="N43" s="0" t="s">
+      <c r="N43" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="R43" s="0" t="s">
+      <c r="R43" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="S43" s="0" t="s">
+      <c r="S43" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="T43" s="0" t="s">
+      <c r="T43" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="H44" s="0" t="s">
+      <c r="H44" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="I44" s="0" t="s">
+      <c r="I44" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="J44" s="0" t="s">
+      <c r="J44" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="K44" s="0" t="s">
+      <c r="K44" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="L44" s="0" t="s">
+      <c r="L44" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="M44" s="0" t="s">
+      <c r="M44" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="N44" s="0" t="s">
+      <c r="N44" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="R44" s="0" t="s">
+      <c r="R44" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="S44" s="0" t="s">
+      <c r="S44" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="T44" s="0" t="s">
+      <c r="T44" s="1" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="H45" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="I45" s="0" t="s">
+      <c r="I45" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="J45" s="0" t="s">
+      <c r="J45" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="K45" s="0" t="s">
+      <c r="K45" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="L45" s="0" t="s">
+      <c r="L45" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="M45" s="0" t="s">
+      <c r="M45" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="N45" s="0" t="s">
+      <c r="N45" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="R45" s="0" t="s">
+      <c r="R45" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="S45" s="0" t="s">
+      <c r="S45" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="T45" s="0" t="s">
+      <c r="T45" s="1" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="H46" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="I46" s="0" t="s">
+      <c r="I46" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="J46" s="0" t="s">
+      <c r="J46" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="K46" s="0" t="s">
+      <c r="K46" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="L46" s="0" t="s">
+      <c r="L46" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="M46" s="0" t="s">
+      <c r="M46" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="N46" s="0" t="s">
+      <c r="N46" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="R46" s="0" t="s">
+      <c r="R46" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="S46" s="0" t="s">
+      <c r="S46" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="T46" s="0" t="s">
+      <c r="T46" s="1" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="G47" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="H47" s="0" t="s">
+      <c r="H47" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="I47" s="0" t="s">
+      <c r="I47" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="J47" s="0" t="s">
+      <c r="J47" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="K47" s="0" t="s">
+      <c r="K47" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="L47" s="0" t="s">
+      <c r="L47" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="M47" s="0" t="s">
+      <c r="M47" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="N47" s="0" t="s">
+      <c r="N47" s="1" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="H48" s="0" t="s">
+      <c r="H48" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="I48" s="0" t="s">
+      <c r="I48" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="J48" s="0" t="s">
+      <c r="J48" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="K48" s="0" t="s">
+      <c r="K48" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="L48" s="0" t="s">
+      <c r="L48" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="M48" s="0" t="s">
+      <c r="M48" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="N48" s="0" t="s">
+      <c r="N48" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="R48" s="0" t="s">
+      <c r="R48" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="S48" s="0" t="s">
+      <c r="S48" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="T48" s="0" t="s">
+      <c r="T48" s="1" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="H49" s="0" t="s">
+      <c r="H49" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="I49" s="0" t="s">
+      <c r="I49" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="J49" s="0" t="s">
+      <c r="J49" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="K49" s="0" t="s">
+      <c r="K49" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="L49" s="0" t="s">
+      <c r="L49" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="M49" s="0" t="s">
+      <c r="M49" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="N49" s="0" t="s">
+      <c r="N49" s="1" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="H50" s="0" t="s">
+      <c r="H50" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="I50" s="0" t="s">
+      <c r="I50" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="J50" s="0" t="s">
+      <c r="J50" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="K50" s="0" t="s">
+      <c r="K50" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="L50" s="0" t="s">
+      <c r="L50" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="M50" s="0" t="s">
+      <c r="M50" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="N50" s="0" t="s">
+      <c r="N50" s="1" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="G51" s="0" t="s">
+      <c r="G51" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="H51" s="0" t="s">
+      <c r="H51" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="I51" s="0" t="s">
+      <c r="I51" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="J51" s="0" t="s">
+      <c r="J51" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="K51" s="0" t="s">
+      <c r="K51" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="L51" s="0" t="s">
+      <c r="L51" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="M51" s="0" t="s">
+      <c r="M51" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="N51" s="0" t="s">
+      <c r="N51" s="1" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="G52" s="0" t="s">
+      <c r="G52" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="H52" s="0" t="s">
+      <c r="H52" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="I52" s="0" t="s">
+      <c r="I52" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="J52" s="0" t="s">
+      <c r="J52" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="K52" s="0" t="s">
+      <c r="K52" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="L52" s="0" t="s">
+      <c r="L52" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="M52" s="0" t="s">
+      <c r="M52" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="N52" s="0" t="s">
+      <c r="N52" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="R52" s="0" t="s">
+      <c r="R52" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="S52" s="0" t="s">
+      <c r="S52" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="T52" s="0" t="s">
+      <c r="T52" s="1" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="G53" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="H53" s="0" t="s">
+      <c r="H53" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="I53" s="0" t="s">
+      <c r="I53" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="J53" s="0" t="s">
+      <c r="J53" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="K53" s="0" t="s">
+      <c r="K53" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="L53" s="0" t="s">
+      <c r="L53" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="M53" s="0" t="s">
+      <c r="M53" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="N53" s="0" t="s">
+      <c r="N53" s="1" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="G54" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="H54" s="0" t="s">
+      <c r="H54" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="I54" s="0" t="s">
+      <c r="I54" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="J54" s="0" t="s">
+      <c r="J54" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="K54" s="0" t="s">
+      <c r="K54" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="L54" s="0" t="s">
+      <c r="L54" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="M54" s="0" t="s">
+      <c r="M54" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="N54" s="0" t="s">
+      <c r="N54" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="R54" s="0" t="s">
+      <c r="R54" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="S54" s="0" t="s">
+      <c r="S54" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="T54" s="0" t="s">
+      <c r="T54" s="1" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="G55" s="0" t="s">
+      <c r="G55" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="H55" s="0" t="s">
+      <c r="H55" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="I55" s="0" t="s">
+      <c r="I55" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="J55" s="0" t="s">
+      <c r="J55" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="K55" s="0" t="s">
+      <c r="K55" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="L55" s="0" t="s">
+      <c r="L55" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="M55" s="0" t="s">
+      <c r="M55" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="N55" s="0" t="s">
+      <c r="N55" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="R55" s="0" t="s">
+      <c r="R55" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="S55" s="0" t="s">
+      <c r="S55" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="T55" s="0" t="s">
+      <c r="T55" s="1" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="G56" s="0" t="s">
+      <c r="G56" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H56" s="0" t="s">
+      <c r="H56" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="I56" s="0" t="s">
+      <c r="I56" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="J56" s="0" t="s">
+      <c r="J56" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="K56" s="0" t="s">
+      <c r="K56" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="L56" s="0" t="s">
+      <c r="L56" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="M56" s="0" t="s">
+      <c r="M56" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="N56" s="0" t="s">
+      <c r="N56" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="R56" s="0" t="s">
+      <c r="R56" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="S56" s="0" t="s">
+      <c r="S56" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="T56" s="0" t="s">
+      <c r="T56" s="1" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="I57" s="0" t="s">
+      <c r="I57" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="J57" s="0" t="s">
+      <c r="J57" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="K57" s="0" t="s">
+      <c r="K57" s="1" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="G58" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="H58" s="0" t="s">
+      <c r="H58" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="I58" s="0" t="s">
+      <c r="I58" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="J58" s="0" t="s">
+      <c r="J58" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="K58" s="0" t="s">
+      <c r="K58" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="L58" s="0" t="s">
+      <c r="L58" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="M58" s="0" t="s">
+      <c r="M58" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="N58" s="0" t="s">
+      <c r="N58" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="R58" s="0" t="s">
+      <c r="R58" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="S58" s="0" t="s">
+      <c r="S58" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="T58" s="0" t="s">
+      <c r="T58" s="1" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G59" s="0" t="s">
+      <c r="G59" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="H59" s="0" t="s">
+      <c r="H59" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="I59" s="0" t="s">
+      <c r="I59" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="J59" s="0" t="s">
+      <c r="J59" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="K59" s="0" t="s">
+      <c r="K59" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="L59" s="0" t="s">
+      <c r="L59" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="M59" s="0" t="s">
+      <c r="M59" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="N59" s="0" t="s">
+      <c r="N59" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="R59" s="0" t="s">
+      <c r="R59" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="S59" s="0" t="s">
+      <c r="S59" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="T59" s="0" t="s">
+      <c r="T59" s="1" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="G60" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="H60" s="0" t="s">
+      <c r="H60" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="I60" s="0" t="s">
+      <c r="I60" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="J60" s="0" t="s">
+      <c r="J60" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="K60" s="0" t="s">
+      <c r="K60" s="1" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="G61" s="0" t="s">
+      <c r="G61" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="H61" s="0" t="s">
+      <c r="H61" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="I61" s="0" t="s">
+      <c r="I61" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="J61" s="0" t="s">
+      <c r="J61" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="K61" s="0" t="s">
+      <c r="K61" s="1" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="G62" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="H62" s="0" t="s">
+      <c r="H62" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="I62" s="0" t="s">
+      <c r="I62" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="J62" s="0" t="s">
+      <c r="J62" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="K62" s="0" t="s">
+      <c r="K62" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="L62" s="0" t="s">
+      <c r="L62" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="M62" s="0" t="s">
+      <c r="M62" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="N62" s="0" t="s">
+      <c r="N62" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="R62" s="0" t="s">
+      <c r="R62" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="S62" s="0" t="s">
+      <c r="S62" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="T62" s="0" t="s">
+      <c r="T62" s="1" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="F63" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="G63" s="0" t="s">
+      <c r="G63" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="H63" s="0" t="s">
+      <c r="H63" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="I63" s="0" t="s">
+      <c r="I63" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="J63" s="0" t="s">
+      <c r="J63" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="K63" s="0" t="s">
+      <c r="K63" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="L63" s="0" t="s">
+      <c r="L63" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="M63" s="0" t="s">
+      <c r="M63" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="N63" s="0" t="s">
+      <c r="N63" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="R63" s="0" t="s">
+      <c r="R63" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="S63" s="0" t="s">
+      <c r="S63" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="T63" s="0" t="s">
+      <c r="T63" s="1" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F64" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="G64" s="0" t="s">
+      <c r="G64" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="H64" s="0" t="s">
+      <c r="H64" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="I64" s="0" t="s">
+      <c r="I64" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="J64" s="0" t="s">
+      <c r="J64" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="K64" s="0" t="s">
+      <c r="K64" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="L64" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="N64" s="2" t="s">
+      <c r="N64" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="O64" s="2" t="s">
+      <c r="O64" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="P64" s="2" t="s">
+      <c r="P64" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="Q64" s="2" t="s">
+      <c r="Q64" s="3" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E65" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="F65" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="G65" s="0" t="s">
+      <c r="G65" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="H65" s="0" t="s">
+      <c r="H65" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="I65" s="0" t="s">
+      <c r="I65" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="J65" s="0" t="s">
+      <c r="J65" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="K65" s="0" t="s">
+      <c r="K65" s="1" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="E66" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="F66" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="G66" s="0" t="s">
+      <c r="G66" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="H66" s="0" t="s">
+      <c r="H66" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="I66" s="0" t="s">
+      <c r="I66" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="J66" s="0" t="s">
+      <c r="J66" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="K66" s="0" t="s">
+      <c r="K66" s="1" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="E67" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F67" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="G67" s="0" t="s">
+      <c r="G67" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="H67" s="0" t="s">
+      <c r="H67" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="I67" s="0" t="s">
+      <c r="I67" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="J67" s="0" t="s">
+      <c r="J67" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="K67" s="0" t="s">
+      <c r="K67" s="1" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="68" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E68" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F68" s="0" t="s">
+      <c r="F68" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="G68" s="0" t="s">
+      <c r="G68" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="H68" s="0" t="s">
+      <c r="H68" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="I68" s="0" t="s">
+      <c r="I68" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="J68" s="0" t="s">
+      <c r="J68" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="K68" s="0" t="s">
+      <c r="K68" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="L68" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="N68" s="2" t="s">
+      <c r="N68" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="O68" s="0" t="s">
+      <c r="O68" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="P68" s="0" t="s">
+      <c r="P68" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="Q68" s="0" t="s">
+      <c r="Q68" s="1" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="E69" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="I69" s="0" t="s">
+      <c r="I69" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="J69" s="0" t="s">
+      <c r="J69" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="K69" s="0" t="s">
+      <c r="K69" s="1" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="I70" s="0" t="s">
+      <c r="I70" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="J70" s="0" t="s">
+      <c r="J70" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="K70" s="0" t="s">
+      <c r="K70" s="1" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E71" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="F71" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="G71" s="0" t="s">
+      <c r="G71" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="H71" s="0" t="s">
+      <c r="H71" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="I71" s="0" t="s">
+      <c r="I71" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="J71" s="0" t="s">
+      <c r="J71" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="K71" s="0" t="s">
+      <c r="K71" s="1" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" s="1" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="I73" s="0" t="s">
+      <c r="I73" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="J73" s="0" t="s">
+      <c r="J73" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="K73" s="0" t="s">
+      <c r="K73" s="1" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="E74" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="I74" s="0" t="s">
+      <c r="I74" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="J74" s="0" t="s">
+      <c r="J74" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="K74" s="0" t="s">
+      <c r="K74" s="1" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="E75" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="F75" s="0" t="s">
+      <c r="F75" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="G75" s="0" t="s">
+      <c r="G75" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="H75" s="0" t="s">
+      <c r="H75" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="I75" s="0" t="s">
+      <c r="I75" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="J75" s="0" t="s">
+      <c r="J75" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="K75" s="0" t="s">
+      <c r="K75" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="L75" s="0" t="s">
+      <c r="L75" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="M75" s="0" t="s">
+      <c r="M75" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="N75" s="0" t="s">
+      <c r="N75" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="R75" s="0" t="s">
+      <c r="R75" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="S75" s="0" t="s">
+      <c r="S75" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="T75" s="0" t="s">
+      <c r="T75" s="1" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="E76" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="F76" s="0" t="s">
+      <c r="F76" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="G76" s="0" t="s">
+      <c r="G76" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="H76" s="0" t="s">
+      <c r="H76" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="I76" s="0" t="s">
+      <c r="I76" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="J76" s="0" t="s">
+      <c r="J76" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="K76" s="0" t="s">
+      <c r="K76" s="1" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="E77" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F77" s="0" t="s">
+      <c r="F77" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="G77" s="0" t="s">
+      <c r="G77" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="H77" s="0" t="s">
+      <c r="H77" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="L77" s="0" t="s">
+      <c r="L77" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="M77" s="0" t="s">
+      <c r="M77" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="N77" s="0" t="s">
+      <c r="N77" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="R77" s="0" t="s">
+      <c r="R77" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="S77" s="0" t="s">
+      <c r="S77" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="T77" s="0" t="s">
+      <c r="T77" s="1" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="E78" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="F78" s="0" t="s">
+      <c r="F78" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="G78" s="0" t="s">
+      <c r="G78" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="H78" s="0" t="s">
+      <c r="H78" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="L78" s="0" t="s">
+      <c r="L78" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="M78" s="0" t="s">
+      <c r="M78" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="N78" s="0" t="s">
+      <c r="N78" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="R78" s="0" t="s">
+      <c r="R78" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="S78" s="0" t="s">
+      <c r="S78" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="T78" s="0" t="s">
+      <c r="T78" s="1" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="E79" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="F79" s="0" t="s">
+      <c r="F79" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="G79" s="0" t="s">
+      <c r="G79" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="H79" s="0" t="s">
+      <c r="H79" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="L79" s="0" t="s">
+      <c r="L79" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="M79" s="0" t="s">
+      <c r="M79" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="N79" s="0" t="s">
+      <c r="N79" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="R79" s="0" t="s">
+      <c r="R79" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="S79" s="0" t="s">
+      <c r="S79" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="T79" s="0" t="s">
+      <c r="T79" s="1" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="E80" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="F80" s="0" t="s">
+      <c r="F80" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="G80" s="0" t="s">
+      <c r="G80" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="H80" s="0" t="s">
+      <c r="H80" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="L80" s="0" t="s">
+      <c r="L80" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="M80" s="0" t="s">
+      <c r="M80" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="N80" s="0" t="s">
+      <c r="N80" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="R80" s="0" t="s">
+      <c r="R80" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="S80" s="0" t="s">
+      <c r="S80" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="T80" s="0" t="s">
+      <c r="T80" s="1" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="E81" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="F81" s="0" t="s">
+      <c r="F81" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="G81" s="0" t="s">
+      <c r="G81" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="H81" s="0" t="s">
+      <c r="H81" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="L81" s="0" t="s">
+      <c r="L81" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="M81" s="0" t="s">
+      <c r="M81" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="N81" s="0" t="s">
+      <c r="N81" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="R81" s="0" t="s">
+      <c r="R81" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="S81" s="0" t="s">
+      <c r="S81" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="T81" s="0" t="s">
+      <c r="T81" s="1" t="s">
         <v>935</v>
       </c>
     </row>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.187</t>
+    <t xml:space="preserve">EA 23.188 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="1075">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>
@@ -1388,6 +1388,27 @@
     <t xml:space="preserve">#1は元に戻った。</t>
   </si>
   <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seventh Sense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">セブンセンシズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 awaken(s) to the Seventh Sense!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1はセブンセンシズに目覚めた！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#your cosmo fade(s) away.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1の小宇宙は燃え尽きた。</t>
+  </si>
+  <si>
     <t xml:space="preserve">69</t>
   </si>
   <si>
@@ -1860,6 +1881,21 @@
   </si>
   <si>
     <t xml:space="preserve">#1はリロードを終えた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fractured Valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">折れかけの心</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A condition where your spirit falters and the effect of Guts no longer activates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">心がくじけかけ、不屈の効果が発動しない状態。</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -3417,10 +3453,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="C3" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -3429,7 +3465,7 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
@@ -3438,7 +3474,7 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
@@ -3447,7 +3483,7 @@
         <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
@@ -3458,7 +3494,7 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3" t="s">
-        <v>1013</v>
+        <v>1025</v>
       </c>
       <c r="S3" t="s">
         <v>30</v>
@@ -3472,10 +3508,10 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="C4" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -3484,7 +3520,7 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -3493,7 +3529,7 @@
         <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
@@ -3502,7 +3538,7 @@
         <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>942</v>
+        <v>954</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -3513,7 +3549,7 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4" t="s">
-        <v>1014</v>
+        <v>1026</v>
       </c>
       <c r="S4" t="s">
         <v>39</v>
@@ -3527,10 +3563,10 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="C5" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3539,7 +3575,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -3548,7 +3584,7 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
@@ -3557,7 +3593,7 @@
         <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="M5" t="s">
         <v>46</v>
@@ -3568,7 +3604,7 @@
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5" t="s">
-        <v>1015</v>
+        <v>1027</v>
       </c>
       <c r="S5" t="s">
         <v>48</v>
@@ -3582,10 +3618,10 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="C6" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -3594,7 +3630,7 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -3603,7 +3639,7 @@
         <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="J6" t="s">
         <v>51</v>
@@ -3612,7 +3648,7 @@
         <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="M6" t="s">
         <v>55</v>
@@ -3623,7 +3659,7 @@
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6" t="s">
-        <v>1016</v>
+        <v>1028</v>
       </c>
       <c r="S6" t="s">
         <v>57</v>
@@ -3637,10 +3673,10 @@
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="C7" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="D7" t="s">
         <v>60</v>
@@ -3649,7 +3685,7 @@
         <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="G7" t="s">
         <v>62</v>
@@ -3658,7 +3694,7 @@
         <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="J7" t="s">
         <v>60</v>
@@ -3667,7 +3703,7 @@
         <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>945</v>
+        <v>957</v>
       </c>
       <c r="M7" t="s">
         <v>64</v>
@@ -3678,7 +3714,7 @@
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7" t="s">
-        <v>1017</v>
+        <v>1029</v>
       </c>
       <c r="S7" t="s">
         <v>66</v>
@@ -3692,10 +3728,10 @@
         <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C8" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="D8" t="s">
         <v>69</v>
@@ -3704,7 +3740,7 @@
         <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="G8" t="s">
         <v>71</v>
@@ -3713,7 +3749,7 @@
         <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
       <c r="J8" t="s">
         <v>73</v>
@@ -3722,7 +3758,7 @@
         <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>946</v>
+        <v>958</v>
       </c>
       <c r="M8" t="s">
         <v>75</v>
@@ -3731,7 +3767,7 @@
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>1009</v>
+        <v>1021</v>
       </c>
       <c r="P8" t="s">
         <v>77</v>
@@ -3740,7 +3776,7 @@
         <v>78</v>
       </c>
       <c r="R8" t="s">
-        <v>1018</v>
+        <v>1030</v>
       </c>
       <c r="S8" t="s">
         <v>79</v>
@@ -3754,10 +3790,10 @@
         <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="C9" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="D9" t="s">
         <v>82</v>
@@ -3766,7 +3802,7 @@
         <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
       <c r="G9" t="s">
         <v>84</v>
@@ -3775,7 +3811,7 @@
         <v>85</v>
       </c>
       <c r="I9" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
       <c r="J9" t="s">
         <v>86</v>
@@ -3784,7 +3820,7 @@
         <v>87</v>
       </c>
       <c r="L9" t="s">
-        <v>947</v>
+        <v>959</v>
       </c>
       <c r="M9" t="s">
         <v>88</v>
@@ -3793,7 +3829,7 @@
         <v>89</v>
       </c>
       <c r="O9" t="s">
-        <v>1010</v>
+        <v>1022</v>
       </c>
       <c r="P9" t="s">
         <v>90</v>
@@ -3809,10 +3845,10 @@
         <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C10" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="D10" t="s">
         <v>93</v>
@@ -3821,7 +3857,7 @@
         <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="G10" t="s">
         <v>95</v>
@@ -3830,7 +3866,7 @@
         <v>96</v>
       </c>
       <c r="I10" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="J10" t="s">
         <v>93</v>
@@ -3839,7 +3875,7 @@
         <v>94</v>
       </c>
       <c r="L10" t="s">
-        <v>948</v>
+        <v>960</v>
       </c>
       <c r="M10" t="s">
         <v>97</v>
@@ -3850,7 +3886,7 @@
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10" t="s">
-        <v>1019</v>
+        <v>1031</v>
       </c>
       <c r="S10" t="s">
         <v>99</v>
@@ -3864,10 +3900,10 @@
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C11" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="D11" t="s">
         <v>102</v>
@@ -3876,7 +3912,7 @@
         <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="G11" t="s">
         <v>104</v>
@@ -3885,7 +3921,7 @@
         <v>105</v>
       </c>
       <c r="I11" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="J11" t="s">
         <v>102</v>
@@ -3894,7 +3930,7 @@
         <v>103</v>
       </c>
       <c r="L11" t="s">
-        <v>949</v>
+        <v>961</v>
       </c>
       <c r="M11" t="s">
         <v>106</v>
@@ -3905,7 +3941,7 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11" t="s">
-        <v>1020</v>
+        <v>1032</v>
       </c>
       <c r="S11" t="s">
         <v>108</v>
@@ -3919,10 +3955,10 @@
         <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C12" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="D12" t="s">
         <v>111</v>
@@ -3931,7 +3967,7 @@
         <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
       <c r="G12" t="s">
         <v>113</v>
@@ -3940,7 +3976,7 @@
         <v>114</v>
       </c>
       <c r="I12" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="J12" t="s">
         <v>115</v>
@@ -3949,7 +3985,7 @@
         <v>112</v>
       </c>
       <c r="L12" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="M12" t="s">
         <v>116</v>
@@ -3960,7 +3996,7 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12" t="s">
-        <v>1021</v>
+        <v>1033</v>
       </c>
       <c r="S12" t="s">
         <v>118</v>
@@ -3974,10 +4010,10 @@
         <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C13" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="D13" t="s">
         <v>121</v>
@@ -3986,7 +4022,7 @@
         <v>122</v>
       </c>
       <c r="F13" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
       <c r="G13" t="s">
         <v>123</v>
@@ -3995,7 +4031,7 @@
         <v>124</v>
       </c>
       <c r="I13" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="J13" t="s">
         <v>125</v>
@@ -4004,7 +4040,7 @@
         <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>951</v>
+        <v>963</v>
       </c>
       <c r="M13" t="s">
         <v>126</v>
@@ -4015,7 +4051,7 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13" t="s">
-        <v>1022</v>
+        <v>1034</v>
       </c>
       <c r="S13" t="s">
         <v>128</v>
@@ -4029,10 +4065,10 @@
         <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="C14" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="D14" t="s">
         <v>131</v>
@@ -4041,7 +4077,7 @@
         <v>132</v>
       </c>
       <c r="F14" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="G14" t="s">
         <v>133</v>
@@ -4050,7 +4086,7 @@
         <v>134</v>
       </c>
       <c r="I14" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="J14" t="s">
         <v>135</v>
@@ -4059,7 +4095,7 @@
         <v>132</v>
       </c>
       <c r="L14" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="M14" t="s">
         <v>136</v>
@@ -4070,7 +4106,7 @@
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14" t="s">
-        <v>1023</v>
+        <v>1035</v>
       </c>
       <c r="S14" t="s">
         <v>138</v>
@@ -4084,10 +4120,10 @@
         <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C15" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="D15" t="s">
         <v>141</v>
@@ -4096,7 +4132,7 @@
         <v>142</v>
       </c>
       <c r="F15" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
       <c r="G15" t="s">
         <v>123</v>
@@ -4105,7 +4141,7 @@
         <v>124</v>
       </c>
       <c r="I15" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="J15" t="s">
         <v>143</v>
@@ -4114,7 +4150,7 @@
         <v>142</v>
       </c>
       <c r="L15" t="s">
-        <v>953</v>
+        <v>965</v>
       </c>
       <c r="M15" t="s">
         <v>144</v>
@@ -4125,7 +4161,7 @@
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15" t="s">
-        <v>1024</v>
+        <v>1036</v>
       </c>
       <c r="S15" t="s">
         <v>146</v>
@@ -4139,10 +4175,10 @@
         <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C16" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="D16" t="s">
         <v>149</v>
@@ -4151,7 +4187,7 @@
         <v>150</v>
       </c>
       <c r="F16" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="G16" t="s">
         <v>151</v>
@@ -4160,7 +4196,7 @@
         <v>152</v>
       </c>
       <c r="I16" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="J16" t="s">
         <v>153</v>
@@ -4169,7 +4205,7 @@
         <v>150</v>
       </c>
       <c r="L16" t="s">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="M16" t="s">
         <v>154</v>
@@ -4180,7 +4216,7 @@
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16" t="s">
-        <v>1025</v>
+        <v>1037</v>
       </c>
       <c r="S16" t="s">
         <v>156</v>
@@ -4194,10 +4230,10 @@
         <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C17" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="D17" t="s">
         <v>159</v>
@@ -4206,7 +4242,7 @@
         <v>160</v>
       </c>
       <c r="F17" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
       <c r="G17" t="s">
         <v>161</v>
@@ -4215,7 +4251,7 @@
         <v>162</v>
       </c>
       <c r="I17" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="J17" t="s">
         <v>159</v>
@@ -4224,7 +4260,7 @@
         <v>160</v>
       </c>
       <c r="L17" t="s">
-        <v>955</v>
+        <v>967</v>
       </c>
       <c r="M17" t="s">
         <v>163</v>
@@ -4235,7 +4271,7 @@
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17" t="s">
-        <v>1026</v>
+        <v>1038</v>
       </c>
       <c r="S17" t="s">
         <v>165</v>
@@ -4249,10 +4285,10 @@
         <v>167</v>
       </c>
       <c r="B18" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C18" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="D18" t="s">
         <v>168</v>
@@ -4261,7 +4297,7 @@
         <v>169</v>
       </c>
       <c r="F18" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="G18" t="s">
         <v>170</v>
@@ -4270,7 +4306,7 @@
         <v>171</v>
       </c>
       <c r="I18" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
       <c r="J18" t="s">
         <v>172</v>
@@ -4279,7 +4315,7 @@
         <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>956</v>
+        <v>968</v>
       </c>
       <c r="M18" t="s">
         <v>174</v>
@@ -4290,7 +4326,7 @@
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18" t="s">
-        <v>1027</v>
+        <v>1039</v>
       </c>
       <c r="S18" t="s">
         <v>176</v>
@@ -4304,10 +4340,10 @@
         <v>178</v>
       </c>
       <c r="B19" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C19" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="D19" t="s">
         <v>179</v>
@@ -4316,7 +4352,7 @@
         <v>180</v>
       </c>
       <c r="F19" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
       <c r="G19" t="s">
         <v>181</v>
@@ -4325,7 +4361,7 @@
         <v>182</v>
       </c>
       <c r="I19" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
       <c r="J19" t="s">
         <v>183</v>
@@ -4334,7 +4370,7 @@
         <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>957</v>
+        <v>969</v>
       </c>
       <c r="M19" t="s">
         <v>185</v>
@@ -4345,7 +4381,7 @@
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19" t="s">
-        <v>1028</v>
+        <v>1040</v>
       </c>
       <c r="S19" t="s">
         <v>187</v>
@@ -4359,10 +4395,10 @@
         <v>189</v>
       </c>
       <c r="B20" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C20" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="D20" t="s">
         <v>190</v>
@@ -4371,7 +4407,7 @@
         <v>191</v>
       </c>
       <c r="F20" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="G20" t="s">
         <v>192</v>
@@ -4380,7 +4416,7 @@
         <v>193</v>
       </c>
       <c r="I20" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
       <c r="J20" t="s">
         <v>194</v>
@@ -4389,7 +4425,7 @@
         <v>195</v>
       </c>
       <c r="L20" t="s">
-        <v>958</v>
+        <v>970</v>
       </c>
       <c r="M20" t="s">
         <v>196</v>
@@ -4400,7 +4436,7 @@
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20" t="s">
-        <v>1029</v>
+        <v>1041</v>
       </c>
       <c r="S20" t="s">
         <v>198</v>
@@ -4414,10 +4450,10 @@
         <v>200</v>
       </c>
       <c r="B21" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="C21" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="D21" t="s">
         <v>201</v>
@@ -4426,7 +4462,7 @@
         <v>202</v>
       </c>
       <c r="F21" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="G21" t="s">
         <v>203</v>
@@ -4435,7 +4471,7 @@
         <v>204</v>
       </c>
       <c r="I21" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
       <c r="J21" t="s">
         <v>205</v>
@@ -4444,7 +4480,7 @@
         <v>206</v>
       </c>
       <c r="L21" t="s">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="M21" t="s">
         <v>207</v>
@@ -4455,7 +4491,7 @@
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21" t="s">
-        <v>1030</v>
+        <v>1042</v>
       </c>
       <c r="S21" t="s">
         <v>209</v>
@@ -4469,10 +4505,10 @@
         <v>211</v>
       </c>
       <c r="B22" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="C22" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="D22" t="s">
         <v>212</v>
@@ -4481,7 +4517,7 @@
         <v>213</v>
       </c>
       <c r="F22" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
       <c r="G22" t="s">
         <v>214</v>
@@ -4490,7 +4526,7 @@
         <v>215</v>
       </c>
       <c r="I22" t="s">
-        <v>925</v>
+        <v>937</v>
       </c>
       <c r="J22" t="s">
         <v>216</v>
@@ -4499,7 +4535,7 @@
         <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="M22" t="s">
         <v>218</v>
@@ -4510,7 +4546,7 @@
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22" t="s">
-        <v>1031</v>
+        <v>1043</v>
       </c>
       <c r="S22" t="s">
         <v>220</v>
@@ -4524,10 +4560,10 @@
         <v>222</v>
       </c>
       <c r="B23" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C23" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="D23" t="s">
         <v>223</v>
@@ -4536,7 +4572,7 @@
         <v>224</v>
       </c>
       <c r="F23" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
       <c r="G23" t="s">
         <v>225</v>
@@ -4545,7 +4581,7 @@
         <v>226</v>
       </c>
       <c r="I23" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="J23" t="s">
         <v>223</v>
@@ -4554,7 +4590,7 @@
         <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="M23" t="s">
         <v>227</v>
@@ -4565,7 +4601,7 @@
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23" t="s">
-        <v>1032</v>
+        <v>1044</v>
       </c>
       <c r="S23" t="s">
         <v>229</v>
@@ -4579,10 +4615,10 @@
         <v>231</v>
       </c>
       <c r="B24" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="C24" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="D24" t="s">
         <v>232</v>
@@ -4591,7 +4627,7 @@
         <v>233</v>
       </c>
       <c r="F24" t="s">
-        <v>861</v>
+        <v>873</v>
       </c>
       <c r="G24" t="s">
         <v>234</v>
@@ -4600,7 +4636,7 @@
         <v>235</v>
       </c>
       <c r="I24" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="J24" t="s">
         <v>232</v>
@@ -4609,7 +4645,7 @@
         <v>233</v>
       </c>
       <c r="L24" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
       <c r="M24" t="s">
         <v>236</v>
@@ -4627,10 +4663,10 @@
         <v>238</v>
       </c>
       <c r="B25" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="C25" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="D25" t="s">
         <v>239</v>
@@ -4639,7 +4675,7 @@
         <v>240</v>
       </c>
       <c r="F25" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="G25" t="s">
         <v>241</v>
@@ -4648,7 +4684,7 @@
         <v>242</v>
       </c>
       <c r="I25" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="J25" t="s">
         <v>239</v>
@@ -4657,7 +4693,7 @@
         <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="M25" t="s">
         <v>243</v>
@@ -4668,7 +4704,7 @@
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25" t="s">
-        <v>1033</v>
+        <v>1045</v>
       </c>
       <c r="S25" t="s">
         <v>245</v>
@@ -4682,10 +4718,10 @@
         <v>247</v>
       </c>
       <c r="B26" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="C26" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="D26" t="s">
         <v>248</v>
@@ -4694,7 +4730,7 @@
         <v>249</v>
       </c>
       <c r="F26" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
       <c r="G26" t="s">
         <v>250</v>
@@ -4703,7 +4739,7 @@
         <v>251</v>
       </c>
       <c r="I26" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="J26" t="s">
         <v>248</v>
@@ -4712,7 +4748,7 @@
         <v>249</v>
       </c>
       <c r="L26" t="s">
-        <v>964</v>
+        <v>976</v>
       </c>
       <c r="M26" t="s">
         <v>252</v>
@@ -4723,7 +4759,7 @@
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26" t="s">
-        <v>1034</v>
+        <v>1046</v>
       </c>
       <c r="S26" t="s">
         <v>254</v>
@@ -4737,10 +4773,10 @@
         <v>256</v>
       </c>
       <c r="B27" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="C27" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="D27" t="s">
         <v>257</v>
@@ -4749,7 +4785,7 @@
         <v>258</v>
       </c>
       <c r="F27" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
       <c r="G27" t="s">
         <v>259</v>
@@ -4758,7 +4794,7 @@
         <v>260</v>
       </c>
       <c r="I27" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="J27" t="s">
         <v>257</v>
@@ -4767,7 +4803,7 @@
         <v>258</v>
       </c>
       <c r="L27" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="M27" t="s">
         <v>261</v>
@@ -4778,7 +4814,7 @@
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27" t="s">
-        <v>1035</v>
+        <v>1047</v>
       </c>
       <c r="S27" t="s">
         <v>263</v>
@@ -4792,10 +4828,10 @@
         <v>265</v>
       </c>
       <c r="B28" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="C28" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="D28" t="s">
         <v>266</v>
@@ -4804,7 +4840,7 @@
         <v>267</v>
       </c>
       <c r="F28" t="s">
-        <v>865</v>
+        <v>877</v>
       </c>
       <c r="G28" t="s">
         <v>268</v>
@@ -4813,7 +4849,7 @@
         <v>269</v>
       </c>
       <c r="I28" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="J28" t="s">
         <v>266</v>
@@ -4822,7 +4858,7 @@
         <v>267</v>
       </c>
       <c r="L28" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
       <c r="M28" t="s">
         <v>270</v>
@@ -4833,7 +4869,7 @@
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28" t="s">
-        <v>1036</v>
+        <v>1048</v>
       </c>
       <c r="S28" t="s">
         <v>272</v>
@@ -4847,10 +4883,10 @@
         <v>274</v>
       </c>
       <c r="B29" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="C29" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="D29" t="s">
         <v>275</v>
@@ -4859,7 +4895,7 @@
         <v>276</v>
       </c>
       <c r="F29" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="G29" t="s">
         <v>277</v>
@@ -4868,7 +4904,7 @@
         <v>278</v>
       </c>
       <c r="I29" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="J29" t="s">
         <v>275</v>
@@ -4877,7 +4913,7 @@
         <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
       <c r="M29" t="s">
         <v>279</v>
@@ -4888,7 +4924,7 @@
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29" t="s">
-        <v>1037</v>
+        <v>1049</v>
       </c>
       <c r="S29" t="s">
         <v>281</v>
@@ -4902,10 +4938,10 @@
         <v>283</v>
       </c>
       <c r="B30" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="C30" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="D30" t="s">
         <v>284</v>
@@ -4914,7 +4950,7 @@
         <v>285</v>
       </c>
       <c r="F30" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="G30" t="s">
         <v>286</v>
@@ -4923,7 +4959,7 @@
         <v>287</v>
       </c>
       <c r="I30" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="J30" t="s">
         <v>284</v>
@@ -4932,7 +4968,7 @@
         <v>285</v>
       </c>
       <c r="L30" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
       <c r="M30" t="s">
         <v>288</v>
@@ -4943,7 +4979,7 @@
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30" t="s">
-        <v>1038</v>
+        <v>1050</v>
       </c>
       <c r="S30" t="s">
         <v>290</v>
@@ -4957,10 +4993,10 @@
         <v>292</v>
       </c>
       <c r="B31" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="C31" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="D31" t="s">
         <v>293</v>
@@ -4969,7 +5005,7 @@
         <v>294</v>
       </c>
       <c r="F31" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="G31" t="s">
         <v>295</v>
@@ -4978,7 +5014,7 @@
         <v>296</v>
       </c>
       <c r="I31" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="J31" t="s">
         <v>293</v>
@@ -4987,7 +5023,7 @@
         <v>294</v>
       </c>
       <c r="L31" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="M31" t="s">
         <v>297</v>
@@ -4998,7 +5034,7 @@
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31" t="s">
-        <v>1039</v>
+        <v>1051</v>
       </c>
       <c r="S31" t="s">
         <v>299</v>
@@ -5012,10 +5048,10 @@
         <v>301</v>
       </c>
       <c r="B32" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C32" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="D32" t="s">
         <v>302</v>
@@ -5024,7 +5060,7 @@
         <v>303</v>
       </c>
       <c r="F32" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
       <c r="G32" t="s">
         <v>304</v>
@@ -5033,7 +5069,7 @@
         <v>305</v>
       </c>
       <c r="I32" t="s">
-        <v>926</v>
+        <v>938</v>
       </c>
       <c r="J32" t="s">
         <v>306</v>
@@ -5042,7 +5078,7 @@
         <v>307</v>
       </c>
       <c r="L32" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
       <c r="M32" t="s">
         <v>308</v>
@@ -5053,7 +5089,7 @@
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32" t="s">
-        <v>1040</v>
+        <v>1052</v>
       </c>
       <c r="S32" t="s">
         <v>310</v>
@@ -5067,10 +5103,10 @@
         <v>312</v>
       </c>
       <c r="B33" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C33" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="D33" t="s">
         <v>313</v>
@@ -5079,7 +5115,7 @@
         <v>314</v>
       </c>
       <c r="F33" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
       <c r="G33" t="s">
         <v>315</v>
@@ -5088,7 +5124,7 @@
         <v>316</v>
       </c>
       <c r="I33" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="J33" t="s">
         <v>313</v>
@@ -5097,7 +5133,7 @@
         <v>314</v>
       </c>
       <c r="L33" t="s">
-        <v>971</v>
+        <v>983</v>
       </c>
       <c r="M33" t="s">
         <v>317</v>
@@ -5108,7 +5144,7 @@
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33" t="s">
-        <v>1041</v>
+        <v>1053</v>
       </c>
       <c r="S33" t="s">
         <v>319</v>
@@ -5122,10 +5158,10 @@
         <v>321</v>
       </c>
       <c r="B34" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="C34" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="D34" t="s">
         <v>322</v>
@@ -5134,7 +5170,7 @@
         <v>323</v>
       </c>
       <c r="F34" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
       <c r="G34" t="s">
         <v>324</v>
@@ -5143,7 +5179,7 @@
         <v>325</v>
       </c>
       <c r="I34" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="J34" t="s">
         <v>322</v>
@@ -5152,7 +5188,7 @@
         <v>323</v>
       </c>
       <c r="L34" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
       <c r="M34" t="s">
         <v>326</v>
@@ -5163,7 +5199,7 @@
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34" t="s">
-        <v>1042</v>
+        <v>1054</v>
       </c>
       <c r="S34" t="s">
         <v>328</v>
@@ -5177,10 +5213,10 @@
         <v>330</v>
       </c>
       <c r="B35" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="C35" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="D35" t="s">
         <v>331</v>
@@ -5189,7 +5225,7 @@
         <v>332</v>
       </c>
       <c r="F35" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="G35" t="s">
         <v>333</v>
@@ -5198,7 +5234,7 @@
         <v>334</v>
       </c>
       <c r="I35" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="J35" t="s">
         <v>335</v>
@@ -5207,7 +5243,7 @@
         <v>332</v>
       </c>
       <c r="L35" t="s">
-        <v>973</v>
+        <v>985</v>
       </c>
       <c r="M35" t="s">
         <v>336</v>
@@ -5218,7 +5254,7 @@
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>1043</v>
+        <v>1055</v>
       </c>
       <c r="S35" t="s">
         <v>338</v>
@@ -5232,10 +5268,10 @@
         <v>340</v>
       </c>
       <c r="B36" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="C36" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
       <c r="D36" t="s">
         <v>341</v>
@@ -5244,7 +5280,7 @@
         <v>342</v>
       </c>
       <c r="F36" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
       <c r="G36" t="s">
         <v>343</v>
@@ -5253,7 +5289,7 @@
         <v>344</v>
       </c>
       <c r="I36" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
       <c r="J36" t="s">
         <v>341</v>
@@ -5262,7 +5298,7 @@
         <v>342</v>
       </c>
       <c r="L36" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
       <c r="M36" t="s">
         <v>345</v>
@@ -5273,7 +5309,7 @@
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36" t="s">
-        <v>1044</v>
+        <v>1056</v>
       </c>
       <c r="S36" t="s">
         <v>347</v>
@@ -5287,10 +5323,10 @@
         <v>349</v>
       </c>
       <c r="B37" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="C37" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="D37" t="s">
         <v>350</v>
@@ -5299,7 +5335,7 @@
         <v>351</v>
       </c>
       <c r="F37" t="s">
-        <v>874</v>
+        <v>886</v>
       </c>
       <c r="G37" t="s">
         <v>352</v>
@@ -5308,7 +5344,7 @@
         <v>353</v>
       </c>
       <c r="I37" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="J37" t="s">
         <v>354</v>
@@ -5317,7 +5353,7 @@
         <v>351</v>
       </c>
       <c r="L37" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
       <c r="M37" t="s">
         <v>355</v>
@@ -5328,7 +5364,7 @@
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37" t="s">
-        <v>1045</v>
+        <v>1057</v>
       </c>
       <c r="S37" t="s">
         <v>357</v>
@@ -5342,10 +5378,10 @@
         <v>359</v>
       </c>
       <c r="B38" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="C38" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="D38" t="s">
         <v>360</v>
@@ -5354,7 +5390,7 @@
         <v>361</v>
       </c>
       <c r="F38" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="G38" t="s">
         <v>362</v>
@@ -5363,7 +5399,7 @@
         <v>363</v>
       </c>
       <c r="I38" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="J38" t="s">
         <v>360</v>
@@ -5372,7 +5408,7 @@
         <v>361</v>
       </c>
       <c r="L38" t="s">
-        <v>976</v>
+        <v>988</v>
       </c>
       <c r="M38" t="s">
         <v>364</v>
@@ -5383,7 +5419,7 @@
       <c r="P38"/>
       <c r="Q38"/>
       <c r="R38" t="s">
-        <v>1046</v>
+        <v>1058</v>
       </c>
       <c r="S38" t="s">
         <v>366</v>
@@ -5397,10 +5433,10 @@
         <v>368</v>
       </c>
       <c r="B39" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="C39" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="D39" t="s">
         <v>369</v>
@@ -5409,7 +5445,7 @@
         <v>370</v>
       </c>
       <c r="F39" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
       <c r="G39" t="s">
         <v>371</v>
@@ -5418,7 +5454,7 @@
         <v>372</v>
       </c>
       <c r="I39" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="J39" t="s">
         <v>369</v>
@@ -5427,7 +5463,7 @@
         <v>370</v>
       </c>
       <c r="L39" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
       <c r="M39" t="s">
         <v>373</v>
@@ -5438,7 +5474,7 @@
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39" t="s">
-        <v>1047</v>
+        <v>1059</v>
       </c>
       <c r="S39" t="s">
         <v>375</v>
@@ -5452,10 +5488,10 @@
         <v>377</v>
       </c>
       <c r="B40" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="C40" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="D40" t="s">
         <v>378</v>
@@ -5464,7 +5500,7 @@
         <v>379</v>
       </c>
       <c r="F40" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
       <c r="G40" t="s">
         <v>380</v>
@@ -5473,7 +5509,7 @@
         <v>381</v>
       </c>
       <c r="I40" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="J40" t="s">
         <v>378</v>
@@ -5482,7 +5518,7 @@
         <v>379</v>
       </c>
       <c r="L40" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
       <c r="M40" t="s">
         <v>382</v>
@@ -5500,10 +5536,10 @@
         <v>384</v>
       </c>
       <c r="B41" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="C41" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="D41" t="s">
         <v>385</v>
@@ -5512,7 +5548,7 @@
         <v>386</v>
       </c>
       <c r="F41" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="G41" t="s">
         <v>387</v>
@@ -5521,7 +5557,7 @@
         <v>388</v>
       </c>
       <c r="I41" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="J41" t="s">
         <v>385</v>
@@ -5541,10 +5577,10 @@
         <v>389</v>
       </c>
       <c r="B42" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="C42" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="D42" t="s">
         <v>390</v>
@@ -5553,7 +5589,7 @@
         <v>391</v>
       </c>
       <c r="F42" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="G42" t="s">
         <v>392</v>
@@ -5562,7 +5598,7 @@
         <v>393</v>
       </c>
       <c r="I42" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="J42" t="s">
         <v>390</v>
@@ -5582,10 +5618,10 @@
         <v>394</v>
       </c>
       <c r="B43" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="C43" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="D43" t="s">
         <v>395</v>
@@ -5594,7 +5630,7 @@
         <v>396</v>
       </c>
       <c r="F43" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="G43" t="s">
         <v>397</v>
@@ -5603,7 +5639,7 @@
         <v>398</v>
       </c>
       <c r="I43" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="J43" t="s">
         <v>395</v>
@@ -5612,7 +5648,7 @@
         <v>396</v>
       </c>
       <c r="L43" t="s">
-        <v>979</v>
+        <v>991</v>
       </c>
       <c r="M43" t="s">
         <v>399</v>
@@ -5623,7 +5659,7 @@
       <c r="P43"/>
       <c r="Q43"/>
       <c r="R43" t="s">
-        <v>1048</v>
+        <v>1060</v>
       </c>
       <c r="S43" t="s">
         <v>401</v>
@@ -5637,10 +5673,10 @@
         <v>403</v>
       </c>
       <c r="B44" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C44" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="D44" t="s">
         <v>404</v>
@@ -5649,7 +5685,7 @@
         <v>405</v>
       </c>
       <c r="F44" t="s">
-        <v>881</v>
+        <v>893</v>
       </c>
       <c r="G44" t="s">
         <v>406</v>
@@ -5658,7 +5694,7 @@
         <v>407</v>
       </c>
       <c r="I44" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="J44" t="s">
         <v>408</v>
@@ -5667,7 +5703,7 @@
         <v>405</v>
       </c>
       <c r="L44" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
       <c r="M44" t="s">
         <v>409</v>
@@ -5678,7 +5714,7 @@
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44" t="s">
-        <v>1049</v>
+        <v>1061</v>
       </c>
       <c r="S44" t="s">
         <v>411</v>
@@ -5692,10 +5728,10 @@
         <v>413</v>
       </c>
       <c r="B45" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C45" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="D45" t="s">
         <v>414</v>
@@ -5704,7 +5740,7 @@
         <v>415</v>
       </c>
       <c r="F45" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="G45" t="s">
         <v>416</v>
@@ -5713,7 +5749,7 @@
         <v>417</v>
       </c>
       <c r="I45" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="J45" t="s">
         <v>414</v>
@@ -5722,7 +5758,7 @@
         <v>415</v>
       </c>
       <c r="L45" t="s">
-        <v>981</v>
+        <v>993</v>
       </c>
       <c r="M45" t="s">
         <v>418</v>
@@ -5733,7 +5769,7 @@
       <c r="P45"/>
       <c r="Q45"/>
       <c r="R45" t="s">
-        <v>1041</v>
+        <v>1053</v>
       </c>
       <c r="S45" t="s">
         <v>319</v>
@@ -5747,10 +5783,10 @@
         <v>420</v>
       </c>
       <c r="B46" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C46" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="D46" t="s">
         <v>421</v>
@@ -5759,7 +5795,7 @@
         <v>422</v>
       </c>
       <c r="F46" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="G46" t="s">
         <v>423</v>
@@ -5768,7 +5804,7 @@
         <v>424</v>
       </c>
       <c r="I46" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="J46" t="s">
         <v>421</v>
@@ -5777,7 +5813,7 @@
         <v>422</v>
       </c>
       <c r="L46" t="s">
-        <v>982</v>
+        <v>994</v>
       </c>
       <c r="M46" t="s">
         <v>425</v>
@@ -5788,7 +5824,7 @@
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46" t="s">
-        <v>1050</v>
+        <v>1062</v>
       </c>
       <c r="S46" t="s">
         <v>427</v>
@@ -5802,10 +5838,10 @@
         <v>429</v>
       </c>
       <c r="B47" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="C47" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="D47" t="s">
         <v>430</v>
@@ -5814,7 +5850,7 @@
         <v>431</v>
       </c>
       <c r="F47" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="G47" t="s">
         <v>432</v>
@@ -5823,7 +5859,7 @@
         <v>433</v>
       </c>
       <c r="I47" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="J47" t="s">
         <v>430</v>
@@ -5832,7 +5868,7 @@
         <v>431</v>
       </c>
       <c r="L47" t="s">
-        <v>983</v>
+        <v>995</v>
       </c>
       <c r="M47" t="s">
         <v>434</v>
@@ -5850,10 +5886,10 @@
         <v>436</v>
       </c>
       <c r="B48" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="C48" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="D48" t="s">
         <v>437</v>
@@ -5862,7 +5898,7 @@
         <v>438</v>
       </c>
       <c r="F48" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="G48" t="s">
         <v>439</v>
@@ -5871,7 +5907,7 @@
         <v>440</v>
       </c>
       <c r="I48" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="J48" t="s">
         <v>441</v>
@@ -5880,7 +5916,7 @@
         <v>438</v>
       </c>
       <c r="L48" t="s">
-        <v>984</v>
+        <v>996</v>
       </c>
       <c r="M48" t="s">
         <v>442</v>
@@ -5891,7 +5927,7 @@
       <c r="P48"/>
       <c r="Q48"/>
       <c r="R48" t="s">
-        <v>1051</v>
+        <v>1063</v>
       </c>
       <c r="S48" t="s">
         <v>444</v>
@@ -5905,10 +5941,10 @@
         <v>446</v>
       </c>
       <c r="B49" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="C49" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="D49" t="s">
         <v>447</v>
@@ -5917,7 +5953,7 @@
         <v>448</v>
       </c>
       <c r="F49" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
       <c r="G49" t="s">
         <v>449</v>
@@ -5926,7 +5962,7 @@
         <v>450</v>
       </c>
       <c r="I49" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="J49" t="s">
         <v>447</v>
@@ -5935,7 +5971,7 @@
         <v>448</v>
       </c>
       <c r="L49" t="s">
-        <v>985</v>
+        <v>997</v>
       </c>
       <c r="M49" t="s">
         <v>451</v>
@@ -5946,7 +5982,7 @@
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49" t="s">
-        <v>1052</v>
+        <v>1064</v>
       </c>
       <c r="S49" t="s">
         <v>453</v>
@@ -5960,10 +5996,7 @@
         <v>455</v>
       </c>
       <c r="B50" t="s">
-        <v>747</v>
-      </c>
-      <c r="C50" t="s">
-        <v>804</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
         <v>456</v>
@@ -5971,17 +6004,11 @@
       <c r="E50" t="s">
         <v>457</v>
       </c>
-      <c r="F50" t="s">
-        <v>887</v>
-      </c>
       <c r="G50" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="H50" t="s">
-        <v>459</v>
-      </c>
-      <c r="I50" t="s">
-        <v>804</v>
+        <v>450</v>
       </c>
       <c r="J50" t="s">
         <v>456</v>
@@ -5989,25 +6016,19 @@
       <c r="K50" t="s">
         <v>457</v>
       </c>
-      <c r="L50" t="s">
-        <v>986</v>
-      </c>
       <c r="M50" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N50" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="P50"/>
       <c r="Q50"/>
-      <c r="R50" t="s">
-        <v>1052</v>
-      </c>
       <c r="S50" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="T50" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51">
@@ -6015,10 +6036,10 @@
         <v>462</v>
       </c>
       <c r="B51" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="C51" t="s">
-        <v>805</v>
+        <v>816</v>
       </c>
       <c r="D51" t="s">
         <v>463</v>
@@ -6027,16 +6048,16 @@
         <v>464</v>
       </c>
       <c r="F51" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="G51" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="H51" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="I51" t="s">
-        <v>805</v>
+        <v>816</v>
       </c>
       <c r="J51" t="s">
         <v>463</v>
@@ -6045,18 +6066,18 @@
         <v>464</v>
       </c>
       <c r="L51" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
       <c r="M51" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="N51" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51" t="s">
-        <v>1052</v>
+        <v>1064</v>
       </c>
       <c r="S51" t="s">
         <v>453</v>
@@ -6067,51 +6088,51 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>469</v>
+      </c>
+      <c r="B52" t="s">
+        <v>759</v>
+      </c>
+      <c r="C52" t="s">
+        <v>817</v>
+      </c>
+      <c r="D52" t="s">
+        <v>470</v>
+      </c>
+      <c r="E52" t="s">
+        <v>471</v>
+      </c>
+      <c r="F52" t="s">
+        <v>899</v>
+      </c>
+      <c r="G52" t="s">
         <v>465</v>
       </c>
-      <c r="B52" t="s">
-        <v>742</v>
-      </c>
-      <c r="C52" t="s">
-        <v>806</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="H52" t="s">
         <v>466</v>
       </c>
-      <c r="E52" t="s">
+      <c r="I52" t="s">
+        <v>817</v>
+      </c>
+      <c r="J52" t="s">
+        <v>470</v>
+      </c>
+      <c r="K52" t="s">
+        <v>471</v>
+      </c>
+      <c r="L52" t="s">
+        <v>998</v>
+      </c>
+      <c r="M52" t="s">
         <v>467</v>
       </c>
-      <c r="F52" t="s">
-        <v>887</v>
-      </c>
-      <c r="G52" t="s">
-        <v>458</v>
-      </c>
-      <c r="H52" t="s">
-        <v>459</v>
-      </c>
-      <c r="I52" t="s">
-        <v>806</v>
-      </c>
-      <c r="J52" t="s">
-        <v>466</v>
-      </c>
-      <c r="K52" t="s">
-        <v>467</v>
-      </c>
-      <c r="L52" t="s">
-        <v>986</v>
-      </c>
-      <c r="M52" t="s">
-        <v>460</v>
-      </c>
       <c r="N52" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52" t="s">
-        <v>1052</v>
+        <v>1064</v>
       </c>
       <c r="S52" t="s">
         <v>453</v>
@@ -6122,61 +6143,68 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>472</v>
+      </c>
+      <c r="B53" t="s">
+        <v>754</v>
+      </c>
+      <c r="C53" t="s">
+        <v>818</v>
+      </c>
+      <c r="D53" t="s">
+        <v>473</v>
+      </c>
+      <c r="E53" t="s">
+        <v>474</v>
+      </c>
+      <c r="F53" t="s">
+        <v>899</v>
+      </c>
+      <c r="G53" t="s">
+        <v>465</v>
+      </c>
+      <c r="H53" t="s">
+        <v>466</v>
+      </c>
+      <c r="I53" t="s">
+        <v>818</v>
+      </c>
+      <c r="J53" t="s">
+        <v>473</v>
+      </c>
+      <c r="K53" t="s">
+        <v>474</v>
+      </c>
+      <c r="L53" t="s">
+        <v>998</v>
+      </c>
+      <c r="M53" t="s">
+        <v>467</v>
+      </c>
+      <c r="N53" t="s">
         <v>468</v>
-      </c>
-      <c r="B53" t="s">
-        <v>738</v>
-      </c>
-      <c r="C53" t="s">
-        <v>807</v>
-      </c>
-      <c r="D53" t="s">
-        <v>469</v>
-      </c>
-      <c r="E53" t="s">
-        <v>470</v>
-      </c>
-      <c r="F53" t="s">
-        <v>888</v>
-      </c>
-      <c r="G53" t="s">
-        <v>471</v>
-      </c>
-      <c r="H53" t="s">
-        <v>472</v>
-      </c>
-      <c r="I53" t="s">
-        <v>807</v>
-      </c>
-      <c r="J53" t="s">
-        <v>469</v>
-      </c>
-      <c r="K53" t="s">
-        <v>470</v>
-      </c>
-      <c r="L53" t="s">
-        <v>987</v>
-      </c>
-      <c r="M53" t="s">
-        <v>473</v>
-      </c>
-      <c r="N53" t="s">
-        <v>474</v>
       </c>
       <c r="P53"/>
       <c r="Q53"/>
-      <c r="S53"/>
-      <c r="T53"/>
+      <c r="R53" t="s">
+        <v>1064</v>
+      </c>
+      <c r="S53" t="s">
+        <v>453</v>
+      </c>
+      <c r="T53" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>475</v>
       </c>
       <c r="B54" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="C54" t="s">
-        <v>808</v>
+        <v>819</v>
       </c>
       <c r="D54" t="s">
         <v>476</v>
@@ -6185,7 +6213,7 @@
         <v>477</v>
       </c>
       <c r="F54" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="G54" t="s">
         <v>478</v>
@@ -6194,7 +6222,7 @@
         <v>479</v>
       </c>
       <c r="I54" t="s">
-        <v>808</v>
+        <v>819</v>
       </c>
       <c r="J54" t="s">
         <v>476</v>
@@ -6203,7 +6231,7 @@
         <v>477</v>
       </c>
       <c r="L54" t="s">
-        <v>988</v>
+        <v>999</v>
       </c>
       <c r="M54" t="s">
         <v>480</v>
@@ -6213,73 +6241,73 @@
       </c>
       <c r="P54"/>
       <c r="Q54"/>
-      <c r="R54" t="s">
-        <v>1053</v>
-      </c>
-      <c r="S54" t="s">
-        <v>482</v>
-      </c>
-      <c r="T54" t="s">
-        <v>483</v>
-      </c>
+      <c r="S54"/>
+      <c r="T54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>482</v>
+      </c>
+      <c r="B55" t="s">
+        <v>754</v>
+      </c>
+      <c r="C55" t="s">
+        <v>820</v>
+      </c>
+      <c r="D55" t="s">
+        <v>483</v>
+      </c>
+      <c r="E55" t="s">
         <v>484</v>
       </c>
-      <c r="B55" t="s">
-        <v>738</v>
-      </c>
-      <c r="C55" t="s">
-        <v>809</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
+        <v>901</v>
+      </c>
+      <c r="G55" t="s">
         <v>485</v>
       </c>
-      <c r="E55" t="s">
+      <c r="H55" t="s">
         <v>486</v>
       </c>
-      <c r="F55" t="s">
-        <v>890</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="I55" t="s">
+        <v>820</v>
+      </c>
+      <c r="J55" t="s">
+        <v>483</v>
+      </c>
+      <c r="K55" t="s">
+        <v>484</v>
+      </c>
+      <c r="L55" t="s">
+        <v>1000</v>
+      </c>
+      <c r="M55" t="s">
         <v>487</v>
       </c>
-      <c r="H55" t="s">
+      <c r="N55" t="s">
         <v>488</v>
-      </c>
-      <c r="I55" t="s">
-        <v>809</v>
-      </c>
-      <c r="J55" t="s">
-        <v>485</v>
-      </c>
-      <c r="K55" t="s">
-        <v>486</v>
-      </c>
-      <c r="L55" t="s">
-        <v>989</v>
-      </c>
-      <c r="M55" t="s">
-        <v>489</v>
-      </c>
-      <c r="N55" t="s">
-        <v>490</v>
       </c>
       <c r="P55"/>
       <c r="Q55"/>
-      <c r="S55"/>
-      <c r="T55"/>
+      <c r="R55" t="s">
+        <v>1065</v>
+      </c>
+      <c r="S55" t="s">
+        <v>489</v>
+      </c>
+      <c r="T55" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>491</v>
       </c>
       <c r="B56" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="C56" t="s">
-        <v>810</v>
+        <v>821</v>
       </c>
       <c r="D56" t="s">
         <v>492</v>
@@ -6288,7 +6316,7 @@
         <v>493</v>
       </c>
       <c r="F56" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
       <c r="G56" t="s">
         <v>494</v>
@@ -6297,7 +6325,7 @@
         <v>495</v>
       </c>
       <c r="I56" t="s">
-        <v>810</v>
+        <v>821</v>
       </c>
       <c r="J56" t="s">
         <v>492</v>
@@ -6306,7 +6334,7 @@
         <v>493</v>
       </c>
       <c r="L56" t="s">
-        <v>990</v>
+        <v>1001</v>
       </c>
       <c r="M56" t="s">
         <v>496</v>
@@ -6324,10 +6352,10 @@
         <v>498</v>
       </c>
       <c r="B57" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C57" t="s">
-        <v>811</v>
+        <v>822</v>
       </c>
       <c r="D57" t="s">
         <v>499</v>
@@ -6336,7 +6364,7 @@
         <v>500</v>
       </c>
       <c r="F57" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="G57" t="s">
         <v>501</v>
@@ -6345,7 +6373,7 @@
         <v>502</v>
       </c>
       <c r="I57" t="s">
-        <v>811</v>
+        <v>822</v>
       </c>
       <c r="J57" t="s">
         <v>499</v>
@@ -6354,7 +6382,7 @@
         <v>500</v>
       </c>
       <c r="L57" t="s">
-        <v>991</v>
+        <v>1002</v>
       </c>
       <c r="M57" t="s">
         <v>503</v>
@@ -6372,10 +6400,10 @@
         <v>505</v>
       </c>
       <c r="B58" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
       <c r="C58" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="D58" t="s">
         <v>506</v>
@@ -6384,7 +6412,7 @@
         <v>507</v>
       </c>
       <c r="F58" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="G58" t="s">
         <v>508</v>
@@ -6393,7 +6421,7 @@
         <v>509</v>
       </c>
       <c r="I58" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="J58" t="s">
         <v>506</v>
@@ -6402,7 +6430,7 @@
         <v>507</v>
       </c>
       <c r="L58" t="s">
-        <v>992</v>
+        <v>1003</v>
       </c>
       <c r="M58" t="s">
         <v>510</v>
@@ -6412,73 +6440,73 @@
       </c>
       <c r="P58"/>
       <c r="Q58"/>
-      <c r="R58" t="s">
-        <v>1054</v>
-      </c>
-      <c r="S58" t="s">
-        <v>512</v>
-      </c>
-      <c r="T58" t="s">
-        <v>513</v>
-      </c>
+      <c r="S58"/>
+      <c r="T58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>512</v>
+      </c>
+      <c r="B59" t="s">
+        <v>759</v>
+      </c>
+      <c r="C59" t="s">
+        <v>824</v>
+      </c>
+      <c r="D59" t="s">
+        <v>513</v>
+      </c>
+      <c r="E59" t="s">
         <v>514</v>
       </c>
-      <c r="B59" t="s">
-        <v>738</v>
-      </c>
-      <c r="C59" t="s">
-        <v>813</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
+        <v>905</v>
+      </c>
+      <c r="G59" t="s">
         <v>515</v>
       </c>
-      <c r="E59" t="s">
+      <c r="H59" t="s">
         <v>516</v>
       </c>
-      <c r="F59" t="s">
-        <v>894</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="I59" t="s">
+        <v>824</v>
+      </c>
+      <c r="J59" t="s">
+        <v>513</v>
+      </c>
+      <c r="K59" t="s">
+        <v>514</v>
+      </c>
+      <c r="L59" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M59" t="s">
         <v>517</v>
       </c>
-      <c r="H59" t="s">
+      <c r="N59" t="s">
         <v>518</v>
-      </c>
-      <c r="I59" t="s">
-        <v>813</v>
-      </c>
-      <c r="J59" t="s">
-        <v>515</v>
-      </c>
-      <c r="K59" t="s">
-        <v>516</v>
-      </c>
-      <c r="L59" t="s">
-        <v>993</v>
-      </c>
-      <c r="M59" t="s">
-        <v>519</v>
-      </c>
-      <c r="N59" t="s">
-        <v>520</v>
       </c>
       <c r="P59"/>
       <c r="Q59"/>
-      <c r="S59"/>
-      <c r="T59"/>
+      <c r="R59" t="s">
+        <v>1066</v>
+      </c>
+      <c r="S59" t="s">
+        <v>519</v>
+      </c>
+      <c r="T59" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>521</v>
       </c>
       <c r="B60" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
       <c r="C60" t="s">
-        <v>814</v>
+        <v>825</v>
       </c>
       <c r="D60" t="s">
         <v>522</v>
@@ -6487,7 +6515,7 @@
         <v>523</v>
       </c>
       <c r="F60" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="G60" t="s">
         <v>524</v>
@@ -6496,7 +6524,7 @@
         <v>525</v>
       </c>
       <c r="I60" t="s">
-        <v>814</v>
+        <v>825</v>
       </c>
       <c r="J60" t="s">
         <v>522</v>
@@ -6505,7 +6533,7 @@
         <v>523</v>
       </c>
       <c r="L60" t="s">
-        <v>994</v>
+        <v>1005</v>
       </c>
       <c r="M60" t="s">
         <v>526</v>
@@ -6523,10 +6551,10 @@
         <v>528</v>
       </c>
       <c r="B61" t="s">
-        <v>731</v>
+        <v>751</v>
       </c>
       <c r="C61" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
       <c r="D61" t="s">
         <v>529</v>
@@ -6535,7 +6563,7 @@
         <v>530</v>
       </c>
       <c r="F61" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="G61" t="s">
         <v>531</v>
@@ -6544,117 +6572,110 @@
         <v>532</v>
       </c>
       <c r="I61" t="s">
-        <v>928</v>
+        <v>826</v>
       </c>
       <c r="J61" t="s">
+        <v>529</v>
+      </c>
+      <c r="K61" t="s">
+        <v>530</v>
+      </c>
+      <c r="L61" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M61" t="s">
         <v>533</v>
       </c>
-      <c r="K61" t="s">
+      <c r="N61" t="s">
         <v>534</v>
-      </c>
-      <c r="L61" t="s">
-        <v>995</v>
-      </c>
-      <c r="M61" t="s">
-        <v>535</v>
-      </c>
-      <c r="N61" t="s">
-        <v>536</v>
       </c>
       <c r="P61"/>
       <c r="Q61"/>
-      <c r="R61" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S61" t="s">
-        <v>537</v>
-      </c>
-      <c r="T61" t="s">
-        <v>538</v>
-      </c>
+      <c r="S61"/>
+      <c r="T61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>535</v>
+      </c>
+      <c r="B62" t="s">
+        <v>743</v>
+      </c>
+      <c r="C62" t="s">
+        <v>827</v>
+      </c>
+      <c r="D62" t="s">
+        <v>536</v>
+      </c>
+      <c r="E62" t="s">
+        <v>537</v>
+      </c>
+      <c r="F62" t="s">
+        <v>908</v>
+      </c>
+      <c r="G62" t="s">
+        <v>538</v>
+      </c>
+      <c r="H62" t="s">
         <v>539</v>
       </c>
-      <c r="B62" t="s">
-        <v>731</v>
-      </c>
-      <c r="C62" t="s">
-        <v>816</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="I62" t="s">
+        <v>940</v>
+      </c>
+      <c r="J62" t="s">
         <v>540</v>
       </c>
-      <c r="E62" t="s">
+      <c r="K62" t="s">
         <v>541</v>
       </c>
-      <c r="F62" t="s">
-        <v>897</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="L62" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M62" t="s">
         <v>542</v>
       </c>
-      <c r="H62" t="s">
+      <c r="N62" t="s">
         <v>543</v>
-      </c>
-      <c r="I62" t="s">
-        <v>929</v>
-      </c>
-      <c r="J62" t="s">
-        <v>544</v>
-      </c>
-      <c r="K62" t="s">
-        <v>545</v>
-      </c>
-      <c r="L62" t="s">
-        <v>996</v>
-      </c>
-      <c r="M62" t="s">
-        <v>546</v>
-      </c>
-      <c r="N62" t="s">
-        <v>547</v>
       </c>
       <c r="P62"/>
       <c r="Q62"/>
       <c r="R62" t="s">
-        <v>1056</v>
+        <v>1067</v>
       </c>
       <c r="S62" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="T62" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>546</v>
+      </c>
+      <c r="B63" t="s">
+        <v>743</v>
+      </c>
+      <c r="C63" t="s">
+        <v>828</v>
+      </c>
+      <c r="D63" t="s">
+        <v>547</v>
+      </c>
+      <c r="E63" t="s">
+        <v>548</v>
+      </c>
+      <c r="F63" t="s">
+        <v>909</v>
+      </c>
+      <c r="G63" t="s">
+        <v>549</v>
+      </c>
+      <c r="H63" t="s">
         <v>550</v>
       </c>
-      <c r="B63" t="s">
-        <v>731</v>
-      </c>
-      <c r="C63" t="s">
-        <v>817</v>
-      </c>
-      <c r="D63" t="s">
-        <v>551</v>
-      </c>
-      <c r="E63" t="s">
-        <v>552</v>
-      </c>
-      <c r="F63" t="s">
-        <v>898</v>
-      </c>
-      <c r="G63" t="s">
-        <v>553</v>
-      </c>
-      <c r="H63" t="s">
-        <v>554</v>
-      </c>
       <c r="I63" t="s">
-        <v>817</v>
+        <v>941</v>
       </c>
       <c r="J63" t="s">
         <v>551</v>
@@ -6663,244 +6684,258 @@
         <v>552</v>
       </c>
       <c r="L63" t="s">
-        <v>997</v>
+        <v>1008</v>
       </c>
       <c r="M63" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="N63" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="P63"/>
       <c r="Q63"/>
       <c r="R63" t="s">
-        <v>1057</v>
+        <v>1068</v>
       </c>
       <c r="S63" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="T63" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>557</v>
+      </c>
+      <c r="B64" t="s">
+        <v>743</v>
+      </c>
+      <c r="C64" t="s">
+        <v>829</v>
+      </c>
+      <c r="D64" t="s">
+        <v>558</v>
+      </c>
+      <c r="E64" t="s">
         <v>559</v>
       </c>
-      <c r="B64" t="s">
-        <v>731</v>
-      </c>
-      <c r="C64" t="s">
-        <v>818</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
+        <v>910</v>
+      </c>
+      <c r="G64" t="s">
         <v>560</v>
       </c>
-      <c r="E64" t="s">
+      <c r="H64" t="s">
         <v>561</v>
       </c>
-      <c r="G64"/>
-      <c r="H64"/>
       <c r="I64" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="J64" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K64" t="s">
-        <v>561</v>
-      </c>
-      <c r="M64"/>
-      <c r="N64"/>
+        <v>559</v>
+      </c>
+      <c r="L64" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M64" t="s">
+        <v>562</v>
+      </c>
+      <c r="N64" t="s">
+        <v>563</v>
+      </c>
       <c r="P64"/>
       <c r="Q64"/>
-      <c r="S64"/>
-      <c r="T64"/>
+      <c r="R64" t="s">
+        <v>1069</v>
+      </c>
+      <c r="S64" t="s">
+        <v>564</v>
+      </c>
+      <c r="T64" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B65" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C65" t="s">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="D65" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="E65" t="s">
-        <v>564</v>
-      </c>
-      <c r="F65" t="s">
-        <v>899</v>
-      </c>
-      <c r="G65" t="s">
-        <v>565</v>
-      </c>
-      <c r="H65" t="s">
-        <v>566</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="G65"/>
+      <c r="H65"/>
       <c r="I65" t="s">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="J65" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="K65" t="s">
-        <v>564</v>
-      </c>
-      <c r="L65" t="s">
-        <v>998</v>
-      </c>
-      <c r="M65" t="s">
-        <v>567</v>
-      </c>
-      <c r="N65" t="s">
         <v>568</v>
       </c>
+      <c r="M65"/>
+      <c r="N65"/>
       <c r="P65"/>
       <c r="Q65"/>
-      <c r="R65" t="s">
-        <v>1058</v>
-      </c>
-      <c r="S65" t="s">
-        <v>569</v>
-      </c>
-      <c r="T65" t="s">
-        <v>570</v>
-      </c>
+      <c r="S65"/>
+      <c r="T65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>569</v>
+      </c>
+      <c r="B66" t="s">
+        <v>743</v>
+      </c>
+      <c r="C66" t="s">
+        <v>831</v>
+      </c>
+      <c r="D66" t="s">
+        <v>570</v>
+      </c>
+      <c r="E66" t="s">
         <v>571</v>
       </c>
-      <c r="B66" t="s">
-        <v>749</v>
-      </c>
-      <c r="C66" t="s">
-        <v>820</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="F66" t="s">
+        <v>911</v>
+      </c>
+      <c r="G66" t="s">
         <v>572</v>
       </c>
-      <c r="E66" t="s">
+      <c r="H66" t="s">
         <v>573</v>
       </c>
-      <c r="F66" t="s">
-        <v>900</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="I66" t="s">
+        <v>831</v>
+      </c>
+      <c r="J66" t="s">
+        <v>570</v>
+      </c>
+      <c r="K66" t="s">
+        <v>571</v>
+      </c>
+      <c r="L66" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M66" t="s">
         <v>574</v>
       </c>
-      <c r="H66" t="s">
+      <c r="N66" t="s">
         <v>575</v>
-      </c>
-      <c r="I66" t="s">
-        <v>930</v>
-      </c>
-      <c r="J66" t="s">
-        <v>576</v>
-      </c>
-      <c r="K66" t="s">
-        <v>577</v>
-      </c>
-      <c r="L66" t="s">
-        <v>999</v>
-      </c>
-      <c r="M66" t="s">
-        <v>578</v>
-      </c>
-      <c r="N66" t="s">
-        <v>579</v>
       </c>
       <c r="P66"/>
       <c r="Q66"/>
       <c r="R66" t="s">
-        <v>1059</v>
+        <v>1070</v>
       </c>
       <c r="S66" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="T66" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>578</v>
+      </c>
+      <c r="B67" t="s">
+        <v>761</v>
+      </c>
+      <c r="C67" t="s">
+        <v>832</v>
+      </c>
+      <c r="D67" t="s">
+        <v>579</v>
+      </c>
+      <c r="E67" t="s">
+        <v>580</v>
+      </c>
+      <c r="F67" t="s">
+        <v>912</v>
+      </c>
+      <c r="G67" t="s">
+        <v>581</v>
+      </c>
+      <c r="H67" t="s">
         <v>582</v>
       </c>
-      <c r="B67" t="s">
-        <v>731</v>
-      </c>
-      <c r="C67" t="s">
-        <v>821</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="I67" t="s">
+        <v>942</v>
+      </c>
+      <c r="J67" t="s">
         <v>583</v>
-      </c>
-      <c r="E67" t="s">
-        <v>584</v>
-      </c>
-      <c r="F67" t="s">
-        <v>901</v>
-      </c>
-      <c r="G67" t="s">
-        <v>585</v>
-      </c>
-      <c r="H67" t="s">
-        <v>586</v>
-      </c>
-      <c r="I67" t="s">
-        <v>821</v>
-      </c>
-      <c r="J67" t="s">
-        <v>587</v>
       </c>
       <c r="K67" t="s">
         <v>584</v>
       </c>
-      <c r="M67"/>
-      <c r="N67"/>
+      <c r="L67" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M67" t="s">
+        <v>585</v>
+      </c>
+      <c r="N67" t="s">
+        <v>586</v>
+      </c>
       <c r="P67"/>
       <c r="Q67"/>
-      <c r="S67"/>
-      <c r="T67"/>
+      <c r="R67" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S67" t="s">
+        <v>587</v>
+      </c>
+      <c r="T67" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B68" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="C68" t="s">
-        <v>822</v>
+        <v>833</v>
       </c>
       <c r="D68" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E68" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F68" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="G68" t="s">
+        <v>592</v>
+      </c>
+      <c r="H68" t="s">
+        <v>593</v>
+      </c>
+      <c r="I68" t="s">
+        <v>833</v>
+      </c>
+      <c r="J68" t="s">
+        <v>594</v>
+      </c>
+      <c r="K68" t="s">
         <v>591</v>
-      </c>
-      <c r="H68" t="s">
-        <v>592</v>
-      </c>
-      <c r="I68" t="s">
-        <v>822</v>
-      </c>
-      <c r="J68" t="s">
-        <v>589</v>
-      </c>
-      <c r="K68" t="s">
-        <v>590</v>
       </c>
       <c r="M68"/>
       <c r="N68"/>
@@ -6911,202 +6946,179 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B69" t="s">
-        <v>731</v>
+        <v>762</v>
       </c>
       <c r="C69" t="s">
-        <v>823</v>
+        <v>834</v>
       </c>
       <c r="D69" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E69" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F69" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="G69" t="s">
+        <v>598</v>
+      </c>
+      <c r="H69" t="s">
+        <v>599</v>
+      </c>
+      <c r="I69" t="s">
+        <v>834</v>
+      </c>
+      <c r="J69" t="s">
         <v>596</v>
       </c>
-      <c r="H69" t="s">
+      <c r="K69" t="s">
         <v>597</v>
       </c>
-      <c r="I69" t="s">
-        <v>823</v>
-      </c>
-      <c r="J69" t="s">
-        <v>594</v>
-      </c>
-      <c r="K69" t="s">
-        <v>595</v>
-      </c>
-      <c r="L69" t="s">
-        <v>1000</v>
-      </c>
-      <c r="M69" t="s">
-        <v>598</v>
-      </c>
-      <c r="N69" t="s">
-        <v>599</v>
-      </c>
+      <c r="M69"/>
+      <c r="N69"/>
       <c r="P69"/>
       <c r="Q69"/>
-      <c r="R69" t="s">
-        <v>1060</v>
-      </c>
-      <c r="S69" t="s">
-        <v>600</v>
-      </c>
-      <c r="T69" t="s">
-        <v>601</v>
-      </c>
+      <c r="S69"/>
+      <c r="T69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>600</v>
+      </c>
+      <c r="B70" t="s">
+        <v>743</v>
+      </c>
+      <c r="C70" t="s">
+        <v>835</v>
+      </c>
+      <c r="D70" t="s">
+        <v>601</v>
+      </c>
+      <c r="E70" t="s">
         <v>602</v>
       </c>
-      <c r="B70" t="s">
-        <v>751</v>
-      </c>
-      <c r="C70" t="s">
-        <v>824</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="F70" t="s">
+        <v>915</v>
+      </c>
+      <c r="G70" t="s">
         <v>603</v>
       </c>
-      <c r="E70" t="s">
+      <c r="H70" t="s">
         <v>604</v>
       </c>
-      <c r="F70" t="s">
-        <v>904</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="I70" t="s">
+        <v>835</v>
+      </c>
+      <c r="J70" t="s">
+        <v>601</v>
+      </c>
+      <c r="K70" t="s">
+        <v>602</v>
+      </c>
+      <c r="L70" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M70" t="s">
         <v>605</v>
       </c>
-      <c r="H70" t="s">
+      <c r="N70" t="s">
         <v>606</v>
-      </c>
-      <c r="I70" t="s">
-        <v>931</v>
-      </c>
-      <c r="J70" t="s">
-        <v>607</v>
-      </c>
-      <c r="K70" t="s">
-        <v>608</v>
-      </c>
-      <c r="L70" t="s">
-        <v>1001</v>
-      </c>
-      <c r="M70" t="s">
-        <v>609</v>
-      </c>
-      <c r="N70" t="s">
-        <v>610</v>
       </c>
       <c r="P70"/>
       <c r="Q70"/>
       <c r="R70" t="s">
-        <v>1061</v>
+        <v>1072</v>
       </c>
       <c r="S70" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="T70" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>609</v>
+      </c>
+      <c r="B71" t="s">
+        <v>763</v>
+      </c>
+      <c r="C71" t="s">
+        <v>836</v>
+      </c>
+      <c r="D71" t="s">
+        <v>610</v>
+      </c>
+      <c r="E71" t="s">
+        <v>611</v>
+      </c>
+      <c r="F71" t="s">
+        <v>916</v>
+      </c>
+      <c r="G71" t="s">
+        <v>612</v>
+      </c>
+      <c r="H71" t="s">
         <v>613</v>
       </c>
-      <c r="B71" t="s">
-        <v>731</v>
-      </c>
-      <c r="C71" t="s">
-        <v>825</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="I71" t="s">
+        <v>943</v>
+      </c>
+      <c r="J71" t="s">
         <v>614</v>
       </c>
-      <c r="E71" t="s">
+      <c r="K71" t="s">
         <v>615</v>
       </c>
-      <c r="F71" t="s">
-        <v>905</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="L71" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M71" t="s">
         <v>616</v>
       </c>
-      <c r="H71" t="s">
+      <c r="N71" t="s">
         <v>617</v>
       </c>
-      <c r="I71" t="s">
-        <v>932</v>
-      </c>
-      <c r="J71" t="s">
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71" t="s">
+        <v>1073</v>
+      </c>
+      <c r="S71" t="s">
         <v>618</v>
       </c>
-      <c r="K71" t="s">
+      <c r="T71" t="s">
         <v>619</v>
       </c>
-      <c r="L71" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M71" t="s">
-        <v>620</v>
-      </c>
-      <c r="N71" t="s">
-        <v>621</v>
-      </c>
-      <c r="O71" t="s">
-        <v>1011</v>
-      </c>
-      <c r="P71" t="s">
-        <v>622</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>623</v>
-      </c>
-      <c r="S71"/>
-      <c r="T71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>620</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" t="s">
+        <v>621</v>
+      </c>
+      <c r="E72" t="s">
+        <v>622</v>
+      </c>
+      <c r="G72" t="s">
+        <v>623</v>
+      </c>
+      <c r="H72" t="s">
         <v>624</v>
       </c>
-      <c r="B72" t="s">
-        <v>731</v>
-      </c>
-      <c r="C72" t="s">
-        <v>826</v>
-      </c>
-      <c r="D72" t="s">
-        <v>625</v>
-      </c>
-      <c r="E72" t="s">
-        <v>626</v>
-      </c>
-      <c r="F72" t="s">
-        <v>906</v>
-      </c>
-      <c r="G72" t="s">
-        <v>627</v>
-      </c>
-      <c r="H72" t="s">
-        <v>628</v>
-      </c>
-      <c r="I72" t="s">
-        <v>933</v>
-      </c>
       <c r="J72" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="K72" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="M72"/>
       <c r="N72"/>
@@ -7117,42 +7129,56 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>625</v>
+      </c>
+      <c r="B73" t="s">
+        <v>743</v>
+      </c>
+      <c r="C73" t="s">
+        <v>837</v>
+      </c>
+      <c r="D73" t="s">
+        <v>626</v>
+      </c>
+      <c r="E73" t="s">
+        <v>627</v>
+      </c>
+      <c r="F73" t="s">
+        <v>917</v>
+      </c>
+      <c r="G73" t="s">
+        <v>628</v>
+      </c>
+      <c r="H73" t="s">
+        <v>629</v>
+      </c>
+      <c r="I73" t="s">
+        <v>944</v>
+      </c>
+      <c r="J73" t="s">
+        <v>630</v>
+      </c>
+      <c r="K73" t="s">
         <v>631</v>
       </c>
-      <c r="B73" t="s">
-        <v>731</v>
-      </c>
-      <c r="C73" t="s">
-        <v>827</v>
-      </c>
-      <c r="D73" t="s">
-        <v>168</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="L73" t="s">
+        <v>1014</v>
+      </c>
+      <c r="M73" t="s">
         <v>632</v>
       </c>
-      <c r="F73" t="s">
-        <v>907</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="N73" t="s">
         <v>633</v>
       </c>
-      <c r="H73" t="s">
+      <c r="O73" t="s">
+        <v>1023</v>
+      </c>
+      <c r="P73" t="s">
         <v>634</v>
       </c>
-      <c r="I73" t="s">
+      <c r="Q73" t="s">
         <v>635</v>
       </c>
-      <c r="J73" t="s">
-        <v>635</v>
-      </c>
-      <c r="K73" t="s">
-        <v>635</v>
-      </c>
-      <c r="M73"/>
-      <c r="N73"/>
-      <c r="P73"/>
-      <c r="Q73"/>
       <c r="S73"/>
       <c r="T73"/>
     </row>
@@ -7161,10 +7187,10 @@
         <v>636</v>
       </c>
       <c r="B74" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="C74" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="D74" t="s">
         <v>637</v>
@@ -7173,7 +7199,7 @@
         <v>638</v>
       </c>
       <c r="F74" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
       <c r="G74" t="s">
         <v>639</v>
@@ -7182,7 +7208,7 @@
         <v>640</v>
       </c>
       <c r="I74" t="s">
-        <v>934</v>
+        <v>945</v>
       </c>
       <c r="J74" t="s">
         <v>641</v>
@@ -7202,82 +7228,75 @@
         <v>643</v>
       </c>
       <c r="B75" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C75" t="s">
-        <v>766</v>
+        <v>839</v>
       </c>
       <c r="D75" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="E75" t="s">
-        <v>112</v>
+        <v>644</v>
       </c>
       <c r="F75" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
       <c r="G75" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H75" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="I75" t="s">
-        <v>935</v>
+        <v>647</v>
       </c>
       <c r="J75" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K75" t="s">
         <v>647</v>
       </c>
-      <c r="L75" t="s">
-        <v>1003</v>
-      </c>
-      <c r="M75" t="s">
-        <v>648</v>
-      </c>
-      <c r="N75" t="s">
-        <v>649</v>
-      </c>
-      <c r="O75" t="s">
-        <v>1012</v>
-      </c>
-      <c r="P75" t="s">
-        <v>650</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>651</v>
-      </c>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
       <c r="S75"/>
       <c r="T75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>648</v>
+      </c>
+      <c r="B76" t="s">
+        <v>747</v>
+      </c>
+      <c r="C76" t="s">
+        <v>840</v>
+      </c>
+      <c r="D76" t="s">
+        <v>649</v>
+      </c>
+      <c r="E76" t="s">
+        <v>650</v>
+      </c>
+      <c r="F76" t="s">
+        <v>920</v>
+      </c>
+      <c r="G76" t="s">
+        <v>651</v>
+      </c>
+      <c r="H76" t="s">
         <v>652</v>
       </c>
-      <c r="B76" t="s">
-        <v>731</v>
-      </c>
-      <c r="C76" t="s">
-        <v>829</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="I76" t="s">
+        <v>946</v>
+      </c>
+      <c r="J76" t="s">
         <v>653</v>
       </c>
-      <c r="E76" t="s">
+      <c r="K76" t="s">
         <v>654</v>
-      </c>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76" t="s">
-        <v>936</v>
-      </c>
-      <c r="J76" t="s">
-        <v>655</v>
-      </c>
-      <c r="K76" t="s">
-        <v>656</v>
       </c>
       <c r="M76"/>
       <c r="N76"/>
@@ -7288,65 +7307,79 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>655</v>
+      </c>
+      <c r="B77" t="s">
+        <v>743</v>
+      </c>
+      <c r="C77" t="s">
+        <v>778</v>
+      </c>
+      <c r="D77" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" t="s">
+        <v>112</v>
+      </c>
+      <c r="F77" t="s">
+        <v>921</v>
+      </c>
+      <c r="G77" t="s">
+        <v>656</v>
+      </c>
+      <c r="H77" t="s">
         <v>657</v>
       </c>
-      <c r="B77" t="s">
-        <v>731</v>
-      </c>
-      <c r="C77" t="s">
-        <v>830</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="I77" t="s">
+        <v>947</v>
+      </c>
+      <c r="J77" t="s">
         <v>658</v>
       </c>
-      <c r="E77" t="s">
+      <c r="K77" t="s">
         <v>659</v>
       </c>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77" t="s">
-        <v>937</v>
-      </c>
-      <c r="J77" t="s">
+      <c r="L77" t="s">
+        <v>1015</v>
+      </c>
+      <c r="M77" t="s">
         <v>660</v>
       </c>
-      <c r="K77" t="s">
+      <c r="N77" t="s">
         <v>661</v>
       </c>
-      <c r="M77"/>
-      <c r="N77"/>
-      <c r="P77"/>
-      <c r="Q77"/>
+      <c r="O77" t="s">
+        <v>1024</v>
+      </c>
+      <c r="P77" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>663</v>
+      </c>
       <c r="S77"/>
       <c r="T77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B78" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C78" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="D78" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="E78" t="s">
-        <v>664</v>
-      </c>
-      <c r="F78" t="s">
-        <v>910</v>
-      </c>
-      <c r="G78" t="s">
-        <v>665</v>
-      </c>
-      <c r="H78" t="s">
         <v>666</v>
       </c>
+      <c r="G78"/>
+      <c r="H78"/>
       <c r="I78" t="s">
-        <v>938</v>
+        <v>948</v>
       </c>
       <c r="J78" t="s">
         <v>667</v>
@@ -7366,10 +7399,10 @@
         <v>669</v>
       </c>
       <c r="B79" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C79" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="D79" t="s">
         <v>670</v>
@@ -7379,8 +7412,15 @@
       </c>
       <c r="G79"/>
       <c r="H79"/>
-      <c r="J79"/>
-      <c r="K79"/>
+      <c r="I79" t="s">
+        <v>949</v>
+      </c>
+      <c r="J79" t="s">
+        <v>672</v>
+      </c>
+      <c r="K79" t="s">
+        <v>673</v>
+      </c>
       <c r="M79"/>
       <c r="N79"/>
       <c r="P79"/>
@@ -7390,30 +7430,37 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B80" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C80" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
       <c r="D80" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E80" t="s">
-        <v>674</v>
-      </c>
-      <c r="G80"/>
-      <c r="H80"/>
+        <v>676</v>
+      </c>
+      <c r="F80" t="s">
+        <v>922</v>
+      </c>
+      <c r="G80" t="s">
+        <v>677</v>
+      </c>
+      <c r="H80" t="s">
+        <v>678</v>
+      </c>
       <c r="I80" t="s">
-        <v>939</v>
+        <v>950</v>
       </c>
       <c r="J80" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="K80" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="M80"/>
       <c r="N80"/>
@@ -7424,31 +7471,24 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B81" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="C81" t="s">
-        <v>829</v>
+        <v>844</v>
       </c>
       <c r="D81" t="s">
-        <v>653</v>
+        <v>682</v>
       </c>
       <c r="E81" t="s">
-        <v>654</v>
+        <v>683</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
-      <c r="I81" t="s">
-        <v>940</v>
-      </c>
-      <c r="J81" t="s">
-        <v>678</v>
-      </c>
-      <c r="K81" t="s">
-        <v>679</v>
-      </c>
+      <c r="J81"/>
+      <c r="K81"/>
       <c r="M81"/>
       <c r="N81"/>
       <c r="P81"/>
@@ -7458,92 +7498,64 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B82" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="C82" t="s">
-        <v>834</v>
+        <v>845</v>
       </c>
       <c r="D82" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="E82" t="s">
-        <v>682</v>
-      </c>
-      <c r="F82" t="s">
-        <v>911</v>
-      </c>
-      <c r="G82" t="s">
-        <v>683</v>
-      </c>
-      <c r="H82" t="s">
-        <v>684</v>
-      </c>
+        <v>686</v>
+      </c>
+      <c r="G82"/>
+      <c r="H82"/>
       <c r="I82" t="s">
-        <v>834</v>
+        <v>951</v>
       </c>
       <c r="J82" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="K82" t="s">
-        <v>682</v>
-      </c>
-      <c r="L82" t="s">
-        <v>1004</v>
-      </c>
-      <c r="M82" t="s">
-        <v>685</v>
-      </c>
-      <c r="N82" t="s">
-        <v>686</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="M82"/>
+      <c r="N82"/>
       <c r="P82"/>
       <c r="Q82"/>
-      <c r="R82" t="s">
-        <v>1054</v>
-      </c>
-      <c r="S82" t="s">
-        <v>512</v>
-      </c>
-      <c r="T82" t="s">
-        <v>513</v>
-      </c>
+      <c r="S82"/>
+      <c r="T82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B83" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="C83" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="D83" t="s">
-        <v>688</v>
+        <v>665</v>
       </c>
       <c r="E83" t="s">
-        <v>689</v>
-      </c>
-      <c r="F83" t="s">
-        <v>912</v>
-      </c>
-      <c r="G83" t="s">
+        <v>666</v>
+      </c>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83" t="s">
+        <v>952</v>
+      </c>
+      <c r="J83" t="s">
         <v>690</v>
       </c>
-      <c r="H83" t="s">
+      <c r="K83" t="s">
         <v>691</v>
-      </c>
-      <c r="I83" t="s">
-        <v>835</v>
-      </c>
-      <c r="J83" t="s">
-        <v>688</v>
-      </c>
-      <c r="K83" t="s">
-        <v>689</v>
       </c>
       <c r="M83"/>
       <c r="N83"/>
@@ -7557,10 +7569,10 @@
         <v>692</v>
       </c>
       <c r="B84" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="C84" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
       <c r="D84" t="s">
         <v>693</v>
@@ -7569,7 +7581,7 @@
         <v>694</v>
       </c>
       <c r="F84" t="s">
-        <v>913</v>
+        <v>923</v>
       </c>
       <c r="G84" t="s">
         <v>695</v>
@@ -7577,10 +7589,17 @@
       <c r="H84" t="s">
         <v>696</v>
       </c>
-      <c r="J84"/>
-      <c r="K84"/>
+      <c r="I84" t="s">
+        <v>846</v>
+      </c>
+      <c r="J84" t="s">
+        <v>693</v>
+      </c>
+      <c r="K84" t="s">
+        <v>694</v>
+      </c>
       <c r="L84" t="s">
-        <v>1005</v>
+        <v>1016</v>
       </c>
       <c r="M84" t="s">
         <v>697</v>
@@ -7591,109 +7610,102 @@
       <c r="P84"/>
       <c r="Q84"/>
       <c r="R84" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="S84" t="s">
-        <v>699</v>
+        <v>519</v>
       </c>
       <c r="T84" t="s">
-        <v>700</v>
+        <v>520</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>699</v>
+      </c>
+      <c r="B85" t="s">
+        <v>765</v>
+      </c>
+      <c r="C85" t="s">
+        <v>847</v>
+      </c>
+      <c r="D85" t="s">
+        <v>700</v>
+      </c>
+      <c r="E85" t="s">
         <v>701</v>
       </c>
-      <c r="B85" t="s">
-        <v>754</v>
-      </c>
-      <c r="C85" t="s">
-        <v>837</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="F85" t="s">
+        <v>924</v>
+      </c>
+      <c r="G85" t="s">
         <v>702</v>
       </c>
-      <c r="E85" t="s">
+      <c r="H85" t="s">
         <v>703</v>
       </c>
-      <c r="F85" t="s">
-        <v>914</v>
-      </c>
-      <c r="G85" t="s">
-        <v>704</v>
-      </c>
-      <c r="H85" t="s">
-        <v>705</v>
-      </c>
-      <c r="J85"/>
-      <c r="K85"/>
-      <c r="L85" t="s">
-        <v>1006</v>
-      </c>
-      <c r="M85" t="s">
-        <v>706</v>
-      </c>
-      <c r="N85" t="s">
-        <v>707</v>
-      </c>
+      <c r="I85" t="s">
+        <v>847</v>
+      </c>
+      <c r="J85" t="s">
+        <v>700</v>
+      </c>
+      <c r="K85" t="s">
+        <v>701</v>
+      </c>
+      <c r="M85"/>
+      <c r="N85"/>
       <c r="P85"/>
       <c r="Q85"/>
-      <c r="R85" t="s">
-        <v>1062</v>
-      </c>
-      <c r="S85" t="s">
-        <v>699</v>
-      </c>
-      <c r="T85" t="s">
-        <v>700</v>
-      </c>
+      <c r="S85"/>
+      <c r="T85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>704</v>
+      </c>
+      <c r="B86" t="s">
+        <v>766</v>
+      </c>
+      <c r="C86" t="s">
+        <v>848</v>
+      </c>
+      <c r="D86" t="s">
+        <v>705</v>
+      </c>
+      <c r="E86" t="s">
+        <v>706</v>
+      </c>
+      <c r="F86" t="s">
+        <v>925</v>
+      </c>
+      <c r="G86" t="s">
+        <v>707</v>
+      </c>
+      <c r="H86" t="s">
         <v>708</v>
-      </c>
-      <c r="B86" t="s">
-        <v>754</v>
-      </c>
-      <c r="C86" t="s">
-        <v>838</v>
-      </c>
-      <c r="D86" t="s">
-        <v>709</v>
-      </c>
-      <c r="E86" t="s">
-        <v>710</v>
-      </c>
-      <c r="F86" t="s">
-        <v>915</v>
-      </c>
-      <c r="G86" t="s">
-        <v>711</v>
-      </c>
-      <c r="H86" t="s">
-        <v>712</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86" t="s">
-        <v>1006</v>
+        <v>1017</v>
       </c>
       <c r="M86" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="N86" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="P86"/>
       <c r="Q86"/>
       <c r="R86" t="s">
-        <v>1062</v>
+        <v>1074</v>
       </c>
       <c r="S86" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="T86" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
     </row>
     <row r="87">
@@ -7701,10 +7713,10 @@
         <v>713</v>
       </c>
       <c r="B87" t="s">
-        <v>755</v>
+        <v>766</v>
       </c>
       <c r="C87" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
       <c r="D87" t="s">
         <v>714</v>
@@ -7713,7 +7725,7 @@
         <v>715</v>
       </c>
       <c r="F87" t="s">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="G87" t="s">
         <v>716</v>
@@ -7724,7 +7736,7 @@
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87" t="s">
-        <v>1007</v>
+        <v>1018</v>
       </c>
       <c r="M87" t="s">
         <v>718</v>
@@ -7735,13 +7747,13 @@
       <c r="P87"/>
       <c r="Q87"/>
       <c r="R87" t="s">
-        <v>1062</v>
+        <v>1074</v>
       </c>
       <c r="S87" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="T87" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
     </row>
     <row r="88">
@@ -7749,10 +7761,10 @@
         <v>720</v>
       </c>
       <c r="B88" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="C88" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="D88" t="s">
         <v>721</v>
@@ -7761,7 +7773,7 @@
         <v>722</v>
       </c>
       <c r="F88" t="s">
-        <v>917</v>
+        <v>927</v>
       </c>
       <c r="G88" t="s">
         <v>723</v>
@@ -7772,24 +7784,120 @@
       <c r="J88"/>
       <c r="K88"/>
       <c r="L88" t="s">
-        <v>1008</v>
+        <v>1018</v>
       </c>
       <c r="M88" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="N88" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="P88"/>
       <c r="Q88"/>
       <c r="R88" t="s">
-        <v>1062</v>
+        <v>1074</v>
       </c>
       <c r="S88" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="T88" t="s">
-        <v>700</v>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>725</v>
+      </c>
+      <c r="B89" t="s">
+        <v>767</v>
+      </c>
+      <c r="C89" t="s">
+        <v>851</v>
+      </c>
+      <c r="D89" t="s">
+        <v>726</v>
+      </c>
+      <c r="E89" t="s">
+        <v>727</v>
+      </c>
+      <c r="F89" t="s">
+        <v>928</v>
+      </c>
+      <c r="G89" t="s">
+        <v>728</v>
+      </c>
+      <c r="H89" t="s">
+        <v>729</v>
+      </c>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89" t="s">
+        <v>1019</v>
+      </c>
+      <c r="M89" t="s">
+        <v>730</v>
+      </c>
+      <c r="N89" t="s">
+        <v>731</v>
+      </c>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89" t="s">
+        <v>1074</v>
+      </c>
+      <c r="S89" t="s">
+        <v>711</v>
+      </c>
+      <c r="T89" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>732</v>
+      </c>
+      <c r="B90" t="s">
+        <v>768</v>
+      </c>
+      <c r="C90" t="s">
+        <v>852</v>
+      </c>
+      <c r="D90" t="s">
+        <v>733</v>
+      </c>
+      <c r="E90" t="s">
+        <v>734</v>
+      </c>
+      <c r="F90" t="s">
+        <v>929</v>
+      </c>
+      <c r="G90" t="s">
+        <v>735</v>
+      </c>
+      <c r="H90" t="s">
+        <v>736</v>
+      </c>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90" t="s">
+        <v>1020</v>
+      </c>
+      <c r="M90" t="s">
+        <v>737</v>
+      </c>
+      <c r="N90" t="s">
+        <v>738</v>
+      </c>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90" t="s">
+        <v>1074</v>
+      </c>
+      <c r="S90" t="s">
+        <v>711</v>
+      </c>
+      <c r="T90" t="s">
+        <v>712</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.212</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="1088">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">眠りの歌</t>
   </si>
   <si>
-    <t xml:space="preserve">A condition that puts nearby creatures to sleep. Consume mana while maintaining the song.</t>
+    <t xml:space="preserve">A condition that grants sleep to nearby creatures. Consume mana while maintaining the song.</t>
   </si>
   <si>
     <t xml:space="preserve">周囲の生物を眠らせる状態。歌を維持している間はマナが減少する。</t>
@@ -219,6 +219,27 @@
   </si>
   <si>
     <t xml:space="preserve">#1は歌うのを止めた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hymn of Valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">勇気の歌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A condition that grants courage to nearby creatures. Consume mana while maintaining the song.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">周囲の生物に勇気を与える状態。歌を維持している間はマナが減少する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 begin(s) to sing a song of valor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1は勇ましい歌を歌い始めた。</t>
   </si>
   <si>
     <t xml:space="preserve">23</t>
@@ -3471,10 +3492,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="C3" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -3483,7 +3504,7 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
@@ -3492,7 +3513,7 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
@@ -3501,7 +3522,7 @@
         <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
@@ -3512,7 +3533,7 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3" t="s">
-        <v>1030</v>
+        <v>1037</v>
       </c>
       <c r="S3" t="s">
         <v>30</v>
@@ -3526,10 +3547,10 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="C4" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -3538,7 +3559,7 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -3547,7 +3568,7 @@
         <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
@@ -3556,7 +3577,7 @@
         <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -3567,7 +3588,7 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4" t="s">
-        <v>1031</v>
+        <v>1038</v>
       </c>
       <c r="S4" t="s">
         <v>39</v>
@@ -3581,10 +3602,10 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="C5" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3593,7 +3614,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -3602,7 +3623,7 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
@@ -3611,7 +3632,7 @@
         <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
       <c r="M5" t="s">
         <v>46</v>
@@ -3622,7 +3643,7 @@
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5" t="s">
-        <v>1032</v>
+        <v>1039</v>
       </c>
       <c r="S5" t="s">
         <v>48</v>
@@ -3636,10 +3657,10 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="C6" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -3648,7 +3669,7 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -3657,7 +3678,7 @@
         <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="J6" t="s">
         <v>51</v>
@@ -3666,7 +3687,7 @@
         <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="M6" t="s">
         <v>55</v>
@@ -3677,7 +3698,7 @@
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="S6" t="s">
         <v>57</v>
@@ -3691,10 +3712,10 @@
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="C7" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="D7" t="s">
         <v>60</v>
@@ -3703,7 +3724,7 @@
         <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="G7" t="s">
         <v>62</v>
@@ -3712,7 +3733,7 @@
         <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="J7" t="s">
         <v>60</v>
@@ -3721,7 +3742,7 @@
         <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="M7" t="s">
         <v>64</v>
@@ -3732,7 +3753,7 @@
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="S7" t="s">
         <v>66</v>
@@ -3746,10 +3767,7 @@
         <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>743</v>
-      </c>
-      <c r="C8" t="s">
-        <v>775</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>69</v>
@@ -3757,134 +3775,122 @@
       <c r="E8" t="s">
         <v>70</v>
       </c>
-      <c r="F8" t="s">
-        <v>861</v>
-      </c>
       <c r="G8" t="s">
         <v>71</v>
       </c>
       <c r="H8" t="s">
         <v>72</v>
       </c>
-      <c r="I8" t="s">
-        <v>935</v>
-      </c>
       <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" t="s">
         <v>73</v>
       </c>
-      <c r="K8" t="s">
+      <c r="N8" t="s">
         <v>74</v>
       </c>
-      <c r="L8" t="s">
-        <v>962</v>
-      </c>
-      <c r="M8" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8" t="s">
-        <v>1026</v>
-      </c>
-      <c r="P8" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>78</v>
-      </c>
-      <c r="R8" t="s">
-        <v>1035</v>
-      </c>
+      <c r="P8"/>
+      <c r="Q8"/>
       <c r="S8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="T8" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>750</v>
+      </c>
+      <c r="C9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
+        <v>868</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
+        <v>942</v>
+      </c>
+      <c r="J9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" t="s">
-        <v>744</v>
-      </c>
-      <c r="C9" t="s">
-        <v>776</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="L9" t="s">
+        <v>969</v>
+      </c>
+      <c r="M9" t="s">
         <v>82</v>
       </c>
-      <c r="E9" t="s">
+      <c r="N9" t="s">
         <v>83</v>
       </c>
-      <c r="F9" t="s">
-        <v>862</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="O9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="P9" t="s">
         <v>84</v>
       </c>
-      <c r="H9" t="s">
+      <c r="Q9" t="s">
         <v>85</v>
       </c>
-      <c r="I9" t="s">
-        <v>936</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="R9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="S9" t="s">
         <v>86</v>
       </c>
-      <c r="K9" t="s">
+      <c r="T9" t="s">
         <v>87</v>
       </c>
-      <c r="L9" t="s">
-        <v>963</v>
-      </c>
-      <c r="M9" t="s">
-        <v>88</v>
-      </c>
-      <c r="N9" t="s">
-        <v>89</v>
-      </c>
-      <c r="O9" t="s">
-        <v>1027</v>
-      </c>
-      <c r="P9" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>91</v>
-      </c>
-      <c r="S9"/>
-      <c r="T9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>751</v>
+      </c>
+      <c r="C10" t="s">
+        <v>783</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>869</v>
+      </c>
+      <c r="G10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" t="s">
         <v>92</v>
       </c>
-      <c r="B10" t="s">
-        <v>743</v>
-      </c>
-      <c r="C10" t="s">
-        <v>777</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" t="s">
-        <v>863</v>
-      </c>
-      <c r="G10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" t="s">
-        <v>96</v>
-      </c>
       <c r="I10" t="s">
-        <v>777</v>
+        <v>943</v>
       </c>
       <c r="J10" t="s">
         <v>93</v>
@@ -3893,713 +3899,713 @@
         <v>94</v>
       </c>
       <c r="L10" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="M10" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="P10" t="s">
         <v>97</v>
       </c>
-      <c r="N10" t="s">
+      <c r="Q10" t="s">
         <v>98</v>
       </c>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10" t="s">
-        <v>1036</v>
-      </c>
-      <c r="S10" t="s">
-        <v>99</v>
-      </c>
-      <c r="T10" t="s">
-        <v>100</v>
-      </c>
+      <c r="S10"/>
+      <c r="T10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>750</v>
+      </c>
+      <c r="C11" t="s">
+        <v>784</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
         <v>101</v>
       </c>
-      <c r="B11" t="s">
-        <v>743</v>
-      </c>
-      <c r="C11" t="s">
-        <v>778</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>870</v>
+      </c>
+      <c r="G11" t="s">
         <v>102</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>103</v>
       </c>
-      <c r="F11" t="s">
-        <v>864</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
+        <v>784</v>
+      </c>
+      <c r="J11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" t="s">
+        <v>971</v>
+      </c>
+      <c r="M11" t="s">
         <v>104</v>
       </c>
-      <c r="H11" t="s">
+      <c r="N11" t="s">
         <v>105</v>
-      </c>
-      <c r="I11" t="s">
-        <v>778</v>
-      </c>
-      <c r="J11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" t="s">
-        <v>103</v>
-      </c>
-      <c r="L11" t="s">
-        <v>965</v>
-      </c>
-      <c r="M11" t="s">
-        <v>106</v>
-      </c>
-      <c r="N11" t="s">
-        <v>107</v>
       </c>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="S11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>750</v>
+      </c>
+      <c r="C12" t="s">
+        <v>785</v>
+      </c>
+      <c r="D12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" t="s">
         <v>110</v>
       </c>
-      <c r="B12" t="s">
-        <v>743</v>
-      </c>
-      <c r="C12" t="s">
-        <v>779</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>871</v>
+      </c>
+      <c r="G12" t="s">
         <v>111</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>112</v>
       </c>
-      <c r="F12" t="s">
-        <v>865</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
+        <v>785</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>972</v>
+      </c>
+      <c r="M12" t="s">
         <v>113</v>
       </c>
-      <c r="H12" t="s">
+      <c r="N12" t="s">
         <v>114</v>
-      </c>
-      <c r="I12" t="s">
-        <v>779</v>
-      </c>
-      <c r="J12" t="s">
-        <v>115</v>
-      </c>
-      <c r="K12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L12" t="s">
-        <v>966</v>
-      </c>
-      <c r="M12" t="s">
-        <v>116</v>
-      </c>
-      <c r="N12" t="s">
-        <v>117</v>
       </c>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="S12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="T12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
+        <v>750</v>
+      </c>
+      <c r="C13" t="s">
+        <v>786</v>
+      </c>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" t="s">
+        <v>872</v>
+      </c>
+      <c r="G13" t="s">
         <v>120</v>
       </c>
-      <c r="B13" t="s">
-        <v>743</v>
-      </c>
-      <c r="C13" t="s">
-        <v>780</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="H13" t="s">
         <v>121</v>
       </c>
-      <c r="E13" t="s">
+      <c r="I13" t="s">
+        <v>786</v>
+      </c>
+      <c r="J13" t="s">
         <v>122</v>
       </c>
-      <c r="F13" t="s">
-        <v>866</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>973</v>
+      </c>
+      <c r="M13" t="s">
         <v>123</v>
       </c>
-      <c r="H13" t="s">
+      <c r="N13" t="s">
         <v>124</v>
-      </c>
-      <c r="I13" t="s">
-        <v>780</v>
-      </c>
-      <c r="J13" t="s">
-        <v>125</v>
-      </c>
-      <c r="K13" t="s">
-        <v>122</v>
-      </c>
-      <c r="L13" t="s">
-        <v>967</v>
-      </c>
-      <c r="M13" t="s">
-        <v>126</v>
-      </c>
-      <c r="N13" t="s">
-        <v>127</v>
       </c>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="S13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="T13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" t="s">
+        <v>750</v>
+      </c>
+      <c r="C14" t="s">
+        <v>787</v>
+      </c>
+      <c r="D14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" t="s">
+        <v>873</v>
+      </c>
+      <c r="G14" t="s">
         <v>130</v>
       </c>
-      <c r="B14" t="s">
-        <v>745</v>
-      </c>
-      <c r="C14" t="s">
-        <v>781</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="H14" t="s">
         <v>131</v>
       </c>
-      <c r="E14" t="s">
+      <c r="I14" t="s">
+        <v>787</v>
+      </c>
+      <c r="J14" t="s">
         <v>132</v>
       </c>
-      <c r="F14" t="s">
-        <v>867</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>974</v>
+      </c>
+      <c r="M14" t="s">
         <v>133</v>
       </c>
-      <c r="H14" t="s">
+      <c r="N14" t="s">
         <v>134</v>
-      </c>
-      <c r="I14" t="s">
-        <v>781</v>
-      </c>
-      <c r="J14" t="s">
-        <v>135</v>
-      </c>
-      <c r="K14" t="s">
-        <v>132</v>
-      </c>
-      <c r="L14" t="s">
-        <v>968</v>
-      </c>
-      <c r="M14" t="s">
-        <v>136</v>
-      </c>
-      <c r="N14" t="s">
-        <v>137</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="S14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="T14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" t="s">
+        <v>752</v>
+      </c>
+      <c r="C15" t="s">
+        <v>788</v>
+      </c>
+      <c r="D15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" t="s">
+        <v>874</v>
+      </c>
+      <c r="G15" t="s">
         <v>140</v>
       </c>
-      <c r="B15" t="s">
-        <v>743</v>
-      </c>
-      <c r="C15" t="s">
-        <v>782</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="H15" t="s">
         <v>141</v>
       </c>
-      <c r="E15" t="s">
+      <c r="I15" t="s">
+        <v>788</v>
+      </c>
+      <c r="J15" t="s">
         <v>142</v>
       </c>
-      <c r="F15" t="s">
-        <v>866</v>
-      </c>
-      <c r="G15" t="s">
-        <v>123</v>
-      </c>
-      <c r="H15" t="s">
-        <v>124</v>
-      </c>
-      <c r="I15" t="s">
-        <v>782</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>975</v>
+      </c>
+      <c r="M15" t="s">
         <v>143</v>
       </c>
-      <c r="K15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L15" t="s">
-        <v>969</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>144</v>
-      </c>
-      <c r="N15" t="s">
-        <v>145</v>
       </c>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="S15" t="s">
+        <v>145</v>
+      </c>
+      <c r="T15" t="s">
         <v>146</v>
-      </c>
-      <c r="T15" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" t="s">
+        <v>750</v>
+      </c>
+      <c r="C16" t="s">
+        <v>789</v>
+      </c>
+      <c r="D16" t="s">
         <v>148</v>
       </c>
-      <c r="B16" t="s">
-        <v>743</v>
-      </c>
-      <c r="C16" t="s">
-        <v>783</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>149</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>873</v>
+      </c>
+      <c r="G16" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" t="s">
+        <v>789</v>
+      </c>
+      <c r="J16" t="s">
         <v>150</v>
       </c>
-      <c r="F16" t="s">
-        <v>868</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>976</v>
+      </c>
+      <c r="M16" t="s">
         <v>151</v>
       </c>
-      <c r="H16" t="s">
+      <c r="N16" t="s">
         <v>152</v>
-      </c>
-      <c r="I16" t="s">
-        <v>783</v>
-      </c>
-      <c r="J16" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" t="s">
-        <v>150</v>
-      </c>
-      <c r="L16" t="s">
-        <v>970</v>
-      </c>
-      <c r="M16" t="s">
-        <v>154</v>
-      </c>
-      <c r="N16" t="s">
-        <v>155</v>
       </c>
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="S16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" t="s">
+        <v>750</v>
+      </c>
+      <c r="C17" t="s">
+        <v>790</v>
+      </c>
+      <c r="D17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" t="s">
+        <v>875</v>
+      </c>
+      <c r="G17" t="s">
         <v>158</v>
       </c>
-      <c r="B17" t="s">
-        <v>743</v>
-      </c>
-      <c r="C17" t="s">
-        <v>784</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="H17" t="s">
         <v>159</v>
       </c>
-      <c r="E17" t="s">
+      <c r="I17" t="s">
+        <v>790</v>
+      </c>
+      <c r="J17" t="s">
         <v>160</v>
       </c>
-      <c r="F17" t="s">
-        <v>869</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="K17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s">
+        <v>977</v>
+      </c>
+      <c r="M17" t="s">
         <v>161</v>
       </c>
-      <c r="H17" t="s">
+      <c r="N17" t="s">
         <v>162</v>
-      </c>
-      <c r="I17" t="s">
-        <v>784</v>
-      </c>
-      <c r="J17" t="s">
-        <v>159</v>
-      </c>
-      <c r="K17" t="s">
-        <v>160</v>
-      </c>
-      <c r="L17" t="s">
-        <v>971</v>
-      </c>
-      <c r="M17" t="s">
-        <v>163</v>
-      </c>
-      <c r="N17" t="s">
-        <v>164</v>
       </c>
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="S17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" t="s">
+        <v>750</v>
+      </c>
+      <c r="C18" t="s">
+        <v>791</v>
+      </c>
+      <c r="D18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" t="s">
         <v>167</v>
       </c>
-      <c r="B18" t="s">
-        <v>743</v>
-      </c>
-      <c r="C18" t="s">
-        <v>785</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
+        <v>876</v>
+      </c>
+      <c r="G18" t="s">
         <v>168</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>169</v>
       </c>
-      <c r="F18" t="s">
-        <v>870</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
+        <v>791</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s">
+        <v>978</v>
+      </c>
+      <c r="M18" t="s">
         <v>170</v>
       </c>
-      <c r="H18" t="s">
+      <c r="N18" t="s">
         <v>171</v>
-      </c>
-      <c r="I18" t="s">
-        <v>937</v>
-      </c>
-      <c r="J18" t="s">
-        <v>172</v>
-      </c>
-      <c r="K18" t="s">
-        <v>173</v>
-      </c>
-      <c r="L18" t="s">
-        <v>972</v>
-      </c>
-      <c r="M18" t="s">
-        <v>174</v>
-      </c>
-      <c r="N18" t="s">
-        <v>175</v>
       </c>
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="S18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="T18" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" t="s">
+        <v>750</v>
+      </c>
+      <c r="C19" t="s">
+        <v>792</v>
+      </c>
+      <c r="D19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" t="s">
+        <v>877</v>
+      </c>
+      <c r="G19" t="s">
+        <v>177</v>
+      </c>
+      <c r="H19" t="s">
         <v>178</v>
       </c>
-      <c r="B19" t="s">
-        <v>743</v>
-      </c>
-      <c r="C19" t="s">
-        <v>786</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="I19" t="s">
+        <v>944</v>
+      </c>
+      <c r="J19" t="s">
         <v>179</v>
       </c>
-      <c r="E19" t="s">
+      <c r="K19" t="s">
         <v>180</v>
       </c>
-      <c r="F19" t="s">
-        <v>871</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="L19" t="s">
+        <v>979</v>
+      </c>
+      <c r="M19" t="s">
         <v>181</v>
       </c>
-      <c r="H19" t="s">
+      <c r="N19" t="s">
         <v>182</v>
-      </c>
-      <c r="I19" t="s">
-        <v>938</v>
-      </c>
-      <c r="J19" t="s">
-        <v>183</v>
-      </c>
-      <c r="K19" t="s">
-        <v>184</v>
-      </c>
-      <c r="L19" t="s">
-        <v>973</v>
-      </c>
-      <c r="M19" t="s">
-        <v>185</v>
-      </c>
-      <c r="N19" t="s">
-        <v>186</v>
       </c>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="S19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="T19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" t="s">
+        <v>750</v>
+      </c>
+      <c r="C20" t="s">
+        <v>793</v>
+      </c>
+      <c r="D20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" t="s">
+        <v>878</v>
+      </c>
+      <c r="G20" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20" t="s">
         <v>189</v>
       </c>
-      <c r="B20" t="s">
-        <v>743</v>
-      </c>
-      <c r="C20" t="s">
-        <v>787</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="I20" t="s">
+        <v>945</v>
+      </c>
+      <c r="J20" t="s">
         <v>190</v>
       </c>
-      <c r="E20" t="s">
+      <c r="K20" t="s">
         <v>191</v>
       </c>
-      <c r="F20" t="s">
-        <v>872</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="L20" t="s">
+        <v>980</v>
+      </c>
+      <c r="M20" t="s">
         <v>192</v>
       </c>
-      <c r="H20" t="s">
+      <c r="N20" t="s">
         <v>193</v>
-      </c>
-      <c r="I20" t="s">
-        <v>939</v>
-      </c>
-      <c r="J20" t="s">
-        <v>194</v>
-      </c>
-      <c r="K20" t="s">
-        <v>195</v>
-      </c>
-      <c r="L20" t="s">
-        <v>974</v>
-      </c>
-      <c r="M20" t="s">
-        <v>196</v>
-      </c>
-      <c r="N20" t="s">
-        <v>197</v>
       </c>
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="S20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="T20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" t="s">
+        <v>750</v>
+      </c>
+      <c r="C21" t="s">
+        <v>794</v>
+      </c>
+      <c r="D21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" t="s">
+        <v>879</v>
+      </c>
+      <c r="G21" t="s">
+        <v>199</v>
+      </c>
+      <c r="H21" t="s">
         <v>200</v>
       </c>
-      <c r="B21" t="s">
-        <v>746</v>
-      </c>
-      <c r="C21" t="s">
-        <v>788</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="I21" t="s">
+        <v>946</v>
+      </c>
+      <c r="J21" t="s">
         <v>201</v>
       </c>
-      <c r="E21" t="s">
+      <c r="K21" t="s">
         <v>202</v>
       </c>
-      <c r="F21" t="s">
-        <v>873</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="L21" t="s">
+        <v>981</v>
+      </c>
+      <c r="M21" t="s">
         <v>203</v>
       </c>
-      <c r="H21" t="s">
+      <c r="N21" t="s">
         <v>204</v>
-      </c>
-      <c r="I21" t="s">
-        <v>940</v>
-      </c>
-      <c r="J21" t="s">
-        <v>205</v>
-      </c>
-      <c r="K21" t="s">
-        <v>206</v>
-      </c>
-      <c r="L21" t="s">
-        <v>975</v>
-      </c>
-      <c r="M21" t="s">
-        <v>207</v>
-      </c>
-      <c r="N21" t="s">
-        <v>208</v>
       </c>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="S21" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="T21" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" t="s">
+        <v>753</v>
+      </c>
+      <c r="C22" t="s">
+        <v>795</v>
+      </c>
+      <c r="D22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" t="s">
+        <v>209</v>
+      </c>
+      <c r="F22" t="s">
+        <v>880</v>
+      </c>
+      <c r="G22" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22" t="s">
         <v>211</v>
       </c>
-      <c r="B22" t="s">
-        <v>739</v>
-      </c>
-      <c r="C22" t="s">
-        <v>789</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="I22" t="s">
+        <v>947</v>
+      </c>
+      <c r="J22" t="s">
         <v>212</v>
       </c>
-      <c r="E22" t="s">
+      <c r="K22" t="s">
         <v>213</v>
       </c>
-      <c r="F22" t="s">
-        <v>874</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="L22" t="s">
+        <v>982</v>
+      </c>
+      <c r="M22" t="s">
         <v>214</v>
       </c>
-      <c r="H22" t="s">
+      <c r="N22" t="s">
         <v>215</v>
-      </c>
-      <c r="I22" t="s">
-        <v>941</v>
-      </c>
-      <c r="J22" t="s">
-        <v>216</v>
-      </c>
-      <c r="K22" t="s">
-        <v>217</v>
-      </c>
-      <c r="L22" t="s">
-        <v>976</v>
-      </c>
-      <c r="M22" t="s">
-        <v>218</v>
-      </c>
-      <c r="N22" t="s">
-        <v>219</v>
       </c>
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="S22" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="T22" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" t="s">
+        <v>746</v>
+      </c>
+      <c r="C23" t="s">
+        <v>796</v>
+      </c>
+      <c r="D23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23" t="s">
+        <v>220</v>
+      </c>
+      <c r="F23" t="s">
+        <v>881</v>
+      </c>
+      <c r="G23" t="s">
+        <v>221</v>
+      </c>
+      <c r="H23" t="s">
         <v>222</v>
       </c>
-      <c r="B23" t="s">
-        <v>743</v>
-      </c>
-      <c r="C23" t="s">
-        <v>790</v>
-      </c>
-      <c r="D23" t="s">
-        <v>223</v>
-      </c>
-      <c r="E23" t="s">
-        <v>224</v>
-      </c>
-      <c r="F23" t="s">
-        <v>875</v>
-      </c>
-      <c r="G23" t="s">
-        <v>225</v>
-      </c>
-      <c r="H23" t="s">
-        <v>226</v>
-      </c>
       <c r="I23" t="s">
-        <v>790</v>
+        <v>948</v>
       </c>
       <c r="J23" t="s">
         <v>223</v>
@@ -4608,83 +4614,90 @@
         <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="M23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="S23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="T23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" t="s">
+        <v>750</v>
+      </c>
+      <c r="C24" t="s">
+        <v>797</v>
+      </c>
+      <c r="D24" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" t="s">
         <v>231</v>
       </c>
-      <c r="B24" t="s">
-        <v>747</v>
-      </c>
-      <c r="C24" t="s">
-        <v>791</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
+        <v>882</v>
+      </c>
+      <c r="G24" t="s">
         <v>232</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
         <v>233</v>
       </c>
-      <c r="F24" t="s">
-        <v>876</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
+        <v>797</v>
+      </c>
+      <c r="J24" t="s">
+        <v>230</v>
+      </c>
+      <c r="K24" t="s">
+        <v>231</v>
+      </c>
+      <c r="L24" t="s">
+        <v>984</v>
+      </c>
+      <c r="M24" t="s">
         <v>234</v>
       </c>
-      <c r="H24" t="s">
+      <c r="N24" t="s">
         <v>235</v>
-      </c>
-      <c r="I24" t="s">
-        <v>791</v>
-      </c>
-      <c r="J24" t="s">
-        <v>232</v>
-      </c>
-      <c r="K24" t="s">
-        <v>233</v>
-      </c>
-      <c r="L24" t="s">
-        <v>978</v>
-      </c>
-      <c r="M24" t="s">
-        <v>236</v>
-      </c>
-      <c r="N24" t="s">
-        <v>237</v>
       </c>
       <c r="P24"/>
       <c r="Q24"/>
-      <c r="S24"/>
-      <c r="T24"/>
+      <c r="R24" t="s">
+        <v>1056</v>
+      </c>
+      <c r="S24" t="s">
+        <v>236</v>
+      </c>
+      <c r="T24" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>238</v>
       </c>
       <c r="B25" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="C25" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="D25" t="s">
         <v>239</v>
@@ -4693,7 +4706,7 @@
         <v>240</v>
       </c>
       <c r="F25" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="G25" t="s">
         <v>241</v>
@@ -4702,7 +4715,7 @@
         <v>242</v>
       </c>
       <c r="I25" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="J25" t="s">
         <v>239</v>
@@ -4711,7 +4724,7 @@
         <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="M25" t="s">
         <v>243</v>
@@ -4721,428 +4734,421 @@
       </c>
       <c r="P25"/>
       <c r="Q25"/>
-      <c r="R25" t="s">
-        <v>1050</v>
-      </c>
-      <c r="S25" t="s">
-        <v>245</v>
-      </c>
-      <c r="T25" t="s">
-        <v>246</v>
-      </c>
+      <c r="S25"/>
+      <c r="T25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26" t="s">
+        <v>755</v>
+      </c>
+      <c r="C26" t="s">
+        <v>799</v>
+      </c>
+      <c r="D26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E26" t="s">
         <v>247</v>
       </c>
-      <c r="B26" t="s">
-        <v>749</v>
-      </c>
-      <c r="C26" t="s">
-        <v>793</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
+        <v>884</v>
+      </c>
+      <c r="G26" t="s">
         <v>248</v>
       </c>
-      <c r="E26" t="s">
+      <c r="H26" t="s">
         <v>249</v>
       </c>
-      <c r="F26" t="s">
-        <v>878</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
+        <v>799</v>
+      </c>
+      <c r="J26" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" t="s">
+        <v>247</v>
+      </c>
+      <c r="L26" t="s">
+        <v>986</v>
+      </c>
+      <c r="M26" t="s">
         <v>250</v>
       </c>
-      <c r="H26" t="s">
+      <c r="N26" t="s">
         <v>251</v>
-      </c>
-      <c r="I26" t="s">
-        <v>793</v>
-      </c>
-      <c r="J26" t="s">
-        <v>248</v>
-      </c>
-      <c r="K26" t="s">
-        <v>249</v>
-      </c>
-      <c r="L26" t="s">
-        <v>980</v>
-      </c>
-      <c r="M26" t="s">
-        <v>252</v>
-      </c>
-      <c r="N26" t="s">
-        <v>253</v>
       </c>
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="S26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" t="s">
+        <v>756</v>
+      </c>
+      <c r="C27" t="s">
+        <v>800</v>
+      </c>
+      <c r="D27" t="s">
+        <v>255</v>
+      </c>
+      <c r="E27" t="s">
         <v>256</v>
       </c>
-      <c r="B27" t="s">
-        <v>739</v>
-      </c>
-      <c r="C27" t="s">
-        <v>794</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
+        <v>885</v>
+      </c>
+      <c r="G27" t="s">
         <v>257</v>
       </c>
-      <c r="E27" t="s">
+      <c r="H27" t="s">
         <v>258</v>
       </c>
-      <c r="F27" t="s">
-        <v>879</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
+        <v>800</v>
+      </c>
+      <c r="J27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>987</v>
+      </c>
+      <c r="M27" t="s">
         <v>259</v>
       </c>
-      <c r="H27" t="s">
+      <c r="N27" t="s">
         <v>260</v>
-      </c>
-      <c r="I27" t="s">
-        <v>794</v>
-      </c>
-      <c r="J27" t="s">
-        <v>257</v>
-      </c>
-      <c r="K27" t="s">
-        <v>258</v>
-      </c>
-      <c r="L27" t="s">
-        <v>981</v>
-      </c>
-      <c r="M27" t="s">
-        <v>261</v>
-      </c>
-      <c r="N27" t="s">
-        <v>262</v>
       </c>
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="S27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="T27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>263</v>
+      </c>
+      <c r="B28" t="s">
+        <v>746</v>
+      </c>
+      <c r="C28" t="s">
+        <v>801</v>
+      </c>
+      <c r="D28" t="s">
+        <v>264</v>
+      </c>
+      <c r="E28" t="s">
         <v>265</v>
       </c>
-      <c r="B28" t="s">
-        <v>750</v>
-      </c>
-      <c r="C28" t="s">
-        <v>795</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
+        <v>886</v>
+      </c>
+      <c r="G28" t="s">
         <v>266</v>
       </c>
-      <c r="E28" t="s">
+      <c r="H28" t="s">
         <v>267</v>
       </c>
-      <c r="F28" t="s">
-        <v>880</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
+        <v>801</v>
+      </c>
+      <c r="J28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K28" t="s">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s">
+        <v>988</v>
+      </c>
+      <c r="M28" t="s">
         <v>268</v>
       </c>
-      <c r="H28" t="s">
+      <c r="N28" t="s">
         <v>269</v>
-      </c>
-      <c r="I28" t="s">
-        <v>795</v>
-      </c>
-      <c r="J28" t="s">
-        <v>266</v>
-      </c>
-      <c r="K28" t="s">
-        <v>267</v>
-      </c>
-      <c r="L28" t="s">
-        <v>982</v>
-      </c>
-      <c r="M28" t="s">
-        <v>270</v>
-      </c>
-      <c r="N28" t="s">
-        <v>271</v>
       </c>
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="S28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="T28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>272</v>
+      </c>
+      <c r="B29" t="s">
+        <v>757</v>
+      </c>
+      <c r="C29" t="s">
+        <v>802</v>
+      </c>
+      <c r="D29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E29" t="s">
         <v>274</v>
       </c>
-      <c r="B29" t="s">
-        <v>750</v>
-      </c>
-      <c r="C29" t="s">
-        <v>796</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
+        <v>887</v>
+      </c>
+      <c r="G29" t="s">
         <v>275</v>
       </c>
-      <c r="E29" t="s">
+      <c r="H29" t="s">
         <v>276</v>
       </c>
-      <c r="F29" t="s">
-        <v>881</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
+        <v>802</v>
+      </c>
+      <c r="J29" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" t="s">
+        <v>274</v>
+      </c>
+      <c r="L29" t="s">
+        <v>989</v>
+      </c>
+      <c r="M29" t="s">
         <v>277</v>
       </c>
-      <c r="H29" t="s">
+      <c r="N29" t="s">
         <v>278</v>
-      </c>
-      <c r="I29" t="s">
-        <v>796</v>
-      </c>
-      <c r="J29" t="s">
-        <v>275</v>
-      </c>
-      <c r="K29" t="s">
-        <v>276</v>
-      </c>
-      <c r="L29" t="s">
-        <v>983</v>
-      </c>
-      <c r="M29" t="s">
-        <v>279</v>
-      </c>
-      <c r="N29" t="s">
-        <v>280</v>
       </c>
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="S29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="T29" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>281</v>
+      </c>
+      <c r="B30" t="s">
+        <v>757</v>
+      </c>
+      <c r="C30" t="s">
+        <v>803</v>
+      </c>
+      <c r="D30" t="s">
+        <v>282</v>
+      </c>
+      <c r="E30" t="s">
         <v>283</v>
       </c>
-      <c r="B30" t="s">
-        <v>750</v>
-      </c>
-      <c r="C30" t="s">
-        <v>797</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
+        <v>888</v>
+      </c>
+      <c r="G30" t="s">
         <v>284</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H30" t="s">
         <v>285</v>
       </c>
-      <c r="F30" t="s">
-        <v>882</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="I30" t="s">
+        <v>803</v>
+      </c>
+      <c r="J30" t="s">
+        <v>282</v>
+      </c>
+      <c r="K30" t="s">
+        <v>283</v>
+      </c>
+      <c r="L30" t="s">
+        <v>990</v>
+      </c>
+      <c r="M30" t="s">
         <v>286</v>
       </c>
-      <c r="H30" t="s">
+      <c r="N30" t="s">
         <v>287</v>
-      </c>
-      <c r="I30" t="s">
-        <v>797</v>
-      </c>
-      <c r="J30" t="s">
-        <v>284</v>
-      </c>
-      <c r="K30" t="s">
-        <v>285</v>
-      </c>
-      <c r="L30" t="s">
-        <v>984</v>
-      </c>
-      <c r="M30" t="s">
-        <v>288</v>
-      </c>
-      <c r="N30" t="s">
-        <v>289</v>
       </c>
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="S30" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="T30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>290</v>
+      </c>
+      <c r="B31" t="s">
+        <v>757</v>
+      </c>
+      <c r="C31" t="s">
+        <v>804</v>
+      </c>
+      <c r="D31" t="s">
+        <v>291</v>
+      </c>
+      <c r="E31" t="s">
         <v>292</v>
       </c>
-      <c r="B31" t="s">
-        <v>750</v>
-      </c>
-      <c r="C31" t="s">
-        <v>798</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
+        <v>889</v>
+      </c>
+      <c r="G31" t="s">
         <v>293</v>
       </c>
-      <c r="E31" t="s">
+      <c r="H31" t="s">
         <v>294</v>
       </c>
-      <c r="F31" t="s">
-        <v>883</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
+        <v>804</v>
+      </c>
+      <c r="J31" t="s">
+        <v>291</v>
+      </c>
+      <c r="K31" t="s">
+        <v>292</v>
+      </c>
+      <c r="L31" t="s">
+        <v>991</v>
+      </c>
+      <c r="M31" t="s">
         <v>295</v>
       </c>
-      <c r="H31" t="s">
+      <c r="N31" t="s">
         <v>296</v>
-      </c>
-      <c r="I31" t="s">
-        <v>798</v>
-      </c>
-      <c r="J31" t="s">
-        <v>293</v>
-      </c>
-      <c r="K31" t="s">
-        <v>294</v>
-      </c>
-      <c r="L31" t="s">
-        <v>985</v>
-      </c>
-      <c r="M31" t="s">
-        <v>297</v>
-      </c>
-      <c r="N31" t="s">
-        <v>298</v>
       </c>
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="S31" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="T31" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>299</v>
+      </c>
+      <c r="B32" t="s">
+        <v>757</v>
+      </c>
+      <c r="C32" t="s">
+        <v>805</v>
+      </c>
+      <c r="D32" t="s">
+        <v>300</v>
+      </c>
+      <c r="E32" t="s">
         <v>301</v>
       </c>
-      <c r="B32" t="s">
-        <v>743</v>
-      </c>
-      <c r="C32" t="s">
-        <v>799</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
+        <v>890</v>
+      </c>
+      <c r="G32" t="s">
         <v>302</v>
       </c>
-      <c r="E32" t="s">
+      <c r="H32" t="s">
         <v>303</v>
       </c>
-      <c r="F32" t="s">
-        <v>884</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
+        <v>805</v>
+      </c>
+      <c r="J32" t="s">
+        <v>300</v>
+      </c>
+      <c r="K32" t="s">
+        <v>301</v>
+      </c>
+      <c r="L32" t="s">
+        <v>992</v>
+      </c>
+      <c r="M32" t="s">
         <v>304</v>
       </c>
-      <c r="H32" t="s">
+      <c r="N32" t="s">
         <v>305</v>
-      </c>
-      <c r="I32" t="s">
-        <v>942</v>
-      </c>
-      <c r="J32" t="s">
-        <v>306</v>
-      </c>
-      <c r="K32" t="s">
-        <v>307</v>
-      </c>
-      <c r="L32" t="s">
-        <v>986</v>
-      </c>
-      <c r="M32" t="s">
-        <v>308</v>
-      </c>
-      <c r="N32" t="s">
-        <v>309</v>
       </c>
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="S32" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="T32" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>308</v>
+      </c>
+      <c r="B33" t="s">
+        <v>750</v>
+      </c>
+      <c r="C33" t="s">
+        <v>806</v>
+      </c>
+      <c r="D33" t="s">
+        <v>309</v>
+      </c>
+      <c r="E33" t="s">
+        <v>310</v>
+      </c>
+      <c r="F33" t="s">
+        <v>891</v>
+      </c>
+      <c r="G33" t="s">
+        <v>311</v>
+      </c>
+      <c r="H33" t="s">
         <v>312</v>
       </c>
-      <c r="B33" t="s">
-        <v>743</v>
-      </c>
-      <c r="C33" t="s">
-        <v>800</v>
-      </c>
-      <c r="D33" t="s">
-        <v>313</v>
-      </c>
-      <c r="E33" t="s">
-        <v>314</v>
-      </c>
-      <c r="F33" t="s">
-        <v>885</v>
-      </c>
-      <c r="G33" t="s">
-        <v>315</v>
-      </c>
-      <c r="H33" t="s">
-        <v>316</v>
-      </c>
       <c r="I33" t="s">
-        <v>800</v>
+        <v>949</v>
       </c>
       <c r="J33" t="s">
         <v>313</v>
@@ -5151,413 +5157,420 @@
         <v>314</v>
       </c>
       <c r="L33" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="M33" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="S33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="T33" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>319</v>
+      </c>
+      <c r="B34" t="s">
+        <v>750</v>
+      </c>
+      <c r="C34" t="s">
+        <v>807</v>
+      </c>
+      <c r="D34" t="s">
+        <v>320</v>
+      </c>
+      <c r="E34" t="s">
         <v>321</v>
       </c>
-      <c r="B34" t="s">
-        <v>751</v>
-      </c>
-      <c r="C34" t="s">
-        <v>801</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
+        <v>892</v>
+      </c>
+      <c r="G34" t="s">
         <v>322</v>
       </c>
-      <c r="E34" t="s">
+      <c r="H34" t="s">
         <v>323</v>
       </c>
-      <c r="F34" t="s">
-        <v>886</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
+        <v>807</v>
+      </c>
+      <c r="J34" t="s">
+        <v>320</v>
+      </c>
+      <c r="K34" t="s">
+        <v>321</v>
+      </c>
+      <c r="L34" t="s">
+        <v>994</v>
+      </c>
+      <c r="M34" t="s">
         <v>324</v>
       </c>
-      <c r="H34" t="s">
+      <c r="N34" t="s">
         <v>325</v>
-      </c>
-      <c r="I34" t="s">
-        <v>801</v>
-      </c>
-      <c r="J34" t="s">
-        <v>322</v>
-      </c>
-      <c r="K34" t="s">
-        <v>323</v>
-      </c>
-      <c r="L34" t="s">
-        <v>988</v>
-      </c>
-      <c r="M34" t="s">
-        <v>326</v>
-      </c>
-      <c r="N34" t="s">
-        <v>327</v>
       </c>
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="S34" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="T34" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>328</v>
+      </c>
+      <c r="B35" t="s">
+        <v>758</v>
+      </c>
+      <c r="C35" t="s">
+        <v>808</v>
+      </c>
+      <c r="D35" t="s">
+        <v>329</v>
+      </c>
+      <c r="E35" t="s">
         <v>330</v>
       </c>
-      <c r="B35" t="s">
-        <v>752</v>
-      </c>
-      <c r="C35" t="s">
-        <v>802</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
+        <v>893</v>
+      </c>
+      <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="E35" t="s">
+      <c r="H35" t="s">
         <v>332</v>
       </c>
-      <c r="F35" t="s">
-        <v>887</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="I35" t="s">
+        <v>808</v>
+      </c>
+      <c r="J35" t="s">
+        <v>329</v>
+      </c>
+      <c r="K35" t="s">
+        <v>330</v>
+      </c>
+      <c r="L35" t="s">
+        <v>995</v>
+      </c>
+      <c r="M35" t="s">
         <v>333</v>
       </c>
-      <c r="H35" t="s">
+      <c r="N35" t="s">
         <v>334</v>
-      </c>
-      <c r="I35" t="s">
-        <v>802</v>
-      </c>
-      <c r="J35" t="s">
-        <v>335</v>
-      </c>
-      <c r="K35" t="s">
-        <v>332</v>
-      </c>
-      <c r="L35" t="s">
-        <v>989</v>
-      </c>
-      <c r="M35" t="s">
-        <v>336</v>
-      </c>
-      <c r="N35" t="s">
-        <v>337</v>
       </c>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="S35" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="T35" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>337</v>
+      </c>
+      <c r="B36" t="s">
+        <v>759</v>
+      </c>
+      <c r="C36" t="s">
+        <v>809</v>
+      </c>
+      <c r="D36" t="s">
+        <v>338</v>
+      </c>
+      <c r="E36" t="s">
+        <v>339</v>
+      </c>
+      <c r="F36" t="s">
+        <v>894</v>
+      </c>
+      <c r="G36" t="s">
         <v>340</v>
       </c>
-      <c r="B36" t="s">
-        <v>753</v>
-      </c>
-      <c r="C36" t="s">
-        <v>803</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="H36" t="s">
         <v>341</v>
       </c>
-      <c r="E36" t="s">
+      <c r="I36" t="s">
+        <v>809</v>
+      </c>
+      <c r="J36" t="s">
         <v>342</v>
       </c>
-      <c r="F36" t="s">
-        <v>888</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="K36" t="s">
+        <v>339</v>
+      </c>
+      <c r="L36" t="s">
+        <v>996</v>
+      </c>
+      <c r="M36" t="s">
         <v>343</v>
       </c>
-      <c r="H36" t="s">
+      <c r="N36" t="s">
         <v>344</v>
-      </c>
-      <c r="I36" t="s">
-        <v>803</v>
-      </c>
-      <c r="J36" t="s">
-        <v>341</v>
-      </c>
-      <c r="K36" t="s">
-        <v>342</v>
-      </c>
-      <c r="L36" t="s">
-        <v>990</v>
-      </c>
-      <c r="M36" t="s">
-        <v>345</v>
-      </c>
-      <c r="N36" t="s">
-        <v>346</v>
       </c>
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="S36" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="T36" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>347</v>
+      </c>
+      <c r="B37" t="s">
+        <v>760</v>
+      </c>
+      <c r="C37" t="s">
+        <v>810</v>
+      </c>
+      <c r="D37" t="s">
+        <v>348</v>
+      </c>
+      <c r="E37" t="s">
         <v>349</v>
       </c>
-      <c r="B37" t="s">
-        <v>751</v>
-      </c>
-      <c r="C37" t="s">
-        <v>804</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
+        <v>895</v>
+      </c>
+      <c r="G37" t="s">
         <v>350</v>
       </c>
-      <c r="E37" t="s">
+      <c r="H37" t="s">
         <v>351</v>
       </c>
-      <c r="F37" t="s">
-        <v>889</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="I37" t="s">
+        <v>810</v>
+      </c>
+      <c r="J37" t="s">
+        <v>348</v>
+      </c>
+      <c r="K37" t="s">
+        <v>349</v>
+      </c>
+      <c r="L37" t="s">
+        <v>997</v>
+      </c>
+      <c r="M37" t="s">
         <v>352</v>
       </c>
-      <c r="H37" t="s">
+      <c r="N37" t="s">
         <v>353</v>
-      </c>
-      <c r="I37" t="s">
-        <v>804</v>
-      </c>
-      <c r="J37" t="s">
-        <v>354</v>
-      </c>
-      <c r="K37" t="s">
-        <v>351</v>
-      </c>
-      <c r="L37" t="s">
-        <v>991</v>
-      </c>
-      <c r="M37" t="s">
-        <v>355</v>
-      </c>
-      <c r="N37" t="s">
-        <v>356</v>
       </c>
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="S37" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="T37" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>356</v>
+      </c>
+      <c r="B38" t="s">
+        <v>758</v>
+      </c>
+      <c r="C38" t="s">
+        <v>811</v>
+      </c>
+      <c r="D38" t="s">
+        <v>357</v>
+      </c>
+      <c r="E38" t="s">
+        <v>358</v>
+      </c>
+      <c r="F38" t="s">
+        <v>896</v>
+      </c>
+      <c r="G38" t="s">
         <v>359</v>
       </c>
-      <c r="B38" t="s">
-        <v>754</v>
-      </c>
-      <c r="C38" t="s">
-        <v>805</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="H38" t="s">
         <v>360</v>
       </c>
-      <c r="E38" t="s">
+      <c r="I38" t="s">
+        <v>811</v>
+      </c>
+      <c r="J38" t="s">
         <v>361</v>
       </c>
-      <c r="F38" t="s">
-        <v>890</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="K38" t="s">
+        <v>358</v>
+      </c>
+      <c r="L38" t="s">
+        <v>998</v>
+      </c>
+      <c r="M38" t="s">
         <v>362</v>
       </c>
-      <c r="H38" t="s">
+      <c r="N38" t="s">
         <v>363</v>
-      </c>
-      <c r="I38" t="s">
-        <v>805</v>
-      </c>
-      <c r="J38" t="s">
-        <v>360</v>
-      </c>
-      <c r="K38" t="s">
-        <v>361</v>
-      </c>
-      <c r="L38" t="s">
-        <v>992</v>
-      </c>
-      <c r="M38" t="s">
-        <v>364</v>
-      </c>
-      <c r="N38" t="s">
-        <v>365</v>
       </c>
       <c r="P38"/>
       <c r="Q38"/>
       <c r="R38" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="S38" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="T38" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>366</v>
+      </c>
+      <c r="B39" t="s">
+        <v>761</v>
+      </c>
+      <c r="C39" t="s">
+        <v>812</v>
+      </c>
+      <c r="D39" t="s">
+        <v>367</v>
+      </c>
+      <c r="E39" t="s">
         <v>368</v>
       </c>
-      <c r="B39" t="s">
-        <v>751</v>
-      </c>
-      <c r="C39" t="s">
-        <v>806</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
+        <v>897</v>
+      </c>
+      <c r="G39" t="s">
         <v>369</v>
       </c>
-      <c r="E39" t="s">
+      <c r="H39" t="s">
         <v>370</v>
       </c>
-      <c r="F39" t="s">
-        <v>891</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="I39" t="s">
+        <v>812</v>
+      </c>
+      <c r="J39" t="s">
+        <v>367</v>
+      </c>
+      <c r="K39" t="s">
+        <v>368</v>
+      </c>
+      <c r="L39" t="s">
+        <v>999</v>
+      </c>
+      <c r="M39" t="s">
         <v>371</v>
       </c>
-      <c r="H39" t="s">
+      <c r="N39" t="s">
         <v>372</v>
-      </c>
-      <c r="I39" t="s">
-        <v>806</v>
-      </c>
-      <c r="J39" t="s">
-        <v>369</v>
-      </c>
-      <c r="K39" t="s">
-        <v>370</v>
-      </c>
-      <c r="L39" t="s">
-        <v>993</v>
-      </c>
-      <c r="M39" t="s">
-        <v>373</v>
-      </c>
-      <c r="N39" t="s">
-        <v>374</v>
       </c>
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="S39" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="T39" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>375</v>
+      </c>
+      <c r="B40" t="s">
+        <v>758</v>
+      </c>
+      <c r="C40" t="s">
+        <v>813</v>
+      </c>
+      <c r="D40" t="s">
+        <v>376</v>
+      </c>
+      <c r="E40" t="s">
         <v>377</v>
       </c>
-      <c r="B40" t="s">
-        <v>753</v>
-      </c>
-      <c r="C40" t="s">
-        <v>807</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
+        <v>898</v>
+      </c>
+      <c r="G40" t="s">
         <v>378</v>
       </c>
-      <c r="E40" t="s">
+      <c r="H40" t="s">
         <v>379</v>
       </c>
-      <c r="F40" t="s">
-        <v>892</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="I40" t="s">
+        <v>813</v>
+      </c>
+      <c r="J40" t="s">
+        <v>376</v>
+      </c>
+      <c r="K40" t="s">
+        <v>377</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1000</v>
+      </c>
+      <c r="M40" t="s">
         <v>380</v>
       </c>
-      <c r="H40" t="s">
+      <c r="N40" t="s">
         <v>381</v>
-      </c>
-      <c r="I40" t="s">
-        <v>807</v>
-      </c>
-      <c r="J40" t="s">
-        <v>378</v>
-      </c>
-      <c r="K40" t="s">
-        <v>379</v>
-      </c>
-      <c r="L40" t="s">
-        <v>994</v>
-      </c>
-      <c r="M40" t="s">
-        <v>382</v>
-      </c>
-      <c r="N40" t="s">
-        <v>383</v>
       </c>
       <c r="P40"/>
       <c r="Q40"/>
-      <c r="S40"/>
-      <c r="T40"/>
+      <c r="R40" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S40" t="s">
+        <v>382</v>
+      </c>
+      <c r="T40" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>384</v>
       </c>
       <c r="B41" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="C41" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="D41" t="s">
         <v>385</v>
@@ -5566,7 +5579,7 @@
         <v>386</v>
       </c>
       <c r="F41" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="G41" t="s">
         <v>387</v>
@@ -5575,7 +5588,7 @@
         <v>388</v>
       </c>
       <c r="I41" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="J41" t="s">
         <v>385</v>
@@ -5583,8 +5596,15 @@
       <c r="K41" t="s">
         <v>386</v>
       </c>
-      <c r="M41"/>
-      <c r="N41"/>
+      <c r="L41" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M41" t="s">
+        <v>389</v>
+      </c>
+      <c r="N41" t="s">
+        <v>390</v>
+      </c>
       <c r="P41"/>
       <c r="Q41"/>
       <c r="S41"/>
@@ -5592,37 +5612,37 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B42" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="C42" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="D42" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E42" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F42" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="G42" t="s">
+        <v>394</v>
+      </c>
+      <c r="H42" t="s">
+        <v>395</v>
+      </c>
+      <c r="I42" t="s">
+        <v>815</v>
+      </c>
+      <c r="J42" t="s">
         <v>392</v>
       </c>
-      <c r="H42" t="s">
+      <c r="K42" t="s">
         <v>393</v>
-      </c>
-      <c r="I42" t="s">
-        <v>809</v>
-      </c>
-      <c r="J42" t="s">
-        <v>390</v>
-      </c>
-      <c r="K42" t="s">
-        <v>391</v>
       </c>
       <c r="M42"/>
       <c r="N42"/>
@@ -5633,167 +5653,153 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B43" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="C43" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="D43" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E43" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F43" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="G43" t="s">
+        <v>399</v>
+      </c>
+      <c r="H43" t="s">
+        <v>400</v>
+      </c>
+      <c r="I43" t="s">
+        <v>816</v>
+      </c>
+      <c r="J43" t="s">
         <v>397</v>
       </c>
-      <c r="H43" t="s">
+      <c r="K43" t="s">
         <v>398</v>
       </c>
-      <c r="I43" t="s">
-        <v>943</v>
-      </c>
-      <c r="J43" t="s">
-        <v>395</v>
-      </c>
-      <c r="K43" t="s">
-        <v>396</v>
-      </c>
-      <c r="L43" t="s">
-        <v>995</v>
-      </c>
-      <c r="M43" t="s">
-        <v>399</v>
-      </c>
-      <c r="N43" t="s">
-        <v>400</v>
-      </c>
+      <c r="M43"/>
+      <c r="N43"/>
       <c r="P43"/>
       <c r="Q43"/>
-      <c r="R43" t="s">
-        <v>1065</v>
-      </c>
-      <c r="S43" t="s">
-        <v>401</v>
-      </c>
-      <c r="T43" t="s">
-        <v>402</v>
-      </c>
+      <c r="S43"/>
+      <c r="T43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>401</v>
+      </c>
+      <c r="B44" t="s">
+        <v>764</v>
+      </c>
+      <c r="C44" t="s">
+        <v>817</v>
+      </c>
+      <c r="D44" t="s">
+        <v>402</v>
+      </c>
+      <c r="E44" t="s">
         <v>403</v>
       </c>
-      <c r="B44" t="s">
-        <v>743</v>
-      </c>
-      <c r="C44" t="s">
-        <v>811</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
+        <v>902</v>
+      </c>
+      <c r="G44" t="s">
         <v>404</v>
       </c>
-      <c r="E44" t="s">
+      <c r="H44" t="s">
         <v>405</v>
       </c>
-      <c r="F44" t="s">
-        <v>896</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="I44" t="s">
+        <v>950</v>
+      </c>
+      <c r="J44" t="s">
+        <v>402</v>
+      </c>
+      <c r="K44" t="s">
+        <v>403</v>
+      </c>
+      <c r="L44" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M44" t="s">
         <v>406</v>
       </c>
-      <c r="H44" t="s">
+      <c r="N44" t="s">
         <v>407</v>
-      </c>
-      <c r="I44" t="s">
-        <v>811</v>
-      </c>
-      <c r="J44" t="s">
-        <v>408</v>
-      </c>
-      <c r="K44" t="s">
-        <v>405</v>
-      </c>
-      <c r="L44" t="s">
-        <v>996</v>
-      </c>
-      <c r="M44" t="s">
-        <v>409</v>
-      </c>
-      <c r="N44" t="s">
-        <v>410</v>
       </c>
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="S44" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="T44" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>410</v>
+      </c>
+      <c r="B45" t="s">
+        <v>750</v>
+      </c>
+      <c r="C45" t="s">
+        <v>818</v>
+      </c>
+      <c r="D45" t="s">
+        <v>411</v>
+      </c>
+      <c r="E45" t="s">
+        <v>412</v>
+      </c>
+      <c r="F45" t="s">
+        <v>903</v>
+      </c>
+      <c r="G45" t="s">
         <v>413</v>
       </c>
-      <c r="B45" t="s">
-        <v>743</v>
-      </c>
-      <c r="C45" t="s">
-        <v>812</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="H45" t="s">
         <v>414</v>
       </c>
-      <c r="E45" t="s">
+      <c r="I45" t="s">
+        <v>818</v>
+      </c>
+      <c r="J45" t="s">
         <v>415</v>
       </c>
-      <c r="F45" t="s">
-        <v>897</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="K45" t="s">
+        <v>412</v>
+      </c>
+      <c r="L45" t="s">
+        <v>1003</v>
+      </c>
+      <c r="M45" t="s">
         <v>416</v>
       </c>
-      <c r="H45" t="s">
+      <c r="N45" t="s">
         <v>417</v>
-      </c>
-      <c r="I45" t="s">
-        <v>812</v>
-      </c>
-      <c r="J45" t="s">
-        <v>414</v>
-      </c>
-      <c r="K45" t="s">
-        <v>415</v>
-      </c>
-      <c r="L45" t="s">
-        <v>997</v>
-      </c>
-      <c r="M45" t="s">
-        <v>418</v>
-      </c>
-      <c r="N45" t="s">
-        <v>419</v>
       </c>
       <c r="P45"/>
       <c r="Q45"/>
       <c r="R45" t="s">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="S45" t="s">
-        <v>319</v>
+        <v>418</v>
       </c>
       <c r="T45" t="s">
-        <v>320</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46">
@@ -5801,10 +5807,10 @@
         <v>420</v>
       </c>
       <c r="B46" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="C46" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="D46" t="s">
         <v>421</v>
@@ -5813,7 +5819,7 @@
         <v>422</v>
       </c>
       <c r="F46" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="G46" t="s">
         <v>423</v>
@@ -5822,7 +5828,7 @@
         <v>424</v>
       </c>
       <c r="I46" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="J46" t="s">
         <v>421</v>
@@ -5831,7 +5837,7 @@
         <v>422</v>
       </c>
       <c r="L46" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="M46" t="s">
         <v>425</v>
@@ -5842,72 +5848,79 @@
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="S46" t="s">
-        <v>427</v>
+        <v>326</v>
       </c>
       <c r="T46" t="s">
-        <v>428</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>427</v>
+      </c>
+      <c r="B47" t="s">
+        <v>750</v>
+      </c>
+      <c r="C47" t="s">
+        <v>820</v>
+      </c>
+      <c r="D47" t="s">
+        <v>428</v>
+      </c>
+      <c r="E47" t="s">
         <v>429</v>
       </c>
-      <c r="B47" t="s">
-        <v>739</v>
-      </c>
-      <c r="C47" t="s">
-        <v>814</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
+        <v>905</v>
+      </c>
+      <c r="G47" t="s">
         <v>430</v>
       </c>
-      <c r="E47" t="s">
+      <c r="H47" t="s">
         <v>431</v>
       </c>
-      <c r="F47" t="s">
-        <v>899</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="I47" t="s">
+        <v>820</v>
+      </c>
+      <c r="J47" t="s">
+        <v>428</v>
+      </c>
+      <c r="K47" t="s">
+        <v>429</v>
+      </c>
+      <c r="L47" t="s">
+        <v>1005</v>
+      </c>
+      <c r="M47" t="s">
         <v>432</v>
       </c>
-      <c r="H47" t="s">
+      <c r="N47" t="s">
         <v>433</v>
-      </c>
-      <c r="I47" t="s">
-        <v>814</v>
-      </c>
-      <c r="J47" t="s">
-        <v>430</v>
-      </c>
-      <c r="K47" t="s">
-        <v>431</v>
-      </c>
-      <c r="L47" t="s">
-        <v>999</v>
-      </c>
-      <c r="M47" t="s">
-        <v>434</v>
-      </c>
-      <c r="N47" t="s">
-        <v>435</v>
       </c>
       <c r="P47"/>
       <c r="Q47"/>
-      <c r="S47"/>
-      <c r="T47"/>
+      <c r="R47" t="s">
+        <v>1074</v>
+      </c>
+      <c r="S47" t="s">
+        <v>434</v>
+      </c>
+      <c r="T47" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>436</v>
       </c>
       <c r="B48" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="C48" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="D48" t="s">
         <v>437</v>
@@ -5916,7 +5929,7 @@
         <v>438</v>
       </c>
       <c r="F48" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="G48" t="s">
         <v>439</v>
@@ -5925,126 +5938,119 @@
         <v>440</v>
       </c>
       <c r="I48" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="J48" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K48" t="s">
         <v>438</v>
       </c>
       <c r="L48" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="M48" t="s">
+        <v>441</v>
+      </c>
+      <c r="N48" t="s">
         <v>442</v>
-      </c>
-      <c r="N48" t="s">
-        <v>443</v>
       </c>
       <c r="P48"/>
       <c r="Q48"/>
-      <c r="R48" t="s">
-        <v>1068</v>
-      </c>
-      <c r="S48" t="s">
-        <v>444</v>
-      </c>
-      <c r="T48" t="s">
-        <v>445</v>
-      </c>
+      <c r="S48"/>
+      <c r="T48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>443</v>
+      </c>
+      <c r="B49" t="s">
+        <v>765</v>
+      </c>
+      <c r="C49" t="s">
+        <v>822</v>
+      </c>
+      <c r="D49" t="s">
+        <v>444</v>
+      </c>
+      <c r="E49" t="s">
+        <v>445</v>
+      </c>
+      <c r="F49" t="s">
+        <v>907</v>
+      </c>
+      <c r="G49" t="s">
         <v>446</v>
       </c>
-      <c r="B49" t="s">
-        <v>759</v>
-      </c>
-      <c r="C49" t="s">
-        <v>816</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="H49" t="s">
         <v>447</v>
       </c>
-      <c r="E49" t="s">
+      <c r="I49" t="s">
+        <v>822</v>
+      </c>
+      <c r="J49" t="s">
         <v>448</v>
       </c>
-      <c r="F49" t="s">
-        <v>901</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="K49" t="s">
+        <v>445</v>
+      </c>
+      <c r="L49" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M49" t="s">
         <v>449</v>
       </c>
-      <c r="H49" t="s">
+      <c r="N49" t="s">
         <v>450</v>
-      </c>
-      <c r="I49" t="s">
-        <v>816</v>
-      </c>
-      <c r="J49" t="s">
-        <v>447</v>
-      </c>
-      <c r="K49" t="s">
-        <v>448</v>
-      </c>
-      <c r="L49" t="s">
-        <v>1001</v>
-      </c>
-      <c r="M49" t="s">
-        <v>451</v>
-      </c>
-      <c r="N49" t="s">
-        <v>452</v>
       </c>
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="S49" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="T49" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>453</v>
+      </c>
+      <c r="B50" t="s">
+        <v>766</v>
+      </c>
+      <c r="C50" t="s">
+        <v>823</v>
+      </c>
+      <c r="D50" t="s">
+        <v>454</v>
+      </c>
+      <c r="E50" t="s">
         <v>455</v>
       </c>
-      <c r="B50" t="s">
-        <v>760</v>
-      </c>
-      <c r="C50" t="s">
-        <v>817</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
+        <v>908</v>
+      </c>
+      <c r="G50" t="s">
         <v>456</v>
       </c>
-      <c r="E50" t="s">
+      <c r="H50" t="s">
         <v>457</v>
       </c>
-      <c r="F50" t="s">
-        <v>901</v>
-      </c>
-      <c r="G50" t="s">
-        <v>449</v>
-      </c>
-      <c r="H50" t="s">
-        <v>450</v>
-      </c>
       <c r="I50" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="J50" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K50" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L50" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="M50" t="s">
         <v>458</v>
@@ -6055,7 +6061,7 @@
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="S50" t="s">
         <v>460</v>
@@ -6069,10 +6075,10 @@
         <v>462</v>
       </c>
       <c r="B51" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="C51" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="D51" t="s">
         <v>463</v>
@@ -6081,16 +6087,16 @@
         <v>464</v>
       </c>
       <c r="F51" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="G51" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="H51" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="I51" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="J51" t="s">
         <v>463</v>
@@ -6099,24 +6105,24 @@
         <v>464</v>
       </c>
       <c r="L51" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="M51" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N51" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
       <c r="S51" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="T51" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
     </row>
     <row r="52">
@@ -6124,10 +6130,10 @@
         <v>469</v>
       </c>
       <c r="B52" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="C52" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="D52" t="s">
         <v>470</v>
@@ -6136,16 +6142,16 @@
         <v>471</v>
       </c>
       <c r="F52" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="G52" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="H52" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="I52" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="J52" t="s">
         <v>470</v>
@@ -6154,138 +6160,145 @@
         <v>471</v>
       </c>
       <c r="L52" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="M52" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="N52" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="S52" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="T52" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>476</v>
+      </c>
+      <c r="B53" t="s">
+        <v>766</v>
+      </c>
+      <c r="C53" t="s">
+        <v>826</v>
+      </c>
+      <c r="D53" t="s">
+        <v>477</v>
+      </c>
+      <c r="E53" t="s">
+        <v>478</v>
+      </c>
+      <c r="F53" t="s">
+        <v>909</v>
+      </c>
+      <c r="G53" t="s">
         <v>472</v>
       </c>
-      <c r="B53" t="s">
-        <v>754</v>
-      </c>
-      <c r="C53" t="s">
-        <v>820</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="H53" t="s">
         <v>473</v>
       </c>
-      <c r="E53" t="s">
+      <c r="I53" t="s">
+        <v>826</v>
+      </c>
+      <c r="J53" t="s">
+        <v>477</v>
+      </c>
+      <c r="K53" t="s">
+        <v>478</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M53" t="s">
         <v>474</v>
       </c>
-      <c r="F53" t="s">
-        <v>902</v>
-      </c>
-      <c r="G53" t="s">
-        <v>465</v>
-      </c>
-      <c r="H53" t="s">
-        <v>466</v>
-      </c>
-      <c r="I53" t="s">
-        <v>820</v>
-      </c>
-      <c r="J53" t="s">
-        <v>473</v>
-      </c>
-      <c r="K53" t="s">
-        <v>474</v>
-      </c>
-      <c r="L53" t="s">
-        <v>1003</v>
-      </c>
-      <c r="M53" t="s">
-        <v>467</v>
-      </c>
       <c r="N53" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="S53" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="T53" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>479</v>
+      </c>
+      <c r="B54" t="s">
+        <v>761</v>
+      </c>
+      <c r="C54" t="s">
+        <v>827</v>
+      </c>
+      <c r="D54" t="s">
+        <v>480</v>
+      </c>
+      <c r="E54" t="s">
+        <v>481</v>
+      </c>
+      <c r="F54" t="s">
+        <v>909</v>
+      </c>
+      <c r="G54" t="s">
+        <v>472</v>
+      </c>
+      <c r="H54" t="s">
+        <v>473</v>
+      </c>
+      <c r="I54" t="s">
+        <v>827</v>
+      </c>
+      <c r="J54" t="s">
+        <v>480</v>
+      </c>
+      <c r="K54" t="s">
+        <v>481</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M54" t="s">
+        <v>474</v>
+      </c>
+      <c r="N54" t="s">
         <v>475</v>
-      </c>
-      <c r="B54" t="s">
-        <v>750</v>
-      </c>
-      <c r="C54" t="s">
-        <v>821</v>
-      </c>
-      <c r="D54" t="s">
-        <v>476</v>
-      </c>
-      <c r="E54" t="s">
-        <v>477</v>
-      </c>
-      <c r="F54" t="s">
-        <v>903</v>
-      </c>
-      <c r="G54" t="s">
-        <v>478</v>
-      </c>
-      <c r="H54" t="s">
-        <v>479</v>
-      </c>
-      <c r="I54" t="s">
-        <v>821</v>
-      </c>
-      <c r="J54" t="s">
-        <v>476</v>
-      </c>
-      <c r="K54" t="s">
-        <v>477</v>
-      </c>
-      <c r="L54" t="s">
-        <v>1004</v>
-      </c>
-      <c r="M54" t="s">
-        <v>480</v>
-      </c>
-      <c r="N54" t="s">
-        <v>481</v>
       </c>
       <c r="P54"/>
       <c r="Q54"/>
-      <c r="S54"/>
-      <c r="T54"/>
+      <c r="R54" t="s">
+        <v>1076</v>
+      </c>
+      <c r="S54" t="s">
+        <v>460</v>
+      </c>
+      <c r="T54" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>482</v>
       </c>
       <c r="B55" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C55" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="D55" t="s">
         <v>483</v>
@@ -6294,7 +6307,7 @@
         <v>484</v>
       </c>
       <c r="F55" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="G55" t="s">
         <v>485</v>
@@ -6303,7 +6316,7 @@
         <v>486</v>
       </c>
       <c r="I55" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="J55" t="s">
         <v>483</v>
@@ -6312,7 +6325,7 @@
         <v>484</v>
       </c>
       <c r="L55" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="M55" t="s">
         <v>487</v>
@@ -6322,73 +6335,73 @@
       </c>
       <c r="P55"/>
       <c r="Q55"/>
-      <c r="R55" t="s">
-        <v>1071</v>
-      </c>
-      <c r="S55" t="s">
-        <v>489</v>
-      </c>
-      <c r="T55" t="s">
-        <v>490</v>
-      </c>
+      <c r="S55"/>
+      <c r="T55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>489</v>
+      </c>
+      <c r="B56" t="s">
+        <v>761</v>
+      </c>
+      <c r="C56" t="s">
+        <v>829</v>
+      </c>
+      <c r="D56" t="s">
+        <v>490</v>
+      </c>
+      <c r="E56" t="s">
         <v>491</v>
       </c>
-      <c r="B56" t="s">
-        <v>750</v>
-      </c>
-      <c r="C56" t="s">
-        <v>823</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
+        <v>911</v>
+      </c>
+      <c r="G56" t="s">
         <v>492</v>
       </c>
-      <c r="E56" t="s">
+      <c r="H56" t="s">
         <v>493</v>
       </c>
-      <c r="F56" t="s">
-        <v>905</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="I56" t="s">
+        <v>829</v>
+      </c>
+      <c r="J56" t="s">
+        <v>490</v>
+      </c>
+      <c r="K56" t="s">
+        <v>491</v>
+      </c>
+      <c r="L56" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M56" t="s">
         <v>494</v>
       </c>
-      <c r="H56" t="s">
+      <c r="N56" t="s">
         <v>495</v>
-      </c>
-      <c r="I56" t="s">
-        <v>823</v>
-      </c>
-      <c r="J56" t="s">
-        <v>492</v>
-      </c>
-      <c r="K56" t="s">
-        <v>493</v>
-      </c>
-      <c r="L56" t="s">
-        <v>1006</v>
-      </c>
-      <c r="M56" t="s">
-        <v>496</v>
-      </c>
-      <c r="N56" t="s">
-        <v>497</v>
       </c>
       <c r="P56"/>
       <c r="Q56"/>
-      <c r="S56"/>
-      <c r="T56"/>
+      <c r="R56" t="s">
+        <v>1078</v>
+      </c>
+      <c r="S56" t="s">
+        <v>496</v>
+      </c>
+      <c r="T56" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>498</v>
       </c>
       <c r="B57" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="C57" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="D57" t="s">
         <v>499</v>
@@ -6397,7 +6410,7 @@
         <v>500</v>
       </c>
       <c r="F57" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="G57" t="s">
         <v>501</v>
@@ -6406,7 +6419,7 @@
         <v>502</v>
       </c>
       <c r="I57" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="J57" t="s">
         <v>499</v>
@@ -6415,7 +6428,7 @@
         <v>500</v>
       </c>
       <c r="L57" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="M57" t="s">
         <v>503</v>
@@ -6433,10 +6446,10 @@
         <v>505</v>
       </c>
       <c r="B58" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C58" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="D58" t="s">
         <v>506</v>
@@ -6445,7 +6458,7 @@
         <v>507</v>
       </c>
       <c r="F58" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="G58" t="s">
         <v>508</v>
@@ -6454,7 +6467,7 @@
         <v>509</v>
       </c>
       <c r="I58" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="J58" t="s">
         <v>506</v>
@@ -6463,7 +6476,7 @@
         <v>507</v>
       </c>
       <c r="L58" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="M58" t="s">
         <v>510</v>
@@ -6481,10 +6494,10 @@
         <v>512</v>
       </c>
       <c r="B59" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="C59" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="D59" t="s">
         <v>513</v>
@@ -6493,7 +6506,7 @@
         <v>514</v>
       </c>
       <c r="F59" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="G59" t="s">
         <v>515</v>
@@ -6502,7 +6515,7 @@
         <v>516</v>
       </c>
       <c r="I59" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="J59" t="s">
         <v>513</v>
@@ -6511,7 +6524,7 @@
         <v>514</v>
       </c>
       <c r="L59" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="M59" t="s">
         <v>517</v>
@@ -6521,73 +6534,73 @@
       </c>
       <c r="P59"/>
       <c r="Q59"/>
-      <c r="R59" t="s">
-        <v>1072</v>
-      </c>
-      <c r="S59" t="s">
-        <v>519</v>
-      </c>
-      <c r="T59" t="s">
-        <v>520</v>
-      </c>
+      <c r="S59"/>
+      <c r="T59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>519</v>
+      </c>
+      <c r="B60" t="s">
+        <v>766</v>
+      </c>
+      <c r="C60" t="s">
+        <v>833</v>
+      </c>
+      <c r="D60" t="s">
+        <v>520</v>
+      </c>
+      <c r="E60" t="s">
         <v>521</v>
       </c>
-      <c r="B60" t="s">
-        <v>750</v>
-      </c>
-      <c r="C60" t="s">
-        <v>827</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
+        <v>915</v>
+      </c>
+      <c r="G60" t="s">
         <v>522</v>
       </c>
-      <c r="E60" t="s">
+      <c r="H60" t="s">
         <v>523</v>
       </c>
-      <c r="F60" t="s">
-        <v>909</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="I60" t="s">
+        <v>833</v>
+      </c>
+      <c r="J60" t="s">
+        <v>520</v>
+      </c>
+      <c r="K60" t="s">
+        <v>521</v>
+      </c>
+      <c r="L60" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M60" t="s">
         <v>524</v>
       </c>
-      <c r="H60" t="s">
+      <c r="N60" t="s">
         <v>525</v>
-      </c>
-      <c r="I60" t="s">
-        <v>827</v>
-      </c>
-      <c r="J60" t="s">
-        <v>522</v>
-      </c>
-      <c r="K60" t="s">
-        <v>523</v>
-      </c>
-      <c r="L60" t="s">
-        <v>1010</v>
-      </c>
-      <c r="M60" t="s">
-        <v>526</v>
-      </c>
-      <c r="N60" t="s">
-        <v>527</v>
       </c>
       <c r="P60"/>
       <c r="Q60"/>
-      <c r="S60"/>
-      <c r="T60"/>
+      <c r="R60" t="s">
+        <v>1079</v>
+      </c>
+      <c r="S60" t="s">
+        <v>526</v>
+      </c>
+      <c r="T60" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>528</v>
       </c>
       <c r="B61" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="C61" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="D61" t="s">
         <v>529</v>
@@ -6596,7 +6609,7 @@
         <v>530</v>
       </c>
       <c r="F61" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="G61" t="s">
         <v>531</v>
@@ -6605,7 +6618,7 @@
         <v>532</v>
       </c>
       <c r="I61" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="J61" t="s">
         <v>529</v>
@@ -6614,7 +6627,7 @@
         <v>530</v>
       </c>
       <c r="L61" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="M61" t="s">
         <v>533</v>
@@ -6632,10 +6645,10 @@
         <v>535</v>
       </c>
       <c r="B62" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
       <c r="C62" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="D62" t="s">
         <v>536</v>
@@ -6644,7 +6657,7 @@
         <v>537</v>
       </c>
       <c r="F62" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="G62" t="s">
         <v>538</v>
@@ -6653,117 +6666,110 @@
         <v>539</v>
       </c>
       <c r="I62" t="s">
-        <v>944</v>
+        <v>835</v>
       </c>
       <c r="J62" t="s">
+        <v>536</v>
+      </c>
+      <c r="K62" t="s">
+        <v>537</v>
+      </c>
+      <c r="L62" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M62" t="s">
         <v>540</v>
       </c>
-      <c r="K62" t="s">
+      <c r="N62" t="s">
         <v>541</v>
-      </c>
-      <c r="L62" t="s">
-        <v>1012</v>
-      </c>
-      <c r="M62" t="s">
-        <v>542</v>
-      </c>
-      <c r="N62" t="s">
-        <v>543</v>
       </c>
       <c r="P62"/>
       <c r="Q62"/>
-      <c r="R62" t="s">
-        <v>1073</v>
-      </c>
-      <c r="S62" t="s">
-        <v>544</v>
-      </c>
-      <c r="T62" t="s">
-        <v>545</v>
-      </c>
+      <c r="S62"/>
+      <c r="T62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>542</v>
+      </c>
+      <c r="B63" t="s">
+        <v>750</v>
+      </c>
+      <c r="C63" t="s">
+        <v>836</v>
+      </c>
+      <c r="D63" t="s">
+        <v>543</v>
+      </c>
+      <c r="E63" t="s">
+        <v>544</v>
+      </c>
+      <c r="F63" t="s">
+        <v>918</v>
+      </c>
+      <c r="G63" t="s">
+        <v>545</v>
+      </c>
+      <c r="H63" t="s">
         <v>546</v>
       </c>
-      <c r="B63" t="s">
-        <v>743</v>
-      </c>
-      <c r="C63" t="s">
-        <v>830</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="I63" t="s">
+        <v>951</v>
+      </c>
+      <c r="J63" t="s">
         <v>547</v>
       </c>
-      <c r="E63" t="s">
+      <c r="K63" t="s">
         <v>548</v>
       </c>
-      <c r="F63" t="s">
-        <v>912</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="L63" t="s">
+        <v>1019</v>
+      </c>
+      <c r="M63" t="s">
         <v>549</v>
       </c>
-      <c r="H63" t="s">
+      <c r="N63" t="s">
         <v>550</v>
-      </c>
-      <c r="I63" t="s">
-        <v>945</v>
-      </c>
-      <c r="J63" t="s">
-        <v>551</v>
-      </c>
-      <c r="K63" t="s">
-        <v>552</v>
-      </c>
-      <c r="L63" t="s">
-        <v>1013</v>
-      </c>
-      <c r="M63" t="s">
-        <v>553</v>
-      </c>
-      <c r="N63" t="s">
-        <v>554</v>
       </c>
       <c r="P63"/>
       <c r="Q63"/>
       <c r="R63" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="S63" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="T63" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>553</v>
+      </c>
+      <c r="B64" t="s">
+        <v>750</v>
+      </c>
+      <c r="C64" t="s">
+        <v>837</v>
+      </c>
+      <c r="D64" t="s">
+        <v>554</v>
+      </c>
+      <c r="E64" t="s">
+        <v>555</v>
+      </c>
+      <c r="F64" t="s">
+        <v>919</v>
+      </c>
+      <c r="G64" t="s">
+        <v>556</v>
+      </c>
+      <c r="H64" t="s">
         <v>557</v>
       </c>
-      <c r="B64" t="s">
-        <v>743</v>
-      </c>
-      <c r="C64" t="s">
-        <v>831</v>
-      </c>
-      <c r="D64" t="s">
-        <v>558</v>
-      </c>
-      <c r="E64" t="s">
-        <v>559</v>
-      </c>
-      <c r="F64" t="s">
-        <v>913</v>
-      </c>
-      <c r="G64" t="s">
-        <v>560</v>
-      </c>
-      <c r="H64" t="s">
-        <v>561</v>
-      </c>
       <c r="I64" t="s">
-        <v>831</v>
+        <v>952</v>
       </c>
       <c r="J64" t="s">
         <v>558</v>
@@ -6772,244 +6778,258 @@
         <v>559</v>
       </c>
       <c r="L64" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="M64" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="N64" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="P64"/>
       <c r="Q64"/>
       <c r="R64" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="S64" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="T64" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>564</v>
+      </c>
+      <c r="B65" t="s">
+        <v>750</v>
+      </c>
+      <c r="C65" t="s">
+        <v>838</v>
+      </c>
+      <c r="D65" t="s">
+        <v>565</v>
+      </c>
+      <c r="E65" t="s">
         <v>566</v>
       </c>
-      <c r="B65" t="s">
-        <v>743</v>
-      </c>
-      <c r="C65" t="s">
-        <v>832</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="F65" t="s">
+        <v>920</v>
+      </c>
+      <c r="G65" t="s">
         <v>567</v>
       </c>
-      <c r="E65" t="s">
+      <c r="H65" t="s">
         <v>568</v>
       </c>
-      <c r="G65"/>
-      <c r="H65"/>
       <c r="I65" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="J65" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K65" t="s">
-        <v>568</v>
-      </c>
-      <c r="M65"/>
-      <c r="N65"/>
+        <v>566</v>
+      </c>
+      <c r="L65" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M65" t="s">
+        <v>569</v>
+      </c>
+      <c r="N65" t="s">
+        <v>570</v>
+      </c>
       <c r="P65"/>
       <c r="Q65"/>
-      <c r="S65"/>
-      <c r="T65"/>
+      <c r="R65" t="s">
+        <v>1082</v>
+      </c>
+      <c r="S65" t="s">
+        <v>571</v>
+      </c>
+      <c r="T65" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B66" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="C66" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="D66" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E66" t="s">
-        <v>571</v>
-      </c>
-      <c r="F66" t="s">
-        <v>914</v>
-      </c>
-      <c r="G66" t="s">
-        <v>572</v>
-      </c>
-      <c r="H66" t="s">
-        <v>573</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="G66"/>
+      <c r="H66"/>
       <c r="I66" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="J66" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="K66" t="s">
-        <v>571</v>
-      </c>
-      <c r="L66" t="s">
-        <v>1015</v>
-      </c>
-      <c r="M66" t="s">
-        <v>574</v>
-      </c>
-      <c r="N66" t="s">
         <v>575</v>
       </c>
+      <c r="M66"/>
+      <c r="N66"/>
       <c r="P66"/>
       <c r="Q66"/>
-      <c r="R66" t="s">
-        <v>1076</v>
-      </c>
-      <c r="S66" t="s">
-        <v>576</v>
-      </c>
-      <c r="T66" t="s">
-        <v>577</v>
-      </c>
+      <c r="S66"/>
+      <c r="T66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>576</v>
+      </c>
+      <c r="B67" t="s">
+        <v>750</v>
+      </c>
+      <c r="C67" t="s">
+        <v>840</v>
+      </c>
+      <c r="D67" t="s">
+        <v>577</v>
+      </c>
+      <c r="E67" t="s">
         <v>578</v>
       </c>
-      <c r="B67" t="s">
-        <v>762</v>
-      </c>
-      <c r="C67" t="s">
-        <v>834</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="F67" t="s">
+        <v>921</v>
+      </c>
+      <c r="G67" t="s">
         <v>579</v>
       </c>
-      <c r="E67" t="s">
+      <c r="H67" t="s">
         <v>580</v>
       </c>
-      <c r="F67" t="s">
-        <v>915</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="I67" t="s">
+        <v>840</v>
+      </c>
+      <c r="J67" t="s">
+        <v>577</v>
+      </c>
+      <c r="K67" t="s">
+        <v>578</v>
+      </c>
+      <c r="L67" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M67" t="s">
         <v>581</v>
       </c>
-      <c r="H67" t="s">
+      <c r="N67" t="s">
         <v>582</v>
-      </c>
-      <c r="I67" t="s">
-        <v>946</v>
-      </c>
-      <c r="J67" t="s">
-        <v>583</v>
-      </c>
-      <c r="K67" t="s">
-        <v>584</v>
-      </c>
-      <c r="L67" t="s">
-        <v>1016</v>
-      </c>
-      <c r="M67" t="s">
-        <v>585</v>
-      </c>
-      <c r="N67" t="s">
-        <v>586</v>
       </c>
       <c r="P67"/>
       <c r="Q67"/>
       <c r="R67" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="S67" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="T67" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>585</v>
+      </c>
+      <c r="B68" t="s">
+        <v>769</v>
+      </c>
+      <c r="C68" t="s">
+        <v>841</v>
+      </c>
+      <c r="D68" t="s">
+        <v>586</v>
+      </c>
+      <c r="E68" t="s">
+        <v>587</v>
+      </c>
+      <c r="F68" t="s">
+        <v>922</v>
+      </c>
+      <c r="G68" t="s">
+        <v>588</v>
+      </c>
+      <c r="H68" t="s">
         <v>589</v>
       </c>
-      <c r="B68" t="s">
-        <v>743</v>
-      </c>
-      <c r="C68" t="s">
-        <v>835</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="I68" t="s">
+        <v>953</v>
+      </c>
+      <c r="J68" t="s">
         <v>590</v>
-      </c>
-      <c r="E68" t="s">
-        <v>591</v>
-      </c>
-      <c r="F68" t="s">
-        <v>916</v>
-      </c>
-      <c r="G68" t="s">
-        <v>592</v>
-      </c>
-      <c r="H68" t="s">
-        <v>593</v>
-      </c>
-      <c r="I68" t="s">
-        <v>835</v>
-      </c>
-      <c r="J68" t="s">
-        <v>594</v>
       </c>
       <c r="K68" t="s">
         <v>591</v>
       </c>
-      <c r="M68"/>
-      <c r="N68"/>
+      <c r="L68" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M68" t="s">
+        <v>592</v>
+      </c>
+      <c r="N68" t="s">
+        <v>593</v>
+      </c>
       <c r="P68"/>
       <c r="Q68"/>
-      <c r="S68"/>
-      <c r="T68"/>
+      <c r="R68" t="s">
+        <v>1084</v>
+      </c>
+      <c r="S68" t="s">
+        <v>594</v>
+      </c>
+      <c r="T68" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B69" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="C69" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="D69" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E69" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F69" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="G69" t="s">
+        <v>599</v>
+      </c>
+      <c r="H69" t="s">
+        <v>600</v>
+      </c>
+      <c r="I69" t="s">
+        <v>842</v>
+      </c>
+      <c r="J69" t="s">
+        <v>601</v>
+      </c>
+      <c r="K69" t="s">
         <v>598</v>
-      </c>
-      <c r="H69" t="s">
-        <v>599</v>
-      </c>
-      <c r="I69" t="s">
-        <v>836</v>
-      </c>
-      <c r="J69" t="s">
-        <v>596</v>
-      </c>
-      <c r="K69" t="s">
-        <v>597</v>
       </c>
       <c r="M69"/>
       <c r="N69"/>
@@ -7020,141 +7040,127 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B70" t="s">
-        <v>743</v>
+        <v>770</v>
       </c>
       <c r="C70" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="D70" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E70" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F70" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="G70" t="s">
+        <v>605</v>
+      </c>
+      <c r="H70" t="s">
+        <v>606</v>
+      </c>
+      <c r="I70" t="s">
+        <v>843</v>
+      </c>
+      <c r="J70" t="s">
         <v>603</v>
       </c>
-      <c r="H70" t="s">
+      <c r="K70" t="s">
         <v>604</v>
       </c>
-      <c r="I70" t="s">
-        <v>837</v>
-      </c>
-      <c r="J70" t="s">
-        <v>601</v>
-      </c>
-      <c r="K70" t="s">
-        <v>602</v>
-      </c>
-      <c r="L70" t="s">
-        <v>1017</v>
-      </c>
-      <c r="M70" t="s">
-        <v>605</v>
-      </c>
-      <c r="N70" t="s">
-        <v>606</v>
-      </c>
+      <c r="M70"/>
+      <c r="N70"/>
       <c r="P70"/>
       <c r="Q70"/>
-      <c r="R70" t="s">
-        <v>1078</v>
-      </c>
-      <c r="S70" t="s">
-        <v>607</v>
-      </c>
-      <c r="T70" t="s">
-        <v>608</v>
-      </c>
+      <c r="S70"/>
+      <c r="T70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>607</v>
+      </c>
+      <c r="B71" t="s">
+        <v>750</v>
+      </c>
+      <c r="C71" t="s">
+        <v>844</v>
+      </c>
+      <c r="D71" t="s">
+        <v>608</v>
+      </c>
+      <c r="E71" t="s">
         <v>609</v>
       </c>
-      <c r="B71" t="s">
-        <v>764</v>
-      </c>
-      <c r="C71" t="s">
-        <v>838</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="F71" t="s">
+        <v>925</v>
+      </c>
+      <c r="G71" t="s">
         <v>610</v>
       </c>
-      <c r="E71" t="s">
+      <c r="H71" t="s">
         <v>611</v>
       </c>
-      <c r="F71" t="s">
-        <v>919</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="I71" t="s">
+        <v>844</v>
+      </c>
+      <c r="J71" t="s">
+        <v>608</v>
+      </c>
+      <c r="K71" t="s">
+        <v>609</v>
+      </c>
+      <c r="L71" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M71" t="s">
         <v>612</v>
       </c>
-      <c r="H71" t="s">
+      <c r="N71" t="s">
         <v>613</v>
-      </c>
-      <c r="I71" t="s">
-        <v>947</v>
-      </c>
-      <c r="J71" t="s">
-        <v>614</v>
-      </c>
-      <c r="K71" t="s">
-        <v>615</v>
-      </c>
-      <c r="L71" t="s">
-        <v>1018</v>
-      </c>
-      <c r="M71" t="s">
-        <v>616</v>
-      </c>
-      <c r="N71" t="s">
-        <v>617</v>
       </c>
       <c r="P71"/>
       <c r="Q71"/>
       <c r="R71" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="S71" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="T71" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>616</v>
+      </c>
+      <c r="B72" t="s">
+        <v>771</v>
+      </c>
+      <c r="C72" t="s">
+        <v>845</v>
+      </c>
+      <c r="D72" t="s">
+        <v>617</v>
+      </c>
+      <c r="E72" t="s">
+        <v>618</v>
+      </c>
+      <c r="F72" t="s">
+        <v>926</v>
+      </c>
+      <c r="G72" t="s">
+        <v>619</v>
+      </c>
+      <c r="H72" t="s">
         <v>620</v>
       </c>
-      <c r="B72" t="s">
-        <v>760</v>
-      </c>
-      <c r="C72" t="s">
-        <v>839</v>
-      </c>
-      <c r="D72" t="s">
-        <v>621</v>
-      </c>
-      <c r="E72" t="s">
-        <v>622</v>
-      </c>
-      <c r="F72" t="s">
-        <v>920</v>
-      </c>
-      <c r="G72" t="s">
-        <v>623</v>
-      </c>
-      <c r="H72" t="s">
-        <v>624</v>
-      </c>
       <c r="I72" t="s">
-        <v>839</v>
+        <v>954</v>
       </c>
       <c r="J72" t="s">
         <v>621</v>
@@ -7162,106 +7168,120 @@
       <c r="K72" t="s">
         <v>622</v>
       </c>
-      <c r="M72"/>
-      <c r="N72"/>
+      <c r="L72" t="s">
+        <v>1025</v>
+      </c>
+      <c r="M72" t="s">
+        <v>623</v>
+      </c>
+      <c r="N72" t="s">
+        <v>624</v>
+      </c>
       <c r="P72"/>
       <c r="Q72"/>
-      <c r="S72"/>
-      <c r="T72"/>
+      <c r="R72" t="s">
+        <v>1086</v>
+      </c>
+      <c r="S72" t="s">
+        <v>625</v>
+      </c>
+      <c r="T72" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B73" t="s">
-        <v>743</v>
+        <v>767</v>
       </c>
       <c r="C73" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="D73" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E73" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F73" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="G73" t="s">
+        <v>630</v>
+      </c>
+      <c r="H73" t="s">
+        <v>631</v>
+      </c>
+      <c r="I73" t="s">
+        <v>846</v>
+      </c>
+      <c r="J73" t="s">
         <v>628</v>
       </c>
-      <c r="H73" t="s">
+      <c r="K73" t="s">
         <v>629</v>
       </c>
-      <c r="I73" t="s">
-        <v>948</v>
-      </c>
-      <c r="J73" t="s">
-        <v>630</v>
-      </c>
-      <c r="K73" t="s">
-        <v>631</v>
-      </c>
-      <c r="L73" t="s">
-        <v>1019</v>
-      </c>
-      <c r="M73" t="s">
-        <v>632</v>
-      </c>
-      <c r="N73" t="s">
-        <v>633</v>
-      </c>
-      <c r="O73" t="s">
-        <v>1028</v>
-      </c>
-      <c r="P73" t="s">
-        <v>634</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>635</v>
-      </c>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
       <c r="S73"/>
       <c r="T73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>632</v>
+      </c>
+      <c r="B74" t="s">
+        <v>750</v>
+      </c>
+      <c r="C74" t="s">
+        <v>847</v>
+      </c>
+      <c r="D74" t="s">
+        <v>633</v>
+      </c>
+      <c r="E74" t="s">
+        <v>634</v>
+      </c>
+      <c r="F74" t="s">
+        <v>928</v>
+      </c>
+      <c r="G74" t="s">
+        <v>635</v>
+      </c>
+      <c r="H74" t="s">
         <v>636</v>
       </c>
-      <c r="B74" t="s">
-        <v>743</v>
-      </c>
-      <c r="C74" t="s">
-        <v>841</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="I74" t="s">
+        <v>955</v>
+      </c>
+      <c r="J74" t="s">
         <v>637</v>
       </c>
-      <c r="E74" t="s">
+      <c r="K74" t="s">
         <v>638</v>
       </c>
-      <c r="F74" t="s">
-        <v>922</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="L74" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M74" t="s">
         <v>639</v>
       </c>
-      <c r="H74" t="s">
+      <c r="N74" t="s">
         <v>640</v>
       </c>
-      <c r="I74" t="s">
-        <v>949</v>
-      </c>
-      <c r="J74" t="s">
+      <c r="O74" t="s">
+        <v>1035</v>
+      </c>
+      <c r="P74" t="s">
         <v>641</v>
       </c>
-      <c r="K74" t="s">
+      <c r="Q74" t="s">
         <v>642</v>
       </c>
-      <c r="M74"/>
-      <c r="N74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
       <c r="S74"/>
       <c r="T74"/>
     </row>
@@ -7270,34 +7290,34 @@
         <v>643</v>
       </c>
       <c r="B75" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="C75" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="D75" t="s">
-        <v>168</v>
+        <v>644</v>
       </c>
       <c r="E75" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F75" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="G75" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H75" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="I75" t="s">
-        <v>647</v>
+        <v>956</v>
       </c>
       <c r="J75" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="K75" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="M75"/>
       <c r="N75"/>
@@ -7308,34 +7328,34 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B76" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C76" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="D76" t="s">
-        <v>649</v>
+        <v>175</v>
       </c>
       <c r="E76" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F76" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="G76" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H76" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="I76" t="s">
-        <v>950</v>
+        <v>654</v>
       </c>
       <c r="J76" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="K76" t="s">
         <v>654</v>
@@ -7352,116 +7372,123 @@
         <v>655</v>
       </c>
       <c r="B77" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="C77" t="s">
-        <v>779</v>
+        <v>850</v>
       </c>
       <c r="D77" t="s">
-        <v>111</v>
+        <v>656</v>
       </c>
       <c r="E77" t="s">
-        <v>112</v>
+        <v>657</v>
       </c>
       <c r="F77" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="G77" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H77" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="I77" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="J77" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="K77" t="s">
-        <v>659</v>
-      </c>
-      <c r="L77" t="s">
-        <v>1020</v>
-      </c>
-      <c r="M77" t="s">
-        <v>660</v>
-      </c>
-      <c r="N77" t="s">
         <v>661</v>
       </c>
-      <c r="O77" t="s">
-        <v>1029</v>
-      </c>
-      <c r="P77" t="s">
-        <v>662</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>663</v>
-      </c>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
       <c r="S77"/>
       <c r="T77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>662</v>
+      </c>
+      <c r="B78" t="s">
+        <v>750</v>
+      </c>
+      <c r="C78" t="s">
+        <v>786</v>
+      </c>
+      <c r="D78" t="s">
+        <v>118</v>
+      </c>
+      <c r="E78" t="s">
+        <v>119</v>
+      </c>
+      <c r="F78" t="s">
+        <v>932</v>
+      </c>
+      <c r="G78" t="s">
+        <v>663</v>
+      </c>
+      <c r="H78" t="s">
         <v>664</v>
       </c>
-      <c r="B78" t="s">
-        <v>743</v>
-      </c>
-      <c r="C78" t="s">
-        <v>844</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="I78" t="s">
+        <v>958</v>
+      </c>
+      <c r="J78" t="s">
         <v>665</v>
       </c>
-      <c r="E78" t="s">
+      <c r="K78" t="s">
         <v>666</v>
       </c>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78" t="s">
-        <v>952</v>
-      </c>
-      <c r="J78" t="s">
+      <c r="L78" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M78" t="s">
         <v>667</v>
       </c>
-      <c r="K78" t="s">
+      <c r="N78" t="s">
         <v>668</v>
       </c>
-      <c r="M78"/>
-      <c r="N78"/>
-      <c r="P78"/>
-      <c r="Q78"/>
+      <c r="O78" t="s">
+        <v>1036</v>
+      </c>
+      <c r="P78" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>670</v>
+      </c>
       <c r="S78"/>
       <c r="T78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B79" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="C79" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="D79" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E79" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="J79" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="K79" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="M79"/>
       <c r="N79"/>
@@ -7472,31 +7499,24 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B80" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="C80" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="D80" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="E80" t="s">
-        <v>676</v>
-      </c>
-      <c r="F80" t="s">
-        <v>926</v>
-      </c>
-      <c r="G80" t="s">
-        <v>677</v>
-      </c>
-      <c r="H80" t="s">
         <v>678</v>
       </c>
+      <c r="G80"/>
+      <c r="H80"/>
       <c r="I80" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="J80" t="s">
         <v>679</v>
@@ -7516,10 +7536,10 @@
         <v>681</v>
       </c>
       <c r="B81" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="C81" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="D81" t="s">
         <v>682</v>
@@ -7527,10 +7547,24 @@
       <c r="E81" t="s">
         <v>683</v>
       </c>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="J81"/>
-      <c r="K81"/>
+      <c r="F81" t="s">
+        <v>933</v>
+      </c>
+      <c r="G81" t="s">
+        <v>684</v>
+      </c>
+      <c r="H81" t="s">
+        <v>685</v>
+      </c>
+      <c r="I81" t="s">
+        <v>961</v>
+      </c>
+      <c r="J81" t="s">
+        <v>686</v>
+      </c>
+      <c r="K81" t="s">
+        <v>687</v>
+      </c>
       <c r="M81"/>
       <c r="N81"/>
       <c r="P81"/>
@@ -7540,31 +7574,24 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B82" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="C82" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="D82" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="E82" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
-      <c r="I82" t="s">
-        <v>955</v>
-      </c>
-      <c r="J82" t="s">
-        <v>687</v>
-      </c>
-      <c r="K82" t="s">
-        <v>688</v>
-      </c>
+      <c r="J82"/>
+      <c r="K82"/>
       <c r="M82"/>
       <c r="N82"/>
       <c r="P82"/>
@@ -7574,30 +7601,30 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B83" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C83" t="s">
-        <v>844</v>
+        <v>855</v>
       </c>
       <c r="D83" t="s">
-        <v>665</v>
+        <v>692</v>
       </c>
       <c r="E83" t="s">
-        <v>666</v>
+        <v>693</v>
       </c>
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="J83" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="K83" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="M83"/>
       <c r="N83"/>
@@ -7608,68 +7635,47 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="B84" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C84" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D84" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="E84" t="s">
-        <v>694</v>
-      </c>
-      <c r="F84" t="s">
-        <v>927</v>
-      </c>
-      <c r="G84" t="s">
-        <v>695</v>
-      </c>
-      <c r="H84" t="s">
-        <v>696</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="G84"/>
+      <c r="H84"/>
       <c r="I84" t="s">
-        <v>849</v>
+        <v>963</v>
       </c>
       <c r="J84" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K84" t="s">
-        <v>694</v>
-      </c>
-      <c r="L84" t="s">
-        <v>1021</v>
-      </c>
-      <c r="M84" t="s">
-        <v>697</v>
-      </c>
-      <c r="N84" t="s">
         <v>698</v>
       </c>
+      <c r="M84"/>
+      <c r="N84"/>
       <c r="P84"/>
       <c r="Q84"/>
-      <c r="R84" t="s">
-        <v>1072</v>
-      </c>
-      <c r="S84" t="s">
-        <v>519</v>
-      </c>
-      <c r="T84" t="s">
-        <v>520</v>
-      </c>
+      <c r="S84"/>
+      <c r="T84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>699</v>
       </c>
       <c r="B85" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="C85" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="D85" t="s">
         <v>700</v>
@@ -7678,7 +7684,7 @@
         <v>701</v>
       </c>
       <c r="F85" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="G85" t="s">
         <v>702</v>
@@ -7687,7 +7693,7 @@
         <v>703</v>
       </c>
       <c r="I85" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="J85" t="s">
         <v>700</v>
@@ -7695,107 +7701,114 @@
       <c r="K85" t="s">
         <v>701</v>
       </c>
-      <c r="M85"/>
-      <c r="N85"/>
+      <c r="L85" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M85" t="s">
+        <v>704</v>
+      </c>
+      <c r="N85" t="s">
+        <v>705</v>
+      </c>
       <c r="P85"/>
       <c r="Q85"/>
-      <c r="S85"/>
-      <c r="T85"/>
+      <c r="R85" t="s">
+        <v>1079</v>
+      </c>
+      <c r="S85" t="s">
+        <v>526</v>
+      </c>
+      <c r="T85" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B86" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="C86" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="D86" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E86" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F86" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="G86" t="s">
+        <v>709</v>
+      </c>
+      <c r="H86" t="s">
+        <v>710</v>
+      </c>
+      <c r="I86" t="s">
+        <v>857</v>
+      </c>
+      <c r="J86" t="s">
         <v>707</v>
       </c>
-      <c r="H86" t="s">
+      <c r="K86" t="s">
         <v>708</v>
       </c>
-      <c r="J86"/>
-      <c r="K86"/>
-      <c r="L86" t="s">
-        <v>1022</v>
-      </c>
-      <c r="M86" t="s">
-        <v>709</v>
-      </c>
-      <c r="N86" t="s">
-        <v>710</v>
-      </c>
+      <c r="M86"/>
+      <c r="N86"/>
       <c r="P86"/>
       <c r="Q86"/>
-      <c r="R86" t="s">
-        <v>1080</v>
-      </c>
-      <c r="S86" t="s">
-        <v>711</v>
-      </c>
-      <c r="T86" t="s">
-        <v>712</v>
-      </c>
+      <c r="S86"/>
+      <c r="T86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>711</v>
+      </c>
+      <c r="B87" t="s">
+        <v>774</v>
+      </c>
+      <c r="C87" t="s">
+        <v>858</v>
+      </c>
+      <c r="D87" t="s">
+        <v>712</v>
+      </c>
+      <c r="E87" t="s">
         <v>713</v>
       </c>
-      <c r="B87" t="s">
-        <v>767</v>
-      </c>
-      <c r="C87" t="s">
-        <v>852</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="F87" t="s">
+        <v>936</v>
+      </c>
+      <c r="G87" t="s">
         <v>714</v>
       </c>
-      <c r="E87" t="s">
+      <c r="H87" t="s">
         <v>715</v>
-      </c>
-      <c r="F87" t="s">
-        <v>930</v>
-      </c>
-      <c r="G87" t="s">
-        <v>716</v>
-      </c>
-      <c r="H87" t="s">
-        <v>717</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="M87" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="N87" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="P87"/>
       <c r="Q87"/>
       <c r="R87" t="s">
-        <v>1080</v>
+        <v>1087</v>
       </c>
       <c r="S87" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="T87" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="88">
@@ -7803,10 +7816,10 @@
         <v>720</v>
       </c>
       <c r="B88" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="C88" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="D88" t="s">
         <v>721</v>
@@ -7815,7 +7828,7 @@
         <v>722</v>
       </c>
       <c r="F88" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="G88" t="s">
         <v>723</v>
@@ -7826,72 +7839,72 @@
       <c r="J88"/>
       <c r="K88"/>
       <c r="L88" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="M88" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="N88" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="P88"/>
       <c r="Q88"/>
       <c r="R88" t="s">
-        <v>1080</v>
+        <v>1087</v>
       </c>
       <c r="S88" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="T88" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B89" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="C89" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="D89" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E89" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F89" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="G89" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H89" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
       <c r="L89" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="M89" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="N89" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="P89"/>
       <c r="Q89"/>
       <c r="R89" t="s">
-        <v>1080</v>
+        <v>1087</v>
       </c>
       <c r="S89" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="T89" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="90">
@@ -7899,10 +7912,10 @@
         <v>732</v>
       </c>
       <c r="B90" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="C90" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="D90" t="s">
         <v>733</v>
@@ -7911,7 +7924,7 @@
         <v>734</v>
       </c>
       <c r="F90" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="G90" t="s">
         <v>735</v>
@@ -7922,7 +7935,7 @@
       <c r="J90"/>
       <c r="K90"/>
       <c r="L90" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="M90" t="s">
         <v>737</v>
@@ -7933,13 +7946,61 @@
       <c r="P90"/>
       <c r="Q90"/>
       <c r="R90" t="s">
-        <v>1080</v>
+        <v>1087</v>
       </c>
       <c r="S90" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="T90" t="s">
-        <v>712</v>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>739</v>
+      </c>
+      <c r="B91" t="s">
+        <v>776</v>
+      </c>
+      <c r="C91" t="s">
+        <v>862</v>
+      </c>
+      <c r="D91" t="s">
+        <v>740</v>
+      </c>
+      <c r="E91" t="s">
+        <v>741</v>
+      </c>
+      <c r="F91" t="s">
+        <v>940</v>
+      </c>
+      <c r="G91" t="s">
+        <v>742</v>
+      </c>
+      <c r="H91" t="s">
+        <v>743</v>
+      </c>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M91" t="s">
+        <v>744</v>
+      </c>
+      <c r="N91" t="s">
+        <v>745</v>
+      </c>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91" t="s">
+        <v>1087</v>
+      </c>
+      <c r="S91" t="s">
+        <v>718</v>
+      </c>
+      <c r="T91" t="s">
+        <v>719</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="1095">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>
@@ -1467,6 +1467,15 @@
   </si>
   <si>
     <t xml:space="preserve">猫変容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bat Transformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コウモリ変容</t>
   </si>
   <si>
     <t xml:space="preserve">50</t>
@@ -3504,10 +3513,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="C3" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -3516,7 +3525,7 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
@@ -3525,7 +3534,7 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
@@ -3534,7 +3543,7 @@
         <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
@@ -3545,7 +3554,7 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="S3" t="s">
         <v>30</v>
@@ -3559,10 +3568,10 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C4" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -3571,7 +3580,7 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -3580,7 +3589,7 @@
         <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
@@ -3589,7 +3598,7 @@
         <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -3600,7 +3609,7 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="S4" t="s">
         <v>39</v>
@@ -3614,10 +3623,10 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C5" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3626,7 +3635,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -3635,7 +3644,7 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
@@ -3644,7 +3653,7 @@
         <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="M5" t="s">
         <v>46</v>
@@ -3655,7 +3664,7 @@
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="S5" t="s">
         <v>48</v>
@@ -3669,10 +3678,10 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C6" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -3681,7 +3690,7 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -3690,7 +3699,7 @@
         <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="J6" t="s">
         <v>51</v>
@@ -3699,7 +3708,7 @@
         <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="M6" t="s">
         <v>55</v>
@@ -3710,7 +3719,7 @@
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="S6" t="s">
         <v>57</v>
@@ -3724,10 +3733,10 @@
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="C7" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="D7" t="s">
         <v>60</v>
@@ -3736,7 +3745,7 @@
         <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="G7" t="s">
         <v>62</v>
@@ -3745,7 +3754,7 @@
         <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="J7" t="s">
         <v>60</v>
@@ -3754,7 +3763,7 @@
         <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="M7" t="s">
         <v>64</v>
@@ -3765,7 +3774,7 @@
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="S7" t="s">
         <v>66</v>
@@ -3779,10 +3788,10 @@
         <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="C8" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D8" t="s">
         <v>69</v>
@@ -3791,7 +3800,7 @@
         <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="G8" t="s">
         <v>71</v>
@@ -3800,7 +3809,7 @@
         <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="J8" t="s">
         <v>69</v>
@@ -3809,7 +3818,7 @@
         <v>70</v>
       </c>
       <c r="L8" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="M8" t="s">
         <v>73</v>
@@ -3820,7 +3829,7 @@
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="S8" t="s">
         <v>66</v>
@@ -3834,10 +3843,10 @@
         <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C9" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="D9" t="s">
         <v>76</v>
@@ -3846,7 +3855,7 @@
         <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="G9" t="s">
         <v>78</v>
@@ -3855,7 +3864,7 @@
         <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="J9" t="s">
         <v>80</v>
@@ -3864,7 +3873,7 @@
         <v>81</v>
       </c>
       <c r="L9" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -3873,7 +3882,7 @@
         <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="P9" t="s">
         <v>84</v>
@@ -3882,7 +3891,7 @@
         <v>85</v>
       </c>
       <c r="R9" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="S9" t="s">
         <v>86</v>
@@ -3896,10 +3905,10 @@
         <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C10" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="D10" t="s">
         <v>89</v>
@@ -3908,7 +3917,7 @@
         <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="G10" t="s">
         <v>91</v>
@@ -3917,7 +3926,7 @@
         <v>92</v>
       </c>
       <c r="I10" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="J10" t="s">
         <v>93</v>
@@ -3926,7 +3935,7 @@
         <v>94</v>
       </c>
       <c r="L10" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="M10" t="s">
         <v>95</v>
@@ -3935,7 +3944,7 @@
         <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="P10" t="s">
         <v>97</v>
@@ -3951,10 +3960,10 @@
         <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C11" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="D11" t="s">
         <v>100</v>
@@ -3963,7 +3972,7 @@
         <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="G11" t="s">
         <v>102</v>
@@ -3972,7 +3981,7 @@
         <v>103</v>
       </c>
       <c r="I11" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="J11" t="s">
         <v>100</v>
@@ -3981,7 +3990,7 @@
         <v>101</v>
       </c>
       <c r="L11" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="M11" t="s">
         <v>104</v>
@@ -3992,7 +4001,7 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="S11" t="s">
         <v>106</v>
@@ -4006,10 +4015,10 @@
         <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C12" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -4018,7 +4027,7 @@
         <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="G12" t="s">
         <v>111</v>
@@ -4027,7 +4036,7 @@
         <v>112</v>
       </c>
       <c r="I12" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="J12" t="s">
         <v>109</v>
@@ -4036,7 +4045,7 @@
         <v>110</v>
       </c>
       <c r="L12" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="M12" t="s">
         <v>113</v>
@@ -4047,7 +4056,7 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="S12" t="s">
         <v>115</v>
@@ -4061,10 +4070,10 @@
         <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C13" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="D13" t="s">
         <v>118</v>
@@ -4073,7 +4082,7 @@
         <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="G13" t="s">
         <v>120</v>
@@ -4082,7 +4091,7 @@
         <v>121</v>
       </c>
       <c r="I13" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="J13" t="s">
         <v>122</v>
@@ -4091,7 +4100,7 @@
         <v>119</v>
       </c>
       <c r="L13" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="M13" t="s">
         <v>123</v>
@@ -4102,7 +4111,7 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="S13" t="s">
         <v>125</v>
@@ -4116,10 +4125,10 @@
         <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C14" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="D14" t="s">
         <v>128</v>
@@ -4128,7 +4137,7 @@
         <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="G14" t="s">
         <v>130</v>
@@ -4137,7 +4146,7 @@
         <v>131</v>
       </c>
       <c r="I14" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="J14" t="s">
         <v>132</v>
@@ -4146,7 +4155,7 @@
         <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="M14" t="s">
         <v>133</v>
@@ -4157,7 +4166,7 @@
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="S14" t="s">
         <v>135</v>
@@ -4171,10 +4180,10 @@
         <v>137</v>
       </c>
       <c r="B15" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C15" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="D15" t="s">
         <v>138</v>
@@ -4183,7 +4192,7 @@
         <v>139</v>
       </c>
       <c r="F15" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="G15" t="s">
         <v>140</v>
@@ -4192,7 +4201,7 @@
         <v>141</v>
       </c>
       <c r="I15" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="J15" t="s">
         <v>142</v>
@@ -4201,7 +4210,7 @@
         <v>139</v>
       </c>
       <c r="L15" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="M15" t="s">
         <v>143</v>
@@ -4212,7 +4221,7 @@
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="S15" t="s">
         <v>145</v>
@@ -4226,10 +4235,10 @@
         <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C16" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="D16" t="s">
         <v>148</v>
@@ -4238,7 +4247,7 @@
         <v>149</v>
       </c>
       <c r="F16" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="G16" t="s">
         <v>130</v>
@@ -4247,7 +4256,7 @@
         <v>131</v>
       </c>
       <c r="I16" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="J16" t="s">
         <v>150</v>
@@ -4256,7 +4265,7 @@
         <v>149</v>
       </c>
       <c r="L16" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="M16" t="s">
         <v>151</v>
@@ -4267,7 +4276,7 @@
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="S16" t="s">
         <v>153</v>
@@ -4281,10 +4290,10 @@
         <v>155</v>
       </c>
       <c r="B17" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C17" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="D17" t="s">
         <v>156</v>
@@ -4293,7 +4302,7 @@
         <v>157</v>
       </c>
       <c r="F17" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="G17" t="s">
         <v>158</v>
@@ -4302,7 +4311,7 @@
         <v>159</v>
       </c>
       <c r="I17" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="J17" t="s">
         <v>160</v>
@@ -4311,7 +4320,7 @@
         <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="M17" t="s">
         <v>161</v>
@@ -4322,7 +4331,7 @@
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="S17" t="s">
         <v>163</v>
@@ -4336,10 +4345,10 @@
         <v>165</v>
       </c>
       <c r="B18" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C18" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="D18" t="s">
         <v>166</v>
@@ -4348,7 +4357,7 @@
         <v>167</v>
       </c>
       <c r="F18" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="G18" t="s">
         <v>168</v>
@@ -4357,7 +4366,7 @@
         <v>169</v>
       </c>
       <c r="I18" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="J18" t="s">
         <v>166</v>
@@ -4366,7 +4375,7 @@
         <v>167</v>
       </c>
       <c r="L18" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="M18" t="s">
         <v>170</v>
@@ -4377,7 +4386,7 @@
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="S18" t="s">
         <v>172</v>
@@ -4391,10 +4400,10 @@
         <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C19" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="D19" t="s">
         <v>175</v>
@@ -4403,7 +4412,7 @@
         <v>176</v>
       </c>
       <c r="F19" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="G19" t="s">
         <v>177</v>
@@ -4412,7 +4421,7 @@
         <v>178</v>
       </c>
       <c r="I19" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="J19" t="s">
         <v>179</v>
@@ -4421,7 +4430,7 @@
         <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="M19" t="s">
         <v>181</v>
@@ -4432,7 +4441,7 @@
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="S19" t="s">
         <v>183</v>
@@ -4446,10 +4455,10 @@
         <v>185</v>
       </c>
       <c r="B20" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C20" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="D20" t="s">
         <v>186</v>
@@ -4458,7 +4467,7 @@
         <v>187</v>
       </c>
       <c r="F20" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="G20" t="s">
         <v>188</v>
@@ -4467,7 +4476,7 @@
         <v>189</v>
       </c>
       <c r="I20" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="J20" t="s">
         <v>190</v>
@@ -4476,7 +4485,7 @@
         <v>191</v>
       </c>
       <c r="L20" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="M20" t="s">
         <v>192</v>
@@ -4487,7 +4496,7 @@
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="S20" t="s">
         <v>194</v>
@@ -4501,10 +4510,10 @@
         <v>196</v>
       </c>
       <c r="B21" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C21" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="D21" t="s">
         <v>197</v>
@@ -4513,7 +4522,7 @@
         <v>198</v>
       </c>
       <c r="F21" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="G21" t="s">
         <v>199</v>
@@ -4522,7 +4531,7 @@
         <v>200</v>
       </c>
       <c r="I21" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="J21" t="s">
         <v>201</v>
@@ -4531,7 +4540,7 @@
         <v>202</v>
       </c>
       <c r="L21" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="M21" t="s">
         <v>203</v>
@@ -4542,7 +4551,7 @@
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="S21" t="s">
         <v>205</v>
@@ -4556,10 +4565,10 @@
         <v>207</v>
       </c>
       <c r="B22" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C22" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="D22" t="s">
         <v>208</v>
@@ -4568,7 +4577,7 @@
         <v>209</v>
       </c>
       <c r="F22" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="G22" t="s">
         <v>210</v>
@@ -4577,7 +4586,7 @@
         <v>211</v>
       </c>
       <c r="I22" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="J22" t="s">
         <v>212</v>
@@ -4586,7 +4595,7 @@
         <v>213</v>
       </c>
       <c r="L22" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="M22" t="s">
         <v>214</v>
@@ -4597,7 +4606,7 @@
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="S22" t="s">
         <v>216</v>
@@ -4611,10 +4620,10 @@
         <v>218</v>
       </c>
       <c r="B23" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="C23" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="D23" t="s">
         <v>219</v>
@@ -4623,7 +4632,7 @@
         <v>220</v>
       </c>
       <c r="F23" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="G23" t="s">
         <v>221</v>
@@ -4632,7 +4641,7 @@
         <v>222</v>
       </c>
       <c r="I23" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="J23" t="s">
         <v>223</v>
@@ -4641,7 +4650,7 @@
         <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="M23" t="s">
         <v>225</v>
@@ -4652,7 +4661,7 @@
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="S23" t="s">
         <v>227</v>
@@ -4666,10 +4675,10 @@
         <v>229</v>
       </c>
       <c r="B24" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C24" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="D24" t="s">
         <v>230</v>
@@ -4678,7 +4687,7 @@
         <v>231</v>
       </c>
       <c r="F24" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="G24" t="s">
         <v>232</v>
@@ -4687,7 +4696,7 @@
         <v>233</v>
       </c>
       <c r="I24" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="J24" t="s">
         <v>230</v>
@@ -4696,7 +4705,7 @@
         <v>231</v>
       </c>
       <c r="L24" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="M24" t="s">
         <v>234</v>
@@ -4707,7 +4716,7 @@
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="S24" t="s">
         <v>236</v>
@@ -4721,10 +4730,10 @@
         <v>238</v>
       </c>
       <c r="B25" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C25" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D25" t="s">
         <v>239</v>
@@ -4733,7 +4742,7 @@
         <v>240</v>
       </c>
       <c r="F25" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="G25" t="s">
         <v>241</v>
@@ -4742,7 +4751,7 @@
         <v>242</v>
       </c>
       <c r="I25" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="J25" t="s">
         <v>239</v>
@@ -4751,7 +4760,7 @@
         <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="M25" t="s">
         <v>243</v>
@@ -4769,10 +4778,10 @@
         <v>245</v>
       </c>
       <c r="B26" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C26" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="D26" t="s">
         <v>246</v>
@@ -4781,7 +4790,7 @@
         <v>247</v>
       </c>
       <c r="F26" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="G26" t="s">
         <v>248</v>
@@ -4790,7 +4799,7 @@
         <v>249</v>
       </c>
       <c r="I26" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="J26" t="s">
         <v>246</v>
@@ -4799,7 +4808,7 @@
         <v>247</v>
       </c>
       <c r="L26" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="M26" t="s">
         <v>250</v>
@@ -4810,7 +4819,7 @@
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="S26" t="s">
         <v>252</v>
@@ -4824,10 +4833,10 @@
         <v>254</v>
       </c>
       <c r="B27" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C27" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="D27" t="s">
         <v>255</v>
@@ -4836,7 +4845,7 @@
         <v>256</v>
       </c>
       <c r="F27" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="G27" t="s">
         <v>257</v>
@@ -4845,7 +4854,7 @@
         <v>258</v>
       </c>
       <c r="I27" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="J27" t="s">
         <v>255</v>
@@ -4854,7 +4863,7 @@
         <v>256</v>
       </c>
       <c r="L27" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="M27" t="s">
         <v>259</v>
@@ -4865,7 +4874,7 @@
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="S27" t="s">
         <v>261</v>
@@ -4879,10 +4888,10 @@
         <v>263</v>
       </c>
       <c r="B28" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="C28" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="D28" t="s">
         <v>264</v>
@@ -4891,7 +4900,7 @@
         <v>265</v>
       </c>
       <c r="F28" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="G28" t="s">
         <v>266</v>
@@ -4900,7 +4909,7 @@
         <v>267</v>
       </c>
       <c r="I28" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="J28" t="s">
         <v>264</v>
@@ -4909,7 +4918,7 @@
         <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="M28" t="s">
         <v>268</v>
@@ -4920,7 +4929,7 @@
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="S28" t="s">
         <v>270</v>
@@ -4934,10 +4943,10 @@
         <v>272</v>
       </c>
       <c r="B29" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="C29" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="D29" t="s">
         <v>273</v>
@@ -4946,7 +4955,7 @@
         <v>274</v>
       </c>
       <c r="F29" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="G29" t="s">
         <v>275</v>
@@ -4955,7 +4964,7 @@
         <v>276</v>
       </c>
       <c r="I29" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J29" t="s">
         <v>273</v>
@@ -4964,7 +4973,7 @@
         <v>274</v>
       </c>
       <c r="L29" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="M29" t="s">
         <v>277</v>
@@ -4975,7 +4984,7 @@
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="S29" t="s">
         <v>279</v>
@@ -4989,10 +4998,10 @@
         <v>281</v>
       </c>
       <c r="B30" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="C30" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="D30" t="s">
         <v>282</v>
@@ -5001,7 +5010,7 @@
         <v>283</v>
       </c>
       <c r="F30" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="G30" t="s">
         <v>284</v>
@@ -5010,7 +5019,7 @@
         <v>285</v>
       </c>
       <c r="I30" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="J30" t="s">
         <v>282</v>
@@ -5019,7 +5028,7 @@
         <v>283</v>
       </c>
       <c r="L30" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="M30" t="s">
         <v>286</v>
@@ -5030,7 +5039,7 @@
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="S30" t="s">
         <v>288</v>
@@ -5044,10 +5053,10 @@
         <v>290</v>
       </c>
       <c r="B31" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="C31" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="D31" t="s">
         <v>291</v>
@@ -5056,7 +5065,7 @@
         <v>292</v>
       </c>
       <c r="F31" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="G31" t="s">
         <v>293</v>
@@ -5065,7 +5074,7 @@
         <v>294</v>
       </c>
       <c r="I31" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="J31" t="s">
         <v>291</v>
@@ -5074,7 +5083,7 @@
         <v>292</v>
       </c>
       <c r="L31" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="M31" t="s">
         <v>295</v>
@@ -5085,7 +5094,7 @@
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="S31" t="s">
         <v>297</v>
@@ -5099,10 +5108,10 @@
         <v>299</v>
       </c>
       <c r="B32" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="C32" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="D32" t="s">
         <v>300</v>
@@ -5111,7 +5120,7 @@
         <v>301</v>
       </c>
       <c r="F32" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="G32" t="s">
         <v>302</v>
@@ -5120,7 +5129,7 @@
         <v>303</v>
       </c>
       <c r="I32" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="J32" t="s">
         <v>300</v>
@@ -5129,7 +5138,7 @@
         <v>301</v>
       </c>
       <c r="L32" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="M32" t="s">
         <v>304</v>
@@ -5140,7 +5149,7 @@
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="S32" t="s">
         <v>306</v>
@@ -5154,10 +5163,10 @@
         <v>308</v>
       </c>
       <c r="B33" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C33" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="D33" t="s">
         <v>309</v>
@@ -5166,7 +5175,7 @@
         <v>310</v>
       </c>
       <c r="F33" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="G33" t="s">
         <v>311</v>
@@ -5175,7 +5184,7 @@
         <v>312</v>
       </c>
       <c r="I33" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="J33" t="s">
         <v>313</v>
@@ -5184,7 +5193,7 @@
         <v>314</v>
       </c>
       <c r="L33" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="M33" t="s">
         <v>315</v>
@@ -5195,7 +5204,7 @@
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="S33" t="s">
         <v>317</v>
@@ -5209,10 +5218,10 @@
         <v>319</v>
       </c>
       <c r="B34" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C34" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="D34" t="s">
         <v>320</v>
@@ -5221,7 +5230,7 @@
         <v>321</v>
       </c>
       <c r="F34" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="G34" t="s">
         <v>322</v>
@@ -5230,7 +5239,7 @@
         <v>323</v>
       </c>
       <c r="I34" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="J34" t="s">
         <v>320</v>
@@ -5239,7 +5248,7 @@
         <v>321</v>
       </c>
       <c r="L34" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="M34" t="s">
         <v>324</v>
@@ -5250,7 +5259,7 @@
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="S34" t="s">
         <v>326</v>
@@ -5264,10 +5273,10 @@
         <v>328</v>
       </c>
       <c r="B35" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="C35" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D35" t="s">
         <v>329</v>
@@ -5276,7 +5285,7 @@
         <v>330</v>
       </c>
       <c r="F35" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="G35" t="s">
         <v>331</v>
@@ -5285,7 +5294,7 @@
         <v>332</v>
       </c>
       <c r="I35" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="J35" t="s">
         <v>329</v>
@@ -5294,7 +5303,7 @@
         <v>330</v>
       </c>
       <c r="L35" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="M35" t="s">
         <v>333</v>
@@ -5305,7 +5314,7 @@
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="S35" t="s">
         <v>335</v>
@@ -5319,10 +5328,10 @@
         <v>337</v>
       </c>
       <c r="B36" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C36" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="D36" t="s">
         <v>338</v>
@@ -5331,7 +5340,7 @@
         <v>339</v>
       </c>
       <c r="F36" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="G36" t="s">
         <v>340</v>
@@ -5340,7 +5349,7 @@
         <v>341</v>
       </c>
       <c r="I36" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="J36" t="s">
         <v>342</v>
@@ -5349,7 +5358,7 @@
         <v>339</v>
       </c>
       <c r="L36" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="M36" t="s">
         <v>343</v>
@@ -5360,7 +5369,7 @@
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="S36" t="s">
         <v>345</v>
@@ -5374,10 +5383,10 @@
         <v>347</v>
       </c>
       <c r="B37" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="C37" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="D37" t="s">
         <v>348</v>
@@ -5386,7 +5395,7 @@
         <v>349</v>
       </c>
       <c r="F37" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="G37" t="s">
         <v>350</v>
@@ -5395,7 +5404,7 @@
         <v>351</v>
       </c>
       <c r="I37" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="J37" t="s">
         <v>348</v>
@@ -5404,7 +5413,7 @@
         <v>349</v>
       </c>
       <c r="L37" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="M37" t="s">
         <v>352</v>
@@ -5415,7 +5424,7 @@
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="S37" t="s">
         <v>354</v>
@@ -5429,10 +5438,10 @@
         <v>356</v>
       </c>
       <c r="B38" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="C38" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D38" t="s">
         <v>357</v>
@@ -5441,7 +5450,7 @@
         <v>358</v>
       </c>
       <c r="F38" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="G38" t="s">
         <v>359</v>
@@ -5450,7 +5459,7 @@
         <v>360</v>
       </c>
       <c r="I38" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="J38" t="s">
         <v>361</v>
@@ -5459,7 +5468,7 @@
         <v>358</v>
       </c>
       <c r="L38" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="M38" t="s">
         <v>362</v>
@@ -5470,7 +5479,7 @@
       <c r="P38"/>
       <c r="Q38"/>
       <c r="R38" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="S38" t="s">
         <v>364</v>
@@ -5484,10 +5493,10 @@
         <v>366</v>
       </c>
       <c r="B39" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C39" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D39" t="s">
         <v>367</v>
@@ -5496,7 +5505,7 @@
         <v>368</v>
       </c>
       <c r="F39" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="G39" t="s">
         <v>369</v>
@@ -5505,7 +5514,7 @@
         <v>370</v>
       </c>
       <c r="I39" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="J39" t="s">
         <v>367</v>
@@ -5514,7 +5523,7 @@
         <v>368</v>
       </c>
       <c r="L39" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="M39" t="s">
         <v>371</v>
@@ -5525,7 +5534,7 @@
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="S39" t="s">
         <v>373</v>
@@ -5539,10 +5548,10 @@
         <v>375</v>
       </c>
       <c r="B40" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="C40" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="D40" t="s">
         <v>376</v>
@@ -5551,7 +5560,7 @@
         <v>377</v>
       </c>
       <c r="F40" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="G40" t="s">
         <v>378</v>
@@ -5560,7 +5569,7 @@
         <v>379</v>
       </c>
       <c r="I40" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="J40" t="s">
         <v>376</v>
@@ -5569,7 +5578,7 @@
         <v>377</v>
       </c>
       <c r="L40" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="M40" t="s">
         <v>380</v>
@@ -5580,7 +5589,7 @@
       <c r="P40"/>
       <c r="Q40"/>
       <c r="R40" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="S40" t="s">
         <v>382</v>
@@ -5594,10 +5603,10 @@
         <v>384</v>
       </c>
       <c r="B41" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="C41" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D41" t="s">
         <v>385</v>
@@ -5606,7 +5615,7 @@
         <v>386</v>
       </c>
       <c r="F41" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="G41" t="s">
         <v>387</v>
@@ -5615,7 +5624,7 @@
         <v>388</v>
       </c>
       <c r="I41" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="J41" t="s">
         <v>385</v>
@@ -5624,7 +5633,7 @@
         <v>386</v>
       </c>
       <c r="L41" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="M41" t="s">
         <v>389</v>
@@ -5642,10 +5651,10 @@
         <v>391</v>
       </c>
       <c r="B42" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="C42" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D42" t="s">
         <v>392</v>
@@ -5654,7 +5663,7 @@
         <v>393</v>
       </c>
       <c r="F42" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="G42" t="s">
         <v>394</v>
@@ -5663,7 +5672,7 @@
         <v>395</v>
       </c>
       <c r="I42" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="J42" t="s">
         <v>392</v>
@@ -5683,10 +5692,10 @@
         <v>396</v>
       </c>
       <c r="B43" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="C43" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="D43" t="s">
         <v>397</v>
@@ -5695,7 +5704,7 @@
         <v>398</v>
       </c>
       <c r="F43" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="G43" t="s">
         <v>399</v>
@@ -5704,7 +5713,7 @@
         <v>400</v>
       </c>
       <c r="I43" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="J43" t="s">
         <v>397</v>
@@ -5724,10 +5733,10 @@
         <v>401</v>
       </c>
       <c r="B44" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="C44" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="D44" t="s">
         <v>402</v>
@@ -5736,7 +5745,7 @@
         <v>403</v>
       </c>
       <c r="F44" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="G44" t="s">
         <v>404</v>
@@ -5745,7 +5754,7 @@
         <v>405</v>
       </c>
       <c r="I44" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="J44" t="s">
         <v>402</v>
@@ -5754,7 +5763,7 @@
         <v>403</v>
       </c>
       <c r="L44" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="M44" t="s">
         <v>406</v>
@@ -5765,7 +5774,7 @@
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="S44" t="s">
         <v>408</v>
@@ -5779,10 +5788,10 @@
         <v>410</v>
       </c>
       <c r="B45" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C45" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="D45" t="s">
         <v>411</v>
@@ -5791,7 +5800,7 @@
         <v>412</v>
       </c>
       <c r="F45" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="G45" t="s">
         <v>413</v>
@@ -5800,7 +5809,7 @@
         <v>414</v>
       </c>
       <c r="I45" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="J45" t="s">
         <v>415</v>
@@ -5809,7 +5818,7 @@
         <v>412</v>
       </c>
       <c r="L45" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="M45" t="s">
         <v>416</v>
@@ -5820,7 +5829,7 @@
       <c r="P45"/>
       <c r="Q45"/>
       <c r="R45" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="S45" t="s">
         <v>418</v>
@@ -5834,10 +5843,10 @@
         <v>420</v>
       </c>
       <c r="B46" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C46" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="D46" t="s">
         <v>421</v>
@@ -5846,7 +5855,7 @@
         <v>422</v>
       </c>
       <c r="F46" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="G46" t="s">
         <v>423</v>
@@ -5855,7 +5864,7 @@
         <v>424</v>
       </c>
       <c r="I46" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="J46" t="s">
         <v>421</v>
@@ -5864,7 +5873,7 @@
         <v>422</v>
       </c>
       <c r="L46" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="M46" t="s">
         <v>425</v>
@@ -5875,7 +5884,7 @@
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="S46" t="s">
         <v>326</v>
@@ -5889,10 +5898,10 @@
         <v>427</v>
       </c>
       <c r="B47" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C47" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="D47" t="s">
         <v>428</v>
@@ -5901,7 +5910,7 @@
         <v>429</v>
       </c>
       <c r="F47" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="G47" t="s">
         <v>430</v>
@@ -5910,7 +5919,7 @@
         <v>431</v>
       </c>
       <c r="I47" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="J47" t="s">
         <v>428</v>
@@ -5919,7 +5928,7 @@
         <v>429</v>
       </c>
       <c r="L47" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="M47" t="s">
         <v>432</v>
@@ -5930,7 +5939,7 @@
       <c r="P47"/>
       <c r="Q47"/>
       <c r="R47" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="S47" t="s">
         <v>434</v>
@@ -5944,10 +5953,10 @@
         <v>436</v>
       </c>
       <c r="B48" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="C48" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="D48" t="s">
         <v>437</v>
@@ -5956,7 +5965,7 @@
         <v>438</v>
       </c>
       <c r="F48" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="G48" t="s">
         <v>439</v>
@@ -5965,7 +5974,7 @@
         <v>440</v>
       </c>
       <c r="I48" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="J48" t="s">
         <v>437</v>
@@ -5974,7 +5983,7 @@
         <v>438</v>
       </c>
       <c r="L48" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="M48" t="s">
         <v>441</v>
@@ -5992,10 +6001,10 @@
         <v>443</v>
       </c>
       <c r="B49" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="C49" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D49" t="s">
         <v>444</v>
@@ -6004,7 +6013,7 @@
         <v>445</v>
       </c>
       <c r="F49" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="G49" t="s">
         <v>446</v>
@@ -6013,7 +6022,7 @@
         <v>447</v>
       </c>
       <c r="I49" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="J49" t="s">
         <v>448</v>
@@ -6022,7 +6031,7 @@
         <v>445</v>
       </c>
       <c r="L49" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="M49" t="s">
         <v>449</v>
@@ -6033,7 +6042,7 @@
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="S49" t="s">
         <v>451</v>
@@ -6047,10 +6056,10 @@
         <v>453</v>
       </c>
       <c r="B50" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="C50" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="D50" t="s">
         <v>454</v>
@@ -6059,7 +6068,7 @@
         <v>455</v>
       </c>
       <c r="F50" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="G50" t="s">
         <v>456</v>
@@ -6068,7 +6077,7 @@
         <v>457</v>
       </c>
       <c r="I50" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="J50" t="s">
         <v>454</v>
@@ -6077,7 +6086,7 @@
         <v>455</v>
       </c>
       <c r="L50" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="M50" t="s">
         <v>458</v>
@@ -6088,7 +6097,7 @@
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="S50" t="s">
         <v>460</v>
@@ -6102,10 +6111,10 @@
         <v>462</v>
       </c>
       <c r="B51" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="C51" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="D51" t="s">
         <v>463</v>
@@ -6114,7 +6123,7 @@
         <v>464</v>
       </c>
       <c r="F51" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="G51" t="s">
         <v>456</v>
@@ -6123,7 +6132,7 @@
         <v>457</v>
       </c>
       <c r="I51" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="J51" t="s">
         <v>463</v>
@@ -6132,7 +6141,7 @@
         <v>464</v>
       </c>
       <c r="L51" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="M51" t="s">
         <v>465</v>
@@ -6143,7 +6152,7 @@
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="S51" t="s">
         <v>467</v>
@@ -6157,10 +6166,10 @@
         <v>469</v>
       </c>
       <c r="B52" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="C52" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="D52" t="s">
         <v>470</v>
@@ -6169,7 +6178,7 @@
         <v>471</v>
       </c>
       <c r="F52" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="G52" t="s">
         <v>472</v>
@@ -6178,7 +6187,7 @@
         <v>473</v>
       </c>
       <c r="I52" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="J52" t="s">
         <v>470</v>
@@ -6187,7 +6196,7 @@
         <v>471</v>
       </c>
       <c r="L52" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="M52" t="s">
         <v>474</v>
@@ -6198,7 +6207,7 @@
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="S52" t="s">
         <v>460</v>
@@ -6212,10 +6221,10 @@
         <v>476</v>
       </c>
       <c r="B53" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="C53" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="D53" t="s">
         <v>477</v>
@@ -6224,7 +6233,7 @@
         <v>478</v>
       </c>
       <c r="F53" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="G53" t="s">
         <v>472</v>
@@ -6233,7 +6242,7 @@
         <v>473</v>
       </c>
       <c r="I53" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="J53" t="s">
         <v>477</v>
@@ -6242,7 +6251,7 @@
         <v>478</v>
       </c>
       <c r="L53" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="M53" t="s">
         <v>474</v>
@@ -6253,7 +6262,7 @@
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="S53" t="s">
         <v>460</v>
@@ -6267,10 +6276,10 @@
         <v>479</v>
       </c>
       <c r="B54" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C54" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="D54" t="s">
         <v>480</v>
@@ -6279,7 +6288,7 @@
         <v>481</v>
       </c>
       <c r="F54" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="G54" t="s">
         <v>472</v>
@@ -6288,7 +6297,7 @@
         <v>473</v>
       </c>
       <c r="I54" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="J54" t="s">
         <v>480</v>
@@ -6297,7 +6306,7 @@
         <v>481</v>
       </c>
       <c r="L54" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="M54" t="s">
         <v>474</v>
@@ -6308,7 +6317,7 @@
       <c r="P54"/>
       <c r="Q54"/>
       <c r="R54" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="S54" t="s">
         <v>460</v>
@@ -6322,10 +6331,7 @@
         <v>482</v>
       </c>
       <c r="B55" t="s">
-        <v>758</v>
-      </c>
-      <c r="C55" t="s">
-        <v>830</v>
+        <v>21</v>
       </c>
       <c r="D55" t="s">
         <v>483</v>
@@ -6333,17 +6339,11 @@
       <c r="E55" t="s">
         <v>484</v>
       </c>
-      <c r="F55" t="s">
-        <v>913</v>
-      </c>
       <c r="G55" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="H55" t="s">
-        <v>486</v>
-      </c>
-      <c r="I55" t="s">
-        <v>830</v>
+        <v>473</v>
       </c>
       <c r="J55" t="s">
         <v>483</v>
@@ -6351,165 +6351,166 @@
       <c r="K55" t="s">
         <v>484</v>
       </c>
-      <c r="L55" t="s">
-        <v>1015</v>
-      </c>
       <c r="M55" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="N55" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="P55"/>
       <c r="Q55"/>
-      <c r="S55"/>
-      <c r="T55"/>
+      <c r="S55" t="s">
+        <v>460</v>
+      </c>
+      <c r="T55" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>485</v>
+      </c>
+      <c r="B56" t="s">
+        <v>761</v>
+      </c>
+      <c r="C56" t="s">
+        <v>833</v>
+      </c>
+      <c r="D56" t="s">
+        <v>486</v>
+      </c>
+      <c r="E56" t="s">
+        <v>487</v>
+      </c>
+      <c r="F56" t="s">
+        <v>916</v>
+      </c>
+      <c r="G56" t="s">
+        <v>488</v>
+      </c>
+      <c r="H56" t="s">
         <v>489</v>
       </c>
-      <c r="B56" t="s">
-        <v>762</v>
-      </c>
-      <c r="C56" t="s">
-        <v>831</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="I56" t="s">
+        <v>833</v>
+      </c>
+      <c r="J56" t="s">
+        <v>486</v>
+      </c>
+      <c r="K56" t="s">
+        <v>487</v>
+      </c>
+      <c r="L56" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M56" t="s">
         <v>490</v>
       </c>
-      <c r="E56" t="s">
+      <c r="N56" t="s">
         <v>491</v>
-      </c>
-      <c r="F56" t="s">
-        <v>914</v>
-      </c>
-      <c r="G56" t="s">
-        <v>492</v>
-      </c>
-      <c r="H56" t="s">
-        <v>493</v>
-      </c>
-      <c r="I56" t="s">
-        <v>831</v>
-      </c>
-      <c r="J56" t="s">
-        <v>490</v>
-      </c>
-      <c r="K56" t="s">
-        <v>491</v>
-      </c>
-      <c r="L56" t="s">
-        <v>1016</v>
-      </c>
-      <c r="M56" t="s">
-        <v>494</v>
-      </c>
-      <c r="N56" t="s">
-        <v>495</v>
       </c>
       <c r="P56"/>
       <c r="Q56"/>
-      <c r="R56" t="s">
-        <v>1082</v>
-      </c>
-      <c r="S56" t="s">
-        <v>496</v>
-      </c>
-      <c r="T56" t="s">
-        <v>497</v>
-      </c>
+      <c r="S56"/>
+      <c r="T56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>492</v>
+      </c>
+      <c r="B57" t="s">
+        <v>765</v>
+      </c>
+      <c r="C57" t="s">
+        <v>834</v>
+      </c>
+      <c r="D57" t="s">
+        <v>493</v>
+      </c>
+      <c r="E57" t="s">
+        <v>494</v>
+      </c>
+      <c r="F57" t="s">
+        <v>917</v>
+      </c>
+      <c r="G57" t="s">
+        <v>495</v>
+      </c>
+      <c r="H57" t="s">
+        <v>496</v>
+      </c>
+      <c r="I57" t="s">
+        <v>834</v>
+      </c>
+      <c r="J57" t="s">
+        <v>493</v>
+      </c>
+      <c r="K57" t="s">
+        <v>494</v>
+      </c>
+      <c r="L57" t="s">
+        <v>1019</v>
+      </c>
+      <c r="M57" t="s">
+        <v>497</v>
+      </c>
+      <c r="N57" t="s">
         <v>498</v>
-      </c>
-      <c r="B57" t="s">
-        <v>758</v>
-      </c>
-      <c r="C57" t="s">
-        <v>832</v>
-      </c>
-      <c r="D57" t="s">
-        <v>499</v>
-      </c>
-      <c r="E57" t="s">
-        <v>500</v>
-      </c>
-      <c r="F57" t="s">
-        <v>915</v>
-      </c>
-      <c r="G57" t="s">
-        <v>501</v>
-      </c>
-      <c r="H57" t="s">
-        <v>502</v>
-      </c>
-      <c r="I57" t="s">
-        <v>832</v>
-      </c>
-      <c r="J57" t="s">
-        <v>499</v>
-      </c>
-      <c r="K57" t="s">
-        <v>500</v>
-      </c>
-      <c r="L57" t="s">
-        <v>1017</v>
-      </c>
-      <c r="M57" t="s">
-        <v>503</v>
-      </c>
-      <c r="N57" t="s">
-        <v>504</v>
       </c>
       <c r="P57"/>
       <c r="Q57"/>
-      <c r="S57"/>
-      <c r="T57"/>
+      <c r="R57" t="s">
+        <v>1085</v>
+      </c>
+      <c r="S57" t="s">
+        <v>499</v>
+      </c>
+      <c r="T57" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>501</v>
+      </c>
+      <c r="B58" t="s">
+        <v>761</v>
+      </c>
+      <c r="C58" t="s">
+        <v>835</v>
+      </c>
+      <c r="D58" t="s">
+        <v>502</v>
+      </c>
+      <c r="E58" t="s">
+        <v>503</v>
+      </c>
+      <c r="F58" t="s">
+        <v>918</v>
+      </c>
+      <c r="G58" t="s">
+        <v>504</v>
+      </c>
+      <c r="H58" t="s">
         <v>505</v>
       </c>
-      <c r="B58" t="s">
-        <v>758</v>
-      </c>
-      <c r="C58" t="s">
-        <v>833</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="I58" t="s">
+        <v>835</v>
+      </c>
+      <c r="J58" t="s">
+        <v>502</v>
+      </c>
+      <c r="K58" t="s">
+        <v>503</v>
+      </c>
+      <c r="L58" t="s">
+        <v>1020</v>
+      </c>
+      <c r="M58" t="s">
         <v>506</v>
       </c>
-      <c r="E58" t="s">
+      <c r="N58" t="s">
         <v>507</v>
-      </c>
-      <c r="F58" t="s">
-        <v>916</v>
-      </c>
-      <c r="G58" t="s">
-        <v>508</v>
-      </c>
-      <c r="H58" t="s">
-        <v>509</v>
-      </c>
-      <c r="I58" t="s">
-        <v>833</v>
-      </c>
-      <c r="J58" t="s">
-        <v>506</v>
-      </c>
-      <c r="K58" t="s">
-        <v>507</v>
-      </c>
-      <c r="L58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="M58" t="s">
-        <v>510</v>
-      </c>
-      <c r="N58" t="s">
-        <v>511</v>
       </c>
       <c r="P58"/>
       <c r="Q58"/>
@@ -6518,46 +6519,46 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>508</v>
+      </c>
+      <c r="B59" t="s">
+        <v>761</v>
+      </c>
+      <c r="C59" t="s">
+        <v>836</v>
+      </c>
+      <c r="D59" t="s">
+        <v>509</v>
+      </c>
+      <c r="E59" t="s">
+        <v>510</v>
+      </c>
+      <c r="F59" t="s">
+        <v>919</v>
+      </c>
+      <c r="G59" t="s">
+        <v>511</v>
+      </c>
+      <c r="H59" t="s">
         <v>512</v>
       </c>
-      <c r="B59" t="s">
-        <v>769</v>
-      </c>
-      <c r="C59" t="s">
-        <v>834</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="I59" t="s">
+        <v>836</v>
+      </c>
+      <c r="J59" t="s">
+        <v>509</v>
+      </c>
+      <c r="K59" t="s">
+        <v>510</v>
+      </c>
+      <c r="L59" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M59" t="s">
         <v>513</v>
       </c>
-      <c r="E59" t="s">
+      <c r="N59" t="s">
         <v>514</v>
-      </c>
-      <c r="F59" t="s">
-        <v>917</v>
-      </c>
-      <c r="G59" t="s">
-        <v>515</v>
-      </c>
-      <c r="H59" t="s">
-        <v>516</v>
-      </c>
-      <c r="I59" t="s">
-        <v>834</v>
-      </c>
-      <c r="J59" t="s">
-        <v>513</v>
-      </c>
-      <c r="K59" t="s">
-        <v>514</v>
-      </c>
-      <c r="L59" t="s">
-        <v>1019</v>
-      </c>
-      <c r="M59" t="s">
-        <v>517</v>
-      </c>
-      <c r="N59" t="s">
-        <v>518</v>
       </c>
       <c r="P59"/>
       <c r="Q59"/>
@@ -6566,149 +6567,149 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>515</v>
+      </c>
+      <c r="B60" t="s">
+        <v>772</v>
+      </c>
+      <c r="C60" t="s">
+        <v>837</v>
+      </c>
+      <c r="D60" t="s">
+        <v>516</v>
+      </c>
+      <c r="E60" t="s">
+        <v>517</v>
+      </c>
+      <c r="F60" t="s">
+        <v>920</v>
+      </c>
+      <c r="G60" t="s">
+        <v>518</v>
+      </c>
+      <c r="H60" t="s">
         <v>519</v>
       </c>
-      <c r="B60" t="s">
-        <v>767</v>
-      </c>
-      <c r="C60" t="s">
-        <v>835</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="I60" t="s">
+        <v>837</v>
+      </c>
+      <c r="J60" t="s">
+        <v>516</v>
+      </c>
+      <c r="K60" t="s">
+        <v>517</v>
+      </c>
+      <c r="L60" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M60" t="s">
         <v>520</v>
       </c>
-      <c r="E60" t="s">
+      <c r="N60" t="s">
         <v>521</v>
-      </c>
-      <c r="F60" t="s">
-        <v>918</v>
-      </c>
-      <c r="G60" t="s">
-        <v>522</v>
-      </c>
-      <c r="H60" t="s">
-        <v>523</v>
-      </c>
-      <c r="I60" t="s">
-        <v>835</v>
-      </c>
-      <c r="J60" t="s">
-        <v>520</v>
-      </c>
-      <c r="K60" t="s">
-        <v>521</v>
-      </c>
-      <c r="L60" t="s">
-        <v>1020</v>
-      </c>
-      <c r="M60" t="s">
-        <v>524</v>
-      </c>
-      <c r="N60" t="s">
-        <v>525</v>
       </c>
       <c r="P60"/>
       <c r="Q60"/>
-      <c r="R60" t="s">
-        <v>1083</v>
-      </c>
-      <c r="S60" t="s">
-        <v>526</v>
-      </c>
-      <c r="T60" t="s">
-        <v>527</v>
-      </c>
+      <c r="S60"/>
+      <c r="T60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>522</v>
+      </c>
+      <c r="B61" t="s">
+        <v>770</v>
+      </c>
+      <c r="C61" t="s">
+        <v>838</v>
+      </c>
+      <c r="D61" t="s">
+        <v>523</v>
+      </c>
+      <c r="E61" t="s">
+        <v>524</v>
+      </c>
+      <c r="F61" t="s">
+        <v>921</v>
+      </c>
+      <c r="G61" t="s">
+        <v>525</v>
+      </c>
+      <c r="H61" t="s">
+        <v>526</v>
+      </c>
+      <c r="I61" t="s">
+        <v>838</v>
+      </c>
+      <c r="J61" t="s">
+        <v>523</v>
+      </c>
+      <c r="K61" t="s">
+        <v>524</v>
+      </c>
+      <c r="L61" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M61" t="s">
+        <v>527</v>
+      </c>
+      <c r="N61" t="s">
         <v>528</v>
-      </c>
-      <c r="B61" t="s">
-        <v>758</v>
-      </c>
-      <c r="C61" t="s">
-        <v>836</v>
-      </c>
-      <c r="D61" t="s">
-        <v>529</v>
-      </c>
-      <c r="E61" t="s">
-        <v>530</v>
-      </c>
-      <c r="F61" t="s">
-        <v>919</v>
-      </c>
-      <c r="G61" t="s">
-        <v>531</v>
-      </c>
-      <c r="H61" t="s">
-        <v>532</v>
-      </c>
-      <c r="I61" t="s">
-        <v>836</v>
-      </c>
-      <c r="J61" t="s">
-        <v>529</v>
-      </c>
-      <c r="K61" t="s">
-        <v>530</v>
-      </c>
-      <c r="L61" t="s">
-        <v>1021</v>
-      </c>
-      <c r="M61" t="s">
-        <v>533</v>
-      </c>
-      <c r="N61" t="s">
-        <v>534</v>
       </c>
       <c r="P61"/>
       <c r="Q61"/>
-      <c r="S61"/>
-      <c r="T61"/>
+      <c r="R61" t="s">
+        <v>1086</v>
+      </c>
+      <c r="S61" t="s">
+        <v>529</v>
+      </c>
+      <c r="T61" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>531</v>
+      </c>
+      <c r="B62" t="s">
+        <v>761</v>
+      </c>
+      <c r="C62" t="s">
+        <v>839</v>
+      </c>
+      <c r="D62" t="s">
+        <v>532</v>
+      </c>
+      <c r="E62" t="s">
+        <v>533</v>
+      </c>
+      <c r="F62" t="s">
+        <v>922</v>
+      </c>
+      <c r="G62" t="s">
+        <v>534</v>
+      </c>
+      <c r="H62" t="s">
         <v>535</v>
       </c>
-      <c r="B62" t="s">
-        <v>759</v>
-      </c>
-      <c r="C62" t="s">
-        <v>837</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="I62" t="s">
+        <v>839</v>
+      </c>
+      <c r="J62" t="s">
+        <v>532</v>
+      </c>
+      <c r="K62" t="s">
+        <v>533</v>
+      </c>
+      <c r="L62" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M62" t="s">
         <v>536</v>
       </c>
-      <c r="E62" t="s">
+      <c r="N62" t="s">
         <v>537</v>
-      </c>
-      <c r="F62" t="s">
-        <v>920</v>
-      </c>
-      <c r="G62" t="s">
-        <v>538</v>
-      </c>
-      <c r="H62" t="s">
-        <v>539</v>
-      </c>
-      <c r="I62" t="s">
-        <v>837</v>
-      </c>
-      <c r="J62" t="s">
-        <v>536</v>
-      </c>
-      <c r="K62" t="s">
-        <v>537</v>
-      </c>
-      <c r="L62" t="s">
-        <v>1022</v>
-      </c>
-      <c r="M62" t="s">
-        <v>540</v>
-      </c>
-      <c r="N62" t="s">
-        <v>541</v>
       </c>
       <c r="P62"/>
       <c r="Q62"/>
@@ -6717,212 +6718,226 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>538</v>
+      </c>
+      <c r="B63" t="s">
+        <v>762</v>
+      </c>
+      <c r="C63" t="s">
+        <v>840</v>
+      </c>
+      <c r="D63" t="s">
+        <v>539</v>
+      </c>
+      <c r="E63" t="s">
+        <v>540</v>
+      </c>
+      <c r="F63" t="s">
+        <v>923</v>
+      </c>
+      <c r="G63" t="s">
+        <v>541</v>
+      </c>
+      <c r="H63" t="s">
         <v>542</v>
       </c>
-      <c r="B63" t="s">
-        <v>751</v>
-      </c>
-      <c r="C63" t="s">
-        <v>838</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="I63" t="s">
+        <v>840</v>
+      </c>
+      <c r="J63" t="s">
+        <v>539</v>
+      </c>
+      <c r="K63" t="s">
+        <v>540</v>
+      </c>
+      <c r="L63" t="s">
+        <v>1025</v>
+      </c>
+      <c r="M63" t="s">
         <v>543</v>
       </c>
-      <c r="E63" t="s">
+      <c r="N63" t="s">
         <v>544</v>
-      </c>
-      <c r="F63" t="s">
-        <v>921</v>
-      </c>
-      <c r="G63" t="s">
-        <v>545</v>
-      </c>
-      <c r="H63" t="s">
-        <v>546</v>
-      </c>
-      <c r="I63" t="s">
-        <v>954</v>
-      </c>
-      <c r="J63" t="s">
-        <v>547</v>
-      </c>
-      <c r="K63" t="s">
-        <v>548</v>
-      </c>
-      <c r="L63" t="s">
-        <v>1023</v>
-      </c>
-      <c r="M63" t="s">
-        <v>549</v>
-      </c>
-      <c r="N63" t="s">
-        <v>550</v>
       </c>
       <c r="P63"/>
       <c r="Q63"/>
-      <c r="R63" t="s">
-        <v>1084</v>
-      </c>
-      <c r="S63" t="s">
-        <v>551</v>
-      </c>
-      <c r="T63" t="s">
-        <v>552</v>
-      </c>
+      <c r="S63"/>
+      <c r="T63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>545</v>
+      </c>
+      <c r="B64" t="s">
+        <v>754</v>
+      </c>
+      <c r="C64" t="s">
+        <v>841</v>
+      </c>
+      <c r="D64" t="s">
+        <v>546</v>
+      </c>
+      <c r="E64" t="s">
+        <v>547</v>
+      </c>
+      <c r="F64" t="s">
+        <v>924</v>
+      </c>
+      <c r="G64" t="s">
+        <v>548</v>
+      </c>
+      <c r="H64" t="s">
+        <v>549</v>
+      </c>
+      <c r="I64" t="s">
+        <v>957</v>
+      </c>
+      <c r="J64" t="s">
+        <v>550</v>
+      </c>
+      <c r="K64" t="s">
+        <v>551</v>
+      </c>
+      <c r="L64" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M64" t="s">
+        <v>552</v>
+      </c>
+      <c r="N64" t="s">
         <v>553</v>
-      </c>
-      <c r="B64" t="s">
-        <v>751</v>
-      </c>
-      <c r="C64" t="s">
-        <v>839</v>
-      </c>
-      <c r="D64" t="s">
-        <v>554</v>
-      </c>
-      <c r="E64" t="s">
-        <v>555</v>
-      </c>
-      <c r="F64" t="s">
-        <v>922</v>
-      </c>
-      <c r="G64" t="s">
-        <v>556</v>
-      </c>
-      <c r="H64" t="s">
-        <v>557</v>
-      </c>
-      <c r="I64" t="s">
-        <v>955</v>
-      </c>
-      <c r="J64" t="s">
-        <v>558</v>
-      </c>
-      <c r="K64" t="s">
-        <v>559</v>
-      </c>
-      <c r="L64" t="s">
-        <v>1024</v>
-      </c>
-      <c r="M64" t="s">
-        <v>560</v>
-      </c>
-      <c r="N64" t="s">
-        <v>561</v>
       </c>
       <c r="P64"/>
       <c r="Q64"/>
       <c r="R64" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="S64" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="T64" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>556</v>
+      </c>
+      <c r="B65" t="s">
+        <v>754</v>
+      </c>
+      <c r="C65" t="s">
+        <v>842</v>
+      </c>
+      <c r="D65" t="s">
+        <v>557</v>
+      </c>
+      <c r="E65" t="s">
+        <v>558</v>
+      </c>
+      <c r="F65" t="s">
+        <v>925</v>
+      </c>
+      <c r="G65" t="s">
+        <v>559</v>
+      </c>
+      <c r="H65" t="s">
+        <v>560</v>
+      </c>
+      <c r="I65" t="s">
+        <v>958</v>
+      </c>
+      <c r="J65" t="s">
+        <v>561</v>
+      </c>
+      <c r="K65" t="s">
+        <v>562</v>
+      </c>
+      <c r="L65" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M65" t="s">
+        <v>563</v>
+      </c>
+      <c r="N65" t="s">
         <v>564</v>
-      </c>
-      <c r="B65" t="s">
-        <v>751</v>
-      </c>
-      <c r="C65" t="s">
-        <v>840</v>
-      </c>
-      <c r="D65" t="s">
-        <v>565</v>
-      </c>
-      <c r="E65" t="s">
-        <v>566</v>
-      </c>
-      <c r="F65" t="s">
-        <v>923</v>
-      </c>
-      <c r="G65" t="s">
-        <v>567</v>
-      </c>
-      <c r="H65" t="s">
-        <v>568</v>
-      </c>
-      <c r="I65" t="s">
-        <v>840</v>
-      </c>
-      <c r="J65" t="s">
-        <v>565</v>
-      </c>
-      <c r="K65" t="s">
-        <v>566</v>
-      </c>
-      <c r="L65" t="s">
-        <v>1025</v>
-      </c>
-      <c r="M65" t="s">
-        <v>569</v>
-      </c>
-      <c r="N65" t="s">
-        <v>570</v>
       </c>
       <c r="P65"/>
       <c r="Q65"/>
       <c r="R65" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="S65" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="T65" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>567</v>
+      </c>
+      <c r="B66" t="s">
+        <v>754</v>
+      </c>
+      <c r="C66" t="s">
+        <v>843</v>
+      </c>
+      <c r="D66" t="s">
+        <v>568</v>
+      </c>
+      <c r="E66" t="s">
+        <v>569</v>
+      </c>
+      <c r="F66" t="s">
+        <v>926</v>
+      </c>
+      <c r="G66" t="s">
+        <v>570</v>
+      </c>
+      <c r="H66" t="s">
+        <v>571</v>
+      </c>
+      <c r="I66" t="s">
+        <v>843</v>
+      </c>
+      <c r="J66" t="s">
+        <v>568</v>
+      </c>
+      <c r="K66" t="s">
+        <v>569</v>
+      </c>
+      <c r="L66" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M66" t="s">
+        <v>572</v>
+      </c>
+      <c r="N66" t="s">
         <v>573</v>
       </c>
-      <c r="B66" t="s">
-        <v>751</v>
-      </c>
-      <c r="C66" t="s">
-        <v>841</v>
-      </c>
-      <c r="D66" t="s">
-        <v>574</v>
-      </c>
-      <c r="E66" t="s">
-        <v>575</v>
-      </c>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66" t="s">
-        <v>841</v>
-      </c>
-      <c r="J66" t="s">
-        <v>574</v>
-      </c>
-      <c r="K66" t="s">
-        <v>575</v>
-      </c>
-      <c r="M66"/>
-      <c r="N66"/>
       <c r="P66"/>
       <c r="Q66"/>
-      <c r="S66"/>
-      <c r="T66"/>
+      <c r="R66" t="s">
+        <v>1089</v>
+      </c>
+      <c r="S66" t="s">
+        <v>574</v>
+      </c>
+      <c r="T66" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>576</v>
       </c>
       <c r="B67" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C67" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D67" t="s">
         <v>577</v>
@@ -6930,17 +6945,10 @@
       <c r="E67" t="s">
         <v>578</v>
       </c>
-      <c r="F67" t="s">
-        <v>924</v>
-      </c>
-      <c r="G67" t="s">
-        <v>579</v>
-      </c>
-      <c r="H67" t="s">
-        <v>580</v>
-      </c>
+      <c r="G67"/>
+      <c r="H67"/>
       <c r="I67" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="J67" t="s">
         <v>577</v>
@@ -6948,156 +6956,156 @@
       <c r="K67" t="s">
         <v>578</v>
       </c>
-      <c r="L67" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M67" t="s">
-        <v>581</v>
-      </c>
-      <c r="N67" t="s">
-        <v>582</v>
-      </c>
+      <c r="M67"/>
+      <c r="N67"/>
       <c r="P67"/>
       <c r="Q67"/>
-      <c r="R67" t="s">
-        <v>1087</v>
-      </c>
-      <c r="S67" t="s">
-        <v>583</v>
-      </c>
-      <c r="T67" t="s">
-        <v>584</v>
-      </c>
+      <c r="S67"/>
+      <c r="T67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>579</v>
+      </c>
+      <c r="B68" t="s">
+        <v>754</v>
+      </c>
+      <c r="C68" t="s">
+        <v>845</v>
+      </c>
+      <c r="D68" t="s">
+        <v>580</v>
+      </c>
+      <c r="E68" t="s">
+        <v>581</v>
+      </c>
+      <c r="F68" t="s">
+        <v>927</v>
+      </c>
+      <c r="G68" t="s">
+        <v>582</v>
+      </c>
+      <c r="H68" t="s">
+        <v>583</v>
+      </c>
+      <c r="I68" t="s">
+        <v>845</v>
+      </c>
+      <c r="J68" t="s">
+        <v>580</v>
+      </c>
+      <c r="K68" t="s">
+        <v>581</v>
+      </c>
+      <c r="L68" t="s">
+        <v>1029</v>
+      </c>
+      <c r="M68" t="s">
+        <v>584</v>
+      </c>
+      <c r="N68" t="s">
         <v>585</v>
-      </c>
-      <c r="B68" t="s">
-        <v>770</v>
-      </c>
-      <c r="C68" t="s">
-        <v>843</v>
-      </c>
-      <c r="D68" t="s">
-        <v>586</v>
-      </c>
-      <c r="E68" t="s">
-        <v>587</v>
-      </c>
-      <c r="F68" t="s">
-        <v>925</v>
-      </c>
-      <c r="G68" t="s">
-        <v>588</v>
-      </c>
-      <c r="H68" t="s">
-        <v>589</v>
-      </c>
-      <c r="I68" t="s">
-        <v>956</v>
-      </c>
-      <c r="J68" t="s">
-        <v>590</v>
-      </c>
-      <c r="K68" t="s">
-        <v>591</v>
-      </c>
-      <c r="L68" t="s">
-        <v>1027</v>
-      </c>
-      <c r="M68" t="s">
-        <v>592</v>
-      </c>
-      <c r="N68" t="s">
-        <v>593</v>
       </c>
       <c r="P68"/>
       <c r="Q68"/>
       <c r="R68" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="S68" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="T68" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>588</v>
+      </c>
+      <c r="B69" t="s">
+        <v>773</v>
+      </c>
+      <c r="C69" t="s">
+        <v>846</v>
+      </c>
+      <c r="D69" t="s">
+        <v>589</v>
+      </c>
+      <c r="E69" t="s">
+        <v>590</v>
+      </c>
+      <c r="F69" t="s">
+        <v>928</v>
+      </c>
+      <c r="G69" t="s">
+        <v>591</v>
+      </c>
+      <c r="H69" t="s">
+        <v>592</v>
+      </c>
+      <c r="I69" t="s">
+        <v>959</v>
+      </c>
+      <c r="J69" t="s">
+        <v>593</v>
+      </c>
+      <c r="K69" t="s">
+        <v>594</v>
+      </c>
+      <c r="L69" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M69" t="s">
+        <v>595</v>
+      </c>
+      <c r="N69" t="s">
         <v>596</v>
       </c>
-      <c r="B69" t="s">
-        <v>751</v>
-      </c>
-      <c r="C69" t="s">
-        <v>844</v>
-      </c>
-      <c r="D69" t="s">
-        <v>597</v>
-      </c>
-      <c r="E69" t="s">
-        <v>598</v>
-      </c>
-      <c r="F69" t="s">
-        <v>926</v>
-      </c>
-      <c r="G69" t="s">
-        <v>599</v>
-      </c>
-      <c r="H69" t="s">
-        <v>600</v>
-      </c>
-      <c r="I69" t="s">
-        <v>844</v>
-      </c>
-      <c r="J69" t="s">
-        <v>601</v>
-      </c>
-      <c r="K69" t="s">
-        <v>598</v>
-      </c>
-      <c r="M69"/>
-      <c r="N69"/>
       <c r="P69"/>
       <c r="Q69"/>
-      <c r="S69"/>
-      <c r="T69"/>
+      <c r="R69" t="s">
+        <v>1091</v>
+      </c>
+      <c r="S69" t="s">
+        <v>597</v>
+      </c>
+      <c r="T69" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>599</v>
+      </c>
+      <c r="B70" t="s">
+        <v>754</v>
+      </c>
+      <c r="C70" t="s">
+        <v>847</v>
+      </c>
+      <c r="D70" t="s">
+        <v>600</v>
+      </c>
+      <c r="E70" t="s">
+        <v>601</v>
+      </c>
+      <c r="F70" t="s">
+        <v>929</v>
+      </c>
+      <c r="G70" t="s">
         <v>602</v>
       </c>
-      <c r="B70" t="s">
-        <v>771</v>
-      </c>
-      <c r="C70" t="s">
-        <v>845</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="H70" t="s">
         <v>603</v>
       </c>
-      <c r="E70" t="s">
+      <c r="I70" t="s">
+        <v>847</v>
+      </c>
+      <c r="J70" t="s">
         <v>604</v>
       </c>
-      <c r="F70" t="s">
-        <v>927</v>
-      </c>
-      <c r="G70" t="s">
-        <v>605</v>
-      </c>
-      <c r="H70" t="s">
-        <v>606</v>
-      </c>
-      <c r="I70" t="s">
-        <v>845</v>
-      </c>
-      <c r="J70" t="s">
-        <v>603</v>
-      </c>
       <c r="K70" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="M70"/>
       <c r="N70"/>
@@ -7108,284 +7116,284 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>605</v>
+      </c>
+      <c r="B71" t="s">
+        <v>774</v>
+      </c>
+      <c r="C71" t="s">
+        <v>848</v>
+      </c>
+      <c r="D71" t="s">
+        <v>606</v>
+      </c>
+      <c r="E71" t="s">
         <v>607</v>
       </c>
-      <c r="B71" t="s">
-        <v>751</v>
-      </c>
-      <c r="C71" t="s">
-        <v>846</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="F71" t="s">
+        <v>930</v>
+      </c>
+      <c r="G71" t="s">
         <v>608</v>
       </c>
-      <c r="E71" t="s">
+      <c r="H71" t="s">
         <v>609</v>
       </c>
-      <c r="F71" t="s">
-        <v>928</v>
-      </c>
-      <c r="G71" t="s">
-        <v>610</v>
-      </c>
-      <c r="H71" t="s">
-        <v>611</v>
-      </c>
       <c r="I71" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="J71" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="K71" t="s">
-        <v>609</v>
-      </c>
-      <c r="L71" t="s">
-        <v>1028</v>
-      </c>
-      <c r="M71" t="s">
-        <v>612</v>
-      </c>
-      <c r="N71" t="s">
-        <v>613</v>
-      </c>
+        <v>607</v>
+      </c>
+      <c r="M71"/>
+      <c r="N71"/>
       <c r="P71"/>
       <c r="Q71"/>
-      <c r="R71" t="s">
-        <v>1089</v>
-      </c>
-      <c r="S71" t="s">
-        <v>614</v>
-      </c>
-      <c r="T71" t="s">
-        <v>615</v>
-      </c>
+      <c r="S71"/>
+      <c r="T71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>610</v>
+      </c>
+      <c r="B72" t="s">
+        <v>754</v>
+      </c>
+      <c r="C72" t="s">
+        <v>849</v>
+      </c>
+      <c r="D72" t="s">
+        <v>611</v>
+      </c>
+      <c r="E72" t="s">
+        <v>612</v>
+      </c>
+      <c r="F72" t="s">
+        <v>931</v>
+      </c>
+      <c r="G72" t="s">
+        <v>613</v>
+      </c>
+      <c r="H72" t="s">
+        <v>614</v>
+      </c>
+      <c r="I72" t="s">
+        <v>849</v>
+      </c>
+      <c r="J72" t="s">
+        <v>611</v>
+      </c>
+      <c r="K72" t="s">
+        <v>612</v>
+      </c>
+      <c r="L72" t="s">
+        <v>1031</v>
+      </c>
+      <c r="M72" t="s">
+        <v>615</v>
+      </c>
+      <c r="N72" t="s">
         <v>616</v>
-      </c>
-      <c r="B72" t="s">
-        <v>772</v>
-      </c>
-      <c r="C72" t="s">
-        <v>847</v>
-      </c>
-      <c r="D72" t="s">
-        <v>617</v>
-      </c>
-      <c r="E72" t="s">
-        <v>618</v>
-      </c>
-      <c r="F72" t="s">
-        <v>929</v>
-      </c>
-      <c r="G72" t="s">
-        <v>619</v>
-      </c>
-      <c r="H72" t="s">
-        <v>620</v>
-      </c>
-      <c r="I72" t="s">
-        <v>957</v>
-      </c>
-      <c r="J72" t="s">
-        <v>621</v>
-      </c>
-      <c r="K72" t="s">
-        <v>622</v>
-      </c>
-      <c r="L72" t="s">
-        <v>1029</v>
-      </c>
-      <c r="M72" t="s">
-        <v>623</v>
-      </c>
-      <c r="N72" t="s">
-        <v>624</v>
       </c>
       <c r="P72"/>
       <c r="Q72"/>
       <c r="R72" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="S72" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="T72" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>619</v>
+      </c>
+      <c r="B73" t="s">
+        <v>775</v>
+      </c>
+      <c r="C73" t="s">
+        <v>850</v>
+      </c>
+      <c r="D73" t="s">
+        <v>620</v>
+      </c>
+      <c r="E73" t="s">
+        <v>621</v>
+      </c>
+      <c r="F73" t="s">
+        <v>932</v>
+      </c>
+      <c r="G73" t="s">
+        <v>622</v>
+      </c>
+      <c r="H73" t="s">
+        <v>623</v>
+      </c>
+      <c r="I73" t="s">
+        <v>960</v>
+      </c>
+      <c r="J73" t="s">
+        <v>624</v>
+      </c>
+      <c r="K73" t="s">
+        <v>625</v>
+      </c>
+      <c r="L73" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M73" t="s">
+        <v>626</v>
+      </c>
+      <c r="N73" t="s">
         <v>627</v>
       </c>
-      <c r="B73" t="s">
-        <v>768</v>
-      </c>
-      <c r="C73" t="s">
-        <v>848</v>
-      </c>
-      <c r="D73" t="s">
-        <v>628</v>
-      </c>
-      <c r="E73" t="s">
-        <v>629</v>
-      </c>
-      <c r="F73" t="s">
-        <v>930</v>
-      </c>
-      <c r="G73" t="s">
-        <v>630</v>
-      </c>
-      <c r="H73" t="s">
-        <v>631</v>
-      </c>
-      <c r="I73" t="s">
-        <v>848</v>
-      </c>
-      <c r="J73" t="s">
-        <v>628</v>
-      </c>
-      <c r="K73" t="s">
-        <v>629</v>
-      </c>
-      <c r="M73"/>
-      <c r="N73"/>
       <c r="P73"/>
       <c r="Q73"/>
-      <c r="S73"/>
-      <c r="T73"/>
+      <c r="R73" t="s">
+        <v>1093</v>
+      </c>
+      <c r="S73" t="s">
+        <v>628</v>
+      </c>
+      <c r="T73" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>630</v>
+      </c>
+      <c r="B74" t="s">
+        <v>771</v>
+      </c>
+      <c r="C74" t="s">
+        <v>851</v>
+      </c>
+      <c r="D74" t="s">
+        <v>631</v>
+      </c>
+      <c r="E74" t="s">
         <v>632</v>
       </c>
-      <c r="B74" t="s">
-        <v>751</v>
-      </c>
-      <c r="C74" t="s">
-        <v>849</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="F74" t="s">
+        <v>933</v>
+      </c>
+      <c r="G74" t="s">
         <v>633</v>
       </c>
-      <c r="E74" t="s">
+      <c r="H74" t="s">
         <v>634</v>
       </c>
-      <c r="F74" t="s">
-        <v>931</v>
-      </c>
-      <c r="G74" t="s">
-        <v>635</v>
-      </c>
-      <c r="H74" t="s">
-        <v>636</v>
-      </c>
       <c r="I74" t="s">
-        <v>958</v>
+        <v>851</v>
       </c>
       <c r="J74" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="K74" t="s">
-        <v>638</v>
-      </c>
-      <c r="L74" t="s">
-        <v>1030</v>
-      </c>
-      <c r="M74" t="s">
-        <v>639</v>
-      </c>
-      <c r="N74" t="s">
-        <v>640</v>
-      </c>
-      <c r="O74" t="s">
-        <v>1039</v>
-      </c>
-      <c r="P74" t="s">
-        <v>641</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>642</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
       <c r="S74"/>
       <c r="T74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>635</v>
+      </c>
+      <c r="B75" t="s">
+        <v>754</v>
+      </c>
+      <c r="C75" t="s">
+        <v>852</v>
+      </c>
+      <c r="D75" t="s">
+        <v>636</v>
+      </c>
+      <c r="E75" t="s">
+        <v>637</v>
+      </c>
+      <c r="F75" t="s">
+        <v>934</v>
+      </c>
+      <c r="G75" t="s">
+        <v>638</v>
+      </c>
+      <c r="H75" t="s">
+        <v>639</v>
+      </c>
+      <c r="I75" t="s">
+        <v>961</v>
+      </c>
+      <c r="J75" t="s">
+        <v>640</v>
+      </c>
+      <c r="K75" t="s">
+        <v>641</v>
+      </c>
+      <c r="L75" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M75" t="s">
+        <v>642</v>
+      </c>
+      <c r="N75" t="s">
         <v>643</v>
       </c>
-      <c r="B75" t="s">
-        <v>751</v>
-      </c>
-      <c r="C75" t="s">
-        <v>850</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="O75" t="s">
+        <v>1042</v>
+      </c>
+      <c r="P75" t="s">
         <v>644</v>
       </c>
-      <c r="E75" t="s">
+      <c r="Q75" t="s">
         <v>645</v>
       </c>
-      <c r="F75" t="s">
-        <v>932</v>
-      </c>
-      <c r="G75" t="s">
-        <v>646</v>
-      </c>
-      <c r="H75" t="s">
-        <v>647</v>
-      </c>
-      <c r="I75" t="s">
-        <v>959</v>
-      </c>
-      <c r="J75" t="s">
-        <v>648</v>
-      </c>
-      <c r="K75" t="s">
-        <v>649</v>
-      </c>
-      <c r="M75"/>
-      <c r="N75"/>
-      <c r="P75"/>
-      <c r="Q75"/>
       <c r="S75"/>
       <c r="T75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>754</v>
+      </c>
+      <c r="C76" t="s">
+        <v>853</v>
+      </c>
+      <c r="D76" t="s">
+        <v>647</v>
+      </c>
+      <c r="E76" t="s">
+        <v>648</v>
+      </c>
+      <c r="F76" t="s">
+        <v>935</v>
+      </c>
+      <c r="G76" t="s">
+        <v>649</v>
+      </c>
+      <c r="H76" t="s">
         <v>650</v>
       </c>
-      <c r="B76" t="s">
-        <v>751</v>
-      </c>
-      <c r="C76" t="s">
-        <v>851</v>
-      </c>
-      <c r="D76" t="s">
-        <v>175</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="I76" t="s">
+        <v>962</v>
+      </c>
+      <c r="J76" t="s">
         <v>651</v>
       </c>
-      <c r="F76" t="s">
-        <v>933</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="K76" t="s">
         <v>652</v>
-      </c>
-      <c r="H76" t="s">
-        <v>653</v>
-      </c>
-      <c r="I76" t="s">
-        <v>654</v>
-      </c>
-      <c r="J76" t="s">
-        <v>654</v>
-      </c>
-      <c r="K76" t="s">
-        <v>654</v>
       </c>
       <c r="M76"/>
       <c r="N76"/>
@@ -7396,37 +7404,37 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>653</v>
+      </c>
+      <c r="B77" t="s">
+        <v>754</v>
+      </c>
+      <c r="C77" t="s">
+        <v>854</v>
+      </c>
+      <c r="D77" t="s">
+        <v>175</v>
+      </c>
+      <c r="E77" t="s">
+        <v>654</v>
+      </c>
+      <c r="F77" t="s">
+        <v>936</v>
+      </c>
+      <c r="G77" t="s">
         <v>655</v>
       </c>
-      <c r="B77" t="s">
-        <v>755</v>
-      </c>
-      <c r="C77" t="s">
-        <v>852</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="H77" t="s">
         <v>656</v>
       </c>
-      <c r="E77" t="s">
+      <c r="I77" t="s">
         <v>657</v>
       </c>
-      <c r="F77" t="s">
-        <v>934</v>
-      </c>
-      <c r="G77" t="s">
-        <v>658</v>
-      </c>
-      <c r="H77" t="s">
-        <v>659</v>
-      </c>
-      <c r="I77" t="s">
-        <v>960</v>
-      </c>
       <c r="J77" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K77" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="M77"/>
       <c r="N77"/>
@@ -7437,119 +7445,126 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>658</v>
+      </c>
+      <c r="B78" t="s">
+        <v>758</v>
+      </c>
+      <c r="C78" t="s">
+        <v>855</v>
+      </c>
+      <c r="D78" t="s">
+        <v>659</v>
+      </c>
+      <c r="E78" t="s">
+        <v>660</v>
+      </c>
+      <c r="F78" t="s">
+        <v>937</v>
+      </c>
+      <c r="G78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H78" t="s">
         <v>662</v>
       </c>
-      <c r="B78" t="s">
-        <v>751</v>
-      </c>
-      <c r="C78" t="s">
-        <v>788</v>
-      </c>
-      <c r="D78" t="s">
-        <v>118</v>
-      </c>
-      <c r="E78" t="s">
-        <v>119</v>
-      </c>
-      <c r="F78" t="s">
-        <v>935</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="I78" t="s">
+        <v>963</v>
+      </c>
+      <c r="J78" t="s">
         <v>663</v>
       </c>
-      <c r="H78" t="s">
+      <c r="K78" t="s">
         <v>664</v>
       </c>
-      <c r="I78" t="s">
-        <v>961</v>
-      </c>
-      <c r="J78" t="s">
-        <v>665</v>
-      </c>
-      <c r="K78" t="s">
-        <v>666</v>
-      </c>
-      <c r="L78" t="s">
-        <v>1031</v>
-      </c>
-      <c r="M78" t="s">
-        <v>667</v>
-      </c>
-      <c r="N78" t="s">
-        <v>668</v>
-      </c>
-      <c r="O78" t="s">
-        <v>1040</v>
-      </c>
-      <c r="P78" t="s">
-        <v>669</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>670</v>
-      </c>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
       <c r="S78"/>
       <c r="T78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>665</v>
+      </c>
+      <c r="B79" t="s">
+        <v>754</v>
+      </c>
+      <c r="C79" t="s">
+        <v>791</v>
+      </c>
+      <c r="D79" t="s">
+        <v>118</v>
+      </c>
+      <c r="E79" t="s">
+        <v>119</v>
+      </c>
+      <c r="F79" t="s">
+        <v>938</v>
+      </c>
+      <c r="G79" t="s">
+        <v>666</v>
+      </c>
+      <c r="H79" t="s">
+        <v>667</v>
+      </c>
+      <c r="I79" t="s">
+        <v>964</v>
+      </c>
+      <c r="J79" t="s">
+        <v>668</v>
+      </c>
+      <c r="K79" t="s">
+        <v>669</v>
+      </c>
+      <c r="L79" t="s">
+        <v>1034</v>
+      </c>
+      <c r="M79" t="s">
+        <v>670</v>
+      </c>
+      <c r="N79" t="s">
         <v>671</v>
       </c>
-      <c r="B79" t="s">
-        <v>751</v>
-      </c>
-      <c r="C79" t="s">
-        <v>853</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="O79" t="s">
+        <v>1043</v>
+      </c>
+      <c r="P79" t="s">
         <v>672</v>
       </c>
-      <c r="E79" t="s">
+      <c r="Q79" t="s">
         <v>673</v>
       </c>
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79" t="s">
-        <v>962</v>
-      </c>
-      <c r="J79" t="s">
-        <v>674</v>
-      </c>
-      <c r="K79" t="s">
-        <v>675</v>
-      </c>
-      <c r="M79"/>
-      <c r="N79"/>
-      <c r="P79"/>
-      <c r="Q79"/>
       <c r="S79"/>
       <c r="T79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>674</v>
+      </c>
+      <c r="B80" t="s">
+        <v>754</v>
+      </c>
+      <c r="C80" t="s">
+        <v>856</v>
+      </c>
+      <c r="D80" t="s">
+        <v>675</v>
+      </c>
+      <c r="E80" t="s">
         <v>676</v>
-      </c>
-      <c r="B80" t="s">
-        <v>751</v>
-      </c>
-      <c r="C80" t="s">
-        <v>854</v>
-      </c>
-      <c r="D80" t="s">
-        <v>677</v>
-      </c>
-      <c r="E80" t="s">
-        <v>678</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="J80" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="K80" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="M80"/>
       <c r="N80"/>
@@ -7560,37 +7575,30 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>679</v>
+      </c>
+      <c r="B81" t="s">
+        <v>754</v>
+      </c>
+      <c r="C81" t="s">
+        <v>857</v>
+      </c>
+      <c r="D81" t="s">
+        <v>680</v>
+      </c>
+      <c r="E81" t="s">
         <v>681</v>
       </c>
-      <c r="B81" t="s">
-        <v>751</v>
-      </c>
-      <c r="C81" t="s">
-        <v>855</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81" t="s">
+        <v>966</v>
+      </c>
+      <c r="J81" t="s">
         <v>682</v>
       </c>
-      <c r="E81" t="s">
+      <c r="K81" t="s">
         <v>683</v>
-      </c>
-      <c r="F81" t="s">
-        <v>936</v>
-      </c>
-      <c r="G81" t="s">
-        <v>684</v>
-      </c>
-      <c r="H81" t="s">
-        <v>685</v>
-      </c>
-      <c r="I81" t="s">
-        <v>964</v>
-      </c>
-      <c r="J81" t="s">
-        <v>686</v>
-      </c>
-      <c r="K81" t="s">
-        <v>687</v>
       </c>
       <c r="M81"/>
       <c r="N81"/>
@@ -7601,24 +7609,38 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>684</v>
+      </c>
+      <c r="B82" t="s">
+        <v>754</v>
+      </c>
+      <c r="C82" t="s">
+        <v>858</v>
+      </c>
+      <c r="D82" t="s">
+        <v>685</v>
+      </c>
+      <c r="E82" t="s">
+        <v>686</v>
+      </c>
+      <c r="F82" t="s">
+        <v>939</v>
+      </c>
+      <c r="G82" t="s">
+        <v>687</v>
+      </c>
+      <c r="H82" t="s">
         <v>688</v>
       </c>
-      <c r="B82" t="s">
-        <v>751</v>
-      </c>
-      <c r="C82" t="s">
-        <v>856</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="I82" t="s">
+        <v>967</v>
+      </c>
+      <c r="J82" t="s">
         <v>689</v>
       </c>
-      <c r="E82" t="s">
+      <c r="K82" t="s">
         <v>690</v>
       </c>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="J82"/>
-      <c r="K82"/>
       <c r="M82"/>
       <c r="N82"/>
       <c r="P82"/>
@@ -7631,10 +7653,10 @@
         <v>691</v>
       </c>
       <c r="B83" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C83" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D83" t="s">
         <v>692</v>
@@ -7644,15 +7666,8 @@
       </c>
       <c r="G83"/>
       <c r="H83"/>
-      <c r="I83" t="s">
-        <v>965</v>
-      </c>
-      <c r="J83" t="s">
-        <v>694</v>
-      </c>
-      <c r="K83" t="s">
-        <v>695</v>
-      </c>
+      <c r="J83"/>
+      <c r="K83"/>
       <c r="M83"/>
       <c r="N83"/>
       <c r="P83"/>
@@ -7662,24 +7677,24 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>694</v>
+      </c>
+      <c r="B84" t="s">
+        <v>754</v>
+      </c>
+      <c r="C84" t="s">
+        <v>860</v>
+      </c>
+      <c r="D84" t="s">
+        <v>695</v>
+      </c>
+      <c r="E84" t="s">
         <v>696</v>
-      </c>
-      <c r="B84" t="s">
-        <v>755</v>
-      </c>
-      <c r="C84" t="s">
-        <v>853</v>
-      </c>
-      <c r="D84" t="s">
-        <v>672</v>
-      </c>
-      <c r="E84" t="s">
-        <v>673</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
       <c r="I84" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="J84" t="s">
         <v>697</v>
@@ -7699,28 +7714,21 @@
         <v>699</v>
       </c>
       <c r="B85" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="C85" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D85" t="s">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="E85" t="s">
-        <v>701</v>
-      </c>
-      <c r="F85" t="s">
-        <v>937</v>
-      </c>
-      <c r="G85" t="s">
-        <v>702</v>
-      </c>
-      <c r="H85" t="s">
-        <v>703</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="G85"/>
+      <c r="H85"/>
       <c r="I85" t="s">
-        <v>858</v>
+        <v>969</v>
       </c>
       <c r="J85" t="s">
         <v>700</v>
@@ -7728,306 +7736,347 @@
       <c r="K85" t="s">
         <v>701</v>
       </c>
-      <c r="L85" t="s">
-        <v>1032</v>
-      </c>
-      <c r="M85" t="s">
-        <v>704</v>
-      </c>
-      <c r="N85" t="s">
-        <v>705</v>
-      </c>
+      <c r="M85"/>
+      <c r="N85"/>
       <c r="P85"/>
       <c r="Q85"/>
-      <c r="R85" t="s">
-        <v>1083</v>
-      </c>
-      <c r="S85" t="s">
-        <v>526</v>
-      </c>
-      <c r="T85" t="s">
-        <v>527</v>
-      </c>
+      <c r="S85"/>
+      <c r="T85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>702</v>
+      </c>
+      <c r="B86" t="s">
+        <v>776</v>
+      </c>
+      <c r="C86" t="s">
+        <v>861</v>
+      </c>
+      <c r="D86" t="s">
+        <v>703</v>
+      </c>
+      <c r="E86" t="s">
+        <v>704</v>
+      </c>
+      <c r="F86" t="s">
+        <v>940</v>
+      </c>
+      <c r="G86" t="s">
+        <v>705</v>
+      </c>
+      <c r="H86" t="s">
         <v>706</v>
       </c>
-      <c r="B86" t="s">
-        <v>774</v>
-      </c>
-      <c r="C86" t="s">
-        <v>859</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="I86" t="s">
+        <v>861</v>
+      </c>
+      <c r="J86" t="s">
+        <v>703</v>
+      </c>
+      <c r="K86" t="s">
+        <v>704</v>
+      </c>
+      <c r="L86" t="s">
+        <v>1035</v>
+      </c>
+      <c r="M86" t="s">
         <v>707</v>
       </c>
-      <c r="E86" t="s">
+      <c r="N86" t="s">
         <v>708</v>
       </c>
-      <c r="F86" t="s">
-        <v>938</v>
-      </c>
-      <c r="G86" t="s">
-        <v>709</v>
-      </c>
-      <c r="H86" t="s">
-        <v>710</v>
-      </c>
-      <c r="I86" t="s">
-        <v>859</v>
-      </c>
-      <c r="J86" t="s">
-        <v>707</v>
-      </c>
-      <c r="K86" t="s">
-        <v>708</v>
-      </c>
-      <c r="M86"/>
-      <c r="N86"/>
       <c r="P86"/>
       <c r="Q86"/>
-      <c r="S86"/>
-      <c r="T86"/>
+      <c r="R86" t="s">
+        <v>1086</v>
+      </c>
+      <c r="S86" t="s">
+        <v>529</v>
+      </c>
+      <c r="T86" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>709</v>
+      </c>
+      <c r="B87" t="s">
+        <v>777</v>
+      </c>
+      <c r="C87" t="s">
+        <v>862</v>
+      </c>
+      <c r="D87" t="s">
+        <v>710</v>
+      </c>
+      <c r="E87" t="s">
         <v>711</v>
       </c>
-      <c r="B87" t="s">
-        <v>775</v>
-      </c>
-      <c r="C87" t="s">
-        <v>860</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="F87" t="s">
+        <v>941</v>
+      </c>
+      <c r="G87" t="s">
         <v>712</v>
       </c>
-      <c r="E87" t="s">
+      <c r="H87" t="s">
         <v>713</v>
       </c>
-      <c r="F87" t="s">
-        <v>939</v>
-      </c>
-      <c r="G87" t="s">
-        <v>714</v>
-      </c>
-      <c r="H87" t="s">
-        <v>715</v>
-      </c>
-      <c r="J87"/>
-      <c r="K87"/>
-      <c r="L87" t="s">
-        <v>1033</v>
-      </c>
-      <c r="M87" t="s">
-        <v>716</v>
-      </c>
-      <c r="N87" t="s">
-        <v>717</v>
-      </c>
+      <c r="I87" t="s">
+        <v>862</v>
+      </c>
+      <c r="J87" t="s">
+        <v>710</v>
+      </c>
+      <c r="K87" t="s">
+        <v>711</v>
+      </c>
+      <c r="M87"/>
+      <c r="N87"/>
       <c r="P87"/>
       <c r="Q87"/>
-      <c r="R87" t="s">
-        <v>1091</v>
-      </c>
-      <c r="S87" t="s">
-        <v>718</v>
-      </c>
-      <c r="T87" t="s">
-        <v>719</v>
-      </c>
+      <c r="S87"/>
+      <c r="T87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="B88" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C88" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D88" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="E88" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="F88" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="G88" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="H88" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="J88"/>
       <c r="K88"/>
       <c r="L88" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="M88" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="N88" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="P88"/>
       <c r="Q88"/>
       <c r="R88" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="S88" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="T88" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>723</v>
+      </c>
+      <c r="B89" t="s">
+        <v>778</v>
+      </c>
+      <c r="C89" t="s">
+        <v>864</v>
+      </c>
+      <c r="D89" t="s">
+        <v>724</v>
+      </c>
+      <c r="E89" t="s">
+        <v>725</v>
+      </c>
+      <c r="F89" t="s">
+        <v>943</v>
+      </c>
+      <c r="G89" t="s">
+        <v>726</v>
+      </c>
+      <c r="H89" t="s">
         <v>727</v>
-      </c>
-      <c r="B89" t="s">
-        <v>775</v>
-      </c>
-      <c r="C89" t="s">
-        <v>862</v>
-      </c>
-      <c r="D89" t="s">
-        <v>728</v>
-      </c>
-      <c r="E89" t="s">
-        <v>729</v>
-      </c>
-      <c r="F89" t="s">
-        <v>941</v>
-      </c>
-      <c r="G89" t="s">
-        <v>730</v>
-      </c>
-      <c r="H89" t="s">
-        <v>731</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
       <c r="L89" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="M89" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="N89" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="P89"/>
       <c r="Q89"/>
       <c r="R89" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="S89" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="T89" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>730</v>
+      </c>
+      <c r="B90" t="s">
+        <v>778</v>
+      </c>
+      <c r="C90" t="s">
+        <v>865</v>
+      </c>
+      <c r="D90" t="s">
+        <v>731</v>
+      </c>
+      <c r="E90" t="s">
         <v>732</v>
       </c>
-      <c r="B90" t="s">
-        <v>776</v>
-      </c>
-      <c r="C90" t="s">
-        <v>863</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="F90" t="s">
+        <v>944</v>
+      </c>
+      <c r="G90" t="s">
         <v>733</v>
       </c>
-      <c r="E90" t="s">
+      <c r="H90" t="s">
         <v>734</v>
-      </c>
-      <c r="F90" t="s">
-        <v>942</v>
-      </c>
-      <c r="G90" t="s">
-        <v>735</v>
-      </c>
-      <c r="H90" t="s">
-        <v>736</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
       <c r="L90" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="M90" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="N90" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="P90"/>
       <c r="Q90"/>
       <c r="R90" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="S90" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="T90" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>735</v>
+      </c>
+      <c r="B91" t="s">
+        <v>779</v>
+      </c>
+      <c r="C91" t="s">
+        <v>866</v>
+      </c>
+      <c r="D91" t="s">
+        <v>736</v>
+      </c>
+      <c r="E91" t="s">
+        <v>737</v>
+      </c>
+      <c r="F91" t="s">
+        <v>945</v>
+      </c>
+      <c r="G91" t="s">
+        <v>738</v>
+      </c>
+      <c r="H91" t="s">
         <v>739</v>
-      </c>
-      <c r="B91" t="s">
-        <v>777</v>
-      </c>
-      <c r="C91" t="s">
-        <v>864</v>
-      </c>
-      <c r="D91" t="s">
-        <v>740</v>
-      </c>
-      <c r="E91" t="s">
-        <v>741</v>
-      </c>
-      <c r="F91" t="s">
-        <v>943</v>
-      </c>
-      <c r="G91" t="s">
-        <v>742</v>
-      </c>
-      <c r="H91" t="s">
-        <v>743</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="M91" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="N91" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="P91"/>
       <c r="Q91"/>
       <c r="R91" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="S91" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="T91" t="s">
-        <v>719</v>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>742</v>
+      </c>
+      <c r="B92" t="s">
+        <v>780</v>
+      </c>
+      <c r="C92" t="s">
+        <v>867</v>
+      </c>
+      <c r="D92" t="s">
+        <v>743</v>
+      </c>
+      <c r="E92" t="s">
+        <v>744</v>
+      </c>
+      <c r="F92" t="s">
+        <v>946</v>
+      </c>
+      <c r="G92" t="s">
+        <v>745</v>
+      </c>
+      <c r="H92" t="s">
+        <v>746</v>
+      </c>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M92" t="s">
+        <v>747</v>
+      </c>
+      <c r="N92" t="s">
+        <v>748</v>
+      </c>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92" t="s">
+        <v>1094</v>
+      </c>
+      <c r="S92" t="s">
+        <v>721</v>
+      </c>
+      <c r="T92" t="s">
+        <v>722</v>
       </c>
     </row>
   </sheetData>
